--- a/dokumentumok/Ütemterv.xlsx
+++ b/dokumentumok/Ütemterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3DB2F15-37B5-4B95-A1F4-D17F49252DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D259B3-DC73-4833-9952-2208302CDA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>TEVÉKENYSÉG</t>
-  </si>
-  <si>
-    <t>Tevékenység 03</t>
   </si>
   <si>
     <t>Tevékenység 04</t>
@@ -240,13 +237,16 @@
   <si>
     <t>Ütemterv</t>
   </si>
+  <si>
+    <t>Mobilalkalmazás tervezése</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m\.\ d\.;@"/>
+    <numFmt numFmtId="164" formatCode="m\.\ d\.;@"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -400,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -485,6 +485,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -543,7 +552,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,6 +619,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="3" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -652,26 +682,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="3" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="7" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -695,7 +716,35 @@
     <cellStyle name="Terv jelmagyarázata" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Tevékenység" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="155">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -710,19 +759,75 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="9" tint="0.59996337778862885"/>
         </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -836,6 +941,1976 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -1082,10 +3157,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BP30"/>
+  <dimension ref="B1:HU31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G4"/>
+      <selection activeCell="BA14" sqref="BA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1099,14 +3174,15 @@
     <col min="7" max="7" width="17" style="3" customWidth="1"/>
     <col min="8" max="8" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.625" style="23" customWidth="1"/>
     <col min="11" max="16" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="27" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="46" width="4.875" bestFit="1" customWidth="1"/>
     <col min="47" max="68" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="69" max="236" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:229" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +3192,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:229" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
@@ -1125,78 +3201,78 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="14">
         <v>1</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="29" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="29" t="s">
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="38"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="31"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="35"/>
+      <c r="X2" s="42"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
     </row>
-    <row r="3" spans="2:68" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+    <row r="3" spans="2:229" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>33</v>
-      </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -1215,208 +3291,691 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="42">
+    <row r="4" spans="2:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="28">
         <v>45901</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="26">
         <v>45902</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="26">
         <v>45903</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="26">
         <v>45904</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="26">
         <v>45905</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="26">
         <v>45906</v>
       </c>
-      <c r="N4" s="40">
+      <c r="N4" s="26">
         <v>45907</v>
       </c>
-      <c r="O4" s="40">
+      <c r="O4" s="26">
         <v>45908</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="26">
         <v>45909</v>
       </c>
-      <c r="Q4" s="40">
+      <c r="Q4" s="26">
         <v>45910</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="26">
         <v>45911</v>
       </c>
-      <c r="S4" s="40">
+      <c r="S4" s="26">
         <v>45912</v>
       </c>
-      <c r="T4" s="40">
+      <c r="T4" s="26">
         <v>45913</v>
       </c>
-      <c r="U4" s="40">
+      <c r="U4" s="26">
         <v>45914</v>
       </c>
-      <c r="V4" s="40">
+      <c r="V4" s="26">
         <v>45915</v>
       </c>
-      <c r="W4" s="40">
+      <c r="W4" s="26">
         <v>45916</v>
       </c>
-      <c r="X4" s="40">
+      <c r="X4" s="26">
         <v>45917</v>
       </c>
-      <c r="Y4" s="40">
+      <c r="Y4" s="26">
         <v>45918</v>
       </c>
-      <c r="Z4" s="40">
+      <c r="Z4" s="26">
         <v>45919</v>
       </c>
-      <c r="AA4" s="40">
+      <c r="AA4" s="26">
         <v>45920</v>
       </c>
-      <c r="AB4" s="40">
+      <c r="AB4" s="26">
         <v>45921</v>
       </c>
-      <c r="AC4" s="40">
+      <c r="AC4" s="26">
         <v>45922</v>
       </c>
-      <c r="AD4" s="40">
+      <c r="AD4" s="26">
         <v>45923</v>
       </c>
-      <c r="AE4" s="40">
+      <c r="AE4" s="26">
         <v>45924</v>
       </c>
-      <c r="AF4" s="40">
+      <c r="AF4" s="26">
         <v>45925</v>
       </c>
-      <c r="AG4" s="40">
+      <c r="AG4" s="26">
         <v>45926</v>
       </c>
-      <c r="AH4" s="40">
+      <c r="AH4" s="26">
         <v>45927</v>
       </c>
-      <c r="AI4" s="40">
+      <c r="AI4" s="26">
         <v>45928</v>
       </c>
-      <c r="AJ4" s="40">
+      <c r="AJ4" s="26">
         <v>45929</v>
       </c>
-      <c r="AK4" s="40">
+      <c r="AK4" s="26">
         <v>45930</v>
       </c>
-      <c r="AL4" s="40">
+      <c r="AL4" s="26">
         <v>45931</v>
       </c>
-      <c r="AM4" s="40">
+      <c r="AM4" s="26">
         <v>45932</v>
       </c>
-      <c r="AN4" s="40">
+      <c r="AN4" s="26">
         <v>45933</v>
       </c>
-      <c r="AO4" s="40">
+      <c r="AO4" s="26">
         <v>45934</v>
       </c>
-      <c r="AP4" s="40">
+      <c r="AP4" s="26">
         <v>45935</v>
       </c>
-      <c r="AQ4" s="40">
+      <c r="AQ4" s="26">
         <v>45936</v>
       </c>
-      <c r="AR4" s="40">
+      <c r="AR4" s="26">
         <v>45937</v>
       </c>
-      <c r="AS4" s="40">
+      <c r="AS4" s="26">
         <v>45938</v>
       </c>
-      <c r="AT4" s="40">
+      <c r="AT4" s="26">
         <v>45939</v>
       </c>
-      <c r="AU4" s="40">
+      <c r="AU4" s="26">
         <v>45940</v>
       </c>
-      <c r="AV4" s="40">
+      <c r="AV4" s="26">
         <v>45941</v>
       </c>
-      <c r="AW4" s="40">
+      <c r="AW4" s="26">
         <v>45942</v>
       </c>
-      <c r="AX4" s="40">
+      <c r="AX4" s="26">
         <v>45943</v>
       </c>
-      <c r="AY4" s="40">
+      <c r="AY4" s="26">
         <v>45944</v>
       </c>
-      <c r="AZ4" s="40">
+      <c r="AZ4" s="26">
         <v>45945</v>
       </c>
-      <c r="BA4" s="40">
+      <c r="BA4" s="26">
         <v>45946</v>
       </c>
-      <c r="BB4" s="40">
+      <c r="BB4" s="26">
         <v>45947</v>
       </c>
-      <c r="BC4" s="40">
+      <c r="BC4" s="26">
         <v>45948</v>
       </c>
-      <c r="BD4" s="40">
+      <c r="BD4" s="26">
         <v>45949</v>
       </c>
-      <c r="BE4" s="40">
+      <c r="BE4" s="26">
         <v>45950</v>
       </c>
-      <c r="BF4" s="40">
+      <c r="BF4" s="26">
         <v>45951</v>
       </c>
-      <c r="BG4" s="40">
+      <c r="BG4" s="26">
         <v>45952</v>
       </c>
-      <c r="BH4" s="40">
+      <c r="BH4" s="26">
         <v>45953</v>
       </c>
-      <c r="BI4" s="40">
+      <c r="BI4" s="26">
         <v>45954</v>
       </c>
-      <c r="BJ4" s="40">
+      <c r="BJ4" s="26">
         <v>45955</v>
       </c>
-      <c r="BK4" s="40">
+      <c r="BK4" s="26">
         <v>45956</v>
       </c>
-      <c r="BL4" s="40">
+      <c r="BL4" s="26">
         <v>45957</v>
       </c>
-      <c r="BM4" s="40">
+      <c r="BM4" s="26">
         <v>45958</v>
       </c>
-      <c r="BN4" s="40">
+      <c r="BN4" s="26">
         <v>45959</v>
       </c>
-      <c r="BO4" s="40">
+      <c r="BO4" s="26">
         <v>45960</v>
       </c>
-      <c r="BP4" s="40">
+      <c r="BP4" s="26">
         <v>45961</v>
       </c>
+      <c r="BQ4" s="26">
+        <v>45962</v>
+      </c>
+      <c r="BR4" s="26">
+        <v>45963</v>
+      </c>
+      <c r="BS4" s="26">
+        <v>45964</v>
+      </c>
+      <c r="BT4" s="26">
+        <v>45965</v>
+      </c>
+      <c r="BU4" s="26">
+        <v>45966</v>
+      </c>
+      <c r="BV4" s="26">
+        <v>45967</v>
+      </c>
+      <c r="BW4" s="26">
+        <v>45968</v>
+      </c>
+      <c r="BX4" s="26">
+        <v>45969</v>
+      </c>
+      <c r="BY4" s="26">
+        <v>45970</v>
+      </c>
+      <c r="BZ4" s="26">
+        <v>45971</v>
+      </c>
+      <c r="CA4" s="26">
+        <v>45972</v>
+      </c>
+      <c r="CB4" s="26">
+        <v>45973</v>
+      </c>
+      <c r="CC4" s="26">
+        <v>45974</v>
+      </c>
+      <c r="CD4" s="26">
+        <v>45975</v>
+      </c>
+      <c r="CE4" s="26">
+        <v>45976</v>
+      </c>
+      <c r="CF4" s="26">
+        <v>45977</v>
+      </c>
+      <c r="CG4" s="26">
+        <v>45978</v>
+      </c>
+      <c r="CH4" s="26">
+        <v>45979</v>
+      </c>
+      <c r="CI4" s="26">
+        <v>45980</v>
+      </c>
+      <c r="CJ4" s="26">
+        <v>45981</v>
+      </c>
+      <c r="CK4" s="26">
+        <v>45982</v>
+      </c>
+      <c r="CL4" s="26">
+        <v>45983</v>
+      </c>
+      <c r="CM4" s="26">
+        <v>45984</v>
+      </c>
+      <c r="CN4" s="26">
+        <v>45985</v>
+      </c>
+      <c r="CO4" s="26">
+        <v>45986</v>
+      </c>
+      <c r="CP4" s="26">
+        <v>45987</v>
+      </c>
+      <c r="CQ4" s="26">
+        <v>45988</v>
+      </c>
+      <c r="CR4" s="26">
+        <v>45989</v>
+      </c>
+      <c r="CS4" s="26">
+        <v>45990</v>
+      </c>
+      <c r="CT4" s="26">
+        <v>45991</v>
+      </c>
+      <c r="CU4" s="26">
+        <v>45992</v>
+      </c>
+      <c r="CV4" s="26">
+        <v>45993</v>
+      </c>
+      <c r="CW4" s="26">
+        <v>45994</v>
+      </c>
+      <c r="CX4" s="26">
+        <v>45995</v>
+      </c>
+      <c r="CY4" s="26">
+        <v>45996</v>
+      </c>
+      <c r="CZ4" s="26">
+        <v>45997</v>
+      </c>
+      <c r="DA4" s="26">
+        <v>45998</v>
+      </c>
+      <c r="DB4" s="26">
+        <v>45999</v>
+      </c>
+      <c r="DC4" s="26">
+        <v>46000</v>
+      </c>
+      <c r="DD4" s="26">
+        <v>46001</v>
+      </c>
+      <c r="DE4" s="26">
+        <v>46002</v>
+      </c>
+      <c r="DF4" s="26">
+        <v>46003</v>
+      </c>
+      <c r="DG4" s="26">
+        <v>46004</v>
+      </c>
+      <c r="DH4" s="26">
+        <v>46005</v>
+      </c>
+      <c r="DI4" s="26">
+        <v>46006</v>
+      </c>
+      <c r="DJ4" s="26">
+        <v>46007</v>
+      </c>
+      <c r="DK4" s="26">
+        <v>46008</v>
+      </c>
+      <c r="DL4" s="26">
+        <v>46009</v>
+      </c>
+      <c r="DM4" s="26">
+        <v>46010</v>
+      </c>
+      <c r="DN4" s="26">
+        <v>46011</v>
+      </c>
+      <c r="DO4" s="26">
+        <v>46012</v>
+      </c>
+      <c r="DP4" s="26">
+        <v>46013</v>
+      </c>
+      <c r="DQ4" s="26">
+        <v>46014</v>
+      </c>
+      <c r="DR4" s="26">
+        <v>46015</v>
+      </c>
+      <c r="DS4" s="26">
+        <v>46016</v>
+      </c>
+      <c r="DT4" s="26">
+        <v>46017</v>
+      </c>
+      <c r="DU4" s="26">
+        <v>46018</v>
+      </c>
+      <c r="DV4" s="26">
+        <v>46019</v>
+      </c>
+      <c r="DW4" s="26">
+        <v>46020</v>
+      </c>
+      <c r="DX4" s="26">
+        <v>46021</v>
+      </c>
+      <c r="DY4" s="26">
+        <v>46022</v>
+      </c>
+      <c r="DZ4" s="26">
+        <v>46023</v>
+      </c>
+      <c r="EA4" s="26">
+        <v>46024</v>
+      </c>
+      <c r="EB4" s="26">
+        <v>46025</v>
+      </c>
+      <c r="EC4" s="26">
+        <v>46026</v>
+      </c>
+      <c r="ED4" s="26">
+        <v>46027</v>
+      </c>
+      <c r="EE4" s="26">
+        <v>46028</v>
+      </c>
+      <c r="EF4" s="26">
+        <v>46029</v>
+      </c>
+      <c r="EG4" s="26">
+        <v>46030</v>
+      </c>
+      <c r="EH4" s="26">
+        <v>46031</v>
+      </c>
+      <c r="EI4" s="26">
+        <v>46032</v>
+      </c>
+      <c r="EJ4" s="26">
+        <v>46033</v>
+      </c>
+      <c r="EK4" s="26">
+        <v>46034</v>
+      </c>
+      <c r="EL4" s="26">
+        <v>46035</v>
+      </c>
+      <c r="EM4" s="26">
+        <v>46036</v>
+      </c>
+      <c r="EN4" s="26">
+        <v>46037</v>
+      </c>
+      <c r="EO4" s="26">
+        <v>46038</v>
+      </c>
+      <c r="EP4" s="26">
+        <v>46039</v>
+      </c>
+      <c r="EQ4" s="26">
+        <v>46040</v>
+      </c>
+      <c r="ER4" s="26">
+        <v>46041</v>
+      </c>
+      <c r="ES4" s="26">
+        <v>46042</v>
+      </c>
+      <c r="ET4" s="26">
+        <v>46043</v>
+      </c>
+      <c r="EU4" s="26">
+        <v>46044</v>
+      </c>
+      <c r="EV4" s="26">
+        <v>46045</v>
+      </c>
+      <c r="EW4" s="26">
+        <v>46046</v>
+      </c>
+      <c r="EX4" s="26">
+        <v>46047</v>
+      </c>
+      <c r="EY4" s="26">
+        <v>46048</v>
+      </c>
+      <c r="EZ4" s="26">
+        <v>46049</v>
+      </c>
+      <c r="FA4" s="26">
+        <v>46050</v>
+      </c>
+      <c r="FB4" s="26">
+        <v>46051</v>
+      </c>
+      <c r="FC4" s="26">
+        <v>46052</v>
+      </c>
+      <c r="FD4" s="26">
+        <v>46053</v>
+      </c>
+      <c r="FE4" s="26">
+        <v>46054</v>
+      </c>
+      <c r="FF4" s="26">
+        <v>46055</v>
+      </c>
+      <c r="FG4" s="26">
+        <v>46056</v>
+      </c>
+      <c r="FH4" s="26">
+        <v>46057</v>
+      </c>
+      <c r="FI4" s="26">
+        <v>46058</v>
+      </c>
+      <c r="FJ4" s="26">
+        <v>46059</v>
+      </c>
+      <c r="FK4" s="26">
+        <v>46060</v>
+      </c>
+      <c r="FL4" s="26">
+        <v>46061</v>
+      </c>
+      <c r="FM4" s="26">
+        <v>46062</v>
+      </c>
+      <c r="FN4" s="26">
+        <v>46063</v>
+      </c>
+      <c r="FO4" s="26">
+        <v>46064</v>
+      </c>
+      <c r="FP4" s="26">
+        <v>46065</v>
+      </c>
+      <c r="FQ4" s="26">
+        <v>46066</v>
+      </c>
+      <c r="FR4" s="26">
+        <v>46067</v>
+      </c>
+      <c r="FS4" s="26">
+        <v>46068</v>
+      </c>
+      <c r="FT4" s="26">
+        <v>46069</v>
+      </c>
+      <c r="FU4" s="26">
+        <v>46070</v>
+      </c>
+      <c r="FV4" s="26">
+        <v>46071</v>
+      </c>
+      <c r="FW4" s="26">
+        <v>46072</v>
+      </c>
+      <c r="FX4" s="26">
+        <v>46073</v>
+      </c>
+      <c r="FY4" s="26">
+        <v>46074</v>
+      </c>
+      <c r="FZ4" s="26">
+        <v>46075</v>
+      </c>
+      <c r="GA4" s="26">
+        <v>46076</v>
+      </c>
+      <c r="GB4" s="26">
+        <v>46077</v>
+      </c>
+      <c r="GC4" s="26">
+        <v>46078</v>
+      </c>
+      <c r="GD4" s="26">
+        <v>46079</v>
+      </c>
+      <c r="GE4" s="26">
+        <v>46080</v>
+      </c>
+      <c r="GF4" s="26">
+        <v>46081</v>
+      </c>
+      <c r="GG4" s="26">
+        <v>46082</v>
+      </c>
+      <c r="GH4" s="26">
+        <v>46083</v>
+      </c>
+      <c r="GI4" s="26">
+        <v>46084</v>
+      </c>
+      <c r="GJ4" s="26">
+        <v>46085</v>
+      </c>
+      <c r="GK4" s="26">
+        <v>46086</v>
+      </c>
+      <c r="GL4" s="26">
+        <v>46087</v>
+      </c>
+      <c r="GM4" s="26">
+        <v>46088</v>
+      </c>
+      <c r="GN4" s="26">
+        <v>46089</v>
+      </c>
+      <c r="GO4" s="26">
+        <v>46090</v>
+      </c>
+      <c r="GP4" s="26">
+        <v>46091</v>
+      </c>
+      <c r="GQ4" s="26">
+        <v>46092</v>
+      </c>
+      <c r="GR4" s="26">
+        <v>46093</v>
+      </c>
+      <c r="GS4" s="26">
+        <v>46094</v>
+      </c>
+      <c r="GT4" s="26">
+        <v>46095</v>
+      </c>
+      <c r="GU4" s="26">
+        <v>46096</v>
+      </c>
+      <c r="GV4" s="26">
+        <v>46097</v>
+      </c>
+      <c r="GW4" s="26">
+        <v>46098</v>
+      </c>
+      <c r="GX4" s="26">
+        <v>46099</v>
+      </c>
+      <c r="GY4" s="26">
+        <v>46100</v>
+      </c>
+      <c r="GZ4" s="26">
+        <v>46101</v>
+      </c>
+      <c r="HA4" s="26">
+        <v>46102</v>
+      </c>
+      <c r="HB4" s="26">
+        <v>46103</v>
+      </c>
+      <c r="HC4" s="26">
+        <v>46104</v>
+      </c>
+      <c r="HD4" s="26">
+        <v>46105</v>
+      </c>
+      <c r="HE4" s="26">
+        <v>46106</v>
+      </c>
+      <c r="HF4" s="26">
+        <v>46107</v>
+      </c>
+      <c r="HG4" s="26">
+        <v>46108</v>
+      </c>
+      <c r="HH4" s="26">
+        <v>46109</v>
+      </c>
+      <c r="HI4" s="26">
+        <v>46110</v>
+      </c>
+      <c r="HJ4" s="26">
+        <v>46111</v>
+      </c>
+      <c r="HK4" s="26">
+        <v>46112</v>
+      </c>
+      <c r="HL4" s="26">
+        <v>46113</v>
+      </c>
+      <c r="HM4" s="26">
+        <v>46114</v>
+      </c>
+      <c r="HN4" s="26">
+        <v>46115</v>
+      </c>
+      <c r="HO4" s="26">
+        <v>46116</v>
+      </c>
+      <c r="HP4" s="26">
+        <v>46117</v>
+      </c>
+      <c r="HQ4" s="26">
+        <v>46118</v>
+      </c>
+      <c r="HR4" s="26">
+        <v>46119</v>
+      </c>
+      <c r="HS4" s="26">
+        <v>46120</v>
+      </c>
+      <c r="HT4" s="26">
+        <v>46121</v>
+      </c>
+      <c r="HU4" s="26">
+        <v>46122</v>
+      </c>
     </row>
-    <row r="5" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="36">
+        <v>38</v>
+      </c>
+      <c r="C5" s="22">
         <v>45902</v>
       </c>
       <c r="D5" s="6">
         <v>32</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="22">
         <v>45903</v>
       </c>
       <c r="F5" s="6">
@@ -1425,19 +3984,170 @@
       <c r="G5" s="7">
         <v>0.65</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="43"/>
+      <c r="BQ5" s="45"/>
+      <c r="BS5" s="45"/>
+      <c r="BU5" s="45"/>
+      <c r="BW5" s="45"/>
+      <c r="BY5" s="45"/>
+      <c r="CA5" s="45"/>
+      <c r="CC5" s="45"/>
+      <c r="CE5" s="45"/>
+      <c r="CG5" s="45"/>
+      <c r="CI5" s="45"/>
+      <c r="CK5" s="45"/>
+      <c r="CL5" s="45"/>
+      <c r="CM5" s="45"/>
+      <c r="CN5" s="45"/>
+      <c r="CO5" s="45"/>
+      <c r="CP5" s="45"/>
+      <c r="CQ5" s="45"/>
+      <c r="CR5" s="45"/>
+      <c r="CS5" s="45"/>
+      <c r="CT5" s="45"/>
+      <c r="CU5" s="45"/>
+      <c r="CV5" s="45"/>
+      <c r="CW5" s="45"/>
+      <c r="CX5" s="45"/>
+      <c r="CY5" s="45"/>
+      <c r="CZ5" s="45"/>
+      <c r="DA5" s="45"/>
+      <c r="DB5" s="45"/>
+      <c r="DC5" s="45"/>
+      <c r="DD5" s="45"/>
+      <c r="DE5" s="45"/>
+      <c r="DF5" s="45"/>
+      <c r="DG5" s="45"/>
+      <c r="DH5" s="45"/>
+      <c r="DI5" s="45"/>
+      <c r="DJ5" s="45"/>
+      <c r="DK5" s="45"/>
+      <c r="DL5" s="45"/>
+      <c r="DM5" s="45"/>
+      <c r="DN5" s="45"/>
+      <c r="DO5" s="45"/>
+      <c r="DP5" s="45"/>
+      <c r="DQ5" s="45"/>
+      <c r="DR5" s="45"/>
+      <c r="DS5" s="45"/>
+      <c r="DT5" s="45"/>
+      <c r="DU5" s="45"/>
+      <c r="DV5" s="45"/>
+      <c r="DW5" s="45"/>
+      <c r="DX5" s="45"/>
+      <c r="DY5" s="45"/>
+      <c r="DZ5" s="45"/>
+      <c r="EA5" s="45"/>
+      <c r="EB5" s="45"/>
+      <c r="EC5" s="45"/>
+      <c r="ED5" s="45"/>
+      <c r="EE5" s="45"/>
+      <c r="EF5" s="45"/>
+      <c r="EG5" s="45"/>
+      <c r="EH5" s="45"/>
+      <c r="EI5" s="45"/>
+      <c r="EJ5" s="45"/>
+      <c r="EK5" s="45"/>
+      <c r="EL5" s="45"/>
+      <c r="EM5" s="45"/>
+      <c r="EN5" s="45"/>
+      <c r="EO5" s="45"/>
+      <c r="EP5" s="45"/>
+      <c r="EQ5" s="45"/>
+      <c r="ER5" s="45"/>
+      <c r="ES5" s="45"/>
+      <c r="ET5" s="45"/>
+      <c r="EU5" s="45"/>
+      <c r="EV5" s="45"/>
+      <c r="EW5" s="45"/>
+      <c r="EX5" s="45"/>
+      <c r="EY5" s="45"/>
+      <c r="EZ5" s="45"/>
+      <c r="FA5" s="45"/>
+      <c r="FB5" s="45"/>
+      <c r="FC5" s="45"/>
+      <c r="FD5" s="45"/>
+      <c r="FE5" s="45"/>
+      <c r="FF5" s="45"/>
+      <c r="FG5" s="45"/>
+      <c r="FH5" s="45"/>
+      <c r="FI5" s="45"/>
+      <c r="FJ5" s="45"/>
+      <c r="FK5" s="45"/>
+      <c r="FL5" s="45"/>
+      <c r="FM5" s="45"/>
+      <c r="FN5" s="45"/>
+      <c r="FO5" s="45"/>
+      <c r="FP5" s="45"/>
+      <c r="FQ5" s="45"/>
+      <c r="FR5" s="45"/>
+      <c r="FS5" s="45"/>
+      <c r="FT5" s="45"/>
+      <c r="FU5" s="45"/>
+      <c r="FV5" s="45"/>
+      <c r="FW5" s="45"/>
+      <c r="FX5" s="45"/>
+      <c r="FY5" s="45"/>
+      <c r="FZ5" s="45"/>
+      <c r="GA5" s="45"/>
+      <c r="GB5" s="45"/>
+      <c r="GC5" s="45"/>
+      <c r="GD5" s="45"/>
+      <c r="GE5" s="45"/>
+      <c r="GF5" s="45"/>
+      <c r="GG5" s="45"/>
+      <c r="GH5" s="45"/>
+      <c r="GI5" s="45"/>
+      <c r="GJ5" s="45"/>
+      <c r="GK5" s="45"/>
+      <c r="GL5" s="45"/>
+      <c r="GM5" s="45"/>
+      <c r="GN5" s="45"/>
+      <c r="GO5" s="45"/>
+      <c r="GP5" s="45"/>
+      <c r="GQ5" s="45"/>
+      <c r="GR5" s="45"/>
+      <c r="GS5" s="45"/>
+      <c r="GT5" s="45"/>
+      <c r="GU5" s="45"/>
+      <c r="GV5" s="45"/>
+      <c r="GW5" s="45"/>
+      <c r="GX5" s="45"/>
+      <c r="GY5" s="45"/>
+      <c r="GZ5" s="45"/>
+      <c r="HA5" s="45"/>
+      <c r="HB5" s="45"/>
+      <c r="HC5" s="45"/>
+      <c r="HD5" s="45"/>
+      <c r="HE5" s="45"/>
+      <c r="HF5" s="45"/>
+      <c r="HG5" s="45"/>
+      <c r="HH5" s="45"/>
+      <c r="HI5" s="45"/>
+      <c r="HJ5" s="45"/>
+      <c r="HK5" s="45"/>
+      <c r="HL5" s="45"/>
+      <c r="HM5" s="45"/>
+      <c r="HN5" s="45"/>
+      <c r="HO5" s="45"/>
+      <c r="HP5" s="45"/>
+      <c r="HQ5" s="45"/>
+      <c r="HR5" s="45"/>
+      <c r="HS5" s="45"/>
+      <c r="HT5" s="45"/>
+      <c r="HU5" s="45"/>
     </row>
-    <row r="6" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="36">
+    <row r="6" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="22">
         <v>45902</v>
       </c>
       <c r="D6" s="6">
         <v>39</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="22">
         <v>45903</v>
       </c>
       <c r="F6" s="6">
@@ -1446,511 +4156,3912 @@
       <c r="G6" s="7">
         <v>0.4</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="44"/>
+      <c r="BQ6" s="45"/>
+      <c r="BS6" s="45"/>
+      <c r="BU6" s="45"/>
+      <c r="BW6" s="45"/>
+      <c r="BY6" s="45"/>
+      <c r="CA6" s="45"/>
+      <c r="CC6" s="45"/>
+      <c r="CE6" s="45"/>
+      <c r="CG6" s="45"/>
+      <c r="CI6" s="45"/>
+      <c r="CK6" s="45"/>
+      <c r="CL6" s="45"/>
+      <c r="CM6" s="45"/>
+      <c r="CN6" s="45"/>
+      <c r="CO6" s="45"/>
+      <c r="CP6" s="45"/>
+      <c r="CQ6" s="45"/>
+      <c r="CR6" s="45"/>
+      <c r="CS6" s="45"/>
+      <c r="CT6" s="45"/>
+      <c r="CU6" s="45"/>
+      <c r="CV6" s="45"/>
+      <c r="CW6" s="45"/>
+      <c r="CX6" s="45"/>
+      <c r="CY6" s="45"/>
+      <c r="CZ6" s="45"/>
+      <c r="DA6" s="45"/>
+      <c r="DB6" s="45"/>
+      <c r="DC6" s="45"/>
+      <c r="DD6" s="45"/>
+      <c r="DE6" s="45"/>
+      <c r="DF6" s="45"/>
+      <c r="DG6" s="45"/>
+      <c r="DH6" s="45"/>
+      <c r="DI6" s="45"/>
+      <c r="DJ6" s="45"/>
+      <c r="DK6" s="45"/>
+      <c r="DL6" s="45"/>
+      <c r="DM6" s="45"/>
+      <c r="DN6" s="45"/>
+      <c r="DO6" s="45"/>
+      <c r="DP6" s="45"/>
+      <c r="DQ6" s="45"/>
+      <c r="DR6" s="45"/>
+      <c r="DS6" s="45"/>
+      <c r="DT6" s="45"/>
+      <c r="DU6" s="45"/>
+      <c r="DV6" s="45"/>
+      <c r="DW6" s="45"/>
+      <c r="DX6" s="45"/>
+      <c r="DY6" s="45"/>
+      <c r="DZ6" s="45"/>
+      <c r="EA6" s="45"/>
+      <c r="EB6" s="45"/>
+      <c r="EC6" s="45"/>
+      <c r="ED6" s="45"/>
+      <c r="EE6" s="45"/>
+      <c r="EF6" s="45"/>
+      <c r="EG6" s="45"/>
+      <c r="EH6" s="45"/>
+      <c r="EI6" s="45"/>
+      <c r="EJ6" s="45"/>
+      <c r="EK6" s="45"/>
+      <c r="EL6" s="45"/>
+      <c r="EM6" s="45"/>
+      <c r="EN6" s="45"/>
+      <c r="EO6" s="45"/>
+      <c r="EP6" s="45"/>
+      <c r="EQ6" s="45"/>
+      <c r="ER6" s="45"/>
+      <c r="ES6" s="45"/>
+      <c r="ET6" s="45"/>
+      <c r="EU6" s="45"/>
+      <c r="EV6" s="45"/>
+      <c r="EW6" s="45"/>
+      <c r="EX6" s="45"/>
+      <c r="EY6" s="45"/>
+      <c r="EZ6" s="45"/>
+      <c r="FA6" s="45"/>
+      <c r="FB6" s="45"/>
+      <c r="FC6" s="45"/>
+      <c r="FD6" s="45"/>
+      <c r="FE6" s="45"/>
+      <c r="FF6" s="45"/>
+      <c r="FG6" s="45"/>
+      <c r="FH6" s="45"/>
+      <c r="FI6" s="45"/>
+      <c r="FJ6" s="45"/>
+      <c r="FK6" s="45"/>
+      <c r="FL6" s="45"/>
+      <c r="FM6" s="45"/>
+      <c r="FN6" s="45"/>
+      <c r="FO6" s="45"/>
+      <c r="FP6" s="45"/>
+      <c r="FQ6" s="45"/>
+      <c r="FR6" s="45"/>
+      <c r="FS6" s="45"/>
+      <c r="FT6" s="45"/>
+      <c r="FU6" s="45"/>
+      <c r="FV6" s="45"/>
+      <c r="FW6" s="45"/>
+      <c r="FX6" s="45"/>
+      <c r="FY6" s="45"/>
+      <c r="FZ6" s="45"/>
+      <c r="GA6" s="45"/>
+      <c r="GB6" s="45"/>
+      <c r="GC6" s="45"/>
+      <c r="GD6" s="45"/>
+      <c r="GE6" s="45"/>
+      <c r="GF6" s="45"/>
+      <c r="GG6" s="45"/>
+      <c r="GH6" s="45"/>
+      <c r="GI6" s="45"/>
+      <c r="GJ6" s="45"/>
+      <c r="GK6" s="45"/>
+      <c r="GL6" s="45"/>
+      <c r="GM6" s="45"/>
+      <c r="GN6" s="45"/>
+      <c r="GO6" s="45"/>
+      <c r="GP6" s="45"/>
+      <c r="GQ6" s="45"/>
+      <c r="GR6" s="45"/>
+      <c r="GS6" s="45"/>
+      <c r="GT6" s="45"/>
+      <c r="GU6" s="45"/>
+      <c r="GV6" s="45"/>
+      <c r="GW6" s="45"/>
+      <c r="GX6" s="45"/>
+      <c r="GY6" s="45"/>
+      <c r="GZ6" s="45"/>
+      <c r="HA6" s="45"/>
+      <c r="HB6" s="45"/>
+      <c r="HC6" s="45"/>
+      <c r="HD6" s="45"/>
+      <c r="HE6" s="45"/>
+      <c r="HF6" s="45"/>
+      <c r="HG6" s="45"/>
+      <c r="HH6" s="45"/>
+      <c r="HI6" s="45"/>
+      <c r="HJ6" s="45"/>
+      <c r="HK6" s="45"/>
+      <c r="HL6" s="45"/>
+      <c r="HM6" s="45"/>
+      <c r="HN6" s="45"/>
+      <c r="HO6" s="45"/>
+      <c r="HP6" s="45"/>
+      <c r="HQ6" s="45"/>
+      <c r="HR6" s="45"/>
+      <c r="HS6" s="45"/>
+      <c r="HT6" s="45"/>
+      <c r="HU6" s="45"/>
     </row>
-    <row r="7" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="22">
+        <v>45912</v>
+      </c>
+      <c r="D7" s="6">
+        <v>18</v>
+      </c>
+      <c r="E7" s="22">
+        <v>45912</v>
+      </c>
+      <c r="F7" s="6">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="BQ7" s="45"/>
+      <c r="BS7" s="45"/>
+      <c r="BU7" s="45"/>
+      <c r="BW7" s="45"/>
+      <c r="BY7" s="45"/>
+      <c r="CA7" s="45"/>
+      <c r="CC7" s="45"/>
+      <c r="CE7" s="45"/>
+      <c r="CG7" s="45"/>
+      <c r="CI7" s="45"/>
+      <c r="CK7" s="45"/>
+      <c r="CL7" s="45"/>
+      <c r="CM7" s="45"/>
+      <c r="CN7" s="45"/>
+      <c r="CO7" s="45"/>
+      <c r="CP7" s="45"/>
+      <c r="CQ7" s="45"/>
+      <c r="CR7" s="45"/>
+      <c r="CS7" s="45"/>
+      <c r="CT7" s="45"/>
+      <c r="CU7" s="45"/>
+      <c r="CV7" s="45"/>
+      <c r="CW7" s="45"/>
+      <c r="CX7" s="45"/>
+      <c r="CY7" s="45"/>
+      <c r="CZ7" s="45"/>
+      <c r="DA7" s="45"/>
+      <c r="DB7" s="45"/>
+      <c r="DC7" s="45"/>
+      <c r="DD7" s="45"/>
+      <c r="DE7" s="45"/>
+      <c r="DF7" s="45"/>
+      <c r="DG7" s="45"/>
+      <c r="DH7" s="45"/>
+      <c r="DI7" s="45"/>
+      <c r="DJ7" s="45"/>
+      <c r="DK7" s="45"/>
+      <c r="DL7" s="45"/>
+      <c r="DM7" s="45"/>
+      <c r="DN7" s="45"/>
+      <c r="DO7" s="45"/>
+      <c r="DP7" s="45"/>
+      <c r="DQ7" s="45"/>
+      <c r="DR7" s="45"/>
+      <c r="DS7" s="45"/>
+      <c r="DT7" s="45"/>
+      <c r="DU7" s="45"/>
+      <c r="DV7" s="45"/>
+      <c r="DW7" s="45"/>
+      <c r="DX7" s="45"/>
+      <c r="DY7" s="45"/>
+      <c r="DZ7" s="45"/>
+      <c r="EA7" s="45"/>
+      <c r="EB7" s="45"/>
+      <c r="EC7" s="45"/>
+      <c r="ED7" s="45"/>
+      <c r="EE7" s="45"/>
+      <c r="EF7" s="45"/>
+      <c r="EG7" s="45"/>
+      <c r="EH7" s="45"/>
+      <c r="EI7" s="45"/>
+      <c r="EJ7" s="45"/>
+      <c r="EK7" s="45"/>
+      <c r="EL7" s="45"/>
+      <c r="EM7" s="45"/>
+      <c r="EN7" s="45"/>
+      <c r="EO7" s="45"/>
+      <c r="EP7" s="45"/>
+      <c r="EQ7" s="45"/>
+      <c r="ER7" s="45"/>
+      <c r="ES7" s="45"/>
+      <c r="ET7" s="45"/>
+      <c r="EU7" s="45"/>
+      <c r="EV7" s="45"/>
+      <c r="EW7" s="45"/>
+      <c r="EX7" s="45"/>
+      <c r="EY7" s="45"/>
+      <c r="EZ7" s="45"/>
+      <c r="FA7" s="45"/>
+      <c r="FB7" s="45"/>
+      <c r="FC7" s="45"/>
+      <c r="FD7" s="45"/>
+      <c r="FE7" s="45"/>
+      <c r="FF7" s="45"/>
+      <c r="FG7" s="45"/>
+      <c r="FH7" s="45"/>
+      <c r="FI7" s="45"/>
+      <c r="FJ7" s="45"/>
+      <c r="FK7" s="45"/>
+      <c r="FL7" s="45"/>
+      <c r="FM7" s="45"/>
+      <c r="FN7" s="45"/>
+      <c r="FO7" s="45"/>
+      <c r="FP7" s="45"/>
+      <c r="FQ7" s="45"/>
+      <c r="FR7" s="45"/>
+      <c r="FS7" s="45"/>
+      <c r="FT7" s="45"/>
+      <c r="FU7" s="45"/>
+      <c r="FV7" s="45"/>
+      <c r="FW7" s="45"/>
+      <c r="FX7" s="45"/>
+      <c r="FY7" s="45"/>
+      <c r="FZ7" s="45"/>
+      <c r="GA7" s="45"/>
+      <c r="GB7" s="45"/>
+      <c r="GC7" s="45"/>
+      <c r="GD7" s="45"/>
+      <c r="GE7" s="45"/>
+      <c r="GF7" s="45"/>
+      <c r="GG7" s="45"/>
+      <c r="GH7" s="45"/>
+      <c r="GI7" s="45"/>
+      <c r="GJ7" s="45"/>
+      <c r="GK7" s="45"/>
+      <c r="GL7" s="45"/>
+      <c r="GM7" s="45"/>
+      <c r="GN7" s="45"/>
+      <c r="GO7" s="45"/>
+      <c r="GP7" s="45"/>
+      <c r="GQ7" s="45"/>
+      <c r="GR7" s="45"/>
+      <c r="GS7" s="45"/>
+      <c r="GT7" s="45"/>
+      <c r="GU7" s="45"/>
+      <c r="GV7" s="45"/>
+      <c r="GW7" s="45"/>
+      <c r="GX7" s="45"/>
+      <c r="GY7" s="45"/>
+      <c r="GZ7" s="45"/>
+      <c r="HA7" s="45"/>
+      <c r="HB7" s="45"/>
+      <c r="HC7" s="45"/>
+      <c r="HD7" s="45"/>
+      <c r="HE7" s="45"/>
+      <c r="HF7" s="45"/>
+      <c r="HG7" s="45"/>
+      <c r="HH7" s="45"/>
+      <c r="HI7" s="45"/>
+      <c r="HJ7" s="45"/>
+      <c r="HK7" s="45"/>
+      <c r="HL7" s="45"/>
+      <c r="HM7" s="45"/>
+      <c r="HN7" s="45"/>
+      <c r="HO7" s="45"/>
+      <c r="HP7" s="45"/>
+      <c r="HQ7" s="45"/>
+      <c r="HR7" s="45"/>
+      <c r="HS7" s="45"/>
+      <c r="HT7" s="45"/>
+      <c r="HU7" s="45"/>
+    </row>
+    <row r="8" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="BQ8" s="45"/>
+      <c r="BS8" s="45"/>
+      <c r="BU8" s="45"/>
+      <c r="BW8" s="45"/>
+      <c r="BY8" s="45"/>
+      <c r="CA8" s="45"/>
+      <c r="CC8" s="45"/>
+      <c r="CE8" s="45"/>
+      <c r="CG8" s="45"/>
+      <c r="CI8" s="45"/>
+      <c r="CK8" s="45"/>
+      <c r="CL8" s="45"/>
+      <c r="CM8" s="45"/>
+      <c r="CN8" s="45"/>
+      <c r="CO8" s="45"/>
+      <c r="CP8" s="45"/>
+      <c r="CQ8" s="45"/>
+      <c r="CR8" s="45"/>
+      <c r="CS8" s="45"/>
+      <c r="CT8" s="45"/>
+      <c r="CU8" s="45"/>
+      <c r="CV8" s="45"/>
+      <c r="CW8" s="45"/>
+      <c r="CX8" s="45"/>
+      <c r="CY8" s="45"/>
+      <c r="CZ8" s="45"/>
+      <c r="DA8" s="45"/>
+      <c r="DB8" s="45"/>
+      <c r="DC8" s="45"/>
+      <c r="DD8" s="45"/>
+      <c r="DE8" s="45"/>
+      <c r="DF8" s="45"/>
+      <c r="DG8" s="45"/>
+      <c r="DH8" s="45"/>
+      <c r="DI8" s="45"/>
+      <c r="DJ8" s="45"/>
+      <c r="DK8" s="45"/>
+      <c r="DL8" s="45"/>
+      <c r="DM8" s="45"/>
+      <c r="DN8" s="45"/>
+      <c r="DO8" s="45"/>
+      <c r="DP8" s="45"/>
+      <c r="DQ8" s="45"/>
+      <c r="DR8" s="45"/>
+      <c r="DS8" s="45"/>
+      <c r="DT8" s="45"/>
+      <c r="DU8" s="45"/>
+      <c r="DV8" s="45"/>
+      <c r="DW8" s="45"/>
+      <c r="DX8" s="45"/>
+      <c r="DY8" s="45"/>
+      <c r="DZ8" s="45"/>
+      <c r="EA8" s="45"/>
+      <c r="EB8" s="45"/>
+      <c r="EC8" s="45"/>
+      <c r="ED8" s="45"/>
+      <c r="EE8" s="45"/>
+      <c r="EF8" s="45"/>
+      <c r="EG8" s="45"/>
+      <c r="EH8" s="45"/>
+      <c r="EI8" s="45"/>
+      <c r="EJ8" s="45"/>
+      <c r="EK8" s="45"/>
+      <c r="EL8" s="45"/>
+      <c r="EM8" s="45"/>
+      <c r="EN8" s="45"/>
+      <c r="EO8" s="45"/>
+      <c r="EP8" s="45"/>
+      <c r="EQ8" s="45"/>
+      <c r="ER8" s="45"/>
+      <c r="ES8" s="45"/>
+      <c r="ET8" s="45"/>
+      <c r="EU8" s="45"/>
+      <c r="EV8" s="45"/>
+      <c r="EW8" s="45"/>
+      <c r="EX8" s="45"/>
+      <c r="EY8" s="45"/>
+      <c r="EZ8" s="45"/>
+      <c r="FA8" s="45"/>
+      <c r="FB8" s="45"/>
+      <c r="FC8" s="45"/>
+      <c r="FD8" s="45"/>
+      <c r="FE8" s="45"/>
+      <c r="FF8" s="45"/>
+      <c r="FG8" s="45"/>
+      <c r="FH8" s="45"/>
+      <c r="FI8" s="45"/>
+      <c r="FJ8" s="45"/>
+      <c r="FK8" s="45"/>
+      <c r="FL8" s="45"/>
+      <c r="FM8" s="45"/>
+      <c r="FN8" s="45"/>
+      <c r="FO8" s="45"/>
+      <c r="FP8" s="45"/>
+      <c r="FQ8" s="45"/>
+      <c r="FR8" s="45"/>
+      <c r="FS8" s="45"/>
+      <c r="FT8" s="45"/>
+      <c r="FU8" s="45"/>
+      <c r="FV8" s="45"/>
+      <c r="FW8" s="45"/>
+      <c r="FX8" s="45"/>
+      <c r="FY8" s="45"/>
+      <c r="FZ8" s="45"/>
+      <c r="GA8" s="45"/>
+      <c r="GB8" s="45"/>
+      <c r="GC8" s="45"/>
+      <c r="GD8" s="45"/>
+      <c r="GE8" s="45"/>
+      <c r="GF8" s="45"/>
+      <c r="GG8" s="45"/>
+      <c r="GH8" s="45"/>
+      <c r="GI8" s="45"/>
+      <c r="GJ8" s="45"/>
+      <c r="GK8" s="45"/>
+      <c r="GL8" s="45"/>
+      <c r="GM8" s="45"/>
+      <c r="GN8" s="45"/>
+      <c r="GO8" s="45"/>
+      <c r="GP8" s="45"/>
+      <c r="GQ8" s="45"/>
+      <c r="GR8" s="45"/>
+      <c r="GS8" s="45"/>
+      <c r="GT8" s="45"/>
+      <c r="GU8" s="45"/>
+      <c r="GV8" s="45"/>
+      <c r="GW8" s="45"/>
+      <c r="GX8" s="45"/>
+      <c r="GY8" s="45"/>
+      <c r="GZ8" s="45"/>
+      <c r="HA8" s="45"/>
+      <c r="HB8" s="45"/>
+      <c r="HC8" s="45"/>
+      <c r="HD8" s="45"/>
+      <c r="HE8" s="45"/>
+      <c r="HF8" s="45"/>
+      <c r="HG8" s="45"/>
+      <c r="HH8" s="45"/>
+      <c r="HI8" s="45"/>
+      <c r="HJ8" s="45"/>
+      <c r="HK8" s="45"/>
+      <c r="HL8" s="45"/>
+      <c r="HM8" s="45"/>
+      <c r="HN8" s="45"/>
+      <c r="HO8" s="45"/>
+      <c r="HP8" s="45"/>
+      <c r="HQ8" s="45"/>
+      <c r="HR8" s="45"/>
+      <c r="HS8" s="45"/>
+      <c r="HT8" s="45"/>
+      <c r="HU8" s="45"/>
+    </row>
+    <row r="9" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="BQ9" s="45"/>
+      <c r="BS9" s="45"/>
+      <c r="BU9" s="45"/>
+      <c r="BW9" s="45"/>
+      <c r="BY9" s="45"/>
+      <c r="CA9" s="45"/>
+      <c r="CC9" s="45"/>
+      <c r="CE9" s="45"/>
+      <c r="CG9" s="45"/>
+      <c r="CI9" s="45"/>
+      <c r="CK9" s="45"/>
+      <c r="CL9" s="45"/>
+      <c r="CM9" s="45"/>
+      <c r="CN9" s="45"/>
+      <c r="CO9" s="45"/>
+      <c r="CP9" s="45"/>
+      <c r="CQ9" s="45"/>
+      <c r="CR9" s="45"/>
+      <c r="CS9" s="45"/>
+      <c r="CT9" s="45"/>
+      <c r="CU9" s="45"/>
+      <c r="CV9" s="45"/>
+      <c r="CW9" s="45"/>
+      <c r="CX9" s="45"/>
+      <c r="CY9" s="45"/>
+      <c r="CZ9" s="45"/>
+      <c r="DA9" s="45"/>
+      <c r="DB9" s="45"/>
+      <c r="DC9" s="45"/>
+      <c r="DD9" s="45"/>
+      <c r="DE9" s="45"/>
+      <c r="DF9" s="45"/>
+      <c r="DG9" s="45"/>
+      <c r="DH9" s="45"/>
+      <c r="DI9" s="45"/>
+      <c r="DJ9" s="45"/>
+      <c r="DK9" s="45"/>
+      <c r="DL9" s="45"/>
+      <c r="DM9" s="45"/>
+      <c r="DN9" s="45"/>
+      <c r="DO9" s="45"/>
+      <c r="DP9" s="45"/>
+      <c r="DQ9" s="45"/>
+      <c r="DR9" s="45"/>
+      <c r="DS9" s="45"/>
+      <c r="DT9" s="45"/>
+      <c r="DU9" s="45"/>
+      <c r="DV9" s="45"/>
+      <c r="DW9" s="45"/>
+      <c r="DX9" s="45"/>
+      <c r="DY9" s="45"/>
+      <c r="DZ9" s="45"/>
+      <c r="EA9" s="45"/>
+      <c r="EB9" s="45"/>
+      <c r="EC9" s="45"/>
+      <c r="ED9" s="45"/>
+      <c r="EE9" s="45"/>
+      <c r="EF9" s="45"/>
+      <c r="EG9" s="45"/>
+      <c r="EH9" s="45"/>
+      <c r="EI9" s="45"/>
+      <c r="EJ9" s="45"/>
+      <c r="EK9" s="45"/>
+      <c r="EL9" s="45"/>
+      <c r="EM9" s="45"/>
+      <c r="EN9" s="45"/>
+      <c r="EO9" s="45"/>
+      <c r="EP9" s="45"/>
+      <c r="EQ9" s="45"/>
+      <c r="ER9" s="45"/>
+      <c r="ES9" s="45"/>
+      <c r="ET9" s="45"/>
+      <c r="EU9" s="45"/>
+      <c r="EV9" s="45"/>
+      <c r="EW9" s="45"/>
+      <c r="EX9" s="45"/>
+      <c r="EY9" s="45"/>
+      <c r="EZ9" s="45"/>
+      <c r="FA9" s="45"/>
+      <c r="FB9" s="45"/>
+      <c r="FC9" s="45"/>
+      <c r="FD9" s="45"/>
+      <c r="FE9" s="45"/>
+      <c r="FF9" s="45"/>
+      <c r="FG9" s="45"/>
+      <c r="FH9" s="45"/>
+      <c r="FI9" s="45"/>
+      <c r="FJ9" s="45"/>
+      <c r="FK9" s="45"/>
+      <c r="FL9" s="45"/>
+      <c r="FM9" s="45"/>
+      <c r="FN9" s="45"/>
+      <c r="FO9" s="45"/>
+      <c r="FP9" s="45"/>
+      <c r="FQ9" s="45"/>
+      <c r="FR9" s="45"/>
+      <c r="FS9" s="45"/>
+      <c r="FT9" s="45"/>
+      <c r="FU9" s="45"/>
+      <c r="FV9" s="45"/>
+      <c r="FW9" s="45"/>
+      <c r="FX9" s="45"/>
+      <c r="FY9" s="45"/>
+      <c r="FZ9" s="45"/>
+      <c r="GA9" s="45"/>
+      <c r="GB9" s="45"/>
+      <c r="GC9" s="45"/>
+      <c r="GD9" s="45"/>
+      <c r="GE9" s="45"/>
+      <c r="GF9" s="45"/>
+      <c r="GG9" s="45"/>
+      <c r="GH9" s="45"/>
+      <c r="GI9" s="45"/>
+      <c r="GJ9" s="45"/>
+      <c r="GK9" s="45"/>
+      <c r="GL9" s="45"/>
+      <c r="GM9" s="45"/>
+      <c r="GN9" s="45"/>
+      <c r="GO9" s="45"/>
+      <c r="GP9" s="45"/>
+      <c r="GQ9" s="45"/>
+      <c r="GR9" s="45"/>
+      <c r="GS9" s="45"/>
+      <c r="GT9" s="45"/>
+      <c r="GU9" s="45"/>
+      <c r="GV9" s="45"/>
+      <c r="GW9" s="45"/>
+      <c r="GX9" s="45"/>
+      <c r="GY9" s="45"/>
+      <c r="GZ9" s="45"/>
+      <c r="HA9" s="45"/>
+      <c r="HB9" s="45"/>
+      <c r="HC9" s="45"/>
+      <c r="HD9" s="45"/>
+      <c r="HE9" s="45"/>
+      <c r="HF9" s="45"/>
+      <c r="HG9" s="45"/>
+      <c r="HH9" s="45"/>
+      <c r="HI9" s="45"/>
+      <c r="HJ9" s="45"/>
+      <c r="HK9" s="45"/>
+      <c r="HL9" s="45"/>
+      <c r="HM9" s="45"/>
+      <c r="HN9" s="45"/>
+      <c r="HO9" s="45"/>
+      <c r="HP9" s="45"/>
+      <c r="HQ9" s="45"/>
+      <c r="HR9" s="45"/>
+      <c r="HS9" s="45"/>
+      <c r="HT9" s="45"/>
+      <c r="HU9" s="45"/>
+    </row>
+    <row r="10" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4"/>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="BQ10" s="45"/>
+      <c r="BS10" s="45"/>
+      <c r="BU10" s="45"/>
+      <c r="BW10" s="45"/>
+      <c r="BY10" s="45"/>
+      <c r="CA10" s="45"/>
+      <c r="CC10" s="45"/>
+      <c r="CE10" s="45"/>
+      <c r="CG10" s="45"/>
+      <c r="CI10" s="45"/>
+      <c r="CK10" s="45"/>
+      <c r="CL10" s="45"/>
+      <c r="CM10" s="45"/>
+      <c r="CN10" s="45"/>
+      <c r="CO10" s="45"/>
+      <c r="CP10" s="45"/>
+      <c r="CQ10" s="45"/>
+      <c r="CR10" s="45"/>
+      <c r="CS10" s="45"/>
+      <c r="CT10" s="45"/>
+      <c r="CU10" s="45"/>
+      <c r="CV10" s="45"/>
+      <c r="CW10" s="45"/>
+      <c r="CX10" s="45"/>
+      <c r="CY10" s="45"/>
+      <c r="CZ10" s="45"/>
+      <c r="DA10" s="45"/>
+      <c r="DB10" s="45"/>
+      <c r="DC10" s="45"/>
+      <c r="DD10" s="45"/>
+      <c r="DE10" s="45"/>
+      <c r="DF10" s="45"/>
+      <c r="DG10" s="45"/>
+      <c r="DH10" s="45"/>
+      <c r="DI10" s="45"/>
+      <c r="DJ10" s="45"/>
+      <c r="DK10" s="45"/>
+      <c r="DL10" s="45"/>
+      <c r="DM10" s="45"/>
+      <c r="DN10" s="45"/>
+      <c r="DO10" s="45"/>
+      <c r="DP10" s="45"/>
+      <c r="DQ10" s="45"/>
+      <c r="DR10" s="45"/>
+      <c r="DS10" s="45"/>
+      <c r="DT10" s="45"/>
+      <c r="DU10" s="45"/>
+      <c r="DV10" s="45"/>
+      <c r="DW10" s="45"/>
+      <c r="DX10" s="45"/>
+      <c r="DY10" s="45"/>
+      <c r="DZ10" s="45"/>
+      <c r="EA10" s="45"/>
+      <c r="EB10" s="45"/>
+      <c r="EC10" s="45"/>
+      <c r="ED10" s="45"/>
+      <c r="EE10" s="45"/>
+      <c r="EF10" s="45"/>
+      <c r="EG10" s="45"/>
+      <c r="EH10" s="45"/>
+      <c r="EI10" s="45"/>
+      <c r="EJ10" s="45"/>
+      <c r="EK10" s="45"/>
+      <c r="EL10" s="45"/>
+      <c r="EM10" s="45"/>
+      <c r="EN10" s="45"/>
+      <c r="EO10" s="45"/>
+      <c r="EP10" s="45"/>
+      <c r="EQ10" s="45"/>
+      <c r="ER10" s="45"/>
+      <c r="ES10" s="45"/>
+      <c r="ET10" s="45"/>
+      <c r="EU10" s="45"/>
+      <c r="EV10" s="45"/>
+      <c r="EW10" s="45"/>
+      <c r="EX10" s="45"/>
+      <c r="EY10" s="45"/>
+      <c r="EZ10" s="45"/>
+      <c r="FA10" s="45"/>
+      <c r="FB10" s="45"/>
+      <c r="FC10" s="45"/>
+      <c r="FD10" s="45"/>
+      <c r="FE10" s="45"/>
+      <c r="FF10" s="45"/>
+      <c r="FG10" s="45"/>
+      <c r="FH10" s="45"/>
+      <c r="FI10" s="45"/>
+      <c r="FJ10" s="45"/>
+      <c r="FK10" s="45"/>
+      <c r="FL10" s="45"/>
+      <c r="FM10" s="45"/>
+      <c r="FN10" s="45"/>
+      <c r="FO10" s="45"/>
+      <c r="FP10" s="45"/>
+      <c r="FQ10" s="45"/>
+      <c r="FR10" s="45"/>
+      <c r="FS10" s="45"/>
+      <c r="FT10" s="45"/>
+      <c r="FU10" s="45"/>
+      <c r="FV10" s="45"/>
+      <c r="FW10" s="45"/>
+      <c r="FX10" s="45"/>
+      <c r="FY10" s="45"/>
+      <c r="FZ10" s="45"/>
+      <c r="GA10" s="45"/>
+      <c r="GB10" s="45"/>
+      <c r="GC10" s="45"/>
+      <c r="GD10" s="45"/>
+      <c r="GE10" s="45"/>
+      <c r="GF10" s="45"/>
+      <c r="GG10" s="45"/>
+      <c r="GH10" s="45"/>
+      <c r="GI10" s="45"/>
+      <c r="GJ10" s="45"/>
+      <c r="GK10" s="45"/>
+      <c r="GL10" s="45"/>
+      <c r="GM10" s="45"/>
+      <c r="GN10" s="45"/>
+      <c r="GO10" s="45"/>
+      <c r="GP10" s="45"/>
+      <c r="GQ10" s="45"/>
+      <c r="GR10" s="45"/>
+      <c r="GS10" s="45"/>
+      <c r="GT10" s="45"/>
+      <c r="GU10" s="45"/>
+      <c r="GV10" s="45"/>
+      <c r="GW10" s="45"/>
+      <c r="GX10" s="45"/>
+      <c r="GY10" s="45"/>
+      <c r="GZ10" s="45"/>
+      <c r="HA10" s="45"/>
+      <c r="HB10" s="45"/>
+      <c r="HC10" s="45"/>
+      <c r="HD10" s="45"/>
+      <c r="HE10" s="45"/>
+      <c r="HF10" s="45"/>
+      <c r="HG10" s="45"/>
+      <c r="HH10" s="45"/>
+      <c r="HI10" s="45"/>
+      <c r="HJ10" s="45"/>
+      <c r="HK10" s="45"/>
+      <c r="HL10" s="45"/>
+      <c r="HM10" s="45"/>
+      <c r="HN10" s="45"/>
+      <c r="HO10" s="45"/>
+      <c r="HP10" s="45"/>
+      <c r="HQ10" s="45"/>
+      <c r="HR10" s="45"/>
+      <c r="HS10" s="45"/>
+      <c r="HT10" s="45"/>
+      <c r="HU10" s="45"/>
     </row>
-    <row r="8" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4"/>
+    <row r="11" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="BQ11" s="45"/>
+      <c r="BS11" s="45"/>
+      <c r="BU11" s="45"/>
+      <c r="BW11" s="45"/>
+      <c r="BY11" s="45"/>
+      <c r="CA11" s="45"/>
+      <c r="CC11" s="45"/>
+      <c r="CE11" s="45"/>
+      <c r="CG11" s="45"/>
+      <c r="CI11" s="45"/>
+      <c r="CK11" s="45"/>
+      <c r="CL11" s="45"/>
+      <c r="CM11" s="45"/>
+      <c r="CN11" s="45"/>
+      <c r="CO11" s="45"/>
+      <c r="CP11" s="45"/>
+      <c r="CQ11" s="45"/>
+      <c r="CR11" s="45"/>
+      <c r="CS11" s="45"/>
+      <c r="CT11" s="45"/>
+      <c r="CU11" s="45"/>
+      <c r="CV11" s="45"/>
+      <c r="CW11" s="45"/>
+      <c r="CX11" s="45"/>
+      <c r="CY11" s="45"/>
+      <c r="CZ11" s="45"/>
+      <c r="DA11" s="45"/>
+      <c r="DB11" s="45"/>
+      <c r="DC11" s="45"/>
+      <c r="DD11" s="45"/>
+      <c r="DE11" s="45"/>
+      <c r="DF11" s="45"/>
+      <c r="DG11" s="45"/>
+      <c r="DH11" s="45"/>
+      <c r="DI11" s="45"/>
+      <c r="DJ11" s="45"/>
+      <c r="DK11" s="45"/>
+      <c r="DL11" s="45"/>
+      <c r="DM11" s="45"/>
+      <c r="DN11" s="45"/>
+      <c r="DO11" s="45"/>
+      <c r="DP11" s="45"/>
+      <c r="DQ11" s="45"/>
+      <c r="DR11" s="45"/>
+      <c r="DS11" s="45"/>
+      <c r="DT11" s="45"/>
+      <c r="DU11" s="45"/>
+      <c r="DV11" s="45"/>
+      <c r="DW11" s="45"/>
+      <c r="DX11" s="45"/>
+      <c r="DY11" s="45"/>
+      <c r="DZ11" s="45"/>
+      <c r="EA11" s="45"/>
+      <c r="EB11" s="45"/>
+      <c r="EC11" s="45"/>
+      <c r="ED11" s="45"/>
+      <c r="EE11" s="45"/>
+      <c r="EF11" s="45"/>
+      <c r="EG11" s="45"/>
+      <c r="EH11" s="45"/>
+      <c r="EI11" s="45"/>
+      <c r="EJ11" s="45"/>
+      <c r="EK11" s="45"/>
+      <c r="EL11" s="45"/>
+      <c r="EM11" s="45"/>
+      <c r="EN11" s="45"/>
+      <c r="EO11" s="45"/>
+      <c r="EP11" s="45"/>
+      <c r="EQ11" s="45"/>
+      <c r="ER11" s="45"/>
+      <c r="ES11" s="45"/>
+      <c r="ET11" s="45"/>
+      <c r="EU11" s="45"/>
+      <c r="EV11" s="45"/>
+      <c r="EW11" s="45"/>
+      <c r="EX11" s="45"/>
+      <c r="EY11" s="45"/>
+      <c r="EZ11" s="45"/>
+      <c r="FA11" s="45"/>
+      <c r="FB11" s="45"/>
+      <c r="FC11" s="45"/>
+      <c r="FD11" s="45"/>
+      <c r="FE11" s="45"/>
+      <c r="FF11" s="45"/>
+      <c r="FG11" s="45"/>
+      <c r="FH11" s="45"/>
+      <c r="FI11" s="45"/>
+      <c r="FJ11" s="45"/>
+      <c r="FK11" s="45"/>
+      <c r="FL11" s="45"/>
+      <c r="FM11" s="45"/>
+      <c r="FN11" s="45"/>
+      <c r="FO11" s="45"/>
+      <c r="FP11" s="45"/>
+      <c r="FQ11" s="45"/>
+      <c r="FR11" s="45"/>
+      <c r="FS11" s="45"/>
+      <c r="FT11" s="45"/>
+      <c r="FU11" s="45"/>
+      <c r="FV11" s="45"/>
+      <c r="FW11" s="45"/>
+      <c r="FX11" s="45"/>
+      <c r="FY11" s="45"/>
+      <c r="FZ11" s="45"/>
+      <c r="GA11" s="45"/>
+      <c r="GB11" s="45"/>
+      <c r="GC11" s="45"/>
+      <c r="GD11" s="45"/>
+      <c r="GE11" s="45"/>
+      <c r="GF11" s="45"/>
+      <c r="GG11" s="45"/>
+      <c r="GH11" s="45"/>
+      <c r="GI11" s="45"/>
+      <c r="GJ11" s="45"/>
+      <c r="GK11" s="45"/>
+      <c r="GL11" s="45"/>
+      <c r="GM11" s="45"/>
+      <c r="GN11" s="45"/>
+      <c r="GO11" s="45"/>
+      <c r="GP11" s="45"/>
+      <c r="GQ11" s="45"/>
+      <c r="GR11" s="45"/>
+      <c r="GS11" s="45"/>
+      <c r="GT11" s="45"/>
+      <c r="GU11" s="45"/>
+      <c r="GV11" s="45"/>
+      <c r="GW11" s="45"/>
+      <c r="GX11" s="45"/>
+      <c r="GY11" s="45"/>
+      <c r="GZ11" s="45"/>
+      <c r="HA11" s="45"/>
+      <c r="HB11" s="45"/>
+      <c r="HC11" s="45"/>
+      <c r="HD11" s="45"/>
+      <c r="HE11" s="45"/>
+      <c r="HF11" s="45"/>
+      <c r="HG11" s="45"/>
+      <c r="HH11" s="45"/>
+      <c r="HI11" s="45"/>
+      <c r="HJ11" s="45"/>
+      <c r="HK11" s="45"/>
+      <c r="HL11" s="45"/>
+      <c r="HM11" s="45"/>
+      <c r="HN11" s="45"/>
+      <c r="HO11" s="45"/>
+      <c r="HP11" s="45"/>
+      <c r="HQ11" s="45"/>
+      <c r="HR11" s="45"/>
+      <c r="HS11" s="45"/>
+      <c r="HT11" s="45"/>
+      <c r="HU11" s="45"/>
     </row>
-    <row r="9" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4"/>
+    <row r="12" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="BQ12" s="45"/>
+      <c r="BS12" s="45"/>
+      <c r="BU12" s="45"/>
+      <c r="BW12" s="45"/>
+      <c r="BY12" s="45"/>
+      <c r="CA12" s="45"/>
+      <c r="CC12" s="45"/>
+      <c r="CE12" s="45"/>
+      <c r="CG12" s="45"/>
+      <c r="CI12" s="45"/>
+      <c r="CK12" s="45"/>
+      <c r="CL12" s="45"/>
+      <c r="CM12" s="45"/>
+      <c r="CN12" s="45"/>
+      <c r="CO12" s="45"/>
+      <c r="CP12" s="45"/>
+      <c r="CQ12" s="45"/>
+      <c r="CR12" s="45"/>
+      <c r="CS12" s="45"/>
+      <c r="CT12" s="45"/>
+      <c r="CU12" s="45"/>
+      <c r="CV12" s="45"/>
+      <c r="CW12" s="45"/>
+      <c r="CX12" s="45"/>
+      <c r="CY12" s="45"/>
+      <c r="CZ12" s="45"/>
+      <c r="DA12" s="45"/>
+      <c r="DB12" s="45"/>
+      <c r="DC12" s="45"/>
+      <c r="DD12" s="45"/>
+      <c r="DE12" s="45"/>
+      <c r="DF12" s="45"/>
+      <c r="DG12" s="45"/>
+      <c r="DH12" s="45"/>
+      <c r="DI12" s="45"/>
+      <c r="DJ12" s="45"/>
+      <c r="DK12" s="45"/>
+      <c r="DL12" s="45"/>
+      <c r="DM12" s="45"/>
+      <c r="DN12" s="45"/>
+      <c r="DO12" s="45"/>
+      <c r="DP12" s="45"/>
+      <c r="DQ12" s="45"/>
+      <c r="DR12" s="45"/>
+      <c r="DS12" s="45"/>
+      <c r="DT12" s="45"/>
+      <c r="DU12" s="45"/>
+      <c r="DV12" s="45"/>
+      <c r="DW12" s="45"/>
+      <c r="DX12" s="45"/>
+      <c r="DY12" s="45"/>
+      <c r="DZ12" s="45"/>
+      <c r="EA12" s="45"/>
+      <c r="EB12" s="45"/>
+      <c r="EC12" s="45"/>
+      <c r="ED12" s="45"/>
+      <c r="EE12" s="45"/>
+      <c r="EF12" s="45"/>
+      <c r="EG12" s="45"/>
+      <c r="EH12" s="45"/>
+      <c r="EI12" s="45"/>
+      <c r="EJ12" s="45"/>
+      <c r="EK12" s="45"/>
+      <c r="EL12" s="45"/>
+      <c r="EM12" s="45"/>
+      <c r="EN12" s="45"/>
+      <c r="EO12" s="45"/>
+      <c r="EP12" s="45"/>
+      <c r="EQ12" s="45"/>
+      <c r="ER12" s="45"/>
+      <c r="ES12" s="45"/>
+      <c r="ET12" s="45"/>
+      <c r="EU12" s="45"/>
+      <c r="EV12" s="45"/>
+      <c r="EW12" s="45"/>
+      <c r="EX12" s="45"/>
+      <c r="EY12" s="45"/>
+      <c r="EZ12" s="45"/>
+      <c r="FA12" s="45"/>
+      <c r="FB12" s="45"/>
+      <c r="FC12" s="45"/>
+      <c r="FD12" s="45"/>
+      <c r="FE12" s="45"/>
+      <c r="FF12" s="45"/>
+      <c r="FG12" s="45"/>
+      <c r="FH12" s="45"/>
+      <c r="FI12" s="45"/>
+      <c r="FJ12" s="45"/>
+      <c r="FK12" s="45"/>
+      <c r="FL12" s="45"/>
+      <c r="FM12" s="45"/>
+      <c r="FN12" s="45"/>
+      <c r="FO12" s="45"/>
+      <c r="FP12" s="45"/>
+      <c r="FQ12" s="45"/>
+      <c r="FR12" s="45"/>
+      <c r="FS12" s="45"/>
+      <c r="FT12" s="45"/>
+      <c r="FU12" s="45"/>
+      <c r="FV12" s="45"/>
+      <c r="FW12" s="45"/>
+      <c r="FX12" s="45"/>
+      <c r="FY12" s="45"/>
+      <c r="FZ12" s="45"/>
+      <c r="GA12" s="45"/>
+      <c r="GB12" s="45"/>
+      <c r="GC12" s="45"/>
+      <c r="GD12" s="45"/>
+      <c r="GE12" s="45"/>
+      <c r="GF12" s="45"/>
+      <c r="GG12" s="45"/>
+      <c r="GH12" s="45"/>
+      <c r="GI12" s="45"/>
+      <c r="GJ12" s="45"/>
+      <c r="GK12" s="45"/>
+      <c r="GL12" s="45"/>
+      <c r="GM12" s="45"/>
+      <c r="GN12" s="45"/>
+      <c r="GO12" s="45"/>
+      <c r="GP12" s="45"/>
+      <c r="GQ12" s="45"/>
+      <c r="GR12" s="45"/>
+      <c r="GS12" s="45"/>
+      <c r="GT12" s="45"/>
+      <c r="GU12" s="45"/>
+      <c r="GV12" s="45"/>
+      <c r="GW12" s="45"/>
+      <c r="GX12" s="45"/>
+      <c r="GY12" s="45"/>
+      <c r="GZ12" s="45"/>
+      <c r="HA12" s="45"/>
+      <c r="HB12" s="45"/>
+      <c r="HC12" s="45"/>
+      <c r="HD12" s="45"/>
+      <c r="HE12" s="45"/>
+      <c r="HF12" s="45"/>
+      <c r="HG12" s="45"/>
+      <c r="HH12" s="45"/>
+      <c r="HI12" s="45"/>
+      <c r="HJ12" s="45"/>
+      <c r="HK12" s="45"/>
+      <c r="HL12" s="45"/>
+      <c r="HM12" s="45"/>
+      <c r="HN12" s="45"/>
+      <c r="HO12" s="45"/>
+      <c r="HP12" s="45"/>
+      <c r="HQ12" s="45"/>
+      <c r="HR12" s="45"/>
+      <c r="HS12" s="45"/>
+      <c r="HT12" s="45"/>
+      <c r="HU12" s="45"/>
     </row>
-    <row r="10" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4"/>
+    <row r="13" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="BQ13" s="45"/>
+      <c r="BS13" s="45"/>
+      <c r="BU13" s="45"/>
+      <c r="BW13" s="45"/>
+      <c r="BY13" s="45"/>
+      <c r="CA13" s="45"/>
+      <c r="CC13" s="45"/>
+      <c r="CE13" s="45"/>
+      <c r="CG13" s="45"/>
+      <c r="CI13" s="45"/>
+      <c r="CK13" s="45"/>
+      <c r="CL13" s="45"/>
+      <c r="CM13" s="45"/>
+      <c r="CN13" s="45"/>
+      <c r="CO13" s="45"/>
+      <c r="CP13" s="45"/>
+      <c r="CQ13" s="45"/>
+      <c r="CR13" s="45"/>
+      <c r="CS13" s="45"/>
+      <c r="CT13" s="45"/>
+      <c r="CU13" s="45"/>
+      <c r="CV13" s="45"/>
+      <c r="CW13" s="45"/>
+      <c r="CX13" s="45"/>
+      <c r="CY13" s="45"/>
+      <c r="CZ13" s="45"/>
+      <c r="DA13" s="45"/>
+      <c r="DB13" s="45"/>
+      <c r="DC13" s="45"/>
+      <c r="DD13" s="45"/>
+      <c r="DE13" s="45"/>
+      <c r="DF13" s="45"/>
+      <c r="DG13" s="45"/>
+      <c r="DH13" s="45"/>
+      <c r="DI13" s="45"/>
+      <c r="DJ13" s="45"/>
+      <c r="DK13" s="45"/>
+      <c r="DL13" s="45"/>
+      <c r="DM13" s="45"/>
+      <c r="DN13" s="45"/>
+      <c r="DO13" s="45"/>
+      <c r="DP13" s="45"/>
+      <c r="DQ13" s="45"/>
+      <c r="DR13" s="45"/>
+      <c r="DS13" s="45"/>
+      <c r="DT13" s="45"/>
+      <c r="DU13" s="45"/>
+      <c r="DV13" s="45"/>
+      <c r="DW13" s="45"/>
+      <c r="DX13" s="45"/>
+      <c r="DY13" s="45"/>
+      <c r="DZ13" s="45"/>
+      <c r="EA13" s="45"/>
+      <c r="EB13" s="45"/>
+      <c r="EC13" s="45"/>
+      <c r="ED13" s="45"/>
+      <c r="EE13" s="45"/>
+      <c r="EF13" s="45"/>
+      <c r="EG13" s="45"/>
+      <c r="EH13" s="45"/>
+      <c r="EI13" s="45"/>
+      <c r="EJ13" s="45"/>
+      <c r="EK13" s="45"/>
+      <c r="EL13" s="45"/>
+      <c r="EM13" s="45"/>
+      <c r="EN13" s="45"/>
+      <c r="EO13" s="45"/>
+      <c r="EP13" s="45"/>
+      <c r="EQ13" s="45"/>
+      <c r="ER13" s="45"/>
+      <c r="ES13" s="45"/>
+      <c r="ET13" s="45"/>
+      <c r="EU13" s="45"/>
+      <c r="EV13" s="45"/>
+      <c r="EW13" s="45"/>
+      <c r="EX13" s="45"/>
+      <c r="EY13" s="45"/>
+      <c r="EZ13" s="45"/>
+      <c r="FA13" s="45"/>
+      <c r="FB13" s="45"/>
+      <c r="FC13" s="45"/>
+      <c r="FD13" s="45"/>
+      <c r="FE13" s="45"/>
+      <c r="FF13" s="45"/>
+      <c r="FG13" s="45"/>
+      <c r="FH13" s="45"/>
+      <c r="FI13" s="45"/>
+      <c r="FJ13" s="45"/>
+      <c r="FK13" s="45"/>
+      <c r="FL13" s="45"/>
+      <c r="FM13" s="45"/>
+      <c r="FN13" s="45"/>
+      <c r="FO13" s="45"/>
+      <c r="FP13" s="45"/>
+      <c r="FQ13" s="45"/>
+      <c r="FR13" s="45"/>
+      <c r="FS13" s="45"/>
+      <c r="FT13" s="45"/>
+      <c r="FU13" s="45"/>
+      <c r="FV13" s="45"/>
+      <c r="FW13" s="45"/>
+      <c r="FX13" s="45"/>
+      <c r="FY13" s="45"/>
+      <c r="FZ13" s="45"/>
+      <c r="GA13" s="45"/>
+      <c r="GB13" s="45"/>
+      <c r="GC13" s="45"/>
+      <c r="GD13" s="45"/>
+      <c r="GE13" s="45"/>
+      <c r="GF13" s="45"/>
+      <c r="GG13" s="45"/>
+      <c r="GH13" s="45"/>
+      <c r="GI13" s="45"/>
+      <c r="GJ13" s="45"/>
+      <c r="GK13" s="45"/>
+      <c r="GL13" s="45"/>
+      <c r="GM13" s="45"/>
+      <c r="GN13" s="45"/>
+      <c r="GO13" s="45"/>
+      <c r="GP13" s="45"/>
+      <c r="GQ13" s="45"/>
+      <c r="GR13" s="45"/>
+      <c r="GS13" s="45"/>
+      <c r="GT13" s="45"/>
+      <c r="GU13" s="45"/>
+      <c r="GV13" s="45"/>
+      <c r="GW13" s="45"/>
+      <c r="GX13" s="45"/>
+      <c r="GY13" s="45"/>
+      <c r="GZ13" s="45"/>
+      <c r="HA13" s="45"/>
+      <c r="HB13" s="45"/>
+      <c r="HC13" s="45"/>
+      <c r="HD13" s="45"/>
+      <c r="HE13" s="45"/>
+      <c r="HF13" s="45"/>
+      <c r="HG13" s="45"/>
+      <c r="HH13" s="45"/>
+      <c r="HI13" s="45"/>
+      <c r="HJ13" s="45"/>
+      <c r="HK13" s="45"/>
+      <c r="HL13" s="45"/>
+      <c r="HM13" s="45"/>
+      <c r="HN13" s="45"/>
+      <c r="HO13" s="45"/>
+      <c r="HP13" s="45"/>
+      <c r="HQ13" s="45"/>
+      <c r="HR13" s="45"/>
+      <c r="HS13" s="45"/>
+      <c r="HT13" s="45"/>
+      <c r="HU13" s="45"/>
     </row>
-    <row r="11" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4"/>
+    <row r="14" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="BQ14" s="45"/>
+      <c r="BS14" s="45"/>
+      <c r="BU14" s="45"/>
+      <c r="BW14" s="45"/>
+      <c r="BY14" s="45"/>
+      <c r="CA14" s="45"/>
+      <c r="CC14" s="45"/>
+      <c r="CE14" s="45"/>
+      <c r="CG14" s="45"/>
+      <c r="CI14" s="45"/>
+      <c r="CK14" s="45"/>
+      <c r="CL14" s="45"/>
+      <c r="CM14" s="45"/>
+      <c r="CN14" s="45"/>
+      <c r="CO14" s="45"/>
+      <c r="CP14" s="45"/>
+      <c r="CQ14" s="45"/>
+      <c r="CR14" s="45"/>
+      <c r="CS14" s="45"/>
+      <c r="CT14" s="45"/>
+      <c r="CU14" s="45"/>
+      <c r="CV14" s="45"/>
+      <c r="CW14" s="45"/>
+      <c r="CX14" s="45"/>
+      <c r="CY14" s="45"/>
+      <c r="CZ14" s="45"/>
+      <c r="DA14" s="45"/>
+      <c r="DB14" s="45"/>
+      <c r="DC14" s="45"/>
+      <c r="DD14" s="45"/>
+      <c r="DE14" s="45"/>
+      <c r="DF14" s="45"/>
+      <c r="DG14" s="45"/>
+      <c r="DH14" s="45"/>
+      <c r="DI14" s="45"/>
+      <c r="DJ14" s="45"/>
+      <c r="DK14" s="45"/>
+      <c r="DL14" s="45"/>
+      <c r="DM14" s="45"/>
+      <c r="DN14" s="45"/>
+      <c r="DO14" s="45"/>
+      <c r="DP14" s="45"/>
+      <c r="DQ14" s="45"/>
+      <c r="DR14" s="45"/>
+      <c r="DS14" s="45"/>
+      <c r="DT14" s="45"/>
+      <c r="DU14" s="45"/>
+      <c r="DV14" s="45"/>
+      <c r="DW14" s="45"/>
+      <c r="DX14" s="45"/>
+      <c r="DY14" s="45"/>
+      <c r="DZ14" s="45"/>
+      <c r="EA14" s="45"/>
+      <c r="EB14" s="45"/>
+      <c r="EC14" s="45"/>
+      <c r="ED14" s="45"/>
+      <c r="EE14" s="45"/>
+      <c r="EF14" s="45"/>
+      <c r="EG14" s="45"/>
+      <c r="EH14" s="45"/>
+      <c r="EI14" s="45"/>
+      <c r="EJ14" s="45"/>
+      <c r="EK14" s="45"/>
+      <c r="EL14" s="45"/>
+      <c r="EM14" s="45"/>
+      <c r="EN14" s="45"/>
+      <c r="EO14" s="45"/>
+      <c r="EP14" s="45"/>
+      <c r="EQ14" s="45"/>
+      <c r="ER14" s="45"/>
+      <c r="ES14" s="45"/>
+      <c r="ET14" s="45"/>
+      <c r="EU14" s="45"/>
+      <c r="EV14" s="45"/>
+      <c r="EW14" s="45"/>
+      <c r="EX14" s="45"/>
+      <c r="EY14" s="45"/>
+      <c r="EZ14" s="45"/>
+      <c r="FA14" s="45"/>
+      <c r="FB14" s="45"/>
+      <c r="FC14" s="45"/>
+      <c r="FD14" s="45"/>
+      <c r="FE14" s="45"/>
+      <c r="FF14" s="45"/>
+      <c r="FG14" s="45"/>
+      <c r="FH14" s="45"/>
+      <c r="FI14" s="45"/>
+      <c r="FJ14" s="45"/>
+      <c r="FK14" s="45"/>
+      <c r="FL14" s="45"/>
+      <c r="FM14" s="45"/>
+      <c r="FN14" s="45"/>
+      <c r="FO14" s="45"/>
+      <c r="FP14" s="45"/>
+      <c r="FQ14" s="45"/>
+      <c r="FR14" s="45"/>
+      <c r="FS14" s="45"/>
+      <c r="FT14" s="45"/>
+      <c r="FU14" s="45"/>
+      <c r="FV14" s="45"/>
+      <c r="FW14" s="45"/>
+      <c r="FX14" s="45"/>
+      <c r="FY14" s="45"/>
+      <c r="FZ14" s="45"/>
+      <c r="GA14" s="45"/>
+      <c r="GB14" s="45"/>
+      <c r="GC14" s="45"/>
+      <c r="GD14" s="45"/>
+      <c r="GE14" s="45"/>
+      <c r="GF14" s="45"/>
+      <c r="GG14" s="45"/>
+      <c r="GH14" s="45"/>
+      <c r="GI14" s="45"/>
+      <c r="GJ14" s="45"/>
+      <c r="GK14" s="45"/>
+      <c r="GL14" s="45"/>
+      <c r="GM14" s="45"/>
+      <c r="GN14" s="45"/>
+      <c r="GO14" s="45"/>
+      <c r="GP14" s="45"/>
+      <c r="GQ14" s="45"/>
+      <c r="GR14" s="45"/>
+      <c r="GS14" s="45"/>
+      <c r="GT14" s="45"/>
+      <c r="GU14" s="45"/>
+      <c r="GV14" s="45"/>
+      <c r="GW14" s="45"/>
+      <c r="GX14" s="45"/>
+      <c r="GY14" s="45"/>
+      <c r="GZ14" s="45"/>
+      <c r="HA14" s="45"/>
+      <c r="HB14" s="45"/>
+      <c r="HC14" s="45"/>
+      <c r="HD14" s="45"/>
+      <c r="HE14" s="45"/>
+      <c r="HF14" s="45"/>
+      <c r="HG14" s="45"/>
+      <c r="HH14" s="45"/>
+      <c r="HI14" s="45"/>
+      <c r="HJ14" s="45"/>
+      <c r="HK14" s="45"/>
+      <c r="HL14" s="45"/>
+      <c r="HM14" s="45"/>
+      <c r="HN14" s="45"/>
+      <c r="HO14" s="45"/>
+      <c r="HP14" s="45"/>
+      <c r="HQ14" s="45"/>
+      <c r="HR14" s="45"/>
+      <c r="HS14" s="45"/>
+      <c r="HT14" s="45"/>
+      <c r="HU14" s="45"/>
     </row>
-    <row r="12" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4"/>
+    <row r="15" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="BQ15" s="45"/>
+      <c r="BS15" s="45"/>
+      <c r="BU15" s="45"/>
+      <c r="BW15" s="45"/>
+      <c r="BY15" s="45"/>
+      <c r="CA15" s="45"/>
+      <c r="CC15" s="45"/>
+      <c r="CE15" s="45"/>
+      <c r="CG15" s="45"/>
+      <c r="CI15" s="45"/>
+      <c r="CK15" s="45"/>
+      <c r="CL15" s="45"/>
+      <c r="CM15" s="45"/>
+      <c r="CN15" s="45"/>
+      <c r="CO15" s="45"/>
+      <c r="CP15" s="45"/>
+      <c r="CQ15" s="45"/>
+      <c r="CR15" s="45"/>
+      <c r="CS15" s="45"/>
+      <c r="CT15" s="45"/>
+      <c r="CU15" s="45"/>
+      <c r="CV15" s="45"/>
+      <c r="CW15" s="45"/>
+      <c r="CX15" s="45"/>
+      <c r="CY15" s="45"/>
+      <c r="CZ15" s="45"/>
+      <c r="DA15" s="45"/>
+      <c r="DB15" s="45"/>
+      <c r="DC15" s="45"/>
+      <c r="DD15" s="45"/>
+      <c r="DE15" s="45"/>
+      <c r="DF15" s="45"/>
+      <c r="DG15" s="45"/>
+      <c r="DH15" s="45"/>
+      <c r="DI15" s="45"/>
+      <c r="DJ15" s="45"/>
+      <c r="DK15" s="45"/>
+      <c r="DL15" s="45"/>
+      <c r="DM15" s="45"/>
+      <c r="DN15" s="45"/>
+      <c r="DO15" s="45"/>
+      <c r="DP15" s="45"/>
+      <c r="DQ15" s="45"/>
+      <c r="DR15" s="45"/>
+      <c r="DS15" s="45"/>
+      <c r="DT15" s="45"/>
+      <c r="DU15" s="45"/>
+      <c r="DV15" s="45"/>
+      <c r="DW15" s="45"/>
+      <c r="DX15" s="45"/>
+      <c r="DY15" s="45"/>
+      <c r="DZ15" s="45"/>
+      <c r="EA15" s="45"/>
+      <c r="EB15" s="45"/>
+      <c r="EC15" s="45"/>
+      <c r="ED15" s="45"/>
+      <c r="EE15" s="45"/>
+      <c r="EF15" s="45"/>
+      <c r="EG15" s="45"/>
+      <c r="EH15" s="45"/>
+      <c r="EI15" s="45"/>
+      <c r="EJ15" s="45"/>
+      <c r="EK15" s="45"/>
+      <c r="EL15" s="45"/>
+      <c r="EM15" s="45"/>
+      <c r="EN15" s="45"/>
+      <c r="EO15" s="45"/>
+      <c r="EP15" s="45"/>
+      <c r="EQ15" s="45"/>
+      <c r="ER15" s="45"/>
+      <c r="ES15" s="45"/>
+      <c r="ET15" s="45"/>
+      <c r="EU15" s="45"/>
+      <c r="EV15" s="45"/>
+      <c r="EW15" s="45"/>
+      <c r="EX15" s="45"/>
+      <c r="EY15" s="45"/>
+      <c r="EZ15" s="45"/>
+      <c r="FA15" s="45"/>
+      <c r="FB15" s="45"/>
+      <c r="FC15" s="45"/>
+      <c r="FD15" s="45"/>
+      <c r="FE15" s="45"/>
+      <c r="FF15" s="45"/>
+      <c r="FG15" s="45"/>
+      <c r="FH15" s="45"/>
+      <c r="FI15" s="45"/>
+      <c r="FJ15" s="45"/>
+      <c r="FK15" s="45"/>
+      <c r="FL15" s="45"/>
+      <c r="FM15" s="45"/>
+      <c r="FN15" s="45"/>
+      <c r="FO15" s="45"/>
+      <c r="FP15" s="45"/>
+      <c r="FQ15" s="45"/>
+      <c r="FR15" s="45"/>
+      <c r="FS15" s="45"/>
+      <c r="FT15" s="45"/>
+      <c r="FU15" s="45"/>
+      <c r="FV15" s="45"/>
+      <c r="FW15" s="45"/>
+      <c r="FX15" s="45"/>
+      <c r="FY15" s="45"/>
+      <c r="FZ15" s="45"/>
+      <c r="GA15" s="45"/>
+      <c r="GB15" s="45"/>
+      <c r="GC15" s="45"/>
+      <c r="GD15" s="45"/>
+      <c r="GE15" s="45"/>
+      <c r="GF15" s="45"/>
+      <c r="GG15" s="45"/>
+      <c r="GH15" s="45"/>
+      <c r="GI15" s="45"/>
+      <c r="GJ15" s="45"/>
+      <c r="GK15" s="45"/>
+      <c r="GL15" s="45"/>
+      <c r="GM15" s="45"/>
+      <c r="GN15" s="45"/>
+      <c r="GO15" s="45"/>
+      <c r="GP15" s="45"/>
+      <c r="GQ15" s="45"/>
+      <c r="GR15" s="45"/>
+      <c r="GS15" s="45"/>
+      <c r="GT15" s="45"/>
+      <c r="GU15" s="45"/>
+      <c r="GV15" s="45"/>
+      <c r="GW15" s="45"/>
+      <c r="GX15" s="45"/>
+      <c r="GY15" s="45"/>
+      <c r="GZ15" s="45"/>
+      <c r="HA15" s="45"/>
+      <c r="HB15" s="45"/>
+      <c r="HC15" s="45"/>
+      <c r="HD15" s="45"/>
+      <c r="HE15" s="45"/>
+      <c r="HF15" s="45"/>
+      <c r="HG15" s="45"/>
+      <c r="HH15" s="45"/>
+      <c r="HI15" s="45"/>
+      <c r="HJ15" s="45"/>
+      <c r="HK15" s="45"/>
+      <c r="HL15" s="45"/>
+      <c r="HM15" s="45"/>
+      <c r="HN15" s="45"/>
+      <c r="HO15" s="45"/>
+      <c r="HP15" s="45"/>
+      <c r="HQ15" s="45"/>
+      <c r="HR15" s="45"/>
+      <c r="HS15" s="45"/>
+      <c r="HT15" s="45"/>
+      <c r="HU15" s="45"/>
     </row>
-    <row r="13" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4"/>
+    <row r="16" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="BQ16" s="45"/>
+      <c r="BS16" s="45"/>
+      <c r="BU16" s="45"/>
+      <c r="BW16" s="45"/>
+      <c r="BY16" s="45"/>
+      <c r="CA16" s="45"/>
+      <c r="CC16" s="45"/>
+      <c r="CE16" s="45"/>
+      <c r="CG16" s="45"/>
+      <c r="CI16" s="45"/>
+      <c r="CK16" s="45"/>
+      <c r="CL16" s="45"/>
+      <c r="CM16" s="45"/>
+      <c r="CN16" s="45"/>
+      <c r="CO16" s="45"/>
+      <c r="CP16" s="45"/>
+      <c r="CQ16" s="45"/>
+      <c r="CR16" s="45"/>
+      <c r="CS16" s="45"/>
+      <c r="CT16" s="45"/>
+      <c r="CU16" s="45"/>
+      <c r="CV16" s="45"/>
+      <c r="CW16" s="45"/>
+      <c r="CX16" s="45"/>
+      <c r="CY16" s="45"/>
+      <c r="CZ16" s="45"/>
+      <c r="DA16" s="45"/>
+      <c r="DB16" s="45"/>
+      <c r="DC16" s="45"/>
+      <c r="DD16" s="45"/>
+      <c r="DE16" s="45"/>
+      <c r="DF16" s="45"/>
+      <c r="DG16" s="45"/>
+      <c r="DH16" s="45"/>
+      <c r="DI16" s="45"/>
+      <c r="DJ16" s="45"/>
+      <c r="DK16" s="45"/>
+      <c r="DL16" s="45"/>
+      <c r="DM16" s="45"/>
+      <c r="DN16" s="45"/>
+      <c r="DO16" s="45"/>
+      <c r="DP16" s="45"/>
+      <c r="DQ16" s="45"/>
+      <c r="DR16" s="45"/>
+      <c r="DS16" s="45"/>
+      <c r="DT16" s="45"/>
+      <c r="DU16" s="45"/>
+      <c r="DV16" s="45"/>
+      <c r="DW16" s="45"/>
+      <c r="DX16" s="45"/>
+      <c r="DY16" s="45"/>
+      <c r="DZ16" s="45"/>
+      <c r="EA16" s="45"/>
+      <c r="EB16" s="45"/>
+      <c r="EC16" s="45"/>
+      <c r="ED16" s="45"/>
+      <c r="EE16" s="45"/>
+      <c r="EF16" s="45"/>
+      <c r="EG16" s="45"/>
+      <c r="EH16" s="45"/>
+      <c r="EI16" s="45"/>
+      <c r="EJ16" s="45"/>
+      <c r="EK16" s="45"/>
+      <c r="EL16" s="45"/>
+      <c r="EM16" s="45"/>
+      <c r="EN16" s="45"/>
+      <c r="EO16" s="45"/>
+      <c r="EP16" s="45"/>
+      <c r="EQ16" s="45"/>
+      <c r="ER16" s="45"/>
+      <c r="ES16" s="45"/>
+      <c r="ET16" s="45"/>
+      <c r="EU16" s="45"/>
+      <c r="EV16" s="45"/>
+      <c r="EW16" s="45"/>
+      <c r="EX16" s="45"/>
+      <c r="EY16" s="45"/>
+      <c r="EZ16" s="45"/>
+      <c r="FA16" s="45"/>
+      <c r="FB16" s="45"/>
+      <c r="FC16" s="45"/>
+      <c r="FD16" s="45"/>
+      <c r="FE16" s="45"/>
+      <c r="FF16" s="45"/>
+      <c r="FG16" s="45"/>
+      <c r="FH16" s="45"/>
+      <c r="FI16" s="45"/>
+      <c r="FJ16" s="45"/>
+      <c r="FK16" s="45"/>
+      <c r="FL16" s="45"/>
+      <c r="FM16" s="45"/>
+      <c r="FN16" s="45"/>
+      <c r="FO16" s="45"/>
+      <c r="FP16" s="45"/>
+      <c r="FQ16" s="45"/>
+      <c r="FR16" s="45"/>
+      <c r="FS16" s="45"/>
+      <c r="FT16" s="45"/>
+      <c r="FU16" s="45"/>
+      <c r="FV16" s="45"/>
+      <c r="FW16" s="45"/>
+      <c r="FX16" s="45"/>
+      <c r="FY16" s="45"/>
+      <c r="FZ16" s="45"/>
+      <c r="GA16" s="45"/>
+      <c r="GB16" s="45"/>
+      <c r="GC16" s="45"/>
+      <c r="GD16" s="45"/>
+      <c r="GE16" s="45"/>
+      <c r="GF16" s="45"/>
+      <c r="GG16" s="45"/>
+      <c r="GH16" s="45"/>
+      <c r="GI16" s="45"/>
+      <c r="GJ16" s="45"/>
+      <c r="GK16" s="45"/>
+      <c r="GL16" s="45"/>
+      <c r="GM16" s="45"/>
+      <c r="GN16" s="45"/>
+      <c r="GO16" s="45"/>
+      <c r="GP16" s="45"/>
+      <c r="GQ16" s="45"/>
+      <c r="GR16" s="45"/>
+      <c r="GS16" s="45"/>
+      <c r="GT16" s="45"/>
+      <c r="GU16" s="45"/>
+      <c r="GV16" s="45"/>
+      <c r="GW16" s="45"/>
+      <c r="GX16" s="45"/>
+      <c r="GY16" s="45"/>
+      <c r="GZ16" s="45"/>
+      <c r="HA16" s="45"/>
+      <c r="HB16" s="45"/>
+      <c r="HC16" s="45"/>
+      <c r="HD16" s="45"/>
+      <c r="HE16" s="45"/>
+      <c r="HF16" s="45"/>
+      <c r="HG16" s="45"/>
+      <c r="HH16" s="45"/>
+      <c r="HI16" s="45"/>
+      <c r="HJ16" s="45"/>
+      <c r="HK16" s="45"/>
+      <c r="HL16" s="45"/>
+      <c r="HM16" s="45"/>
+      <c r="HN16" s="45"/>
+      <c r="HO16" s="45"/>
+      <c r="HP16" s="45"/>
+      <c r="HQ16" s="45"/>
+      <c r="HR16" s="45"/>
+      <c r="HS16" s="45"/>
+      <c r="HT16" s="45"/>
+      <c r="HU16" s="45"/>
     </row>
-    <row r="14" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4"/>
+    <row r="17" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="BQ17" s="45"/>
+      <c r="BS17" s="45"/>
+      <c r="BU17" s="45"/>
+      <c r="BW17" s="45"/>
+      <c r="BY17" s="45"/>
+      <c r="CA17" s="45"/>
+      <c r="CC17" s="45"/>
+      <c r="CE17" s="45"/>
+      <c r="CG17" s="45"/>
+      <c r="CI17" s="45"/>
+      <c r="CK17" s="45"/>
+      <c r="CL17" s="45"/>
+      <c r="CM17" s="45"/>
+      <c r="CN17" s="45"/>
+      <c r="CO17" s="45"/>
+      <c r="CP17" s="45"/>
+      <c r="CQ17" s="45"/>
+      <c r="CR17" s="45"/>
+      <c r="CS17" s="45"/>
+      <c r="CT17" s="45"/>
+      <c r="CU17" s="45"/>
+      <c r="CV17" s="45"/>
+      <c r="CW17" s="45"/>
+      <c r="CX17" s="45"/>
+      <c r="CY17" s="45"/>
+      <c r="CZ17" s="45"/>
+      <c r="DA17" s="45"/>
+      <c r="DB17" s="45"/>
+      <c r="DC17" s="45"/>
+      <c r="DD17" s="45"/>
+      <c r="DE17" s="45"/>
+      <c r="DF17" s="45"/>
+      <c r="DG17" s="45"/>
+      <c r="DH17" s="45"/>
+      <c r="DI17" s="45"/>
+      <c r="DJ17" s="45"/>
+      <c r="DK17" s="45"/>
+      <c r="DL17" s="45"/>
+      <c r="DM17" s="45"/>
+      <c r="DN17" s="45"/>
+      <c r="DO17" s="45"/>
+      <c r="DP17" s="45"/>
+      <c r="DQ17" s="45"/>
+      <c r="DR17" s="45"/>
+      <c r="DS17" s="45"/>
+      <c r="DT17" s="45"/>
+      <c r="DU17" s="45"/>
+      <c r="DV17" s="45"/>
+      <c r="DW17" s="45"/>
+      <c r="DX17" s="45"/>
+      <c r="DY17" s="45"/>
+      <c r="DZ17" s="45"/>
+      <c r="EA17" s="45"/>
+      <c r="EB17" s="45"/>
+      <c r="EC17" s="45"/>
+      <c r="ED17" s="45"/>
+      <c r="EE17" s="45"/>
+      <c r="EF17" s="45"/>
+      <c r="EG17" s="45"/>
+      <c r="EH17" s="45"/>
+      <c r="EI17" s="45"/>
+      <c r="EJ17" s="45"/>
+      <c r="EK17" s="45"/>
+      <c r="EL17" s="45"/>
+      <c r="EM17" s="45"/>
+      <c r="EN17" s="45"/>
+      <c r="EO17" s="45"/>
+      <c r="EP17" s="45"/>
+      <c r="EQ17" s="45"/>
+      <c r="ER17" s="45"/>
+      <c r="ES17" s="45"/>
+      <c r="ET17" s="45"/>
+      <c r="EU17" s="45"/>
+      <c r="EV17" s="45"/>
+      <c r="EW17" s="45"/>
+      <c r="EX17" s="45"/>
+      <c r="EY17" s="45"/>
+      <c r="EZ17" s="45"/>
+      <c r="FA17" s="45"/>
+      <c r="FB17" s="45"/>
+      <c r="FC17" s="45"/>
+      <c r="FD17" s="45"/>
+      <c r="FE17" s="45"/>
+      <c r="FF17" s="45"/>
+      <c r="FG17" s="45"/>
+      <c r="FH17" s="45"/>
+      <c r="FI17" s="45"/>
+      <c r="FJ17" s="45"/>
+      <c r="FK17" s="45"/>
+      <c r="FL17" s="45"/>
+      <c r="FM17" s="45"/>
+      <c r="FN17" s="45"/>
+      <c r="FO17" s="45"/>
+      <c r="FP17" s="45"/>
+      <c r="FQ17" s="45"/>
+      <c r="FR17" s="45"/>
+      <c r="FS17" s="45"/>
+      <c r="FT17" s="45"/>
+      <c r="FU17" s="45"/>
+      <c r="FV17" s="45"/>
+      <c r="FW17" s="45"/>
+      <c r="FX17" s="45"/>
+      <c r="FY17" s="45"/>
+      <c r="FZ17" s="45"/>
+      <c r="GA17" s="45"/>
+      <c r="GB17" s="45"/>
+      <c r="GC17" s="45"/>
+      <c r="GD17" s="45"/>
+      <c r="GE17" s="45"/>
+      <c r="GF17" s="45"/>
+      <c r="GG17" s="45"/>
+      <c r="GH17" s="45"/>
+      <c r="GI17" s="45"/>
+      <c r="GJ17" s="45"/>
+      <c r="GK17" s="45"/>
+      <c r="GL17" s="45"/>
+      <c r="GM17" s="45"/>
+      <c r="GN17" s="45"/>
+      <c r="GO17" s="45"/>
+      <c r="GP17" s="45"/>
+      <c r="GQ17" s="45"/>
+      <c r="GR17" s="45"/>
+      <c r="GS17" s="45"/>
+      <c r="GT17" s="45"/>
+      <c r="GU17" s="45"/>
+      <c r="GV17" s="45"/>
+      <c r="GW17" s="45"/>
+      <c r="GX17" s="45"/>
+      <c r="GY17" s="45"/>
+      <c r="GZ17" s="45"/>
+      <c r="HA17" s="45"/>
+      <c r="HB17" s="45"/>
+      <c r="HC17" s="45"/>
+      <c r="HD17" s="45"/>
+      <c r="HE17" s="45"/>
+      <c r="HF17" s="45"/>
+      <c r="HG17" s="45"/>
+      <c r="HH17" s="45"/>
+      <c r="HI17" s="45"/>
+      <c r="HJ17" s="45"/>
+      <c r="HK17" s="45"/>
+      <c r="HL17" s="45"/>
+      <c r="HM17" s="45"/>
+      <c r="HN17" s="45"/>
+      <c r="HO17" s="45"/>
+      <c r="HP17" s="45"/>
+      <c r="HQ17" s="45"/>
+      <c r="HR17" s="45"/>
+      <c r="HS17" s="45"/>
+      <c r="HT17" s="45"/>
+      <c r="HU17" s="45"/>
     </row>
-    <row r="15" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4"/>
+    <row r="18" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="BQ18" s="45"/>
+      <c r="BS18" s="45"/>
+      <c r="BU18" s="45"/>
+      <c r="BW18" s="45"/>
+      <c r="BY18" s="45"/>
+      <c r="CA18" s="45"/>
+      <c r="CC18" s="45"/>
+      <c r="CE18" s="45"/>
+      <c r="CG18" s="45"/>
+      <c r="CI18" s="45"/>
+      <c r="CK18" s="45"/>
+      <c r="CL18" s="45"/>
+      <c r="CM18" s="45"/>
+      <c r="CN18" s="45"/>
+      <c r="CO18" s="45"/>
+      <c r="CP18" s="45"/>
+      <c r="CQ18" s="45"/>
+      <c r="CR18" s="45"/>
+      <c r="CS18" s="45"/>
+      <c r="CT18" s="45"/>
+      <c r="CU18" s="45"/>
+      <c r="CV18" s="45"/>
+      <c r="CW18" s="45"/>
+      <c r="CX18" s="45"/>
+      <c r="CY18" s="45"/>
+      <c r="CZ18" s="45"/>
+      <c r="DA18" s="45"/>
+      <c r="DB18" s="45"/>
+      <c r="DC18" s="45"/>
+      <c r="DD18" s="45"/>
+      <c r="DE18" s="45"/>
+      <c r="DF18" s="45"/>
+      <c r="DG18" s="45"/>
+      <c r="DH18" s="45"/>
+      <c r="DI18" s="45"/>
+      <c r="DJ18" s="45"/>
+      <c r="DK18" s="45"/>
+      <c r="DL18" s="45"/>
+      <c r="DM18" s="45"/>
+      <c r="DN18" s="45"/>
+      <c r="DO18" s="45"/>
+      <c r="DP18" s="45"/>
+      <c r="DQ18" s="45"/>
+      <c r="DR18" s="45"/>
+      <c r="DS18" s="45"/>
+      <c r="DT18" s="45"/>
+      <c r="DU18" s="45"/>
+      <c r="DV18" s="45"/>
+      <c r="DW18" s="45"/>
+      <c r="DX18" s="45"/>
+      <c r="DY18" s="45"/>
+      <c r="DZ18" s="45"/>
+      <c r="EA18" s="45"/>
+      <c r="EB18" s="45"/>
+      <c r="EC18" s="45"/>
+      <c r="ED18" s="45"/>
+      <c r="EE18" s="45"/>
+      <c r="EF18" s="45"/>
+      <c r="EG18" s="45"/>
+      <c r="EH18" s="45"/>
+      <c r="EI18" s="45"/>
+      <c r="EJ18" s="45"/>
+      <c r="EK18" s="45"/>
+      <c r="EL18" s="45"/>
+      <c r="EM18" s="45"/>
+      <c r="EN18" s="45"/>
+      <c r="EO18" s="45"/>
+      <c r="EP18" s="45"/>
+      <c r="EQ18" s="45"/>
+      <c r="ER18" s="45"/>
+      <c r="ES18" s="45"/>
+      <c r="ET18" s="45"/>
+      <c r="EU18" s="45"/>
+      <c r="EV18" s="45"/>
+      <c r="EW18" s="45"/>
+      <c r="EX18" s="45"/>
+      <c r="EY18" s="45"/>
+      <c r="EZ18" s="45"/>
+      <c r="FA18" s="45"/>
+      <c r="FB18" s="45"/>
+      <c r="FC18" s="45"/>
+      <c r="FD18" s="45"/>
+      <c r="FE18" s="45"/>
+      <c r="FF18" s="45"/>
+      <c r="FG18" s="45"/>
+      <c r="FH18" s="45"/>
+      <c r="FI18" s="45"/>
+      <c r="FJ18" s="45"/>
+      <c r="FK18" s="45"/>
+      <c r="FL18" s="45"/>
+      <c r="FM18" s="45"/>
+      <c r="FN18" s="45"/>
+      <c r="FO18" s="45"/>
+      <c r="FP18" s="45"/>
+      <c r="FQ18" s="45"/>
+      <c r="FR18" s="45"/>
+      <c r="FS18" s="45"/>
+      <c r="FT18" s="45"/>
+      <c r="FU18" s="45"/>
+      <c r="FV18" s="45"/>
+      <c r="FW18" s="45"/>
+      <c r="FX18" s="45"/>
+      <c r="FY18" s="45"/>
+      <c r="FZ18" s="45"/>
+      <c r="GA18" s="45"/>
+      <c r="GB18" s="45"/>
+      <c r="GC18" s="45"/>
+      <c r="GD18" s="45"/>
+      <c r="GE18" s="45"/>
+      <c r="GF18" s="45"/>
+      <c r="GG18" s="45"/>
+      <c r="GH18" s="45"/>
+      <c r="GI18" s="45"/>
+      <c r="GJ18" s="45"/>
+      <c r="GK18" s="45"/>
+      <c r="GL18" s="45"/>
+      <c r="GM18" s="45"/>
+      <c r="GN18" s="45"/>
+      <c r="GO18" s="45"/>
+      <c r="GP18" s="45"/>
+      <c r="GQ18" s="45"/>
+      <c r="GR18" s="45"/>
+      <c r="GS18" s="45"/>
+      <c r="GT18" s="45"/>
+      <c r="GU18" s="45"/>
+      <c r="GV18" s="45"/>
+      <c r="GW18" s="45"/>
+      <c r="GX18" s="45"/>
+      <c r="GY18" s="45"/>
+      <c r="GZ18" s="45"/>
+      <c r="HA18" s="45"/>
+      <c r="HB18" s="45"/>
+      <c r="HC18" s="45"/>
+      <c r="HD18" s="45"/>
+      <c r="HE18" s="45"/>
+      <c r="HF18" s="45"/>
+      <c r="HG18" s="45"/>
+      <c r="HH18" s="45"/>
+      <c r="HI18" s="45"/>
+      <c r="HJ18" s="45"/>
+      <c r="HK18" s="45"/>
+      <c r="HL18" s="45"/>
+      <c r="HM18" s="45"/>
+      <c r="HN18" s="45"/>
+      <c r="HO18" s="45"/>
+      <c r="HP18" s="45"/>
+      <c r="HQ18" s="45"/>
+      <c r="HR18" s="45"/>
+      <c r="HS18" s="45"/>
+      <c r="HT18" s="45"/>
+      <c r="HU18" s="45"/>
     </row>
-    <row r="16" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4"/>
+    <row r="19" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="BQ19" s="45"/>
+      <c r="BS19" s="45"/>
+      <c r="BU19" s="45"/>
+      <c r="BW19" s="45"/>
+      <c r="BY19" s="45"/>
+      <c r="CA19" s="45"/>
+      <c r="CC19" s="45"/>
+      <c r="CE19" s="45"/>
+      <c r="CG19" s="45"/>
+      <c r="CI19" s="45"/>
+      <c r="CK19" s="45"/>
+      <c r="CL19" s="45"/>
+      <c r="CM19" s="45"/>
+      <c r="CN19" s="45"/>
+      <c r="CO19" s="45"/>
+      <c r="CP19" s="45"/>
+      <c r="CQ19" s="45"/>
+      <c r="CR19" s="45"/>
+      <c r="CS19" s="45"/>
+      <c r="CT19" s="45"/>
+      <c r="CU19" s="45"/>
+      <c r="CV19" s="45"/>
+      <c r="CW19" s="45"/>
+      <c r="CX19" s="45"/>
+      <c r="CY19" s="45"/>
+      <c r="CZ19" s="45"/>
+      <c r="DA19" s="45"/>
+      <c r="DB19" s="45"/>
+      <c r="DC19" s="45"/>
+      <c r="DD19" s="45"/>
+      <c r="DE19" s="45"/>
+      <c r="DF19" s="45"/>
+      <c r="DG19" s="45"/>
+      <c r="DH19" s="45"/>
+      <c r="DI19" s="45"/>
+      <c r="DJ19" s="45"/>
+      <c r="DK19" s="45"/>
+      <c r="DL19" s="45"/>
+      <c r="DM19" s="45"/>
+      <c r="DN19" s="45"/>
+      <c r="DO19" s="45"/>
+      <c r="DP19" s="45"/>
+      <c r="DQ19" s="45"/>
+      <c r="DR19" s="45"/>
+      <c r="DS19" s="45"/>
+      <c r="DT19" s="45"/>
+      <c r="DU19" s="45"/>
+      <c r="DV19" s="45"/>
+      <c r="DW19" s="45"/>
+      <c r="DX19" s="45"/>
+      <c r="DY19" s="45"/>
+      <c r="DZ19" s="45"/>
+      <c r="EA19" s="45"/>
+      <c r="EB19" s="45"/>
+      <c r="EC19" s="45"/>
+      <c r="ED19" s="45"/>
+      <c r="EE19" s="45"/>
+      <c r="EF19" s="45"/>
+      <c r="EG19" s="45"/>
+      <c r="EH19" s="45"/>
+      <c r="EI19" s="45"/>
+      <c r="EJ19" s="45"/>
+      <c r="EK19" s="45"/>
+      <c r="EL19" s="45"/>
+      <c r="EM19" s="45"/>
+      <c r="EN19" s="45"/>
+      <c r="EO19" s="45"/>
+      <c r="EP19" s="45"/>
+      <c r="EQ19" s="45"/>
+      <c r="ER19" s="45"/>
+      <c r="ES19" s="45"/>
+      <c r="ET19" s="45"/>
+      <c r="EU19" s="45"/>
+      <c r="EV19" s="45"/>
+      <c r="EW19" s="45"/>
+      <c r="EX19" s="45"/>
+      <c r="EY19" s="45"/>
+      <c r="EZ19" s="45"/>
+      <c r="FA19" s="45"/>
+      <c r="FB19" s="45"/>
+      <c r="FC19" s="45"/>
+      <c r="FD19" s="45"/>
+      <c r="FE19" s="45"/>
+      <c r="FF19" s="45"/>
+      <c r="FG19" s="45"/>
+      <c r="FH19" s="45"/>
+      <c r="FI19" s="45"/>
+      <c r="FJ19" s="45"/>
+      <c r="FK19" s="45"/>
+      <c r="FL19" s="45"/>
+      <c r="FM19" s="45"/>
+      <c r="FN19" s="45"/>
+      <c r="FO19" s="45"/>
+      <c r="FP19" s="45"/>
+      <c r="FQ19" s="45"/>
+      <c r="FR19" s="45"/>
+      <c r="FS19" s="45"/>
+      <c r="FT19" s="45"/>
+      <c r="FU19" s="45"/>
+      <c r="FV19" s="45"/>
+      <c r="FW19" s="45"/>
+      <c r="FX19" s="45"/>
+      <c r="FY19" s="45"/>
+      <c r="FZ19" s="45"/>
+      <c r="GA19" s="45"/>
+      <c r="GB19" s="45"/>
+      <c r="GC19" s="45"/>
+      <c r="GD19" s="45"/>
+      <c r="GE19" s="45"/>
+      <c r="GF19" s="45"/>
+      <c r="GG19" s="45"/>
+      <c r="GH19" s="45"/>
+      <c r="GI19" s="45"/>
+      <c r="GJ19" s="45"/>
+      <c r="GK19" s="45"/>
+      <c r="GL19" s="45"/>
+      <c r="GM19" s="45"/>
+      <c r="GN19" s="45"/>
+      <c r="GO19" s="45"/>
+      <c r="GP19" s="45"/>
+      <c r="GQ19" s="45"/>
+      <c r="GR19" s="45"/>
+      <c r="GS19" s="45"/>
+      <c r="GT19" s="45"/>
+      <c r="GU19" s="45"/>
+      <c r="GV19" s="45"/>
+      <c r="GW19" s="45"/>
+      <c r="GX19" s="45"/>
+      <c r="GY19" s="45"/>
+      <c r="GZ19" s="45"/>
+      <c r="HA19" s="45"/>
+      <c r="HB19" s="45"/>
+      <c r="HC19" s="45"/>
+      <c r="HD19" s="45"/>
+      <c r="HE19" s="45"/>
+      <c r="HF19" s="45"/>
+      <c r="HG19" s="45"/>
+      <c r="HH19" s="45"/>
+      <c r="HI19" s="45"/>
+      <c r="HJ19" s="45"/>
+      <c r="HK19" s="45"/>
+      <c r="HL19" s="45"/>
+      <c r="HM19" s="45"/>
+      <c r="HN19" s="45"/>
+      <c r="HO19" s="45"/>
+      <c r="HP19" s="45"/>
+      <c r="HQ19" s="45"/>
+      <c r="HR19" s="45"/>
+      <c r="HS19" s="45"/>
+      <c r="HT19" s="45"/>
+      <c r="HU19" s="45"/>
     </row>
-    <row r="17" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4"/>
+    <row r="20" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="44"/>
+      <c r="BQ20" s="45"/>
+      <c r="BS20" s="45"/>
+      <c r="BU20" s="45"/>
+      <c r="BW20" s="45"/>
+      <c r="BY20" s="45"/>
+      <c r="CA20" s="45"/>
+      <c r="CC20" s="45"/>
+      <c r="CE20" s="45"/>
+      <c r="CG20" s="45"/>
+      <c r="CI20" s="45"/>
+      <c r="CK20" s="45"/>
+      <c r="CL20" s="45"/>
+      <c r="CM20" s="45"/>
+      <c r="CN20" s="45"/>
+      <c r="CO20" s="45"/>
+      <c r="CP20" s="45"/>
+      <c r="CQ20" s="45"/>
+      <c r="CR20" s="45"/>
+      <c r="CS20" s="45"/>
+      <c r="CT20" s="45"/>
+      <c r="CU20" s="45"/>
+      <c r="CV20" s="45"/>
+      <c r="CW20" s="45"/>
+      <c r="CX20" s="45"/>
+      <c r="CY20" s="45"/>
+      <c r="CZ20" s="45"/>
+      <c r="DA20" s="45"/>
+      <c r="DB20" s="45"/>
+      <c r="DC20" s="45"/>
+      <c r="DD20" s="45"/>
+      <c r="DE20" s="45"/>
+      <c r="DF20" s="45"/>
+      <c r="DG20" s="45"/>
+      <c r="DH20" s="45"/>
+      <c r="DI20" s="45"/>
+      <c r="DJ20" s="45"/>
+      <c r="DK20" s="45"/>
+      <c r="DL20" s="45"/>
+      <c r="DM20" s="45"/>
+      <c r="DN20" s="45"/>
+      <c r="DO20" s="45"/>
+      <c r="DP20" s="45"/>
+      <c r="DQ20" s="45"/>
+      <c r="DR20" s="45"/>
+      <c r="DS20" s="45"/>
+      <c r="DT20" s="45"/>
+      <c r="DU20" s="45"/>
+      <c r="DV20" s="45"/>
+      <c r="DW20" s="45"/>
+      <c r="DX20" s="45"/>
+      <c r="DY20" s="45"/>
+      <c r="DZ20" s="45"/>
+      <c r="EA20" s="45"/>
+      <c r="EB20" s="45"/>
+      <c r="EC20" s="45"/>
+      <c r="ED20" s="45"/>
+      <c r="EE20" s="45"/>
+      <c r="EF20" s="45"/>
+      <c r="EG20" s="45"/>
+      <c r="EH20" s="45"/>
+      <c r="EI20" s="45"/>
+      <c r="EJ20" s="45"/>
+      <c r="EK20" s="45"/>
+      <c r="EL20" s="45"/>
+      <c r="EM20" s="45"/>
+      <c r="EN20" s="45"/>
+      <c r="EO20" s="45"/>
+      <c r="EP20" s="45"/>
+      <c r="EQ20" s="45"/>
+      <c r="ER20" s="45"/>
+      <c r="ES20" s="45"/>
+      <c r="ET20" s="45"/>
+      <c r="EU20" s="45"/>
+      <c r="EV20" s="45"/>
+      <c r="EW20" s="45"/>
+      <c r="EX20" s="45"/>
+      <c r="EY20" s="45"/>
+      <c r="EZ20" s="45"/>
+      <c r="FA20" s="45"/>
+      <c r="FB20" s="45"/>
+      <c r="FC20" s="45"/>
+      <c r="FD20" s="45"/>
+      <c r="FE20" s="45"/>
+      <c r="FF20" s="45"/>
+      <c r="FG20" s="45"/>
+      <c r="FH20" s="45"/>
+      <c r="FI20" s="45"/>
+      <c r="FJ20" s="45"/>
+      <c r="FK20" s="45"/>
+      <c r="FL20" s="45"/>
+      <c r="FM20" s="45"/>
+      <c r="FN20" s="45"/>
+      <c r="FO20" s="45"/>
+      <c r="FP20" s="45"/>
+      <c r="FQ20" s="45"/>
+      <c r="FR20" s="45"/>
+      <c r="FS20" s="45"/>
+      <c r="FT20" s="45"/>
+      <c r="FU20" s="45"/>
+      <c r="FV20" s="45"/>
+      <c r="FW20" s="45"/>
+      <c r="FX20" s="45"/>
+      <c r="FY20" s="45"/>
+      <c r="FZ20" s="45"/>
+      <c r="GA20" s="45"/>
+      <c r="GB20" s="45"/>
+      <c r="GC20" s="45"/>
+      <c r="GD20" s="45"/>
+      <c r="GE20" s="45"/>
+      <c r="GF20" s="45"/>
+      <c r="GG20" s="45"/>
+      <c r="GH20" s="45"/>
+      <c r="GI20" s="45"/>
+      <c r="GJ20" s="45"/>
+      <c r="GK20" s="45"/>
+      <c r="GL20" s="45"/>
+      <c r="GM20" s="45"/>
+      <c r="GN20" s="45"/>
+      <c r="GO20" s="45"/>
+      <c r="GP20" s="45"/>
+      <c r="GQ20" s="45"/>
+      <c r="GR20" s="45"/>
+      <c r="GS20" s="45"/>
+      <c r="GT20" s="45"/>
+      <c r="GU20" s="45"/>
+      <c r="GV20" s="45"/>
+      <c r="GW20" s="45"/>
+      <c r="GX20" s="45"/>
+      <c r="GY20" s="45"/>
+      <c r="GZ20" s="45"/>
+      <c r="HA20" s="45"/>
+      <c r="HB20" s="45"/>
+      <c r="HC20" s="45"/>
+      <c r="HD20" s="45"/>
+      <c r="HE20" s="45"/>
+      <c r="HF20" s="45"/>
+      <c r="HG20" s="45"/>
+      <c r="HH20" s="45"/>
+      <c r="HI20" s="45"/>
+      <c r="HJ20" s="45"/>
+      <c r="HK20" s="45"/>
+      <c r="HL20" s="45"/>
+      <c r="HM20" s="45"/>
+      <c r="HN20" s="45"/>
+      <c r="HO20" s="45"/>
+      <c r="HP20" s="45"/>
+      <c r="HQ20" s="45"/>
+      <c r="HR20" s="45"/>
+      <c r="HS20" s="45"/>
+      <c r="HT20" s="45"/>
+      <c r="HU20" s="45"/>
     </row>
-    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4"/>
+    <row r="21" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="BQ21" s="45"/>
+      <c r="BS21" s="45"/>
+      <c r="BU21" s="45"/>
+      <c r="BW21" s="45"/>
+      <c r="BY21" s="45"/>
+      <c r="CA21" s="45"/>
+      <c r="CC21" s="45"/>
+      <c r="CE21" s="45"/>
+      <c r="CG21" s="45"/>
+      <c r="CI21" s="45"/>
+      <c r="CK21" s="45"/>
+      <c r="CL21" s="45"/>
+      <c r="CM21" s="45"/>
+      <c r="CN21" s="45"/>
+      <c r="CO21" s="45"/>
+      <c r="CP21" s="45"/>
+      <c r="CQ21" s="45"/>
+      <c r="CR21" s="45"/>
+      <c r="CS21" s="45"/>
+      <c r="CT21" s="45"/>
+      <c r="CU21" s="45"/>
+      <c r="CV21" s="45"/>
+      <c r="CW21" s="45"/>
+      <c r="CX21" s="45"/>
+      <c r="CY21" s="45"/>
+      <c r="CZ21" s="45"/>
+      <c r="DA21" s="45"/>
+      <c r="DB21" s="45"/>
+      <c r="DC21" s="45"/>
+      <c r="DD21" s="45"/>
+      <c r="DE21" s="45"/>
+      <c r="DF21" s="45"/>
+      <c r="DG21" s="45"/>
+      <c r="DH21" s="45"/>
+      <c r="DI21" s="45"/>
+      <c r="DJ21" s="45"/>
+      <c r="DK21" s="45"/>
+      <c r="DL21" s="45"/>
+      <c r="DM21" s="45"/>
+      <c r="DN21" s="45"/>
+      <c r="DO21" s="45"/>
+      <c r="DP21" s="45"/>
+      <c r="DQ21" s="45"/>
+      <c r="DR21" s="45"/>
+      <c r="DS21" s="45"/>
+      <c r="DT21" s="45"/>
+      <c r="DU21" s="45"/>
+      <c r="DV21" s="45"/>
+      <c r="DW21" s="45"/>
+      <c r="DX21" s="45"/>
+      <c r="DY21" s="45"/>
+      <c r="DZ21" s="45"/>
+      <c r="EA21" s="45"/>
+      <c r="EB21" s="45"/>
+      <c r="EC21" s="45"/>
+      <c r="ED21" s="45"/>
+      <c r="EE21" s="45"/>
+      <c r="EF21" s="45"/>
+      <c r="EG21" s="45"/>
+      <c r="EH21" s="45"/>
+      <c r="EI21" s="45"/>
+      <c r="EJ21" s="45"/>
+      <c r="EK21" s="45"/>
+      <c r="EL21" s="45"/>
+      <c r="EM21" s="45"/>
+      <c r="EN21" s="45"/>
+      <c r="EO21" s="45"/>
+      <c r="EP21" s="45"/>
+      <c r="EQ21" s="45"/>
+      <c r="ER21" s="45"/>
+      <c r="ES21" s="45"/>
+      <c r="ET21" s="45"/>
+      <c r="EU21" s="45"/>
+      <c r="EV21" s="45"/>
+      <c r="EW21" s="45"/>
+      <c r="EX21" s="45"/>
+      <c r="EY21" s="45"/>
+      <c r="EZ21" s="45"/>
+      <c r="FA21" s="45"/>
+      <c r="FB21" s="45"/>
+      <c r="FC21" s="45"/>
+      <c r="FD21" s="45"/>
+      <c r="FE21" s="45"/>
+      <c r="FF21" s="45"/>
+      <c r="FG21" s="45"/>
+      <c r="FH21" s="45"/>
+      <c r="FI21" s="45"/>
+      <c r="FJ21" s="45"/>
+      <c r="FK21" s="45"/>
+      <c r="FL21" s="45"/>
+      <c r="FM21" s="45"/>
+      <c r="FN21" s="45"/>
+      <c r="FO21" s="45"/>
+      <c r="FP21" s="45"/>
+      <c r="FQ21" s="45"/>
+      <c r="FR21" s="45"/>
+      <c r="FS21" s="45"/>
+      <c r="FT21" s="45"/>
+      <c r="FU21" s="45"/>
+      <c r="FV21" s="45"/>
+      <c r="FW21" s="45"/>
+      <c r="FX21" s="45"/>
+      <c r="FY21" s="45"/>
+      <c r="FZ21" s="45"/>
+      <c r="GA21" s="45"/>
+      <c r="GB21" s="45"/>
+      <c r="GC21" s="45"/>
+      <c r="GD21" s="45"/>
+      <c r="GE21" s="45"/>
+      <c r="GF21" s="45"/>
+      <c r="GG21" s="45"/>
+      <c r="GH21" s="45"/>
+      <c r="GI21" s="45"/>
+      <c r="GJ21" s="45"/>
+      <c r="GK21" s="45"/>
+      <c r="GL21" s="45"/>
+      <c r="GM21" s="45"/>
+      <c r="GN21" s="45"/>
+      <c r="GO21" s="45"/>
+      <c r="GP21" s="45"/>
+      <c r="GQ21" s="45"/>
+      <c r="GR21" s="45"/>
+      <c r="GS21" s="45"/>
+      <c r="GT21" s="45"/>
+      <c r="GU21" s="45"/>
+      <c r="GV21" s="45"/>
+      <c r="GW21" s="45"/>
+      <c r="GX21" s="45"/>
+      <c r="GY21" s="45"/>
+      <c r="GZ21" s="45"/>
+      <c r="HA21" s="45"/>
+      <c r="HB21" s="45"/>
+      <c r="HC21" s="45"/>
+      <c r="HD21" s="45"/>
+      <c r="HE21" s="45"/>
+      <c r="HF21" s="45"/>
+      <c r="HG21" s="45"/>
+      <c r="HH21" s="45"/>
+      <c r="HI21" s="45"/>
+      <c r="HJ21" s="45"/>
+      <c r="HK21" s="45"/>
+      <c r="HL21" s="45"/>
+      <c r="HM21" s="45"/>
+      <c r="HN21" s="45"/>
+      <c r="HO21" s="45"/>
+      <c r="HP21" s="45"/>
+      <c r="HQ21" s="45"/>
+      <c r="HR21" s="45"/>
+      <c r="HS21" s="45"/>
+      <c r="HT21" s="45"/>
+      <c r="HU21" s="45"/>
     </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4"/>
+    <row r="22" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="BQ22" s="45"/>
+      <c r="BS22" s="45"/>
+      <c r="BU22" s="45"/>
+      <c r="BW22" s="45"/>
+      <c r="BY22" s="45"/>
+      <c r="CA22" s="45"/>
+      <c r="CC22" s="45"/>
+      <c r="CE22" s="45"/>
+      <c r="CG22" s="45"/>
+      <c r="CI22" s="45"/>
+      <c r="CK22" s="45"/>
+      <c r="CL22" s="45"/>
+      <c r="CM22" s="45"/>
+      <c r="CN22" s="45"/>
+      <c r="CO22" s="45"/>
+      <c r="CP22" s="45"/>
+      <c r="CQ22" s="45"/>
+      <c r="CR22" s="45"/>
+      <c r="CS22" s="45"/>
+      <c r="CT22" s="45"/>
+      <c r="CU22" s="45"/>
+      <c r="CV22" s="45"/>
+      <c r="CW22" s="45"/>
+      <c r="CX22" s="45"/>
+      <c r="CY22" s="45"/>
+      <c r="CZ22" s="45"/>
+      <c r="DA22" s="45"/>
+      <c r="DB22" s="45"/>
+      <c r="DC22" s="45"/>
+      <c r="DD22" s="45"/>
+      <c r="DE22" s="45"/>
+      <c r="DF22" s="45"/>
+      <c r="DG22" s="45"/>
+      <c r="DH22" s="45"/>
+      <c r="DI22" s="45"/>
+      <c r="DJ22" s="45"/>
+      <c r="DK22" s="45"/>
+      <c r="DL22" s="45"/>
+      <c r="DM22" s="45"/>
+      <c r="DN22" s="45"/>
+      <c r="DO22" s="45"/>
+      <c r="DP22" s="45"/>
+      <c r="DQ22" s="45"/>
+      <c r="DR22" s="45"/>
+      <c r="DS22" s="45"/>
+      <c r="DT22" s="45"/>
+      <c r="DU22" s="45"/>
+      <c r="DV22" s="45"/>
+      <c r="DW22" s="45"/>
+      <c r="DX22" s="45"/>
+      <c r="DY22" s="45"/>
+      <c r="DZ22" s="45"/>
+      <c r="EA22" s="45"/>
+      <c r="EB22" s="45"/>
+      <c r="EC22" s="45"/>
+      <c r="ED22" s="45"/>
+      <c r="EE22" s="45"/>
+      <c r="EF22" s="45"/>
+      <c r="EG22" s="45"/>
+      <c r="EH22" s="45"/>
+      <c r="EI22" s="45"/>
+      <c r="EJ22" s="45"/>
+      <c r="EK22" s="45"/>
+      <c r="EL22" s="45"/>
+      <c r="EM22" s="45"/>
+      <c r="EN22" s="45"/>
+      <c r="EO22" s="45"/>
+      <c r="EP22" s="45"/>
+      <c r="EQ22" s="45"/>
+      <c r="ER22" s="45"/>
+      <c r="ES22" s="45"/>
+      <c r="ET22" s="45"/>
+      <c r="EU22" s="45"/>
+      <c r="EV22" s="45"/>
+      <c r="EW22" s="45"/>
+      <c r="EX22" s="45"/>
+      <c r="EY22" s="45"/>
+      <c r="EZ22" s="45"/>
+      <c r="FA22" s="45"/>
+      <c r="FB22" s="45"/>
+      <c r="FC22" s="45"/>
+      <c r="FD22" s="45"/>
+      <c r="FE22" s="45"/>
+      <c r="FF22" s="45"/>
+      <c r="FG22" s="45"/>
+      <c r="FH22" s="45"/>
+      <c r="FI22" s="45"/>
+      <c r="FJ22" s="45"/>
+      <c r="FK22" s="45"/>
+      <c r="FL22" s="45"/>
+      <c r="FM22" s="45"/>
+      <c r="FN22" s="45"/>
+      <c r="FO22" s="45"/>
+      <c r="FP22" s="45"/>
+      <c r="FQ22" s="45"/>
+      <c r="FR22" s="45"/>
+      <c r="FS22" s="45"/>
+      <c r="FT22" s="45"/>
+      <c r="FU22" s="45"/>
+      <c r="FV22" s="45"/>
+      <c r="FW22" s="45"/>
+      <c r="FX22" s="45"/>
+      <c r="FY22" s="45"/>
+      <c r="FZ22" s="45"/>
+      <c r="GA22" s="45"/>
+      <c r="GB22" s="45"/>
+      <c r="GC22" s="45"/>
+      <c r="GD22" s="45"/>
+      <c r="GE22" s="45"/>
+      <c r="GF22" s="45"/>
+      <c r="GG22" s="45"/>
+      <c r="GH22" s="45"/>
+      <c r="GI22" s="45"/>
+      <c r="GJ22" s="45"/>
+      <c r="GK22" s="45"/>
+      <c r="GL22" s="45"/>
+      <c r="GM22" s="45"/>
+      <c r="GN22" s="45"/>
+      <c r="GO22" s="45"/>
+      <c r="GP22" s="45"/>
+      <c r="GQ22" s="45"/>
+      <c r="GR22" s="45"/>
+      <c r="GS22" s="45"/>
+      <c r="GT22" s="45"/>
+      <c r="GU22" s="45"/>
+      <c r="GV22" s="45"/>
+      <c r="GW22" s="45"/>
+      <c r="GX22" s="45"/>
+      <c r="GY22" s="45"/>
+      <c r="GZ22" s="45"/>
+      <c r="HA22" s="45"/>
+      <c r="HB22" s="45"/>
+      <c r="HC22" s="45"/>
+      <c r="HD22" s="45"/>
+      <c r="HE22" s="45"/>
+      <c r="HF22" s="45"/>
+      <c r="HG22" s="45"/>
+      <c r="HH22" s="45"/>
+      <c r="HI22" s="45"/>
+      <c r="HJ22" s="45"/>
+      <c r="HK22" s="45"/>
+      <c r="HL22" s="45"/>
+      <c r="HM22" s="45"/>
+      <c r="HN22" s="45"/>
+      <c r="HO22" s="45"/>
+      <c r="HP22" s="45"/>
+      <c r="HQ22" s="45"/>
+      <c r="HR22" s="45"/>
+      <c r="HS22" s="45"/>
+      <c r="HT22" s="45"/>
+      <c r="HU22" s="45"/>
     </row>
-    <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4"/>
+    <row r="23" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="44"/>
+      <c r="BQ23" s="45"/>
+      <c r="BS23" s="45"/>
+      <c r="BU23" s="45"/>
+      <c r="BW23" s="45"/>
+      <c r="BY23" s="45"/>
+      <c r="CA23" s="45"/>
+      <c r="CC23" s="45"/>
+      <c r="CE23" s="45"/>
+      <c r="CG23" s="45"/>
+      <c r="CI23" s="45"/>
+      <c r="CK23" s="45"/>
+      <c r="CL23" s="45"/>
+      <c r="CM23" s="45"/>
+      <c r="CN23" s="45"/>
+      <c r="CO23" s="45"/>
+      <c r="CP23" s="45"/>
+      <c r="CQ23" s="45"/>
+      <c r="CR23" s="45"/>
+      <c r="CS23" s="45"/>
+      <c r="CT23" s="45"/>
+      <c r="CU23" s="45"/>
+      <c r="CV23" s="45"/>
+      <c r="CW23" s="45"/>
+      <c r="CX23" s="45"/>
+      <c r="CY23" s="45"/>
+      <c r="CZ23" s="45"/>
+      <c r="DA23" s="45"/>
+      <c r="DB23" s="45"/>
+      <c r="DC23" s="45"/>
+      <c r="DD23" s="45"/>
+      <c r="DE23" s="45"/>
+      <c r="DF23" s="45"/>
+      <c r="DG23" s="45"/>
+      <c r="DH23" s="45"/>
+      <c r="DI23" s="45"/>
+      <c r="DJ23" s="45"/>
+      <c r="DK23" s="45"/>
+      <c r="DL23" s="45"/>
+      <c r="DM23" s="45"/>
+      <c r="DN23" s="45"/>
+      <c r="DO23" s="45"/>
+      <c r="DP23" s="45"/>
+      <c r="DQ23" s="45"/>
+      <c r="DR23" s="45"/>
+      <c r="DS23" s="45"/>
+      <c r="DT23" s="45"/>
+      <c r="DU23" s="45"/>
+      <c r="DV23" s="45"/>
+      <c r="DW23" s="45"/>
+      <c r="DX23" s="45"/>
+      <c r="DY23" s="45"/>
+      <c r="DZ23" s="45"/>
+      <c r="EA23" s="45"/>
+      <c r="EB23" s="45"/>
+      <c r="EC23" s="45"/>
+      <c r="ED23" s="45"/>
+      <c r="EE23" s="45"/>
+      <c r="EF23" s="45"/>
+      <c r="EG23" s="45"/>
+      <c r="EH23" s="45"/>
+      <c r="EI23" s="45"/>
+      <c r="EJ23" s="45"/>
+      <c r="EK23" s="45"/>
+      <c r="EL23" s="45"/>
+      <c r="EM23" s="45"/>
+      <c r="EN23" s="45"/>
+      <c r="EO23" s="45"/>
+      <c r="EP23" s="45"/>
+      <c r="EQ23" s="45"/>
+      <c r="ER23" s="45"/>
+      <c r="ES23" s="45"/>
+      <c r="ET23" s="45"/>
+      <c r="EU23" s="45"/>
+      <c r="EV23" s="45"/>
+      <c r="EW23" s="45"/>
+      <c r="EX23" s="45"/>
+      <c r="EY23" s="45"/>
+      <c r="EZ23" s="45"/>
+      <c r="FA23" s="45"/>
+      <c r="FB23" s="45"/>
+      <c r="FC23" s="45"/>
+      <c r="FD23" s="45"/>
+      <c r="FE23" s="45"/>
+      <c r="FF23" s="45"/>
+      <c r="FG23" s="45"/>
+      <c r="FH23" s="45"/>
+      <c r="FI23" s="45"/>
+      <c r="FJ23" s="45"/>
+      <c r="FK23" s="45"/>
+      <c r="FL23" s="45"/>
+      <c r="FM23" s="45"/>
+      <c r="FN23" s="45"/>
+      <c r="FO23" s="45"/>
+      <c r="FP23" s="45"/>
+      <c r="FQ23" s="45"/>
+      <c r="FR23" s="45"/>
+      <c r="FS23" s="45"/>
+      <c r="FT23" s="45"/>
+      <c r="FU23" s="45"/>
+      <c r="FV23" s="45"/>
+      <c r="FW23" s="45"/>
+      <c r="FX23" s="45"/>
+      <c r="FY23" s="45"/>
+      <c r="FZ23" s="45"/>
+      <c r="GA23" s="45"/>
+      <c r="GB23" s="45"/>
+      <c r="GC23" s="45"/>
+      <c r="GD23" s="45"/>
+      <c r="GE23" s="45"/>
+      <c r="GF23" s="45"/>
+      <c r="GG23" s="45"/>
+      <c r="GH23" s="45"/>
+      <c r="GI23" s="45"/>
+      <c r="GJ23" s="45"/>
+      <c r="GK23" s="45"/>
+      <c r="GL23" s="45"/>
+      <c r="GM23" s="45"/>
+      <c r="GN23" s="45"/>
+      <c r="GO23" s="45"/>
+      <c r="GP23" s="45"/>
+      <c r="GQ23" s="45"/>
+      <c r="GR23" s="45"/>
+      <c r="GS23" s="45"/>
+      <c r="GT23" s="45"/>
+      <c r="GU23" s="45"/>
+      <c r="GV23" s="45"/>
+      <c r="GW23" s="45"/>
+      <c r="GX23" s="45"/>
+      <c r="GY23" s="45"/>
+      <c r="GZ23" s="45"/>
+      <c r="HA23" s="45"/>
+      <c r="HB23" s="45"/>
+      <c r="HC23" s="45"/>
+      <c r="HD23" s="45"/>
+      <c r="HE23" s="45"/>
+      <c r="HF23" s="45"/>
+      <c r="HG23" s="45"/>
+      <c r="HH23" s="45"/>
+      <c r="HI23" s="45"/>
+      <c r="HJ23" s="45"/>
+      <c r="HK23" s="45"/>
+      <c r="HL23" s="45"/>
+      <c r="HM23" s="45"/>
+      <c r="HN23" s="45"/>
+      <c r="HO23" s="45"/>
+      <c r="HP23" s="45"/>
+      <c r="HQ23" s="45"/>
+      <c r="HR23" s="45"/>
+      <c r="HS23" s="45"/>
+      <c r="HT23" s="45"/>
+      <c r="HU23" s="45"/>
     </row>
-    <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4"/>
+    <row r="24" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="BQ24" s="45"/>
+      <c r="BS24" s="45"/>
+      <c r="BU24" s="45"/>
+      <c r="BW24" s="45"/>
+      <c r="BY24" s="45"/>
+      <c r="CA24" s="45"/>
+      <c r="CC24" s="45"/>
+      <c r="CE24" s="45"/>
+      <c r="CG24" s="45"/>
+      <c r="CI24" s="45"/>
+      <c r="CK24" s="45"/>
+      <c r="CL24" s="45"/>
+      <c r="CM24" s="45"/>
+      <c r="CN24" s="45"/>
+      <c r="CO24" s="45"/>
+      <c r="CP24" s="45"/>
+      <c r="CQ24" s="45"/>
+      <c r="CR24" s="45"/>
+      <c r="CS24" s="45"/>
+      <c r="CT24" s="45"/>
+      <c r="CU24" s="45"/>
+      <c r="CV24" s="45"/>
+      <c r="CW24" s="45"/>
+      <c r="CX24" s="45"/>
+      <c r="CY24" s="45"/>
+      <c r="CZ24" s="45"/>
+      <c r="DA24" s="45"/>
+      <c r="DB24" s="45"/>
+      <c r="DC24" s="45"/>
+      <c r="DD24" s="45"/>
+      <c r="DE24" s="45"/>
+      <c r="DF24" s="45"/>
+      <c r="DG24" s="45"/>
+      <c r="DH24" s="45"/>
+      <c r="DI24" s="45"/>
+      <c r="DJ24" s="45"/>
+      <c r="DK24" s="45"/>
+      <c r="DL24" s="45"/>
+      <c r="DM24" s="45"/>
+      <c r="DN24" s="45"/>
+      <c r="DO24" s="45"/>
+      <c r="DP24" s="45"/>
+      <c r="DQ24" s="45"/>
+      <c r="DR24" s="45"/>
+      <c r="DS24" s="45"/>
+      <c r="DT24" s="45"/>
+      <c r="DU24" s="45"/>
+      <c r="DV24" s="45"/>
+      <c r="DW24" s="45"/>
+      <c r="DX24" s="45"/>
+      <c r="DY24" s="45"/>
+      <c r="DZ24" s="45"/>
+      <c r="EA24" s="45"/>
+      <c r="EB24" s="45"/>
+      <c r="EC24" s="45"/>
+      <c r="ED24" s="45"/>
+      <c r="EE24" s="45"/>
+      <c r="EF24" s="45"/>
+      <c r="EG24" s="45"/>
+      <c r="EH24" s="45"/>
+      <c r="EI24" s="45"/>
+      <c r="EJ24" s="45"/>
+      <c r="EK24" s="45"/>
+      <c r="EL24" s="45"/>
+      <c r="EM24" s="45"/>
+      <c r="EN24" s="45"/>
+      <c r="EO24" s="45"/>
+      <c r="EP24" s="45"/>
+      <c r="EQ24" s="45"/>
+      <c r="ER24" s="45"/>
+      <c r="ES24" s="45"/>
+      <c r="ET24" s="45"/>
+      <c r="EU24" s="45"/>
+      <c r="EV24" s="45"/>
+      <c r="EW24" s="45"/>
+      <c r="EX24" s="45"/>
+      <c r="EY24" s="45"/>
+      <c r="EZ24" s="45"/>
+      <c r="FA24" s="45"/>
+      <c r="FB24" s="45"/>
+      <c r="FC24" s="45"/>
+      <c r="FD24" s="45"/>
+      <c r="FE24" s="45"/>
+      <c r="FF24" s="45"/>
+      <c r="FG24" s="45"/>
+      <c r="FH24" s="45"/>
+      <c r="FI24" s="45"/>
+      <c r="FJ24" s="45"/>
+      <c r="FK24" s="45"/>
+      <c r="FL24" s="45"/>
+      <c r="FM24" s="45"/>
+      <c r="FN24" s="45"/>
+      <c r="FO24" s="45"/>
+      <c r="FP24" s="45"/>
+      <c r="FQ24" s="45"/>
+      <c r="FR24" s="45"/>
+      <c r="FS24" s="45"/>
+      <c r="FT24" s="45"/>
+      <c r="FU24" s="45"/>
+      <c r="FV24" s="45"/>
+      <c r="FW24" s="45"/>
+      <c r="FX24" s="45"/>
+      <c r="FY24" s="45"/>
+      <c r="FZ24" s="45"/>
+      <c r="GA24" s="45"/>
+      <c r="GB24" s="45"/>
+      <c r="GC24" s="45"/>
+      <c r="GD24" s="45"/>
+      <c r="GE24" s="45"/>
+      <c r="GF24" s="45"/>
+      <c r="GG24" s="45"/>
+      <c r="GH24" s="45"/>
+      <c r="GI24" s="45"/>
+      <c r="GJ24" s="45"/>
+      <c r="GK24" s="45"/>
+      <c r="GL24" s="45"/>
+      <c r="GM24" s="45"/>
+      <c r="GN24" s="45"/>
+      <c r="GO24" s="45"/>
+      <c r="GP24" s="45"/>
+      <c r="GQ24" s="45"/>
+      <c r="GR24" s="45"/>
+      <c r="GS24" s="45"/>
+      <c r="GT24" s="45"/>
+      <c r="GU24" s="45"/>
+      <c r="GV24" s="45"/>
+      <c r="GW24" s="45"/>
+      <c r="GX24" s="45"/>
+      <c r="GY24" s="45"/>
+      <c r="GZ24" s="45"/>
+      <c r="HA24" s="45"/>
+      <c r="HB24" s="45"/>
+      <c r="HC24" s="45"/>
+      <c r="HD24" s="45"/>
+      <c r="HE24" s="45"/>
+      <c r="HF24" s="45"/>
+      <c r="HG24" s="45"/>
+      <c r="HH24" s="45"/>
+      <c r="HI24" s="45"/>
+      <c r="HJ24" s="45"/>
+      <c r="HK24" s="45"/>
+      <c r="HL24" s="45"/>
+      <c r="HM24" s="45"/>
+      <c r="HN24" s="45"/>
+      <c r="HO24" s="45"/>
+      <c r="HP24" s="45"/>
+      <c r="HQ24" s="45"/>
+      <c r="HR24" s="45"/>
+      <c r="HS24" s="45"/>
+      <c r="HT24" s="45"/>
+      <c r="HU24" s="45"/>
     </row>
-    <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4"/>
+    <row r="25" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="BO25" s="45"/>
+      <c r="BP25" s="45"/>
+      <c r="BQ25" s="45"/>
+      <c r="BR25" s="45"/>
+      <c r="BS25" s="45"/>
+      <c r="BT25" s="45"/>
+      <c r="BU25" s="45"/>
+      <c r="BV25" s="45"/>
+      <c r="BW25" s="45"/>
+      <c r="BX25" s="45"/>
+      <c r="BY25" s="45"/>
+      <c r="BZ25" s="45"/>
+      <c r="CA25" s="45"/>
+      <c r="CB25" s="45"/>
+      <c r="CC25" s="45"/>
+      <c r="CD25" s="45"/>
+      <c r="CE25" s="45"/>
+      <c r="CF25" s="45"/>
+      <c r="CG25" s="45"/>
+      <c r="CH25" s="45"/>
+      <c r="CI25" s="45"/>
+      <c r="CJ25" s="45"/>
+      <c r="CK25" s="45"/>
+      <c r="CL25" s="45"/>
+      <c r="CM25" s="45"/>
+      <c r="CN25" s="45"/>
+      <c r="CO25" s="45"/>
+      <c r="CP25" s="45"/>
+      <c r="CQ25" s="45"/>
+      <c r="CR25" s="45"/>
+      <c r="CS25" s="45"/>
+      <c r="CT25" s="45"/>
+      <c r="CU25" s="45"/>
+      <c r="CV25" s="45"/>
+      <c r="CW25" s="45"/>
+      <c r="CX25" s="45"/>
+      <c r="CY25" s="45"/>
+      <c r="CZ25" s="45"/>
+      <c r="DA25" s="45"/>
+      <c r="DB25" s="45"/>
+      <c r="DC25" s="45"/>
+      <c r="DD25" s="45"/>
+      <c r="DE25" s="45"/>
+      <c r="DF25" s="45"/>
+      <c r="DG25" s="45"/>
+      <c r="DH25" s="45"/>
+      <c r="DI25" s="45"/>
+      <c r="DJ25" s="45"/>
+      <c r="DK25" s="45"/>
+      <c r="DL25" s="45"/>
+      <c r="DM25" s="45"/>
+      <c r="DN25" s="45"/>
+      <c r="DO25" s="45"/>
+      <c r="DP25" s="45"/>
+      <c r="DQ25" s="45"/>
+      <c r="DR25" s="45"/>
+      <c r="DS25" s="45"/>
+      <c r="DT25" s="45"/>
+      <c r="DU25" s="45"/>
+      <c r="DV25" s="45"/>
+      <c r="DW25" s="45"/>
+      <c r="DX25" s="45"/>
+      <c r="DY25" s="45"/>
+      <c r="DZ25" s="45"/>
+      <c r="EA25" s="45"/>
+      <c r="EB25" s="45"/>
+      <c r="EC25" s="45"/>
+      <c r="ED25" s="45"/>
+      <c r="EE25" s="45"/>
+      <c r="EF25" s="45"/>
+      <c r="EG25" s="45"/>
+      <c r="EH25" s="45"/>
+      <c r="EI25" s="45"/>
+      <c r="EJ25" s="45"/>
+      <c r="EK25" s="45"/>
+      <c r="EL25" s="45"/>
+      <c r="EM25" s="45"/>
+      <c r="EN25" s="45"/>
+      <c r="EO25" s="45"/>
+      <c r="EP25" s="45"/>
+      <c r="EQ25" s="45"/>
+      <c r="ER25" s="45"/>
+      <c r="ES25" s="45"/>
+      <c r="ET25" s="45"/>
+      <c r="EU25" s="45"/>
+      <c r="EV25" s="45"/>
+      <c r="EW25" s="45"/>
+      <c r="EX25" s="45"/>
+      <c r="EY25" s="45"/>
+      <c r="EZ25" s="45"/>
+      <c r="FA25" s="45"/>
+      <c r="FB25" s="45"/>
+      <c r="FC25" s="45"/>
+      <c r="FD25" s="45"/>
+      <c r="FE25" s="45"/>
+      <c r="FF25" s="45"/>
+      <c r="FG25" s="45"/>
+      <c r="FH25" s="45"/>
+      <c r="FI25" s="45"/>
+      <c r="FJ25" s="45"/>
+      <c r="FK25" s="45"/>
+      <c r="FL25" s="45"/>
+      <c r="FM25" s="45"/>
+      <c r="FN25" s="45"/>
+      <c r="FO25" s="45"/>
+      <c r="FP25" s="45"/>
+      <c r="FQ25" s="45"/>
+      <c r="FR25" s="45"/>
+      <c r="FS25" s="45"/>
+      <c r="FT25" s="45"/>
+      <c r="FU25" s="45"/>
+      <c r="FV25" s="45"/>
+      <c r="FW25" s="45"/>
+      <c r="FX25" s="45"/>
+      <c r="FY25" s="45"/>
+      <c r="FZ25" s="45"/>
+      <c r="GA25" s="45"/>
+      <c r="GB25" s="45"/>
+      <c r="GC25" s="45"/>
+      <c r="GD25" s="45"/>
+      <c r="GE25" s="45"/>
+      <c r="GF25" s="45"/>
+      <c r="GG25" s="45"/>
+      <c r="GH25" s="45"/>
+      <c r="GI25" s="45"/>
+      <c r="GJ25" s="45"/>
+      <c r="GK25" s="45"/>
+      <c r="GL25" s="45"/>
+      <c r="GM25" s="45"/>
+      <c r="GN25" s="45"/>
+      <c r="GO25" s="45"/>
+      <c r="GP25" s="45"/>
+      <c r="GQ25" s="45"/>
+      <c r="GR25" s="45"/>
+      <c r="GS25" s="45"/>
+      <c r="GT25" s="45"/>
+      <c r="GU25" s="45"/>
+      <c r="GV25" s="45"/>
+      <c r="GW25" s="45"/>
+      <c r="GX25" s="45"/>
+      <c r="GY25" s="45"/>
+      <c r="GZ25" s="45"/>
+      <c r="HA25" s="45"/>
+      <c r="HB25" s="45"/>
+      <c r="HC25" s="45"/>
+      <c r="HD25" s="45"/>
+      <c r="HE25" s="45"/>
+      <c r="HF25" s="45"/>
+      <c r="HG25" s="45"/>
+      <c r="HH25" s="45"/>
+      <c r="HI25" s="45"/>
+      <c r="HJ25" s="45"/>
+      <c r="HK25" s="45"/>
+      <c r="HL25" s="45"/>
+      <c r="HM25" s="45"/>
+      <c r="HN25" s="45"/>
+      <c r="HO25" s="45"/>
+      <c r="HP25" s="45"/>
+      <c r="HQ25" s="45"/>
+      <c r="HR25" s="45"/>
+      <c r="HS25" s="45"/>
+      <c r="HT25" s="45"/>
+      <c r="HU25" s="45"/>
     </row>
-    <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4"/>
+    <row r="26" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44"/>
     </row>
-    <row r="24" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4"/>
+    <row r="27" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="BP27" s="45"/>
+      <c r="BQ27" s="45"/>
+      <c r="BR27" s="45"/>
+      <c r="BS27" s="45"/>
+      <c r="BT27" s="45"/>
+      <c r="BU27" s="45"/>
+      <c r="BV27" s="45"/>
+      <c r="BW27" s="45"/>
+      <c r="BX27" s="45"/>
+      <c r="BY27" s="45"/>
+      <c r="BZ27" s="45"/>
+      <c r="CA27" s="45"/>
+      <c r="CB27" s="45"/>
+      <c r="CC27" s="45"/>
+      <c r="CD27" s="45"/>
+      <c r="CE27" s="45"/>
+      <c r="CF27" s="45"/>
+      <c r="CG27" s="45"/>
+      <c r="CH27" s="45"/>
+      <c r="CI27" s="45"/>
+      <c r="CJ27" s="45"/>
+      <c r="CK27" s="45"/>
+      <c r="CL27" s="45"/>
+      <c r="CM27" s="45"/>
+      <c r="CN27" s="45"/>
+      <c r="CO27" s="45"/>
+      <c r="CP27" s="45"/>
+      <c r="CQ27" s="45"/>
+      <c r="CR27" s="45"/>
+      <c r="CS27" s="45"/>
+      <c r="CT27" s="45"/>
+      <c r="CU27" s="45"/>
+      <c r="CV27" s="45"/>
+      <c r="CW27" s="45"/>
+      <c r="CX27" s="45"/>
+      <c r="CY27" s="45"/>
+      <c r="CZ27" s="45"/>
+      <c r="DA27" s="45"/>
+      <c r="DB27" s="45"/>
+      <c r="DC27" s="45"/>
+      <c r="DD27" s="45"/>
+      <c r="DE27" s="45"/>
+      <c r="DF27" s="45"/>
+      <c r="DG27" s="45"/>
+      <c r="DH27" s="45"/>
+      <c r="DI27" s="45"/>
+      <c r="DJ27" s="45"/>
+      <c r="DK27" s="45"/>
+      <c r="DL27" s="45"/>
+      <c r="DM27" s="45"/>
+      <c r="DN27" s="45"/>
+      <c r="DO27" s="45"/>
+      <c r="DP27" s="45"/>
+      <c r="DQ27" s="45"/>
+      <c r="DR27" s="45"/>
+      <c r="DS27" s="45"/>
+      <c r="DT27" s="45"/>
+      <c r="DU27" s="45"/>
+      <c r="DV27" s="45"/>
+      <c r="DW27" s="45"/>
+      <c r="DX27" s="45"/>
+      <c r="DY27" s="45"/>
+      <c r="DZ27" s="45"/>
+      <c r="EA27" s="45"/>
+      <c r="EB27" s="45"/>
+      <c r="EC27" s="45"/>
+      <c r="ED27" s="45"/>
+      <c r="EE27" s="45"/>
+      <c r="EF27" s="45"/>
+      <c r="EG27" s="45"/>
+      <c r="EH27" s="45"/>
+      <c r="EI27" s="45"/>
+      <c r="EJ27" s="45"/>
+      <c r="EK27" s="45"/>
+      <c r="EL27" s="45"/>
+      <c r="EM27" s="45"/>
+      <c r="EN27" s="45"/>
+      <c r="EO27" s="45"/>
+      <c r="EP27" s="45"/>
+      <c r="EQ27" s="45"/>
+      <c r="ER27" s="45"/>
+      <c r="ES27" s="45"/>
+      <c r="ET27" s="45"/>
+      <c r="EU27" s="45"/>
+      <c r="EV27" s="45"/>
+      <c r="EW27" s="45"/>
+      <c r="EX27" s="45"/>
+      <c r="EY27" s="45"/>
+      <c r="EZ27" s="45"/>
+      <c r="FA27" s="45"/>
+      <c r="FB27" s="45"/>
+      <c r="FC27" s="45"/>
+      <c r="FD27" s="45"/>
+      <c r="FE27" s="45"/>
+      <c r="FF27" s="45"/>
+      <c r="FG27" s="45"/>
+      <c r="FH27" s="45"/>
+      <c r="FI27" s="45"/>
+      <c r="FJ27" s="45"/>
+      <c r="FK27" s="45"/>
+      <c r="FL27" s="45"/>
+      <c r="FM27" s="45"/>
+      <c r="FN27" s="45"/>
+      <c r="FO27" s="45"/>
+      <c r="FP27" s="45"/>
+      <c r="FQ27" s="45"/>
+      <c r="FR27" s="45"/>
+      <c r="FS27" s="45"/>
+      <c r="FT27" s="45"/>
+      <c r="FU27" s="45"/>
+      <c r="FV27" s="45"/>
+      <c r="FW27" s="45"/>
+      <c r="FX27" s="45"/>
+      <c r="FY27" s="45"/>
+      <c r="FZ27" s="45"/>
+      <c r="GA27" s="45"/>
+      <c r="GB27" s="45"/>
+      <c r="GC27" s="45"/>
+      <c r="GD27" s="45"/>
+      <c r="GE27" s="45"/>
+      <c r="GF27" s="45"/>
+      <c r="GG27" s="45"/>
+      <c r="GH27" s="45"/>
+      <c r="GI27" s="45"/>
+      <c r="GJ27" s="45"/>
+      <c r="GK27" s="45"/>
+      <c r="GL27" s="45"/>
+      <c r="GM27" s="45"/>
+      <c r="GN27" s="45"/>
+      <c r="GO27" s="45"/>
+      <c r="GP27" s="45"/>
+      <c r="GQ27" s="45"/>
+      <c r="GR27" s="45"/>
+      <c r="GS27" s="45"/>
+      <c r="GT27" s="45"/>
+      <c r="GU27" s="45"/>
+      <c r="GV27" s="45"/>
+      <c r="GW27" s="45"/>
+      <c r="GX27" s="45"/>
+      <c r="GY27" s="45"/>
+      <c r="GZ27" s="45"/>
+      <c r="HA27" s="45"/>
+      <c r="HB27" s="45"/>
+      <c r="HC27" s="45"/>
+      <c r="HD27" s="45"/>
+      <c r="HE27" s="45"/>
+      <c r="HF27" s="45"/>
+      <c r="HG27" s="45"/>
+      <c r="HH27" s="45"/>
+      <c r="HI27" s="45"/>
+      <c r="HJ27" s="45"/>
+      <c r="HK27" s="45"/>
+      <c r="HL27" s="45"/>
+      <c r="HM27" s="45"/>
+      <c r="HN27" s="45"/>
+      <c r="HO27" s="45"/>
+      <c r="HP27" s="45"/>
+      <c r="HQ27" s="45"/>
+      <c r="HR27" s="45"/>
+      <c r="HS27" s="45"/>
+      <c r="HT27" s="45"/>
+      <c r="HU27" s="45"/>
     </row>
-    <row r="25" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4"/>
+    <row r="28" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="44"/>
     </row>
-    <row r="26" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4"/>
+    <row r="29" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="44"/>
     </row>
-    <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4"/>
+    <row r="30" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="44"/>
+      <c r="J30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="45"/>
+      <c r="CJ30" s="45"/>
+      <c r="CK30" s="45"/>
+      <c r="CL30" s="45"/>
+      <c r="CM30" s="45"/>
+      <c r="CN30" s="45"/>
+      <c r="CO30" s="45"/>
+      <c r="CP30" s="45"/>
+      <c r="CQ30" s="45"/>
+      <c r="CR30" s="45"/>
+      <c r="CS30" s="45"/>
+      <c r="CT30" s="45"/>
+      <c r="CU30" s="45"/>
+      <c r="CV30" s="45"/>
+      <c r="CW30" s="45"/>
+      <c r="CX30" s="45"/>
+      <c r="CY30" s="45"/>
+      <c r="CZ30" s="45"/>
+      <c r="DA30" s="45"/>
+      <c r="DB30" s="45"/>
+      <c r="DC30" s="45"/>
+      <c r="DD30" s="45"/>
+      <c r="DE30" s="45"/>
+      <c r="DF30" s="45"/>
+      <c r="DG30" s="45"/>
+      <c r="DH30" s="45"/>
+      <c r="DI30" s="45"/>
+      <c r="DJ30" s="45"/>
+      <c r="DK30" s="45"/>
+      <c r="DL30" s="45"/>
+      <c r="DM30" s="45"/>
+      <c r="DN30" s="45"/>
+      <c r="DO30" s="45"/>
+      <c r="DP30" s="45"/>
+      <c r="DQ30" s="45"/>
+      <c r="DR30" s="45"/>
+      <c r="DS30" s="45"/>
+      <c r="DT30" s="45"/>
+      <c r="DU30" s="45"/>
+      <c r="DV30" s="45"/>
+      <c r="DW30" s="45"/>
+      <c r="DX30" s="45"/>
+      <c r="DY30" s="45"/>
+      <c r="DZ30" s="45"/>
+      <c r="EA30" s="45"/>
+      <c r="EB30" s="45"/>
+      <c r="EC30" s="45"/>
+      <c r="ED30" s="45"/>
+      <c r="EE30" s="45"/>
+      <c r="EF30" s="45"/>
+      <c r="EG30" s="45"/>
+      <c r="EH30" s="45"/>
+      <c r="EI30" s="45"/>
+      <c r="EJ30" s="45"/>
+      <c r="EK30" s="45"/>
+      <c r="EL30" s="45"/>
+      <c r="EM30" s="45"/>
+      <c r="EN30" s="45"/>
+      <c r="EO30" s="45"/>
+      <c r="EP30" s="45"/>
+      <c r="EQ30" s="45"/>
+      <c r="ER30" s="45"/>
+      <c r="ES30" s="45"/>
+      <c r="ET30" s="45"/>
+      <c r="EU30" s="45"/>
+      <c r="EV30" s="45"/>
+      <c r="EW30" s="45"/>
+      <c r="EX30" s="45"/>
+      <c r="EY30" s="45"/>
+      <c r="EZ30" s="45"/>
+      <c r="FA30" s="45"/>
+      <c r="FB30" s="45"/>
+      <c r="FC30" s="45"/>
+      <c r="FD30" s="45"/>
+      <c r="FE30" s="45"/>
+      <c r="FF30" s="45"/>
+      <c r="FG30" s="45"/>
+      <c r="FH30" s="45"/>
+      <c r="FI30" s="45"/>
+      <c r="FJ30" s="45"/>
+      <c r="FK30" s="45"/>
+      <c r="FL30" s="45"/>
+      <c r="FM30" s="45"/>
+      <c r="FN30" s="45"/>
+      <c r="FO30" s="45"/>
+      <c r="FP30" s="45"/>
+      <c r="FQ30" s="45"/>
+      <c r="FR30" s="45"/>
+      <c r="FS30" s="45"/>
+      <c r="FT30" s="45"/>
+      <c r="FU30" s="45"/>
+      <c r="FV30" s="45"/>
+      <c r="FW30" s="45"/>
+      <c r="FX30" s="45"/>
+      <c r="FY30" s="45"/>
+      <c r="FZ30" s="45"/>
+      <c r="GA30" s="45"/>
+      <c r="GB30" s="45"/>
+      <c r="GC30" s="45"/>
+      <c r="GD30" s="45"/>
+      <c r="GE30" s="45"/>
+      <c r="GF30" s="45"/>
+      <c r="GG30" s="45"/>
+      <c r="GH30" s="45"/>
+      <c r="GI30" s="45"/>
+      <c r="GJ30" s="45"/>
+      <c r="GK30" s="45"/>
+      <c r="GL30" s="45"/>
+      <c r="GM30" s="45"/>
+      <c r="GN30" s="45"/>
+      <c r="GO30" s="45"/>
+      <c r="GP30" s="45"/>
+      <c r="GQ30" s="45"/>
+      <c r="GR30" s="45"/>
+      <c r="GS30" s="45"/>
+      <c r="GT30" s="45"/>
+      <c r="GU30" s="45"/>
+      <c r="GV30" s="45"/>
+      <c r="GW30" s="45"/>
+      <c r="GX30" s="45"/>
+      <c r="GY30" s="45"/>
+      <c r="GZ30" s="45"/>
+      <c r="HA30" s="45"/>
+      <c r="HB30" s="45"/>
+      <c r="HC30" s="45"/>
+      <c r="HD30" s="45"/>
+      <c r="HE30" s="45"/>
+      <c r="HF30" s="45"/>
+      <c r="HG30" s="45"/>
+      <c r="HH30" s="45"/>
+      <c r="HI30" s="45"/>
+      <c r="HJ30" s="45"/>
+      <c r="HK30" s="45"/>
+      <c r="HL30" s="45"/>
+      <c r="HM30" s="45"/>
+      <c r="HN30" s="45"/>
+      <c r="HO30" s="45"/>
+      <c r="HP30" s="45"/>
+      <c r="HQ30" s="45"/>
+      <c r="HR30" s="45"/>
+      <c r="HS30" s="45"/>
+      <c r="HT30" s="45"/>
+      <c r="HU30" s="45"/>
     </row>
-    <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4"/>
+    <row r="31" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BP31" s="46"/>
+      <c r="BQ31" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1966,43 +8077,355 @@
     <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="W2:X2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO30">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="I5:BO24 I30:HU30 BP28:HU29 BP26:HU26 I26:BO29 I25:BN25">
+    <cfRule type="expression" dxfId="151" priority="121">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="150" priority="123">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="149" priority="124">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="148" priority="125">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="147" priority="126">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>H$4=időszak_kiválasztva</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="146" priority="127">
+      <formula>I$4=időszak_kiválasztva</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="131">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="144" priority="132">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="154" priority="122">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BP4">
-    <cfRule type="expression" dxfId="0" priority="8">
+  <conditionalFormatting sqref="H4:HU4 H5:H30">
+    <cfRule type="expression" dxfId="152" priority="128">
       <formula>H$4=időszak_kiválasztva</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="1685" yWindow="207" count="16">
+  <conditionalFormatting sqref="BP27:HU27 BO25:HU25 CK23:HU23 CK21:HU21 CK19:HU19 CK17:HU17 CK15:HU15 CK13:HU13 CK11:HU11 CK9:HU9 CK7:HU7 CK5:HU5">
+    <cfRule type="expression" dxfId="7" priority="113">
+      <formula>KészültségiSzint</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="114">
+      <formula>KészültségiSzintTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="115">
+      <formula>Tényleges</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="116">
+      <formula>TénylegTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="117">
+      <formula>Terv</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="118">
+      <formula>BO$4=időszak_kiválasztva</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="119">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="120">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ5:BQ24">
+    <cfRule type="expression" dxfId="119" priority="81">
+      <formula>KészültségiSzint</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="82">
+      <formula>KészültségiSzintTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="83">
+      <formula>Tényleges</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="84">
+      <formula>TénylegTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="85">
+      <formula>Terv</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="86">
+      <formula>BQ$4=időszak_kiválasztva</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="87">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="88">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS5:BS24">
+    <cfRule type="expression" dxfId="111" priority="73">
+      <formula>KészültségiSzint</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="74">
+      <formula>KészültségiSzintTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="75">
+      <formula>Tényleges</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="76">
+      <formula>TénylegTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="77">
+      <formula>Terv</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="78">
+      <formula>BS$4=időszak_kiválasztva</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="79">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="80">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BU5:BU24">
+    <cfRule type="expression" dxfId="103" priority="65">
+      <formula>KészültségiSzint</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="66">
+      <formula>KészültségiSzintTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="67">
+      <formula>Tényleges</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="68">
+      <formula>TénylegTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="69">
+      <formula>Terv</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="70">
+      <formula>BU$4=időszak_kiválasztva</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="71">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="72">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BW5:BW24">
+    <cfRule type="expression" dxfId="95" priority="57">
+      <formula>KészültségiSzint</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="58">
+      <formula>KészültségiSzintTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="59">
+      <formula>Tényleges</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="60">
+      <formula>TénylegTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="61">
+      <formula>Terv</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="62">
+      <formula>BW$4=időszak_kiválasztva</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="63">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="64">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BY5:BY24">
+    <cfRule type="expression" dxfId="87" priority="49">
+      <formula>KészültségiSzint</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="50">
+      <formula>KészültségiSzintTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="51">
+      <formula>Tényleges</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="52">
+      <formula>TénylegTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="53">
+      <formula>Terv</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="54">
+      <formula>BY$4=időszak_kiválasztva</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="55">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="56">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CA5:CA24">
+    <cfRule type="expression" dxfId="79" priority="41">
+      <formula>KészültségiSzint</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="42">
+      <formula>KészültségiSzintTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="43">
+      <formula>Tényleges</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="44">
+      <formula>TénylegTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="45">
+      <formula>Terv</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="46">
+      <formula>CA$4=időszak_kiválasztva</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="47">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="48">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CC5:CC24">
+    <cfRule type="expression" dxfId="71" priority="33">
+      <formula>KészültségiSzint</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="34">
+      <formula>KészültségiSzintTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="35">
+      <formula>Tényleges</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="36">
+      <formula>TénylegTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="37">
+      <formula>Terv</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="38">
+      <formula>CC$4=időszak_kiválasztva</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="39">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="40">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CE5:CE24">
+    <cfRule type="expression" dxfId="63" priority="25">
+      <formula>KészültségiSzint</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="26">
+      <formula>KészültségiSzintTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="27">
+      <formula>Tényleges</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="28">
+      <formula>TénylegTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="29">
+      <formula>Terv</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="30">
+      <formula>CE$4=időszak_kiválasztva</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="31">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="32">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CG5:CG24">
+    <cfRule type="expression" dxfId="55" priority="17">
+      <formula>KészültségiSzint</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="18">
+      <formula>KészültségiSzintTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="19">
+      <formula>Tényleges</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="20">
+      <formula>TénylegTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="21">
+      <formula>Terv</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="22">
+      <formula>CG$4=időszak_kiválasztva</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CI5:CI24">
+    <cfRule type="expression" dxfId="47" priority="9">
+      <formula>KészültségiSzint</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="10">
+      <formula>KészültségiSzintTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="11">
+      <formula>Tényleges</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="12">
+      <formula>TénylegTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="13">
+      <formula>Terv</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="14">
+      <formula>CI$4=időszak_kiválasztva</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CK24:HU24 CK22:HU22 CK20:HU20 CK18:HU18 CK16:HU16 CK14:HU14 CK12:HU12 CK10:HU10 CK8:HU8 CK6:HU6">
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>KészültségiSzint</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>KészültségiSzintTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>Tényleges</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="4">
+      <formula>TénylegTervenFelül</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>Terv</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>CK$4=időszak_kiválasztva</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations xWindow="1722" yWindow="207" count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A projekttervező időszakokat használ az időintervallumokhoz. A kezdés=1 az 1. időszakot, az időtartam=5 pedig azt jelenti, hogy a projekt a kezdőidőszaktól számítva 5 időszakon ível át. A diagram frissítéséhez kezdjen el adatokat beírni a B5 cellától." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Írjon be egy 1 és 60 közötti értéket, vagy válasszon egyet a listából. Válassza a MÉGSE lehetőséget, majd nyomja le az ALT+LE, ENTER billentyűkombinációt egy érték kiválasztásához." prompt="Válasszon egy időszakot 1 és 60 között, vagy válasszon egyet a listából. Az ALT+LE billentyűkombinációval navigálhat a listában, majd az ENTER billentyűt lenyomva kiválaszthat egy értéket." sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>

--- a/dokumentumok/Ütemterv.xlsx
+++ b/dokumentumok/Ütemterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D259B3-DC73-4833-9952-2208302CDA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F471E5C-2A9B-4868-9F5F-63A93538272C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,36 +44,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>Projekttervező</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Válassza ki a kiemelendő időszakot a jobb oldalon.  A diagram jelmagyarázata következik.</t>
   </si>
   <si>
     <t>TEVÉKENYSÉG</t>
-  </si>
-  <si>
-    <t>Tevékenység 04</t>
-  </si>
-  <si>
-    <t>Tevékenység 05</t>
-  </si>
-  <si>
-    <t>Tevékenység 06</t>
-  </si>
-  <si>
-    <t>Tevékenység 07</t>
-  </si>
-  <si>
-    <t>Tevékenység 08</t>
-  </si>
-  <si>
-    <t>Tevékenység 09</t>
-  </si>
-  <si>
-    <t>Tevékenység 10</t>
   </si>
   <si>
     <t>Tevékenység 11</t>
@@ -238,7 +214,28 @@
     <t>Ütemterv</t>
   </si>
   <si>
-    <t>Mobilalkalmazás tervezése</t>
+    <t>Adatbázis megtervezése</t>
+  </si>
+  <si>
+    <t>Weboldal alapjainak kialakítása</t>
+  </si>
+  <si>
+    <t>Eseménykezelés modul</t>
+  </si>
+  <si>
+    <t>Diák funkciók</t>
+  </si>
+  <si>
+    <t>Adminisztrátor modul</t>
+  </si>
+  <si>
+    <t>Értesítési rendszer</t>
+  </si>
+  <si>
+    <t>Tesztelés, hibajavítás</t>
+  </si>
+  <si>
+    <t>Dokumentáció véglegesítése</t>
   </si>
 </sst>
 </file>
@@ -552,7 +549,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -640,6 +637,15 @@
     <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="7" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -682,18 +688,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="% kész" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -716,7 +710,7 @@
     <cellStyle name="Terv jelmagyarázata" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Tevékenység" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="155">
+  <dxfs count="146">
     <dxf>
       <fill>
         <patternFill>
@@ -2749,139 +2743,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3159,8 +3020,8 @@
   </sheetPr>
   <dimension ref="B1:HU31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="BA14" sqref="BA14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3184,7 +3045,7 @@
   <sheetData>
     <row r="1" spans="2:229" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -3194,82 +3055,82 @@
     </row>
     <row r="2" spans="2:229" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H2" s="14">
         <v>1</v>
       </c>
       <c r="J2" s="24"/>
-      <c r="K2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38"/>
+      <c r="K2" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="38"/>
+      <c r="Q2" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="41"/>
       <c r="V2" s="16"/>
-      <c r="W2" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="42"/>
+      <c r="W2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="45"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="40"/>
+      <c r="AA2" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="43"/>
       <c r="AH2" s="18"/>
-      <c r="AI2" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
+      <c r="AI2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
     </row>
     <row r="3" spans="2:229" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>31</v>
+      <c r="B3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>23</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="25"/>
@@ -3292,12 +3153,12 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="28">
         <v>45901</v>
       </c>
@@ -3967,7 +3828,7 @@
     </row>
     <row r="5" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C5" s="22">
         <v>45902</v>
@@ -3984,162 +3845,162 @@
       <c r="G5" s="7">
         <v>0.65</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="BQ5" s="45"/>
-      <c r="BS5" s="45"/>
-      <c r="BU5" s="45"/>
-      <c r="BW5" s="45"/>
-      <c r="BY5" s="45"/>
-      <c r="CA5" s="45"/>
-      <c r="CC5" s="45"/>
-      <c r="CE5" s="45"/>
-      <c r="CG5" s="45"/>
-      <c r="CI5" s="45"/>
-      <c r="CK5" s="45"/>
-      <c r="CL5" s="45"/>
-      <c r="CM5" s="45"/>
-      <c r="CN5" s="45"/>
-      <c r="CO5" s="45"/>
-      <c r="CP5" s="45"/>
-      <c r="CQ5" s="45"/>
-      <c r="CR5" s="45"/>
-      <c r="CS5" s="45"/>
-      <c r="CT5" s="45"/>
-      <c r="CU5" s="45"/>
-      <c r="CV5" s="45"/>
-      <c r="CW5" s="45"/>
-      <c r="CX5" s="45"/>
-      <c r="CY5" s="45"/>
-      <c r="CZ5" s="45"/>
-      <c r="DA5" s="45"/>
-      <c r="DB5" s="45"/>
-      <c r="DC5" s="45"/>
-      <c r="DD5" s="45"/>
-      <c r="DE5" s="45"/>
-      <c r="DF5" s="45"/>
-      <c r="DG5" s="45"/>
-      <c r="DH5" s="45"/>
-      <c r="DI5" s="45"/>
-      <c r="DJ5" s="45"/>
-      <c r="DK5" s="45"/>
-      <c r="DL5" s="45"/>
-      <c r="DM5" s="45"/>
-      <c r="DN5" s="45"/>
-      <c r="DO5" s="45"/>
-      <c r="DP5" s="45"/>
-      <c r="DQ5" s="45"/>
-      <c r="DR5" s="45"/>
-      <c r="DS5" s="45"/>
-      <c r="DT5" s="45"/>
-      <c r="DU5" s="45"/>
-      <c r="DV5" s="45"/>
-      <c r="DW5" s="45"/>
-      <c r="DX5" s="45"/>
-      <c r="DY5" s="45"/>
-      <c r="DZ5" s="45"/>
-      <c r="EA5" s="45"/>
-      <c r="EB5" s="45"/>
-      <c r="EC5" s="45"/>
-      <c r="ED5" s="45"/>
-      <c r="EE5" s="45"/>
-      <c r="EF5" s="45"/>
-      <c r="EG5" s="45"/>
-      <c r="EH5" s="45"/>
-      <c r="EI5" s="45"/>
-      <c r="EJ5" s="45"/>
-      <c r="EK5" s="45"/>
-      <c r="EL5" s="45"/>
-      <c r="EM5" s="45"/>
-      <c r="EN5" s="45"/>
-      <c r="EO5" s="45"/>
-      <c r="EP5" s="45"/>
-      <c r="EQ5" s="45"/>
-      <c r="ER5" s="45"/>
-      <c r="ES5" s="45"/>
-      <c r="ET5" s="45"/>
-      <c r="EU5" s="45"/>
-      <c r="EV5" s="45"/>
-      <c r="EW5" s="45"/>
-      <c r="EX5" s="45"/>
-      <c r="EY5" s="45"/>
-      <c r="EZ5" s="45"/>
-      <c r="FA5" s="45"/>
-      <c r="FB5" s="45"/>
-      <c r="FC5" s="45"/>
-      <c r="FD5" s="45"/>
-      <c r="FE5" s="45"/>
-      <c r="FF5" s="45"/>
-      <c r="FG5" s="45"/>
-      <c r="FH5" s="45"/>
-      <c r="FI5" s="45"/>
-      <c r="FJ5" s="45"/>
-      <c r="FK5" s="45"/>
-      <c r="FL5" s="45"/>
-      <c r="FM5" s="45"/>
-      <c r="FN5" s="45"/>
-      <c r="FO5" s="45"/>
-      <c r="FP5" s="45"/>
-      <c r="FQ5" s="45"/>
-      <c r="FR5" s="45"/>
-      <c r="FS5" s="45"/>
-      <c r="FT5" s="45"/>
-      <c r="FU5" s="45"/>
-      <c r="FV5" s="45"/>
-      <c r="FW5" s="45"/>
-      <c r="FX5" s="45"/>
-      <c r="FY5" s="45"/>
-      <c r="FZ5" s="45"/>
-      <c r="GA5" s="45"/>
-      <c r="GB5" s="45"/>
-      <c r="GC5" s="45"/>
-      <c r="GD5" s="45"/>
-      <c r="GE5" s="45"/>
-      <c r="GF5" s="45"/>
-      <c r="GG5" s="45"/>
-      <c r="GH5" s="45"/>
-      <c r="GI5" s="45"/>
-      <c r="GJ5" s="45"/>
-      <c r="GK5" s="45"/>
-      <c r="GL5" s="45"/>
-      <c r="GM5" s="45"/>
-      <c r="GN5" s="45"/>
-      <c r="GO5" s="45"/>
-      <c r="GP5" s="45"/>
-      <c r="GQ5" s="45"/>
-      <c r="GR5" s="45"/>
-      <c r="GS5" s="45"/>
-      <c r="GT5" s="45"/>
-      <c r="GU5" s="45"/>
-      <c r="GV5" s="45"/>
-      <c r="GW5" s="45"/>
-      <c r="GX5" s="45"/>
-      <c r="GY5" s="45"/>
-      <c r="GZ5" s="45"/>
-      <c r="HA5" s="45"/>
-      <c r="HB5" s="45"/>
-      <c r="HC5" s="45"/>
-      <c r="HD5" s="45"/>
-      <c r="HE5" s="45"/>
-      <c r="HF5" s="45"/>
-      <c r="HG5" s="45"/>
-      <c r="HH5" s="45"/>
-      <c r="HI5" s="45"/>
-      <c r="HJ5" s="45"/>
-      <c r="HK5" s="45"/>
-      <c r="HL5" s="45"/>
-      <c r="HM5" s="45"/>
-      <c r="HN5" s="45"/>
-      <c r="HO5" s="45"/>
-      <c r="HP5" s="45"/>
-      <c r="HQ5" s="45"/>
-      <c r="HR5" s="45"/>
-      <c r="HS5" s="45"/>
-      <c r="HT5" s="45"/>
-      <c r="HU5" s="45"/>
+      <c r="H5" s="29"/>
+      <c r="BQ5" s="31"/>
+      <c r="BS5" s="31"/>
+      <c r="BU5" s="31"/>
+      <c r="BW5" s="31"/>
+      <c r="BY5" s="31"/>
+      <c r="CA5" s="31"/>
+      <c r="CC5" s="31"/>
+      <c r="CE5" s="31"/>
+      <c r="CG5" s="31"/>
+      <c r="CI5" s="31"/>
+      <c r="CK5" s="31"/>
+      <c r="CL5" s="31"/>
+      <c r="CM5" s="31"/>
+      <c r="CN5" s="31"/>
+      <c r="CO5" s="31"/>
+      <c r="CP5" s="31"/>
+      <c r="CQ5" s="31"/>
+      <c r="CR5" s="31"/>
+      <c r="CS5" s="31"/>
+      <c r="CT5" s="31"/>
+      <c r="CU5" s="31"/>
+      <c r="CV5" s="31"/>
+      <c r="CW5" s="31"/>
+      <c r="CX5" s="31"/>
+      <c r="CY5" s="31"/>
+      <c r="CZ5" s="31"/>
+      <c r="DA5" s="31"/>
+      <c r="DB5" s="31"/>
+      <c r="DC5" s="31"/>
+      <c r="DD5" s="31"/>
+      <c r="DE5" s="31"/>
+      <c r="DF5" s="31"/>
+      <c r="DG5" s="31"/>
+      <c r="DH5" s="31"/>
+      <c r="DI5" s="31"/>
+      <c r="DJ5" s="31"/>
+      <c r="DK5" s="31"/>
+      <c r="DL5" s="31"/>
+      <c r="DM5" s="31"/>
+      <c r="DN5" s="31"/>
+      <c r="DO5" s="31"/>
+      <c r="DP5" s="31"/>
+      <c r="DQ5" s="31"/>
+      <c r="DR5" s="31"/>
+      <c r="DS5" s="31"/>
+      <c r="DT5" s="31"/>
+      <c r="DU5" s="31"/>
+      <c r="DV5" s="31"/>
+      <c r="DW5" s="31"/>
+      <c r="DX5" s="31"/>
+      <c r="DY5" s="31"/>
+      <c r="DZ5" s="31"/>
+      <c r="EA5" s="31"/>
+      <c r="EB5" s="31"/>
+      <c r="EC5" s="31"/>
+      <c r="ED5" s="31"/>
+      <c r="EE5" s="31"/>
+      <c r="EF5" s="31"/>
+      <c r="EG5" s="31"/>
+      <c r="EH5" s="31"/>
+      <c r="EI5" s="31"/>
+      <c r="EJ5" s="31"/>
+      <c r="EK5" s="31"/>
+      <c r="EL5" s="31"/>
+      <c r="EM5" s="31"/>
+      <c r="EN5" s="31"/>
+      <c r="EO5" s="31"/>
+      <c r="EP5" s="31"/>
+      <c r="EQ5" s="31"/>
+      <c r="ER5" s="31"/>
+      <c r="ES5" s="31"/>
+      <c r="ET5" s="31"/>
+      <c r="EU5" s="31"/>
+      <c r="EV5" s="31"/>
+      <c r="EW5" s="31"/>
+      <c r="EX5" s="31"/>
+      <c r="EY5" s="31"/>
+      <c r="EZ5" s="31"/>
+      <c r="FA5" s="31"/>
+      <c r="FB5" s="31"/>
+      <c r="FC5" s="31"/>
+      <c r="FD5" s="31"/>
+      <c r="FE5" s="31"/>
+      <c r="FF5" s="31"/>
+      <c r="FG5" s="31"/>
+      <c r="FH5" s="31"/>
+      <c r="FI5" s="31"/>
+      <c r="FJ5" s="31"/>
+      <c r="FK5" s="31"/>
+      <c r="FL5" s="31"/>
+      <c r="FM5" s="31"/>
+      <c r="FN5" s="31"/>
+      <c r="FO5" s="31"/>
+      <c r="FP5" s="31"/>
+      <c r="FQ5" s="31"/>
+      <c r="FR5" s="31"/>
+      <c r="FS5" s="31"/>
+      <c r="FT5" s="31"/>
+      <c r="FU5" s="31"/>
+      <c r="FV5" s="31"/>
+      <c r="FW5" s="31"/>
+      <c r="FX5" s="31"/>
+      <c r="FY5" s="31"/>
+      <c r="FZ5" s="31"/>
+      <c r="GA5" s="31"/>
+      <c r="GB5" s="31"/>
+      <c r="GC5" s="31"/>
+      <c r="GD5" s="31"/>
+      <c r="GE5" s="31"/>
+      <c r="GF5" s="31"/>
+      <c r="GG5" s="31"/>
+      <c r="GH5" s="31"/>
+      <c r="GI5" s="31"/>
+      <c r="GJ5" s="31"/>
+      <c r="GK5" s="31"/>
+      <c r="GL5" s="31"/>
+      <c r="GM5" s="31"/>
+      <c r="GN5" s="31"/>
+      <c r="GO5" s="31"/>
+      <c r="GP5" s="31"/>
+      <c r="GQ5" s="31"/>
+      <c r="GR5" s="31"/>
+      <c r="GS5" s="31"/>
+      <c r="GT5" s="31"/>
+      <c r="GU5" s="31"/>
+      <c r="GV5" s="31"/>
+      <c r="GW5" s="31"/>
+      <c r="GX5" s="31"/>
+      <c r="GY5" s="31"/>
+      <c r="GZ5" s="31"/>
+      <c r="HA5" s="31"/>
+      <c r="HB5" s="31"/>
+      <c r="HC5" s="31"/>
+      <c r="HD5" s="31"/>
+      <c r="HE5" s="31"/>
+      <c r="HF5" s="31"/>
+      <c r="HG5" s="31"/>
+      <c r="HH5" s="31"/>
+      <c r="HI5" s="31"/>
+      <c r="HJ5" s="31"/>
+      <c r="HK5" s="31"/>
+      <c r="HL5" s="31"/>
+      <c r="HM5" s="31"/>
+      <c r="HN5" s="31"/>
+      <c r="HO5" s="31"/>
+      <c r="HP5" s="31"/>
+      <c r="HQ5" s="31"/>
+      <c r="HR5" s="31"/>
+      <c r="HS5" s="31"/>
+      <c r="HT5" s="31"/>
+      <c r="HU5" s="31"/>
     </row>
     <row r="6" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C6" s="22">
         <v>45902</v>
@@ -4156,334 +4017,334 @@
       <c r="G6" s="7">
         <v>0.4</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="BQ6" s="45"/>
-      <c r="BS6" s="45"/>
-      <c r="BU6" s="45"/>
-      <c r="BW6" s="45"/>
-      <c r="BY6" s="45"/>
-      <c r="CA6" s="45"/>
-      <c r="CC6" s="45"/>
-      <c r="CE6" s="45"/>
-      <c r="CG6" s="45"/>
-      <c r="CI6" s="45"/>
-      <c r="CK6" s="45"/>
-      <c r="CL6" s="45"/>
-      <c r="CM6" s="45"/>
-      <c r="CN6" s="45"/>
-      <c r="CO6" s="45"/>
-      <c r="CP6" s="45"/>
-      <c r="CQ6" s="45"/>
-      <c r="CR6" s="45"/>
-      <c r="CS6" s="45"/>
-      <c r="CT6" s="45"/>
-      <c r="CU6" s="45"/>
-      <c r="CV6" s="45"/>
-      <c r="CW6" s="45"/>
-      <c r="CX6" s="45"/>
-      <c r="CY6" s="45"/>
-      <c r="CZ6" s="45"/>
-      <c r="DA6" s="45"/>
-      <c r="DB6" s="45"/>
-      <c r="DC6" s="45"/>
-      <c r="DD6" s="45"/>
-      <c r="DE6" s="45"/>
-      <c r="DF6" s="45"/>
-      <c r="DG6" s="45"/>
-      <c r="DH6" s="45"/>
-      <c r="DI6" s="45"/>
-      <c r="DJ6" s="45"/>
-      <c r="DK6" s="45"/>
-      <c r="DL6" s="45"/>
-      <c r="DM6" s="45"/>
-      <c r="DN6" s="45"/>
-      <c r="DO6" s="45"/>
-      <c r="DP6" s="45"/>
-      <c r="DQ6" s="45"/>
-      <c r="DR6" s="45"/>
-      <c r="DS6" s="45"/>
-      <c r="DT6" s="45"/>
-      <c r="DU6" s="45"/>
-      <c r="DV6" s="45"/>
-      <c r="DW6" s="45"/>
-      <c r="DX6" s="45"/>
-      <c r="DY6" s="45"/>
-      <c r="DZ6" s="45"/>
-      <c r="EA6" s="45"/>
-      <c r="EB6" s="45"/>
-      <c r="EC6" s="45"/>
-      <c r="ED6" s="45"/>
-      <c r="EE6" s="45"/>
-      <c r="EF6" s="45"/>
-      <c r="EG6" s="45"/>
-      <c r="EH6" s="45"/>
-      <c r="EI6" s="45"/>
-      <c r="EJ6" s="45"/>
-      <c r="EK6" s="45"/>
-      <c r="EL6" s="45"/>
-      <c r="EM6" s="45"/>
-      <c r="EN6" s="45"/>
-      <c r="EO6" s="45"/>
-      <c r="EP6" s="45"/>
-      <c r="EQ6" s="45"/>
-      <c r="ER6" s="45"/>
-      <c r="ES6" s="45"/>
-      <c r="ET6" s="45"/>
-      <c r="EU6" s="45"/>
-      <c r="EV6" s="45"/>
-      <c r="EW6" s="45"/>
-      <c r="EX6" s="45"/>
-      <c r="EY6" s="45"/>
-      <c r="EZ6" s="45"/>
-      <c r="FA6" s="45"/>
-      <c r="FB6" s="45"/>
-      <c r="FC6" s="45"/>
-      <c r="FD6" s="45"/>
-      <c r="FE6" s="45"/>
-      <c r="FF6" s="45"/>
-      <c r="FG6" s="45"/>
-      <c r="FH6" s="45"/>
-      <c r="FI6" s="45"/>
-      <c r="FJ6" s="45"/>
-      <c r="FK6" s="45"/>
-      <c r="FL6" s="45"/>
-      <c r="FM6" s="45"/>
-      <c r="FN6" s="45"/>
-      <c r="FO6" s="45"/>
-      <c r="FP6" s="45"/>
-      <c r="FQ6" s="45"/>
-      <c r="FR6" s="45"/>
-      <c r="FS6" s="45"/>
-      <c r="FT6" s="45"/>
-      <c r="FU6" s="45"/>
-      <c r="FV6" s="45"/>
-      <c r="FW6" s="45"/>
-      <c r="FX6" s="45"/>
-      <c r="FY6" s="45"/>
-      <c r="FZ6" s="45"/>
-      <c r="GA6" s="45"/>
-      <c r="GB6" s="45"/>
-      <c r="GC6" s="45"/>
-      <c r="GD6" s="45"/>
-      <c r="GE6" s="45"/>
-      <c r="GF6" s="45"/>
-      <c r="GG6" s="45"/>
-      <c r="GH6" s="45"/>
-      <c r="GI6" s="45"/>
-      <c r="GJ6" s="45"/>
-      <c r="GK6" s="45"/>
-      <c r="GL6" s="45"/>
-      <c r="GM6" s="45"/>
-      <c r="GN6" s="45"/>
-      <c r="GO6" s="45"/>
-      <c r="GP6" s="45"/>
-      <c r="GQ6" s="45"/>
-      <c r="GR6" s="45"/>
-      <c r="GS6" s="45"/>
-      <c r="GT6" s="45"/>
-      <c r="GU6" s="45"/>
-      <c r="GV6" s="45"/>
-      <c r="GW6" s="45"/>
-      <c r="GX6" s="45"/>
-      <c r="GY6" s="45"/>
-      <c r="GZ6" s="45"/>
-      <c r="HA6" s="45"/>
-      <c r="HB6" s="45"/>
-      <c r="HC6" s="45"/>
-      <c r="HD6" s="45"/>
-      <c r="HE6" s="45"/>
-      <c r="HF6" s="45"/>
-      <c r="HG6" s="45"/>
-      <c r="HH6" s="45"/>
-      <c r="HI6" s="45"/>
-      <c r="HJ6" s="45"/>
-      <c r="HK6" s="45"/>
-      <c r="HL6" s="45"/>
-      <c r="HM6" s="45"/>
-      <c r="HN6" s="45"/>
-      <c r="HO6" s="45"/>
-      <c r="HP6" s="45"/>
-      <c r="HQ6" s="45"/>
-      <c r="HR6" s="45"/>
-      <c r="HS6" s="45"/>
-      <c r="HT6" s="45"/>
-      <c r="HU6" s="45"/>
+      <c r="H6" s="30"/>
+      <c r="BQ6" s="31"/>
+      <c r="BS6" s="31"/>
+      <c r="BU6" s="31"/>
+      <c r="BW6" s="31"/>
+      <c r="BY6" s="31"/>
+      <c r="CA6" s="31"/>
+      <c r="CC6" s="31"/>
+      <c r="CE6" s="31"/>
+      <c r="CG6" s="31"/>
+      <c r="CI6" s="31"/>
+      <c r="CK6" s="31"/>
+      <c r="CL6" s="31"/>
+      <c r="CM6" s="31"/>
+      <c r="CN6" s="31"/>
+      <c r="CO6" s="31"/>
+      <c r="CP6" s="31"/>
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="31"/>
+      <c r="CS6" s="31"/>
+      <c r="CT6" s="31"/>
+      <c r="CU6" s="31"/>
+      <c r="CV6" s="31"/>
+      <c r="CW6" s="31"/>
+      <c r="CX6" s="31"/>
+      <c r="CY6" s="31"/>
+      <c r="CZ6" s="31"/>
+      <c r="DA6" s="31"/>
+      <c r="DB6" s="31"/>
+      <c r="DC6" s="31"/>
+      <c r="DD6" s="31"/>
+      <c r="DE6" s="31"/>
+      <c r="DF6" s="31"/>
+      <c r="DG6" s="31"/>
+      <c r="DH6" s="31"/>
+      <c r="DI6" s="31"/>
+      <c r="DJ6" s="31"/>
+      <c r="DK6" s="31"/>
+      <c r="DL6" s="31"/>
+      <c r="DM6" s="31"/>
+      <c r="DN6" s="31"/>
+      <c r="DO6" s="31"/>
+      <c r="DP6" s="31"/>
+      <c r="DQ6" s="31"/>
+      <c r="DR6" s="31"/>
+      <c r="DS6" s="31"/>
+      <c r="DT6" s="31"/>
+      <c r="DU6" s="31"/>
+      <c r="DV6" s="31"/>
+      <c r="DW6" s="31"/>
+      <c r="DX6" s="31"/>
+      <c r="DY6" s="31"/>
+      <c r="DZ6" s="31"/>
+      <c r="EA6" s="31"/>
+      <c r="EB6" s="31"/>
+      <c r="EC6" s="31"/>
+      <c r="ED6" s="31"/>
+      <c r="EE6" s="31"/>
+      <c r="EF6" s="31"/>
+      <c r="EG6" s="31"/>
+      <c r="EH6" s="31"/>
+      <c r="EI6" s="31"/>
+      <c r="EJ6" s="31"/>
+      <c r="EK6" s="31"/>
+      <c r="EL6" s="31"/>
+      <c r="EM6" s="31"/>
+      <c r="EN6" s="31"/>
+      <c r="EO6" s="31"/>
+      <c r="EP6" s="31"/>
+      <c r="EQ6" s="31"/>
+      <c r="ER6" s="31"/>
+      <c r="ES6" s="31"/>
+      <c r="ET6" s="31"/>
+      <c r="EU6" s="31"/>
+      <c r="EV6" s="31"/>
+      <c r="EW6" s="31"/>
+      <c r="EX6" s="31"/>
+      <c r="EY6" s="31"/>
+      <c r="EZ6" s="31"/>
+      <c r="FA6" s="31"/>
+      <c r="FB6" s="31"/>
+      <c r="FC6" s="31"/>
+      <c r="FD6" s="31"/>
+      <c r="FE6" s="31"/>
+      <c r="FF6" s="31"/>
+      <c r="FG6" s="31"/>
+      <c r="FH6" s="31"/>
+      <c r="FI6" s="31"/>
+      <c r="FJ6" s="31"/>
+      <c r="FK6" s="31"/>
+      <c r="FL6" s="31"/>
+      <c r="FM6" s="31"/>
+      <c r="FN6" s="31"/>
+      <c r="FO6" s="31"/>
+      <c r="FP6" s="31"/>
+      <c r="FQ6" s="31"/>
+      <c r="FR6" s="31"/>
+      <c r="FS6" s="31"/>
+      <c r="FT6" s="31"/>
+      <c r="FU6" s="31"/>
+      <c r="FV6" s="31"/>
+      <c r="FW6" s="31"/>
+      <c r="FX6" s="31"/>
+      <c r="FY6" s="31"/>
+      <c r="FZ6" s="31"/>
+      <c r="GA6" s="31"/>
+      <c r="GB6" s="31"/>
+      <c r="GC6" s="31"/>
+      <c r="GD6" s="31"/>
+      <c r="GE6" s="31"/>
+      <c r="GF6" s="31"/>
+      <c r="GG6" s="31"/>
+      <c r="GH6" s="31"/>
+      <c r="GI6" s="31"/>
+      <c r="GJ6" s="31"/>
+      <c r="GK6" s="31"/>
+      <c r="GL6" s="31"/>
+      <c r="GM6" s="31"/>
+      <c r="GN6" s="31"/>
+      <c r="GO6" s="31"/>
+      <c r="GP6" s="31"/>
+      <c r="GQ6" s="31"/>
+      <c r="GR6" s="31"/>
+      <c r="GS6" s="31"/>
+      <c r="GT6" s="31"/>
+      <c r="GU6" s="31"/>
+      <c r="GV6" s="31"/>
+      <c r="GW6" s="31"/>
+      <c r="GX6" s="31"/>
+      <c r="GY6" s="31"/>
+      <c r="GZ6" s="31"/>
+      <c r="HA6" s="31"/>
+      <c r="HB6" s="31"/>
+      <c r="HC6" s="31"/>
+      <c r="HD6" s="31"/>
+      <c r="HE6" s="31"/>
+      <c r="HF6" s="31"/>
+      <c r="HG6" s="31"/>
+      <c r="HH6" s="31"/>
+      <c r="HI6" s="31"/>
+      <c r="HJ6" s="31"/>
+      <c r="HK6" s="31"/>
+      <c r="HL6" s="31"/>
+      <c r="HM6" s="31"/>
+      <c r="HN6" s="31"/>
+      <c r="HO6" s="31"/>
+      <c r="HP6" s="31"/>
+      <c r="HQ6" s="31"/>
+      <c r="HR6" s="31"/>
+      <c r="HS6" s="31"/>
+      <c r="HT6" s="31"/>
+      <c r="HU6" s="31"/>
     </row>
     <row r="7" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>40</v>
+      <c r="B7" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="22">
-        <v>45912</v>
+        <v>45931</v>
       </c>
       <c r="D7" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E7" s="22">
-        <v>45912</v>
+        <v>45933</v>
       </c>
       <c r="F7" s="6">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="BQ7" s="45"/>
-      <c r="BS7" s="45"/>
-      <c r="BU7" s="45"/>
-      <c r="BW7" s="45"/>
-      <c r="BY7" s="45"/>
-      <c r="CA7" s="45"/>
-      <c r="CC7" s="45"/>
-      <c r="CE7" s="45"/>
-      <c r="CG7" s="45"/>
-      <c r="CI7" s="45"/>
-      <c r="CK7" s="45"/>
-      <c r="CL7" s="45"/>
-      <c r="CM7" s="45"/>
-      <c r="CN7" s="45"/>
-      <c r="CO7" s="45"/>
-      <c r="CP7" s="45"/>
-      <c r="CQ7" s="45"/>
-      <c r="CR7" s="45"/>
-      <c r="CS7" s="45"/>
-      <c r="CT7" s="45"/>
-      <c r="CU7" s="45"/>
-      <c r="CV7" s="45"/>
-      <c r="CW7" s="45"/>
-      <c r="CX7" s="45"/>
-      <c r="CY7" s="45"/>
-      <c r="CZ7" s="45"/>
-      <c r="DA7" s="45"/>
-      <c r="DB7" s="45"/>
-      <c r="DC7" s="45"/>
-      <c r="DD7" s="45"/>
-      <c r="DE7" s="45"/>
-      <c r="DF7" s="45"/>
-      <c r="DG7" s="45"/>
-      <c r="DH7" s="45"/>
-      <c r="DI7" s="45"/>
-      <c r="DJ7" s="45"/>
-      <c r="DK7" s="45"/>
-      <c r="DL7" s="45"/>
-      <c r="DM7" s="45"/>
-      <c r="DN7" s="45"/>
-      <c r="DO7" s="45"/>
-      <c r="DP7" s="45"/>
-      <c r="DQ7" s="45"/>
-      <c r="DR7" s="45"/>
-      <c r="DS7" s="45"/>
-      <c r="DT7" s="45"/>
-      <c r="DU7" s="45"/>
-      <c r="DV7" s="45"/>
-      <c r="DW7" s="45"/>
-      <c r="DX7" s="45"/>
-      <c r="DY7" s="45"/>
-      <c r="DZ7" s="45"/>
-      <c r="EA7" s="45"/>
-      <c r="EB7" s="45"/>
-      <c r="EC7" s="45"/>
-      <c r="ED7" s="45"/>
-      <c r="EE7" s="45"/>
-      <c r="EF7" s="45"/>
-      <c r="EG7" s="45"/>
-      <c r="EH7" s="45"/>
-      <c r="EI7" s="45"/>
-      <c r="EJ7" s="45"/>
-      <c r="EK7" s="45"/>
-      <c r="EL7" s="45"/>
-      <c r="EM7" s="45"/>
-      <c r="EN7" s="45"/>
-      <c r="EO7" s="45"/>
-      <c r="EP7" s="45"/>
-      <c r="EQ7" s="45"/>
-      <c r="ER7" s="45"/>
-      <c r="ES7" s="45"/>
-      <c r="ET7" s="45"/>
-      <c r="EU7" s="45"/>
-      <c r="EV7" s="45"/>
-      <c r="EW7" s="45"/>
-      <c r="EX7" s="45"/>
-      <c r="EY7" s="45"/>
-      <c r="EZ7" s="45"/>
-      <c r="FA7" s="45"/>
-      <c r="FB7" s="45"/>
-      <c r="FC7" s="45"/>
-      <c r="FD7" s="45"/>
-      <c r="FE7" s="45"/>
-      <c r="FF7" s="45"/>
-      <c r="FG7" s="45"/>
-      <c r="FH7" s="45"/>
-      <c r="FI7" s="45"/>
-      <c r="FJ7" s="45"/>
-      <c r="FK7" s="45"/>
-      <c r="FL7" s="45"/>
-      <c r="FM7" s="45"/>
-      <c r="FN7" s="45"/>
-      <c r="FO7" s="45"/>
-      <c r="FP7" s="45"/>
-      <c r="FQ7" s="45"/>
-      <c r="FR7" s="45"/>
-      <c r="FS7" s="45"/>
-      <c r="FT7" s="45"/>
-      <c r="FU7" s="45"/>
-      <c r="FV7" s="45"/>
-      <c r="FW7" s="45"/>
-      <c r="FX7" s="45"/>
-      <c r="FY7" s="45"/>
-      <c r="FZ7" s="45"/>
-      <c r="GA7" s="45"/>
-      <c r="GB7" s="45"/>
-      <c r="GC7" s="45"/>
-      <c r="GD7" s="45"/>
-      <c r="GE7" s="45"/>
-      <c r="GF7" s="45"/>
-      <c r="GG7" s="45"/>
-      <c r="GH7" s="45"/>
-      <c r="GI7" s="45"/>
-      <c r="GJ7" s="45"/>
-      <c r="GK7" s="45"/>
-      <c r="GL7" s="45"/>
-      <c r="GM7" s="45"/>
-      <c r="GN7" s="45"/>
-      <c r="GO7" s="45"/>
-      <c r="GP7" s="45"/>
-      <c r="GQ7" s="45"/>
-      <c r="GR7" s="45"/>
-      <c r="GS7" s="45"/>
-      <c r="GT7" s="45"/>
-      <c r="GU7" s="45"/>
-      <c r="GV7" s="45"/>
-      <c r="GW7" s="45"/>
-      <c r="GX7" s="45"/>
-      <c r="GY7" s="45"/>
-      <c r="GZ7" s="45"/>
-      <c r="HA7" s="45"/>
-      <c r="HB7" s="45"/>
-      <c r="HC7" s="45"/>
-      <c r="HD7" s="45"/>
-      <c r="HE7" s="45"/>
-      <c r="HF7" s="45"/>
-      <c r="HG7" s="45"/>
-      <c r="HH7" s="45"/>
-      <c r="HI7" s="45"/>
-      <c r="HJ7" s="45"/>
-      <c r="HK7" s="45"/>
-      <c r="HL7" s="45"/>
-      <c r="HM7" s="45"/>
-      <c r="HN7" s="45"/>
-      <c r="HO7" s="45"/>
-      <c r="HP7" s="45"/>
-      <c r="HQ7" s="45"/>
-      <c r="HR7" s="45"/>
-      <c r="HS7" s="45"/>
-      <c r="HT7" s="45"/>
-      <c r="HU7" s="45"/>
+      <c r="H7" s="30"/>
+      <c r="BQ7" s="31"/>
+      <c r="BS7" s="31"/>
+      <c r="BU7" s="31"/>
+      <c r="BW7" s="31"/>
+      <c r="BY7" s="31"/>
+      <c r="CA7" s="31"/>
+      <c r="CC7" s="31"/>
+      <c r="CE7" s="31"/>
+      <c r="CG7" s="31"/>
+      <c r="CI7" s="31"/>
+      <c r="CK7" s="31"/>
+      <c r="CL7" s="31"/>
+      <c r="CM7" s="31"/>
+      <c r="CN7" s="31"/>
+      <c r="CO7" s="31"/>
+      <c r="CP7" s="31"/>
+      <c r="CQ7" s="31"/>
+      <c r="CR7" s="31"/>
+      <c r="CS7" s="31"/>
+      <c r="CT7" s="31"/>
+      <c r="CU7" s="31"/>
+      <c r="CV7" s="31"/>
+      <c r="CW7" s="31"/>
+      <c r="CX7" s="31"/>
+      <c r="CY7" s="31"/>
+      <c r="CZ7" s="31"/>
+      <c r="DA7" s="31"/>
+      <c r="DB7" s="31"/>
+      <c r="DC7" s="31"/>
+      <c r="DD7" s="31"/>
+      <c r="DE7" s="31"/>
+      <c r="DF7" s="31"/>
+      <c r="DG7" s="31"/>
+      <c r="DH7" s="31"/>
+      <c r="DI7" s="31"/>
+      <c r="DJ7" s="31"/>
+      <c r="DK7" s="31"/>
+      <c r="DL7" s="31"/>
+      <c r="DM7" s="31"/>
+      <c r="DN7" s="31"/>
+      <c r="DO7" s="31"/>
+      <c r="DP7" s="31"/>
+      <c r="DQ7" s="31"/>
+      <c r="DR7" s="31"/>
+      <c r="DS7" s="31"/>
+      <c r="DT7" s="31"/>
+      <c r="DU7" s="31"/>
+      <c r="DV7" s="31"/>
+      <c r="DW7" s="31"/>
+      <c r="DX7" s="31"/>
+      <c r="DY7" s="31"/>
+      <c r="DZ7" s="31"/>
+      <c r="EA7" s="31"/>
+      <c r="EB7" s="31"/>
+      <c r="EC7" s="31"/>
+      <c r="ED7" s="31"/>
+      <c r="EE7" s="31"/>
+      <c r="EF7" s="31"/>
+      <c r="EG7" s="31"/>
+      <c r="EH7" s="31"/>
+      <c r="EI7" s="31"/>
+      <c r="EJ7" s="31"/>
+      <c r="EK7" s="31"/>
+      <c r="EL7" s="31"/>
+      <c r="EM7" s="31"/>
+      <c r="EN7" s="31"/>
+      <c r="EO7" s="31"/>
+      <c r="EP7" s="31"/>
+      <c r="EQ7" s="31"/>
+      <c r="ER7" s="31"/>
+      <c r="ES7" s="31"/>
+      <c r="ET7" s="31"/>
+      <c r="EU7" s="31"/>
+      <c r="EV7" s="31"/>
+      <c r="EW7" s="31"/>
+      <c r="EX7" s="31"/>
+      <c r="EY7" s="31"/>
+      <c r="EZ7" s="31"/>
+      <c r="FA7" s="31"/>
+      <c r="FB7" s="31"/>
+      <c r="FC7" s="31"/>
+      <c r="FD7" s="31"/>
+      <c r="FE7" s="31"/>
+      <c r="FF7" s="31"/>
+      <c r="FG7" s="31"/>
+      <c r="FH7" s="31"/>
+      <c r="FI7" s="31"/>
+      <c r="FJ7" s="31"/>
+      <c r="FK7" s="31"/>
+      <c r="FL7" s="31"/>
+      <c r="FM7" s="31"/>
+      <c r="FN7" s="31"/>
+      <c r="FO7" s="31"/>
+      <c r="FP7" s="31"/>
+      <c r="FQ7" s="31"/>
+      <c r="FR7" s="31"/>
+      <c r="FS7" s="31"/>
+      <c r="FT7" s="31"/>
+      <c r="FU7" s="31"/>
+      <c r="FV7" s="31"/>
+      <c r="FW7" s="31"/>
+      <c r="FX7" s="31"/>
+      <c r="FY7" s="31"/>
+      <c r="FZ7" s="31"/>
+      <c r="GA7" s="31"/>
+      <c r="GB7" s="31"/>
+      <c r="GC7" s="31"/>
+      <c r="GD7" s="31"/>
+      <c r="GE7" s="31"/>
+      <c r="GF7" s="31"/>
+      <c r="GG7" s="31"/>
+      <c r="GH7" s="31"/>
+      <c r="GI7" s="31"/>
+      <c r="GJ7" s="31"/>
+      <c r="GK7" s="31"/>
+      <c r="GL7" s="31"/>
+      <c r="GM7" s="31"/>
+      <c r="GN7" s="31"/>
+      <c r="GO7" s="31"/>
+      <c r="GP7" s="31"/>
+      <c r="GQ7" s="31"/>
+      <c r="GR7" s="31"/>
+      <c r="GS7" s="31"/>
+      <c r="GT7" s="31"/>
+      <c r="GU7" s="31"/>
+      <c r="GV7" s="31"/>
+      <c r="GW7" s="31"/>
+      <c r="GX7" s="31"/>
+      <c r="GY7" s="31"/>
+      <c r="GZ7" s="31"/>
+      <c r="HA7" s="31"/>
+      <c r="HB7" s="31"/>
+      <c r="HC7" s="31"/>
+      <c r="HD7" s="31"/>
+      <c r="HE7" s="31"/>
+      <c r="HF7" s="31"/>
+      <c r="HG7" s="31"/>
+      <c r="HH7" s="31"/>
+      <c r="HI7" s="31"/>
+      <c r="HJ7" s="31"/>
+      <c r="HK7" s="31"/>
+      <c r="HL7" s="31"/>
+      <c r="HM7" s="31"/>
+      <c r="HN7" s="31"/>
+      <c r="HO7" s="31"/>
+      <c r="HP7" s="31"/>
+      <c r="HQ7" s="31"/>
+      <c r="HR7" s="31"/>
+      <c r="HS7" s="31"/>
+      <c r="HT7" s="31"/>
+      <c r="HU7" s="31"/>
     </row>
     <row r="8" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -4500,162 +4361,162 @@
       <c r="G8" s="7">
         <v>0</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="BQ8" s="45"/>
-      <c r="BS8" s="45"/>
-      <c r="BU8" s="45"/>
-      <c r="BW8" s="45"/>
-      <c r="BY8" s="45"/>
-      <c r="CA8" s="45"/>
-      <c r="CC8" s="45"/>
-      <c r="CE8" s="45"/>
-      <c r="CG8" s="45"/>
-      <c r="CI8" s="45"/>
-      <c r="CK8" s="45"/>
-      <c r="CL8" s="45"/>
-      <c r="CM8" s="45"/>
-      <c r="CN8" s="45"/>
-      <c r="CO8" s="45"/>
-      <c r="CP8" s="45"/>
-      <c r="CQ8" s="45"/>
-      <c r="CR8" s="45"/>
-      <c r="CS8" s="45"/>
-      <c r="CT8" s="45"/>
-      <c r="CU8" s="45"/>
-      <c r="CV8" s="45"/>
-      <c r="CW8" s="45"/>
-      <c r="CX8" s="45"/>
-      <c r="CY8" s="45"/>
-      <c r="CZ8" s="45"/>
-      <c r="DA8" s="45"/>
-      <c r="DB8" s="45"/>
-      <c r="DC8" s="45"/>
-      <c r="DD8" s="45"/>
-      <c r="DE8" s="45"/>
-      <c r="DF8" s="45"/>
-      <c r="DG8" s="45"/>
-      <c r="DH8" s="45"/>
-      <c r="DI8" s="45"/>
-      <c r="DJ8" s="45"/>
-      <c r="DK8" s="45"/>
-      <c r="DL8" s="45"/>
-      <c r="DM8" s="45"/>
-      <c r="DN8" s="45"/>
-      <c r="DO8" s="45"/>
-      <c r="DP8" s="45"/>
-      <c r="DQ8" s="45"/>
-      <c r="DR8" s="45"/>
-      <c r="DS8" s="45"/>
-      <c r="DT8" s="45"/>
-      <c r="DU8" s="45"/>
-      <c r="DV8" s="45"/>
-      <c r="DW8" s="45"/>
-      <c r="DX8" s="45"/>
-      <c r="DY8" s="45"/>
-      <c r="DZ8" s="45"/>
-      <c r="EA8" s="45"/>
-      <c r="EB8" s="45"/>
-      <c r="EC8" s="45"/>
-      <c r="ED8" s="45"/>
-      <c r="EE8" s="45"/>
-      <c r="EF8" s="45"/>
-      <c r="EG8" s="45"/>
-      <c r="EH8" s="45"/>
-      <c r="EI8" s="45"/>
-      <c r="EJ8" s="45"/>
-      <c r="EK8" s="45"/>
-      <c r="EL8" s="45"/>
-      <c r="EM8" s="45"/>
-      <c r="EN8" s="45"/>
-      <c r="EO8" s="45"/>
-      <c r="EP8" s="45"/>
-      <c r="EQ8" s="45"/>
-      <c r="ER8" s="45"/>
-      <c r="ES8" s="45"/>
-      <c r="ET8" s="45"/>
-      <c r="EU8" s="45"/>
-      <c r="EV8" s="45"/>
-      <c r="EW8" s="45"/>
-      <c r="EX8" s="45"/>
-      <c r="EY8" s="45"/>
-      <c r="EZ8" s="45"/>
-      <c r="FA8" s="45"/>
-      <c r="FB8" s="45"/>
-      <c r="FC8" s="45"/>
-      <c r="FD8" s="45"/>
-      <c r="FE8" s="45"/>
-      <c r="FF8" s="45"/>
-      <c r="FG8" s="45"/>
-      <c r="FH8" s="45"/>
-      <c r="FI8" s="45"/>
-      <c r="FJ8" s="45"/>
-      <c r="FK8" s="45"/>
-      <c r="FL8" s="45"/>
-      <c r="FM8" s="45"/>
-      <c r="FN8" s="45"/>
-      <c r="FO8" s="45"/>
-      <c r="FP8" s="45"/>
-      <c r="FQ8" s="45"/>
-      <c r="FR8" s="45"/>
-      <c r="FS8" s="45"/>
-      <c r="FT8" s="45"/>
-      <c r="FU8" s="45"/>
-      <c r="FV8" s="45"/>
-      <c r="FW8" s="45"/>
-      <c r="FX8" s="45"/>
-      <c r="FY8" s="45"/>
-      <c r="FZ8" s="45"/>
-      <c r="GA8" s="45"/>
-      <c r="GB8" s="45"/>
-      <c r="GC8" s="45"/>
-      <c r="GD8" s="45"/>
-      <c r="GE8" s="45"/>
-      <c r="GF8" s="45"/>
-      <c r="GG8" s="45"/>
-      <c r="GH8" s="45"/>
-      <c r="GI8" s="45"/>
-      <c r="GJ8" s="45"/>
-      <c r="GK8" s="45"/>
-      <c r="GL8" s="45"/>
-      <c r="GM8" s="45"/>
-      <c r="GN8" s="45"/>
-      <c r="GO8" s="45"/>
-      <c r="GP8" s="45"/>
-      <c r="GQ8" s="45"/>
-      <c r="GR8" s="45"/>
-      <c r="GS8" s="45"/>
-      <c r="GT8" s="45"/>
-      <c r="GU8" s="45"/>
-      <c r="GV8" s="45"/>
-      <c r="GW8" s="45"/>
-      <c r="GX8" s="45"/>
-      <c r="GY8" s="45"/>
-      <c r="GZ8" s="45"/>
-      <c r="HA8" s="45"/>
-      <c r="HB8" s="45"/>
-      <c r="HC8" s="45"/>
-      <c r="HD8" s="45"/>
-      <c r="HE8" s="45"/>
-      <c r="HF8" s="45"/>
-      <c r="HG8" s="45"/>
-      <c r="HH8" s="45"/>
-      <c r="HI8" s="45"/>
-      <c r="HJ8" s="45"/>
-      <c r="HK8" s="45"/>
-      <c r="HL8" s="45"/>
-      <c r="HM8" s="45"/>
-      <c r="HN8" s="45"/>
-      <c r="HO8" s="45"/>
-      <c r="HP8" s="45"/>
-      <c r="HQ8" s="45"/>
-      <c r="HR8" s="45"/>
-      <c r="HS8" s="45"/>
-      <c r="HT8" s="45"/>
-      <c r="HU8" s="45"/>
+      <c r="H8" s="30"/>
+      <c r="BQ8" s="31"/>
+      <c r="BS8" s="31"/>
+      <c r="BU8" s="31"/>
+      <c r="BW8" s="31"/>
+      <c r="BY8" s="31"/>
+      <c r="CA8" s="31"/>
+      <c r="CC8" s="31"/>
+      <c r="CE8" s="31"/>
+      <c r="CG8" s="31"/>
+      <c r="CI8" s="31"/>
+      <c r="CK8" s="31"/>
+      <c r="CL8" s="31"/>
+      <c r="CM8" s="31"/>
+      <c r="CN8" s="31"/>
+      <c r="CO8" s="31"/>
+      <c r="CP8" s="31"/>
+      <c r="CQ8" s="31"/>
+      <c r="CR8" s="31"/>
+      <c r="CS8" s="31"/>
+      <c r="CT8" s="31"/>
+      <c r="CU8" s="31"/>
+      <c r="CV8" s="31"/>
+      <c r="CW8" s="31"/>
+      <c r="CX8" s="31"/>
+      <c r="CY8" s="31"/>
+      <c r="CZ8" s="31"/>
+      <c r="DA8" s="31"/>
+      <c r="DB8" s="31"/>
+      <c r="DC8" s="31"/>
+      <c r="DD8" s="31"/>
+      <c r="DE8" s="31"/>
+      <c r="DF8" s="31"/>
+      <c r="DG8" s="31"/>
+      <c r="DH8" s="31"/>
+      <c r="DI8" s="31"/>
+      <c r="DJ8" s="31"/>
+      <c r="DK8" s="31"/>
+      <c r="DL8" s="31"/>
+      <c r="DM8" s="31"/>
+      <c r="DN8" s="31"/>
+      <c r="DO8" s="31"/>
+      <c r="DP8" s="31"/>
+      <c r="DQ8" s="31"/>
+      <c r="DR8" s="31"/>
+      <c r="DS8" s="31"/>
+      <c r="DT8" s="31"/>
+      <c r="DU8" s="31"/>
+      <c r="DV8" s="31"/>
+      <c r="DW8" s="31"/>
+      <c r="DX8" s="31"/>
+      <c r="DY8" s="31"/>
+      <c r="DZ8" s="31"/>
+      <c r="EA8" s="31"/>
+      <c r="EB8" s="31"/>
+      <c r="EC8" s="31"/>
+      <c r="ED8" s="31"/>
+      <c r="EE8" s="31"/>
+      <c r="EF8" s="31"/>
+      <c r="EG8" s="31"/>
+      <c r="EH8" s="31"/>
+      <c r="EI8" s="31"/>
+      <c r="EJ8" s="31"/>
+      <c r="EK8" s="31"/>
+      <c r="EL8" s="31"/>
+      <c r="EM8" s="31"/>
+      <c r="EN8" s="31"/>
+      <c r="EO8" s="31"/>
+      <c r="EP8" s="31"/>
+      <c r="EQ8" s="31"/>
+      <c r="ER8" s="31"/>
+      <c r="ES8" s="31"/>
+      <c r="ET8" s="31"/>
+      <c r="EU8" s="31"/>
+      <c r="EV8" s="31"/>
+      <c r="EW8" s="31"/>
+      <c r="EX8" s="31"/>
+      <c r="EY8" s="31"/>
+      <c r="EZ8" s="31"/>
+      <c r="FA8" s="31"/>
+      <c r="FB8" s="31"/>
+      <c r="FC8" s="31"/>
+      <c r="FD8" s="31"/>
+      <c r="FE8" s="31"/>
+      <c r="FF8" s="31"/>
+      <c r="FG8" s="31"/>
+      <c r="FH8" s="31"/>
+      <c r="FI8" s="31"/>
+      <c r="FJ8" s="31"/>
+      <c r="FK8" s="31"/>
+      <c r="FL8" s="31"/>
+      <c r="FM8" s="31"/>
+      <c r="FN8" s="31"/>
+      <c r="FO8" s="31"/>
+      <c r="FP8" s="31"/>
+      <c r="FQ8" s="31"/>
+      <c r="FR8" s="31"/>
+      <c r="FS8" s="31"/>
+      <c r="FT8" s="31"/>
+      <c r="FU8" s="31"/>
+      <c r="FV8" s="31"/>
+      <c r="FW8" s="31"/>
+      <c r="FX8" s="31"/>
+      <c r="FY8" s="31"/>
+      <c r="FZ8" s="31"/>
+      <c r="GA8" s="31"/>
+      <c r="GB8" s="31"/>
+      <c r="GC8" s="31"/>
+      <c r="GD8" s="31"/>
+      <c r="GE8" s="31"/>
+      <c r="GF8" s="31"/>
+      <c r="GG8" s="31"/>
+      <c r="GH8" s="31"/>
+      <c r="GI8" s="31"/>
+      <c r="GJ8" s="31"/>
+      <c r="GK8" s="31"/>
+      <c r="GL8" s="31"/>
+      <c r="GM8" s="31"/>
+      <c r="GN8" s="31"/>
+      <c r="GO8" s="31"/>
+      <c r="GP8" s="31"/>
+      <c r="GQ8" s="31"/>
+      <c r="GR8" s="31"/>
+      <c r="GS8" s="31"/>
+      <c r="GT8" s="31"/>
+      <c r="GU8" s="31"/>
+      <c r="GV8" s="31"/>
+      <c r="GW8" s="31"/>
+      <c r="GX8" s="31"/>
+      <c r="GY8" s="31"/>
+      <c r="GZ8" s="31"/>
+      <c r="HA8" s="31"/>
+      <c r="HB8" s="31"/>
+      <c r="HC8" s="31"/>
+      <c r="HD8" s="31"/>
+      <c r="HE8" s="31"/>
+      <c r="HF8" s="31"/>
+      <c r="HG8" s="31"/>
+      <c r="HH8" s="31"/>
+      <c r="HI8" s="31"/>
+      <c r="HJ8" s="31"/>
+      <c r="HK8" s="31"/>
+      <c r="HL8" s="31"/>
+      <c r="HM8" s="31"/>
+      <c r="HN8" s="31"/>
+      <c r="HO8" s="31"/>
+      <c r="HP8" s="31"/>
+      <c r="HQ8" s="31"/>
+      <c r="HR8" s="31"/>
+      <c r="HS8" s="31"/>
+      <c r="HT8" s="31"/>
+      <c r="HU8" s="31"/>
     </row>
     <row r="9" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -4672,162 +4533,162 @@
       <c r="G9" s="7">
         <v>0</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="BQ9" s="45"/>
-      <c r="BS9" s="45"/>
-      <c r="BU9" s="45"/>
-      <c r="BW9" s="45"/>
-      <c r="BY9" s="45"/>
-      <c r="CA9" s="45"/>
-      <c r="CC9" s="45"/>
-      <c r="CE9" s="45"/>
-      <c r="CG9" s="45"/>
-      <c r="CI9" s="45"/>
-      <c r="CK9" s="45"/>
-      <c r="CL9" s="45"/>
-      <c r="CM9" s="45"/>
-      <c r="CN9" s="45"/>
-      <c r="CO9" s="45"/>
-      <c r="CP9" s="45"/>
-      <c r="CQ9" s="45"/>
-      <c r="CR9" s="45"/>
-      <c r="CS9" s="45"/>
-      <c r="CT9" s="45"/>
-      <c r="CU9" s="45"/>
-      <c r="CV9" s="45"/>
-      <c r="CW9" s="45"/>
-      <c r="CX9" s="45"/>
-      <c r="CY9" s="45"/>
-      <c r="CZ9" s="45"/>
-      <c r="DA9" s="45"/>
-      <c r="DB9" s="45"/>
-      <c r="DC9" s="45"/>
-      <c r="DD9" s="45"/>
-      <c r="DE9" s="45"/>
-      <c r="DF9" s="45"/>
-      <c r="DG9" s="45"/>
-      <c r="DH9" s="45"/>
-      <c r="DI9" s="45"/>
-      <c r="DJ9" s="45"/>
-      <c r="DK9" s="45"/>
-      <c r="DL9" s="45"/>
-      <c r="DM9" s="45"/>
-      <c r="DN9" s="45"/>
-      <c r="DO9" s="45"/>
-      <c r="DP9" s="45"/>
-      <c r="DQ9" s="45"/>
-      <c r="DR9" s="45"/>
-      <c r="DS9" s="45"/>
-      <c r="DT9" s="45"/>
-      <c r="DU9" s="45"/>
-      <c r="DV9" s="45"/>
-      <c r="DW9" s="45"/>
-      <c r="DX9" s="45"/>
-      <c r="DY9" s="45"/>
-      <c r="DZ9" s="45"/>
-      <c r="EA9" s="45"/>
-      <c r="EB9" s="45"/>
-      <c r="EC9" s="45"/>
-      <c r="ED9" s="45"/>
-      <c r="EE9" s="45"/>
-      <c r="EF9" s="45"/>
-      <c r="EG9" s="45"/>
-      <c r="EH9" s="45"/>
-      <c r="EI9" s="45"/>
-      <c r="EJ9" s="45"/>
-      <c r="EK9" s="45"/>
-      <c r="EL9" s="45"/>
-      <c r="EM9" s="45"/>
-      <c r="EN9" s="45"/>
-      <c r="EO9" s="45"/>
-      <c r="EP9" s="45"/>
-      <c r="EQ9" s="45"/>
-      <c r="ER9" s="45"/>
-      <c r="ES9" s="45"/>
-      <c r="ET9" s="45"/>
-      <c r="EU9" s="45"/>
-      <c r="EV9" s="45"/>
-      <c r="EW9" s="45"/>
-      <c r="EX9" s="45"/>
-      <c r="EY9" s="45"/>
-      <c r="EZ9" s="45"/>
-      <c r="FA9" s="45"/>
-      <c r="FB9" s="45"/>
-      <c r="FC9" s="45"/>
-      <c r="FD9" s="45"/>
-      <c r="FE9" s="45"/>
-      <c r="FF9" s="45"/>
-      <c r="FG9" s="45"/>
-      <c r="FH9" s="45"/>
-      <c r="FI9" s="45"/>
-      <c r="FJ9" s="45"/>
-      <c r="FK9" s="45"/>
-      <c r="FL9" s="45"/>
-      <c r="FM9" s="45"/>
-      <c r="FN9" s="45"/>
-      <c r="FO9" s="45"/>
-      <c r="FP9" s="45"/>
-      <c r="FQ9" s="45"/>
-      <c r="FR9" s="45"/>
-      <c r="FS9" s="45"/>
-      <c r="FT9" s="45"/>
-      <c r="FU9" s="45"/>
-      <c r="FV9" s="45"/>
-      <c r="FW9" s="45"/>
-      <c r="FX9" s="45"/>
-      <c r="FY9" s="45"/>
-      <c r="FZ9" s="45"/>
-      <c r="GA9" s="45"/>
-      <c r="GB9" s="45"/>
-      <c r="GC9" s="45"/>
-      <c r="GD9" s="45"/>
-      <c r="GE9" s="45"/>
-      <c r="GF9" s="45"/>
-      <c r="GG9" s="45"/>
-      <c r="GH9" s="45"/>
-      <c r="GI9" s="45"/>
-      <c r="GJ9" s="45"/>
-      <c r="GK9" s="45"/>
-      <c r="GL9" s="45"/>
-      <c r="GM9" s="45"/>
-      <c r="GN9" s="45"/>
-      <c r="GO9" s="45"/>
-      <c r="GP9" s="45"/>
-      <c r="GQ9" s="45"/>
-      <c r="GR9" s="45"/>
-      <c r="GS9" s="45"/>
-      <c r="GT9" s="45"/>
-      <c r="GU9" s="45"/>
-      <c r="GV9" s="45"/>
-      <c r="GW9" s="45"/>
-      <c r="GX9" s="45"/>
-      <c r="GY9" s="45"/>
-      <c r="GZ9" s="45"/>
-      <c r="HA9" s="45"/>
-      <c r="HB9" s="45"/>
-      <c r="HC9" s="45"/>
-      <c r="HD9" s="45"/>
-      <c r="HE9" s="45"/>
-      <c r="HF9" s="45"/>
-      <c r="HG9" s="45"/>
-      <c r="HH9" s="45"/>
-      <c r="HI9" s="45"/>
-      <c r="HJ9" s="45"/>
-      <c r="HK9" s="45"/>
-      <c r="HL9" s="45"/>
-      <c r="HM9" s="45"/>
-      <c r="HN9" s="45"/>
-      <c r="HO9" s="45"/>
-      <c r="HP9" s="45"/>
-      <c r="HQ9" s="45"/>
-      <c r="HR9" s="45"/>
-      <c r="HS9" s="45"/>
-      <c r="HT9" s="45"/>
-      <c r="HU9" s="45"/>
+      <c r="H9" s="30"/>
+      <c r="BQ9" s="31"/>
+      <c r="BS9" s="31"/>
+      <c r="BU9" s="31"/>
+      <c r="BW9" s="31"/>
+      <c r="BY9" s="31"/>
+      <c r="CA9" s="31"/>
+      <c r="CC9" s="31"/>
+      <c r="CE9" s="31"/>
+      <c r="CG9" s="31"/>
+      <c r="CI9" s="31"/>
+      <c r="CK9" s="31"/>
+      <c r="CL9" s="31"/>
+      <c r="CM9" s="31"/>
+      <c r="CN9" s="31"/>
+      <c r="CO9" s="31"/>
+      <c r="CP9" s="31"/>
+      <c r="CQ9" s="31"/>
+      <c r="CR9" s="31"/>
+      <c r="CS9" s="31"/>
+      <c r="CT9" s="31"/>
+      <c r="CU9" s="31"/>
+      <c r="CV9" s="31"/>
+      <c r="CW9" s="31"/>
+      <c r="CX9" s="31"/>
+      <c r="CY9" s="31"/>
+      <c r="CZ9" s="31"/>
+      <c r="DA9" s="31"/>
+      <c r="DB9" s="31"/>
+      <c r="DC9" s="31"/>
+      <c r="DD9" s="31"/>
+      <c r="DE9" s="31"/>
+      <c r="DF9" s="31"/>
+      <c r="DG9" s="31"/>
+      <c r="DH9" s="31"/>
+      <c r="DI9" s="31"/>
+      <c r="DJ9" s="31"/>
+      <c r="DK9" s="31"/>
+      <c r="DL9" s="31"/>
+      <c r="DM9" s="31"/>
+      <c r="DN9" s="31"/>
+      <c r="DO9" s="31"/>
+      <c r="DP9" s="31"/>
+      <c r="DQ9" s="31"/>
+      <c r="DR9" s="31"/>
+      <c r="DS9" s="31"/>
+      <c r="DT9" s="31"/>
+      <c r="DU9" s="31"/>
+      <c r="DV9" s="31"/>
+      <c r="DW9" s="31"/>
+      <c r="DX9" s="31"/>
+      <c r="DY9" s="31"/>
+      <c r="DZ9" s="31"/>
+      <c r="EA9" s="31"/>
+      <c r="EB9" s="31"/>
+      <c r="EC9" s="31"/>
+      <c r="ED9" s="31"/>
+      <c r="EE9" s="31"/>
+      <c r="EF9" s="31"/>
+      <c r="EG9" s="31"/>
+      <c r="EH9" s="31"/>
+      <c r="EI9" s="31"/>
+      <c r="EJ9" s="31"/>
+      <c r="EK9" s="31"/>
+      <c r="EL9" s="31"/>
+      <c r="EM9" s="31"/>
+      <c r="EN9" s="31"/>
+      <c r="EO9" s="31"/>
+      <c r="EP9" s="31"/>
+      <c r="EQ9" s="31"/>
+      <c r="ER9" s="31"/>
+      <c r="ES9" s="31"/>
+      <c r="ET9" s="31"/>
+      <c r="EU9" s="31"/>
+      <c r="EV9" s="31"/>
+      <c r="EW9" s="31"/>
+      <c r="EX9" s="31"/>
+      <c r="EY9" s="31"/>
+      <c r="EZ9" s="31"/>
+      <c r="FA9" s="31"/>
+      <c r="FB9" s="31"/>
+      <c r="FC9" s="31"/>
+      <c r="FD9" s="31"/>
+      <c r="FE9" s="31"/>
+      <c r="FF9" s="31"/>
+      <c r="FG9" s="31"/>
+      <c r="FH9" s="31"/>
+      <c r="FI9" s="31"/>
+      <c r="FJ9" s="31"/>
+      <c r="FK9" s="31"/>
+      <c r="FL9" s="31"/>
+      <c r="FM9" s="31"/>
+      <c r="FN9" s="31"/>
+      <c r="FO9" s="31"/>
+      <c r="FP9" s="31"/>
+      <c r="FQ9" s="31"/>
+      <c r="FR9" s="31"/>
+      <c r="FS9" s="31"/>
+      <c r="FT9" s="31"/>
+      <c r="FU9" s="31"/>
+      <c r="FV9" s="31"/>
+      <c r="FW9" s="31"/>
+      <c r="FX9" s="31"/>
+      <c r="FY9" s="31"/>
+      <c r="FZ9" s="31"/>
+      <c r="GA9" s="31"/>
+      <c r="GB9" s="31"/>
+      <c r="GC9" s="31"/>
+      <c r="GD9" s="31"/>
+      <c r="GE9" s="31"/>
+      <c r="GF9" s="31"/>
+      <c r="GG9" s="31"/>
+      <c r="GH9" s="31"/>
+      <c r="GI9" s="31"/>
+      <c r="GJ9" s="31"/>
+      <c r="GK9" s="31"/>
+      <c r="GL9" s="31"/>
+      <c r="GM9" s="31"/>
+      <c r="GN9" s="31"/>
+      <c r="GO9" s="31"/>
+      <c r="GP9" s="31"/>
+      <c r="GQ9" s="31"/>
+      <c r="GR9" s="31"/>
+      <c r="GS9" s="31"/>
+      <c r="GT9" s="31"/>
+      <c r="GU9" s="31"/>
+      <c r="GV9" s="31"/>
+      <c r="GW9" s="31"/>
+      <c r="GX9" s="31"/>
+      <c r="GY9" s="31"/>
+      <c r="GZ9" s="31"/>
+      <c r="HA9" s="31"/>
+      <c r="HB9" s="31"/>
+      <c r="HC9" s="31"/>
+      <c r="HD9" s="31"/>
+      <c r="HE9" s="31"/>
+      <c r="HF9" s="31"/>
+      <c r="HG9" s="31"/>
+      <c r="HH9" s="31"/>
+      <c r="HI9" s="31"/>
+      <c r="HJ9" s="31"/>
+      <c r="HK9" s="31"/>
+      <c r="HL9" s="31"/>
+      <c r="HM9" s="31"/>
+      <c r="HN9" s="31"/>
+      <c r="HO9" s="31"/>
+      <c r="HP9" s="31"/>
+      <c r="HQ9" s="31"/>
+      <c r="HR9" s="31"/>
+      <c r="HS9" s="31"/>
+      <c r="HT9" s="31"/>
+      <c r="HU9" s="31"/>
     </row>
     <row r="10" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -4844,162 +4705,162 @@
       <c r="G10" s="7">
         <v>0</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="BQ10" s="45"/>
-      <c r="BS10" s="45"/>
-      <c r="BU10" s="45"/>
-      <c r="BW10" s="45"/>
-      <c r="BY10" s="45"/>
-      <c r="CA10" s="45"/>
-      <c r="CC10" s="45"/>
-      <c r="CE10" s="45"/>
-      <c r="CG10" s="45"/>
-      <c r="CI10" s="45"/>
-      <c r="CK10" s="45"/>
-      <c r="CL10" s="45"/>
-      <c r="CM10" s="45"/>
-      <c r="CN10" s="45"/>
-      <c r="CO10" s="45"/>
-      <c r="CP10" s="45"/>
-      <c r="CQ10" s="45"/>
-      <c r="CR10" s="45"/>
-      <c r="CS10" s="45"/>
-      <c r="CT10" s="45"/>
-      <c r="CU10" s="45"/>
-      <c r="CV10" s="45"/>
-      <c r="CW10" s="45"/>
-      <c r="CX10" s="45"/>
-      <c r="CY10" s="45"/>
-      <c r="CZ10" s="45"/>
-      <c r="DA10" s="45"/>
-      <c r="DB10" s="45"/>
-      <c r="DC10" s="45"/>
-      <c r="DD10" s="45"/>
-      <c r="DE10" s="45"/>
-      <c r="DF10" s="45"/>
-      <c r="DG10" s="45"/>
-      <c r="DH10" s="45"/>
-      <c r="DI10" s="45"/>
-      <c r="DJ10" s="45"/>
-      <c r="DK10" s="45"/>
-      <c r="DL10" s="45"/>
-      <c r="DM10" s="45"/>
-      <c r="DN10" s="45"/>
-      <c r="DO10" s="45"/>
-      <c r="DP10" s="45"/>
-      <c r="DQ10" s="45"/>
-      <c r="DR10" s="45"/>
-      <c r="DS10" s="45"/>
-      <c r="DT10" s="45"/>
-      <c r="DU10" s="45"/>
-      <c r="DV10" s="45"/>
-      <c r="DW10" s="45"/>
-      <c r="DX10" s="45"/>
-      <c r="DY10" s="45"/>
-      <c r="DZ10" s="45"/>
-      <c r="EA10" s="45"/>
-      <c r="EB10" s="45"/>
-      <c r="EC10" s="45"/>
-      <c r="ED10" s="45"/>
-      <c r="EE10" s="45"/>
-      <c r="EF10" s="45"/>
-      <c r="EG10" s="45"/>
-      <c r="EH10" s="45"/>
-      <c r="EI10" s="45"/>
-      <c r="EJ10" s="45"/>
-      <c r="EK10" s="45"/>
-      <c r="EL10" s="45"/>
-      <c r="EM10" s="45"/>
-      <c r="EN10" s="45"/>
-      <c r="EO10" s="45"/>
-      <c r="EP10" s="45"/>
-      <c r="EQ10" s="45"/>
-      <c r="ER10" s="45"/>
-      <c r="ES10" s="45"/>
-      <c r="ET10" s="45"/>
-      <c r="EU10" s="45"/>
-      <c r="EV10" s="45"/>
-      <c r="EW10" s="45"/>
-      <c r="EX10" s="45"/>
-      <c r="EY10" s="45"/>
-      <c r="EZ10" s="45"/>
-      <c r="FA10" s="45"/>
-      <c r="FB10" s="45"/>
-      <c r="FC10" s="45"/>
-      <c r="FD10" s="45"/>
-      <c r="FE10" s="45"/>
-      <c r="FF10" s="45"/>
-      <c r="FG10" s="45"/>
-      <c r="FH10" s="45"/>
-      <c r="FI10" s="45"/>
-      <c r="FJ10" s="45"/>
-      <c r="FK10" s="45"/>
-      <c r="FL10" s="45"/>
-      <c r="FM10" s="45"/>
-      <c r="FN10" s="45"/>
-      <c r="FO10" s="45"/>
-      <c r="FP10" s="45"/>
-      <c r="FQ10" s="45"/>
-      <c r="FR10" s="45"/>
-      <c r="FS10" s="45"/>
-      <c r="FT10" s="45"/>
-      <c r="FU10" s="45"/>
-      <c r="FV10" s="45"/>
-      <c r="FW10" s="45"/>
-      <c r="FX10" s="45"/>
-      <c r="FY10" s="45"/>
-      <c r="FZ10" s="45"/>
-      <c r="GA10" s="45"/>
-      <c r="GB10" s="45"/>
-      <c r="GC10" s="45"/>
-      <c r="GD10" s="45"/>
-      <c r="GE10" s="45"/>
-      <c r="GF10" s="45"/>
-      <c r="GG10" s="45"/>
-      <c r="GH10" s="45"/>
-      <c r="GI10" s="45"/>
-      <c r="GJ10" s="45"/>
-      <c r="GK10" s="45"/>
-      <c r="GL10" s="45"/>
-      <c r="GM10" s="45"/>
-      <c r="GN10" s="45"/>
-      <c r="GO10" s="45"/>
-      <c r="GP10" s="45"/>
-      <c r="GQ10" s="45"/>
-      <c r="GR10" s="45"/>
-      <c r="GS10" s="45"/>
-      <c r="GT10" s="45"/>
-      <c r="GU10" s="45"/>
-      <c r="GV10" s="45"/>
-      <c r="GW10" s="45"/>
-      <c r="GX10" s="45"/>
-      <c r="GY10" s="45"/>
-      <c r="GZ10" s="45"/>
-      <c r="HA10" s="45"/>
-      <c r="HB10" s="45"/>
-      <c r="HC10" s="45"/>
-      <c r="HD10" s="45"/>
-      <c r="HE10" s="45"/>
-      <c r="HF10" s="45"/>
-      <c r="HG10" s="45"/>
-      <c r="HH10" s="45"/>
-      <c r="HI10" s="45"/>
-      <c r="HJ10" s="45"/>
-      <c r="HK10" s="45"/>
-      <c r="HL10" s="45"/>
-      <c r="HM10" s="45"/>
-      <c r="HN10" s="45"/>
-      <c r="HO10" s="45"/>
-      <c r="HP10" s="45"/>
-      <c r="HQ10" s="45"/>
-      <c r="HR10" s="45"/>
-      <c r="HS10" s="45"/>
-      <c r="HT10" s="45"/>
-      <c r="HU10" s="45"/>
+      <c r="H10" s="30"/>
+      <c r="BQ10" s="31"/>
+      <c r="BS10" s="31"/>
+      <c r="BU10" s="31"/>
+      <c r="BW10" s="31"/>
+      <c r="BY10" s="31"/>
+      <c r="CA10" s="31"/>
+      <c r="CC10" s="31"/>
+      <c r="CE10" s="31"/>
+      <c r="CG10" s="31"/>
+      <c r="CI10" s="31"/>
+      <c r="CK10" s="31"/>
+      <c r="CL10" s="31"/>
+      <c r="CM10" s="31"/>
+      <c r="CN10" s="31"/>
+      <c r="CO10" s="31"/>
+      <c r="CP10" s="31"/>
+      <c r="CQ10" s="31"/>
+      <c r="CR10" s="31"/>
+      <c r="CS10" s="31"/>
+      <c r="CT10" s="31"/>
+      <c r="CU10" s="31"/>
+      <c r="CV10" s="31"/>
+      <c r="CW10" s="31"/>
+      <c r="CX10" s="31"/>
+      <c r="CY10" s="31"/>
+      <c r="CZ10" s="31"/>
+      <c r="DA10" s="31"/>
+      <c r="DB10" s="31"/>
+      <c r="DC10" s="31"/>
+      <c r="DD10" s="31"/>
+      <c r="DE10" s="31"/>
+      <c r="DF10" s="31"/>
+      <c r="DG10" s="31"/>
+      <c r="DH10" s="31"/>
+      <c r="DI10" s="31"/>
+      <c r="DJ10" s="31"/>
+      <c r="DK10" s="31"/>
+      <c r="DL10" s="31"/>
+      <c r="DM10" s="31"/>
+      <c r="DN10" s="31"/>
+      <c r="DO10" s="31"/>
+      <c r="DP10" s="31"/>
+      <c r="DQ10" s="31"/>
+      <c r="DR10" s="31"/>
+      <c r="DS10" s="31"/>
+      <c r="DT10" s="31"/>
+      <c r="DU10" s="31"/>
+      <c r="DV10" s="31"/>
+      <c r="DW10" s="31"/>
+      <c r="DX10" s="31"/>
+      <c r="DY10" s="31"/>
+      <c r="DZ10" s="31"/>
+      <c r="EA10" s="31"/>
+      <c r="EB10" s="31"/>
+      <c r="EC10" s="31"/>
+      <c r="ED10" s="31"/>
+      <c r="EE10" s="31"/>
+      <c r="EF10" s="31"/>
+      <c r="EG10" s="31"/>
+      <c r="EH10" s="31"/>
+      <c r="EI10" s="31"/>
+      <c r="EJ10" s="31"/>
+      <c r="EK10" s="31"/>
+      <c r="EL10" s="31"/>
+      <c r="EM10" s="31"/>
+      <c r="EN10" s="31"/>
+      <c r="EO10" s="31"/>
+      <c r="EP10" s="31"/>
+      <c r="EQ10" s="31"/>
+      <c r="ER10" s="31"/>
+      <c r="ES10" s="31"/>
+      <c r="ET10" s="31"/>
+      <c r="EU10" s="31"/>
+      <c r="EV10" s="31"/>
+      <c r="EW10" s="31"/>
+      <c r="EX10" s="31"/>
+      <c r="EY10" s="31"/>
+      <c r="EZ10" s="31"/>
+      <c r="FA10" s="31"/>
+      <c r="FB10" s="31"/>
+      <c r="FC10" s="31"/>
+      <c r="FD10" s="31"/>
+      <c r="FE10" s="31"/>
+      <c r="FF10" s="31"/>
+      <c r="FG10" s="31"/>
+      <c r="FH10" s="31"/>
+      <c r="FI10" s="31"/>
+      <c r="FJ10" s="31"/>
+      <c r="FK10" s="31"/>
+      <c r="FL10" s="31"/>
+      <c r="FM10" s="31"/>
+      <c r="FN10" s="31"/>
+      <c r="FO10" s="31"/>
+      <c r="FP10" s="31"/>
+      <c r="FQ10" s="31"/>
+      <c r="FR10" s="31"/>
+      <c r="FS10" s="31"/>
+      <c r="FT10" s="31"/>
+      <c r="FU10" s="31"/>
+      <c r="FV10" s="31"/>
+      <c r="FW10" s="31"/>
+      <c r="FX10" s="31"/>
+      <c r="FY10" s="31"/>
+      <c r="FZ10" s="31"/>
+      <c r="GA10" s="31"/>
+      <c r="GB10" s="31"/>
+      <c r="GC10" s="31"/>
+      <c r="GD10" s="31"/>
+      <c r="GE10" s="31"/>
+      <c r="GF10" s="31"/>
+      <c r="GG10" s="31"/>
+      <c r="GH10" s="31"/>
+      <c r="GI10" s="31"/>
+      <c r="GJ10" s="31"/>
+      <c r="GK10" s="31"/>
+      <c r="GL10" s="31"/>
+      <c r="GM10" s="31"/>
+      <c r="GN10" s="31"/>
+      <c r="GO10" s="31"/>
+      <c r="GP10" s="31"/>
+      <c r="GQ10" s="31"/>
+      <c r="GR10" s="31"/>
+      <c r="GS10" s="31"/>
+      <c r="GT10" s="31"/>
+      <c r="GU10" s="31"/>
+      <c r="GV10" s="31"/>
+      <c r="GW10" s="31"/>
+      <c r="GX10" s="31"/>
+      <c r="GY10" s="31"/>
+      <c r="GZ10" s="31"/>
+      <c r="HA10" s="31"/>
+      <c r="HB10" s="31"/>
+      <c r="HC10" s="31"/>
+      <c r="HD10" s="31"/>
+      <c r="HE10" s="31"/>
+      <c r="HF10" s="31"/>
+      <c r="HG10" s="31"/>
+      <c r="HH10" s="31"/>
+      <c r="HI10" s="31"/>
+      <c r="HJ10" s="31"/>
+      <c r="HK10" s="31"/>
+      <c r="HL10" s="31"/>
+      <c r="HM10" s="31"/>
+      <c r="HN10" s="31"/>
+      <c r="HO10" s="31"/>
+      <c r="HP10" s="31"/>
+      <c r="HQ10" s="31"/>
+      <c r="HR10" s="31"/>
+      <c r="HS10" s="31"/>
+      <c r="HT10" s="31"/>
+      <c r="HU10" s="31"/>
     </row>
     <row r="11" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -5016,162 +4877,162 @@
       <c r="G11" s="7">
         <v>0</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="BQ11" s="45"/>
-      <c r="BS11" s="45"/>
-      <c r="BU11" s="45"/>
-      <c r="BW11" s="45"/>
-      <c r="BY11" s="45"/>
-      <c r="CA11" s="45"/>
-      <c r="CC11" s="45"/>
-      <c r="CE11" s="45"/>
-      <c r="CG11" s="45"/>
-      <c r="CI11" s="45"/>
-      <c r="CK11" s="45"/>
-      <c r="CL11" s="45"/>
-      <c r="CM11" s="45"/>
-      <c r="CN11" s="45"/>
-      <c r="CO11" s="45"/>
-      <c r="CP11" s="45"/>
-      <c r="CQ11" s="45"/>
-      <c r="CR11" s="45"/>
-      <c r="CS11" s="45"/>
-      <c r="CT11" s="45"/>
-      <c r="CU11" s="45"/>
-      <c r="CV11" s="45"/>
-      <c r="CW11" s="45"/>
-      <c r="CX11" s="45"/>
-      <c r="CY11" s="45"/>
-      <c r="CZ11" s="45"/>
-      <c r="DA11" s="45"/>
-      <c r="DB11" s="45"/>
-      <c r="DC11" s="45"/>
-      <c r="DD11" s="45"/>
-      <c r="DE11" s="45"/>
-      <c r="DF11" s="45"/>
-      <c r="DG11" s="45"/>
-      <c r="DH11" s="45"/>
-      <c r="DI11" s="45"/>
-      <c r="DJ11" s="45"/>
-      <c r="DK11" s="45"/>
-      <c r="DL11" s="45"/>
-      <c r="DM11" s="45"/>
-      <c r="DN11" s="45"/>
-      <c r="DO11" s="45"/>
-      <c r="DP11" s="45"/>
-      <c r="DQ11" s="45"/>
-      <c r="DR11" s="45"/>
-      <c r="DS11" s="45"/>
-      <c r="DT11" s="45"/>
-      <c r="DU11" s="45"/>
-      <c r="DV11" s="45"/>
-      <c r="DW11" s="45"/>
-      <c r="DX11" s="45"/>
-      <c r="DY11" s="45"/>
-      <c r="DZ11" s="45"/>
-      <c r="EA11" s="45"/>
-      <c r="EB11" s="45"/>
-      <c r="EC11" s="45"/>
-      <c r="ED11" s="45"/>
-      <c r="EE11" s="45"/>
-      <c r="EF11" s="45"/>
-      <c r="EG11" s="45"/>
-      <c r="EH11" s="45"/>
-      <c r="EI11" s="45"/>
-      <c r="EJ11" s="45"/>
-      <c r="EK11" s="45"/>
-      <c r="EL11" s="45"/>
-      <c r="EM11" s="45"/>
-      <c r="EN11" s="45"/>
-      <c r="EO11" s="45"/>
-      <c r="EP11" s="45"/>
-      <c r="EQ11" s="45"/>
-      <c r="ER11" s="45"/>
-      <c r="ES11" s="45"/>
-      <c r="ET11" s="45"/>
-      <c r="EU11" s="45"/>
-      <c r="EV11" s="45"/>
-      <c r="EW11" s="45"/>
-      <c r="EX11" s="45"/>
-      <c r="EY11" s="45"/>
-      <c r="EZ11" s="45"/>
-      <c r="FA11" s="45"/>
-      <c r="FB11" s="45"/>
-      <c r="FC11" s="45"/>
-      <c r="FD11" s="45"/>
-      <c r="FE11" s="45"/>
-      <c r="FF11" s="45"/>
-      <c r="FG11" s="45"/>
-      <c r="FH11" s="45"/>
-      <c r="FI11" s="45"/>
-      <c r="FJ11" s="45"/>
-      <c r="FK11" s="45"/>
-      <c r="FL11" s="45"/>
-      <c r="FM11" s="45"/>
-      <c r="FN11" s="45"/>
-      <c r="FO11" s="45"/>
-      <c r="FP11" s="45"/>
-      <c r="FQ11" s="45"/>
-      <c r="FR11" s="45"/>
-      <c r="FS11" s="45"/>
-      <c r="FT11" s="45"/>
-      <c r="FU11" s="45"/>
-      <c r="FV11" s="45"/>
-      <c r="FW11" s="45"/>
-      <c r="FX11" s="45"/>
-      <c r="FY11" s="45"/>
-      <c r="FZ11" s="45"/>
-      <c r="GA11" s="45"/>
-      <c r="GB11" s="45"/>
-      <c r="GC11" s="45"/>
-      <c r="GD11" s="45"/>
-      <c r="GE11" s="45"/>
-      <c r="GF11" s="45"/>
-      <c r="GG11" s="45"/>
-      <c r="GH11" s="45"/>
-      <c r="GI11" s="45"/>
-      <c r="GJ11" s="45"/>
-      <c r="GK11" s="45"/>
-      <c r="GL11" s="45"/>
-      <c r="GM11" s="45"/>
-      <c r="GN11" s="45"/>
-      <c r="GO11" s="45"/>
-      <c r="GP11" s="45"/>
-      <c r="GQ11" s="45"/>
-      <c r="GR11" s="45"/>
-      <c r="GS11" s="45"/>
-      <c r="GT11" s="45"/>
-      <c r="GU11" s="45"/>
-      <c r="GV11" s="45"/>
-      <c r="GW11" s="45"/>
-      <c r="GX11" s="45"/>
-      <c r="GY11" s="45"/>
-      <c r="GZ11" s="45"/>
-      <c r="HA11" s="45"/>
-      <c r="HB11" s="45"/>
-      <c r="HC11" s="45"/>
-      <c r="HD11" s="45"/>
-      <c r="HE11" s="45"/>
-      <c r="HF11" s="45"/>
-      <c r="HG11" s="45"/>
-      <c r="HH11" s="45"/>
-      <c r="HI11" s="45"/>
-      <c r="HJ11" s="45"/>
-      <c r="HK11" s="45"/>
-      <c r="HL11" s="45"/>
-      <c r="HM11" s="45"/>
-      <c r="HN11" s="45"/>
-      <c r="HO11" s="45"/>
-      <c r="HP11" s="45"/>
-      <c r="HQ11" s="45"/>
-      <c r="HR11" s="45"/>
-      <c r="HS11" s="45"/>
-      <c r="HT11" s="45"/>
-      <c r="HU11" s="45"/>
+      <c r="H11" s="30"/>
+      <c r="BQ11" s="31"/>
+      <c r="BS11" s="31"/>
+      <c r="BU11" s="31"/>
+      <c r="BW11" s="31"/>
+      <c r="BY11" s="31"/>
+      <c r="CA11" s="31"/>
+      <c r="CC11" s="31"/>
+      <c r="CE11" s="31"/>
+      <c r="CG11" s="31"/>
+      <c r="CI11" s="31"/>
+      <c r="CK11" s="31"/>
+      <c r="CL11" s="31"/>
+      <c r="CM11" s="31"/>
+      <c r="CN11" s="31"/>
+      <c r="CO11" s="31"/>
+      <c r="CP11" s="31"/>
+      <c r="CQ11" s="31"/>
+      <c r="CR11" s="31"/>
+      <c r="CS11" s="31"/>
+      <c r="CT11" s="31"/>
+      <c r="CU11" s="31"/>
+      <c r="CV11" s="31"/>
+      <c r="CW11" s="31"/>
+      <c r="CX11" s="31"/>
+      <c r="CY11" s="31"/>
+      <c r="CZ11" s="31"/>
+      <c r="DA11" s="31"/>
+      <c r="DB11" s="31"/>
+      <c r="DC11" s="31"/>
+      <c r="DD11" s="31"/>
+      <c r="DE11" s="31"/>
+      <c r="DF11" s="31"/>
+      <c r="DG11" s="31"/>
+      <c r="DH11" s="31"/>
+      <c r="DI11" s="31"/>
+      <c r="DJ11" s="31"/>
+      <c r="DK11" s="31"/>
+      <c r="DL11" s="31"/>
+      <c r="DM11" s="31"/>
+      <c r="DN11" s="31"/>
+      <c r="DO11" s="31"/>
+      <c r="DP11" s="31"/>
+      <c r="DQ11" s="31"/>
+      <c r="DR11" s="31"/>
+      <c r="DS11" s="31"/>
+      <c r="DT11" s="31"/>
+      <c r="DU11" s="31"/>
+      <c r="DV11" s="31"/>
+      <c r="DW11" s="31"/>
+      <c r="DX11" s="31"/>
+      <c r="DY11" s="31"/>
+      <c r="DZ11" s="31"/>
+      <c r="EA11" s="31"/>
+      <c r="EB11" s="31"/>
+      <c r="EC11" s="31"/>
+      <c r="ED11" s="31"/>
+      <c r="EE11" s="31"/>
+      <c r="EF11" s="31"/>
+      <c r="EG11" s="31"/>
+      <c r="EH11" s="31"/>
+      <c r="EI11" s="31"/>
+      <c r="EJ11" s="31"/>
+      <c r="EK11" s="31"/>
+      <c r="EL11" s="31"/>
+      <c r="EM11" s="31"/>
+      <c r="EN11" s="31"/>
+      <c r="EO11" s="31"/>
+      <c r="EP11" s="31"/>
+      <c r="EQ11" s="31"/>
+      <c r="ER11" s="31"/>
+      <c r="ES11" s="31"/>
+      <c r="ET11" s="31"/>
+      <c r="EU11" s="31"/>
+      <c r="EV11" s="31"/>
+      <c r="EW11" s="31"/>
+      <c r="EX11" s="31"/>
+      <c r="EY11" s="31"/>
+      <c r="EZ11" s="31"/>
+      <c r="FA11" s="31"/>
+      <c r="FB11" s="31"/>
+      <c r="FC11" s="31"/>
+      <c r="FD11" s="31"/>
+      <c r="FE11" s="31"/>
+      <c r="FF11" s="31"/>
+      <c r="FG11" s="31"/>
+      <c r="FH11" s="31"/>
+      <c r="FI11" s="31"/>
+      <c r="FJ11" s="31"/>
+      <c r="FK11" s="31"/>
+      <c r="FL11" s="31"/>
+      <c r="FM11" s="31"/>
+      <c r="FN11" s="31"/>
+      <c r="FO11" s="31"/>
+      <c r="FP11" s="31"/>
+      <c r="FQ11" s="31"/>
+      <c r="FR11" s="31"/>
+      <c r="FS11" s="31"/>
+      <c r="FT11" s="31"/>
+      <c r="FU11" s="31"/>
+      <c r="FV11" s="31"/>
+      <c r="FW11" s="31"/>
+      <c r="FX11" s="31"/>
+      <c r="FY11" s="31"/>
+      <c r="FZ11" s="31"/>
+      <c r="GA11" s="31"/>
+      <c r="GB11" s="31"/>
+      <c r="GC11" s="31"/>
+      <c r="GD11" s="31"/>
+      <c r="GE11" s="31"/>
+      <c r="GF11" s="31"/>
+      <c r="GG11" s="31"/>
+      <c r="GH11" s="31"/>
+      <c r="GI11" s="31"/>
+      <c r="GJ11" s="31"/>
+      <c r="GK11" s="31"/>
+      <c r="GL11" s="31"/>
+      <c r="GM11" s="31"/>
+      <c r="GN11" s="31"/>
+      <c r="GO11" s="31"/>
+      <c r="GP11" s="31"/>
+      <c r="GQ11" s="31"/>
+      <c r="GR11" s="31"/>
+      <c r="GS11" s="31"/>
+      <c r="GT11" s="31"/>
+      <c r="GU11" s="31"/>
+      <c r="GV11" s="31"/>
+      <c r="GW11" s="31"/>
+      <c r="GX11" s="31"/>
+      <c r="GY11" s="31"/>
+      <c r="GZ11" s="31"/>
+      <c r="HA11" s="31"/>
+      <c r="HB11" s="31"/>
+      <c r="HC11" s="31"/>
+      <c r="HD11" s="31"/>
+      <c r="HE11" s="31"/>
+      <c r="HF11" s="31"/>
+      <c r="HG11" s="31"/>
+      <c r="HH11" s="31"/>
+      <c r="HI11" s="31"/>
+      <c r="HJ11" s="31"/>
+      <c r="HK11" s="31"/>
+      <c r="HL11" s="31"/>
+      <c r="HM11" s="31"/>
+      <c r="HN11" s="31"/>
+      <c r="HO11" s="31"/>
+      <c r="HP11" s="31"/>
+      <c r="HQ11" s="31"/>
+      <c r="HR11" s="31"/>
+      <c r="HS11" s="31"/>
+      <c r="HT11" s="31"/>
+      <c r="HU11" s="31"/>
     </row>
     <row r="12" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -5188,162 +5049,162 @@
       <c r="G12" s="7">
         <v>0</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="BQ12" s="45"/>
-      <c r="BS12" s="45"/>
-      <c r="BU12" s="45"/>
-      <c r="BW12" s="45"/>
-      <c r="BY12" s="45"/>
-      <c r="CA12" s="45"/>
-      <c r="CC12" s="45"/>
-      <c r="CE12" s="45"/>
-      <c r="CG12" s="45"/>
-      <c r="CI12" s="45"/>
-      <c r="CK12" s="45"/>
-      <c r="CL12" s="45"/>
-      <c r="CM12" s="45"/>
-      <c r="CN12" s="45"/>
-      <c r="CO12" s="45"/>
-      <c r="CP12" s="45"/>
-      <c r="CQ12" s="45"/>
-      <c r="CR12" s="45"/>
-      <c r="CS12" s="45"/>
-      <c r="CT12" s="45"/>
-      <c r="CU12" s="45"/>
-      <c r="CV12" s="45"/>
-      <c r="CW12" s="45"/>
-      <c r="CX12" s="45"/>
-      <c r="CY12" s="45"/>
-      <c r="CZ12" s="45"/>
-      <c r="DA12" s="45"/>
-      <c r="DB12" s="45"/>
-      <c r="DC12" s="45"/>
-      <c r="DD12" s="45"/>
-      <c r="DE12" s="45"/>
-      <c r="DF12" s="45"/>
-      <c r="DG12" s="45"/>
-      <c r="DH12" s="45"/>
-      <c r="DI12" s="45"/>
-      <c r="DJ12" s="45"/>
-      <c r="DK12" s="45"/>
-      <c r="DL12" s="45"/>
-      <c r="DM12" s="45"/>
-      <c r="DN12" s="45"/>
-      <c r="DO12" s="45"/>
-      <c r="DP12" s="45"/>
-      <c r="DQ12" s="45"/>
-      <c r="DR12" s="45"/>
-      <c r="DS12" s="45"/>
-      <c r="DT12" s="45"/>
-      <c r="DU12" s="45"/>
-      <c r="DV12" s="45"/>
-      <c r="DW12" s="45"/>
-      <c r="DX12" s="45"/>
-      <c r="DY12" s="45"/>
-      <c r="DZ12" s="45"/>
-      <c r="EA12" s="45"/>
-      <c r="EB12" s="45"/>
-      <c r="EC12" s="45"/>
-      <c r="ED12" s="45"/>
-      <c r="EE12" s="45"/>
-      <c r="EF12" s="45"/>
-      <c r="EG12" s="45"/>
-      <c r="EH12" s="45"/>
-      <c r="EI12" s="45"/>
-      <c r="EJ12" s="45"/>
-      <c r="EK12" s="45"/>
-      <c r="EL12" s="45"/>
-      <c r="EM12" s="45"/>
-      <c r="EN12" s="45"/>
-      <c r="EO12" s="45"/>
-      <c r="EP12" s="45"/>
-      <c r="EQ12" s="45"/>
-      <c r="ER12" s="45"/>
-      <c r="ES12" s="45"/>
-      <c r="ET12" s="45"/>
-      <c r="EU12" s="45"/>
-      <c r="EV12" s="45"/>
-      <c r="EW12" s="45"/>
-      <c r="EX12" s="45"/>
-      <c r="EY12" s="45"/>
-      <c r="EZ12" s="45"/>
-      <c r="FA12" s="45"/>
-      <c r="FB12" s="45"/>
-      <c r="FC12" s="45"/>
-      <c r="FD12" s="45"/>
-      <c r="FE12" s="45"/>
-      <c r="FF12" s="45"/>
-      <c r="FG12" s="45"/>
-      <c r="FH12" s="45"/>
-      <c r="FI12" s="45"/>
-      <c r="FJ12" s="45"/>
-      <c r="FK12" s="45"/>
-      <c r="FL12" s="45"/>
-      <c r="FM12" s="45"/>
-      <c r="FN12" s="45"/>
-      <c r="FO12" s="45"/>
-      <c r="FP12" s="45"/>
-      <c r="FQ12" s="45"/>
-      <c r="FR12" s="45"/>
-      <c r="FS12" s="45"/>
-      <c r="FT12" s="45"/>
-      <c r="FU12" s="45"/>
-      <c r="FV12" s="45"/>
-      <c r="FW12" s="45"/>
-      <c r="FX12" s="45"/>
-      <c r="FY12" s="45"/>
-      <c r="FZ12" s="45"/>
-      <c r="GA12" s="45"/>
-      <c r="GB12" s="45"/>
-      <c r="GC12" s="45"/>
-      <c r="GD12" s="45"/>
-      <c r="GE12" s="45"/>
-      <c r="GF12" s="45"/>
-      <c r="GG12" s="45"/>
-      <c r="GH12" s="45"/>
-      <c r="GI12" s="45"/>
-      <c r="GJ12" s="45"/>
-      <c r="GK12" s="45"/>
-      <c r="GL12" s="45"/>
-      <c r="GM12" s="45"/>
-      <c r="GN12" s="45"/>
-      <c r="GO12" s="45"/>
-      <c r="GP12" s="45"/>
-      <c r="GQ12" s="45"/>
-      <c r="GR12" s="45"/>
-      <c r="GS12" s="45"/>
-      <c r="GT12" s="45"/>
-      <c r="GU12" s="45"/>
-      <c r="GV12" s="45"/>
-      <c r="GW12" s="45"/>
-      <c r="GX12" s="45"/>
-      <c r="GY12" s="45"/>
-      <c r="GZ12" s="45"/>
-      <c r="HA12" s="45"/>
-      <c r="HB12" s="45"/>
-      <c r="HC12" s="45"/>
-      <c r="HD12" s="45"/>
-      <c r="HE12" s="45"/>
-      <c r="HF12" s="45"/>
-      <c r="HG12" s="45"/>
-      <c r="HH12" s="45"/>
-      <c r="HI12" s="45"/>
-      <c r="HJ12" s="45"/>
-      <c r="HK12" s="45"/>
-      <c r="HL12" s="45"/>
-      <c r="HM12" s="45"/>
-      <c r="HN12" s="45"/>
-      <c r="HO12" s="45"/>
-      <c r="HP12" s="45"/>
-      <c r="HQ12" s="45"/>
-      <c r="HR12" s="45"/>
-      <c r="HS12" s="45"/>
-      <c r="HT12" s="45"/>
-      <c r="HU12" s="45"/>
+      <c r="H12" s="30"/>
+      <c r="BQ12" s="31"/>
+      <c r="BS12" s="31"/>
+      <c r="BU12" s="31"/>
+      <c r="BW12" s="31"/>
+      <c r="BY12" s="31"/>
+      <c r="CA12" s="31"/>
+      <c r="CC12" s="31"/>
+      <c r="CE12" s="31"/>
+      <c r="CG12" s="31"/>
+      <c r="CI12" s="31"/>
+      <c r="CK12" s="31"/>
+      <c r="CL12" s="31"/>
+      <c r="CM12" s="31"/>
+      <c r="CN12" s="31"/>
+      <c r="CO12" s="31"/>
+      <c r="CP12" s="31"/>
+      <c r="CQ12" s="31"/>
+      <c r="CR12" s="31"/>
+      <c r="CS12" s="31"/>
+      <c r="CT12" s="31"/>
+      <c r="CU12" s="31"/>
+      <c r="CV12" s="31"/>
+      <c r="CW12" s="31"/>
+      <c r="CX12" s="31"/>
+      <c r="CY12" s="31"/>
+      <c r="CZ12" s="31"/>
+      <c r="DA12" s="31"/>
+      <c r="DB12" s="31"/>
+      <c r="DC12" s="31"/>
+      <c r="DD12" s="31"/>
+      <c r="DE12" s="31"/>
+      <c r="DF12" s="31"/>
+      <c r="DG12" s="31"/>
+      <c r="DH12" s="31"/>
+      <c r="DI12" s="31"/>
+      <c r="DJ12" s="31"/>
+      <c r="DK12" s="31"/>
+      <c r="DL12" s="31"/>
+      <c r="DM12" s="31"/>
+      <c r="DN12" s="31"/>
+      <c r="DO12" s="31"/>
+      <c r="DP12" s="31"/>
+      <c r="DQ12" s="31"/>
+      <c r="DR12" s="31"/>
+      <c r="DS12" s="31"/>
+      <c r="DT12" s="31"/>
+      <c r="DU12" s="31"/>
+      <c r="DV12" s="31"/>
+      <c r="DW12" s="31"/>
+      <c r="DX12" s="31"/>
+      <c r="DY12" s="31"/>
+      <c r="DZ12" s="31"/>
+      <c r="EA12" s="31"/>
+      <c r="EB12" s="31"/>
+      <c r="EC12" s="31"/>
+      <c r="ED12" s="31"/>
+      <c r="EE12" s="31"/>
+      <c r="EF12" s="31"/>
+      <c r="EG12" s="31"/>
+      <c r="EH12" s="31"/>
+      <c r="EI12" s="31"/>
+      <c r="EJ12" s="31"/>
+      <c r="EK12" s="31"/>
+      <c r="EL12" s="31"/>
+      <c r="EM12" s="31"/>
+      <c r="EN12" s="31"/>
+      <c r="EO12" s="31"/>
+      <c r="EP12" s="31"/>
+      <c r="EQ12" s="31"/>
+      <c r="ER12" s="31"/>
+      <c r="ES12" s="31"/>
+      <c r="ET12" s="31"/>
+      <c r="EU12" s="31"/>
+      <c r="EV12" s="31"/>
+      <c r="EW12" s="31"/>
+      <c r="EX12" s="31"/>
+      <c r="EY12" s="31"/>
+      <c r="EZ12" s="31"/>
+      <c r="FA12" s="31"/>
+      <c r="FB12" s="31"/>
+      <c r="FC12" s="31"/>
+      <c r="FD12" s="31"/>
+      <c r="FE12" s="31"/>
+      <c r="FF12" s="31"/>
+      <c r="FG12" s="31"/>
+      <c r="FH12" s="31"/>
+      <c r="FI12" s="31"/>
+      <c r="FJ12" s="31"/>
+      <c r="FK12" s="31"/>
+      <c r="FL12" s="31"/>
+      <c r="FM12" s="31"/>
+      <c r="FN12" s="31"/>
+      <c r="FO12" s="31"/>
+      <c r="FP12" s="31"/>
+      <c r="FQ12" s="31"/>
+      <c r="FR12" s="31"/>
+      <c r="FS12" s="31"/>
+      <c r="FT12" s="31"/>
+      <c r="FU12" s="31"/>
+      <c r="FV12" s="31"/>
+      <c r="FW12" s="31"/>
+      <c r="FX12" s="31"/>
+      <c r="FY12" s="31"/>
+      <c r="FZ12" s="31"/>
+      <c r="GA12" s="31"/>
+      <c r="GB12" s="31"/>
+      <c r="GC12" s="31"/>
+      <c r="GD12" s="31"/>
+      <c r="GE12" s="31"/>
+      <c r="GF12" s="31"/>
+      <c r="GG12" s="31"/>
+      <c r="GH12" s="31"/>
+      <c r="GI12" s="31"/>
+      <c r="GJ12" s="31"/>
+      <c r="GK12" s="31"/>
+      <c r="GL12" s="31"/>
+      <c r="GM12" s="31"/>
+      <c r="GN12" s="31"/>
+      <c r="GO12" s="31"/>
+      <c r="GP12" s="31"/>
+      <c r="GQ12" s="31"/>
+      <c r="GR12" s="31"/>
+      <c r="GS12" s="31"/>
+      <c r="GT12" s="31"/>
+      <c r="GU12" s="31"/>
+      <c r="GV12" s="31"/>
+      <c r="GW12" s="31"/>
+      <c r="GX12" s="31"/>
+      <c r="GY12" s="31"/>
+      <c r="GZ12" s="31"/>
+      <c r="HA12" s="31"/>
+      <c r="HB12" s="31"/>
+      <c r="HC12" s="31"/>
+      <c r="HD12" s="31"/>
+      <c r="HE12" s="31"/>
+      <c r="HF12" s="31"/>
+      <c r="HG12" s="31"/>
+      <c r="HH12" s="31"/>
+      <c r="HI12" s="31"/>
+      <c r="HJ12" s="31"/>
+      <c r="HK12" s="31"/>
+      <c r="HL12" s="31"/>
+      <c r="HM12" s="31"/>
+      <c r="HN12" s="31"/>
+      <c r="HO12" s="31"/>
+      <c r="HP12" s="31"/>
+      <c r="HQ12" s="31"/>
+      <c r="HR12" s="31"/>
+      <c r="HS12" s="31"/>
+      <c r="HT12" s="31"/>
+      <c r="HU12" s="31"/>
     </row>
     <row r="13" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -5360,162 +5221,162 @@
       <c r="G13" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="BQ13" s="45"/>
-      <c r="BS13" s="45"/>
-      <c r="BU13" s="45"/>
-      <c r="BW13" s="45"/>
-      <c r="BY13" s="45"/>
-      <c r="CA13" s="45"/>
-      <c r="CC13" s="45"/>
-      <c r="CE13" s="45"/>
-      <c r="CG13" s="45"/>
-      <c r="CI13" s="45"/>
-      <c r="CK13" s="45"/>
-      <c r="CL13" s="45"/>
-      <c r="CM13" s="45"/>
-      <c r="CN13" s="45"/>
-      <c r="CO13" s="45"/>
-      <c r="CP13" s="45"/>
-      <c r="CQ13" s="45"/>
-      <c r="CR13" s="45"/>
-      <c r="CS13" s="45"/>
-      <c r="CT13" s="45"/>
-      <c r="CU13" s="45"/>
-      <c r="CV13" s="45"/>
-      <c r="CW13" s="45"/>
-      <c r="CX13" s="45"/>
-      <c r="CY13" s="45"/>
-      <c r="CZ13" s="45"/>
-      <c r="DA13" s="45"/>
-      <c r="DB13" s="45"/>
-      <c r="DC13" s="45"/>
-      <c r="DD13" s="45"/>
-      <c r="DE13" s="45"/>
-      <c r="DF13" s="45"/>
-      <c r="DG13" s="45"/>
-      <c r="DH13" s="45"/>
-      <c r="DI13" s="45"/>
-      <c r="DJ13" s="45"/>
-      <c r="DK13" s="45"/>
-      <c r="DL13" s="45"/>
-      <c r="DM13" s="45"/>
-      <c r="DN13" s="45"/>
-      <c r="DO13" s="45"/>
-      <c r="DP13" s="45"/>
-      <c r="DQ13" s="45"/>
-      <c r="DR13" s="45"/>
-      <c r="DS13" s="45"/>
-      <c r="DT13" s="45"/>
-      <c r="DU13" s="45"/>
-      <c r="DV13" s="45"/>
-      <c r="DW13" s="45"/>
-      <c r="DX13" s="45"/>
-      <c r="DY13" s="45"/>
-      <c r="DZ13" s="45"/>
-      <c r="EA13" s="45"/>
-      <c r="EB13" s="45"/>
-      <c r="EC13" s="45"/>
-      <c r="ED13" s="45"/>
-      <c r="EE13" s="45"/>
-      <c r="EF13" s="45"/>
-      <c r="EG13" s="45"/>
-      <c r="EH13" s="45"/>
-      <c r="EI13" s="45"/>
-      <c r="EJ13" s="45"/>
-      <c r="EK13" s="45"/>
-      <c r="EL13" s="45"/>
-      <c r="EM13" s="45"/>
-      <c r="EN13" s="45"/>
-      <c r="EO13" s="45"/>
-      <c r="EP13" s="45"/>
-      <c r="EQ13" s="45"/>
-      <c r="ER13" s="45"/>
-      <c r="ES13" s="45"/>
-      <c r="ET13" s="45"/>
-      <c r="EU13" s="45"/>
-      <c r="EV13" s="45"/>
-      <c r="EW13" s="45"/>
-      <c r="EX13" s="45"/>
-      <c r="EY13" s="45"/>
-      <c r="EZ13" s="45"/>
-      <c r="FA13" s="45"/>
-      <c r="FB13" s="45"/>
-      <c r="FC13" s="45"/>
-      <c r="FD13" s="45"/>
-      <c r="FE13" s="45"/>
-      <c r="FF13" s="45"/>
-      <c r="FG13" s="45"/>
-      <c r="FH13" s="45"/>
-      <c r="FI13" s="45"/>
-      <c r="FJ13" s="45"/>
-      <c r="FK13" s="45"/>
-      <c r="FL13" s="45"/>
-      <c r="FM13" s="45"/>
-      <c r="FN13" s="45"/>
-      <c r="FO13" s="45"/>
-      <c r="FP13" s="45"/>
-      <c r="FQ13" s="45"/>
-      <c r="FR13" s="45"/>
-      <c r="FS13" s="45"/>
-      <c r="FT13" s="45"/>
-      <c r="FU13" s="45"/>
-      <c r="FV13" s="45"/>
-      <c r="FW13" s="45"/>
-      <c r="FX13" s="45"/>
-      <c r="FY13" s="45"/>
-      <c r="FZ13" s="45"/>
-      <c r="GA13" s="45"/>
-      <c r="GB13" s="45"/>
-      <c r="GC13" s="45"/>
-      <c r="GD13" s="45"/>
-      <c r="GE13" s="45"/>
-      <c r="GF13" s="45"/>
-      <c r="GG13" s="45"/>
-      <c r="GH13" s="45"/>
-      <c r="GI13" s="45"/>
-      <c r="GJ13" s="45"/>
-      <c r="GK13" s="45"/>
-      <c r="GL13" s="45"/>
-      <c r="GM13" s="45"/>
-      <c r="GN13" s="45"/>
-      <c r="GO13" s="45"/>
-      <c r="GP13" s="45"/>
-      <c r="GQ13" s="45"/>
-      <c r="GR13" s="45"/>
-      <c r="GS13" s="45"/>
-      <c r="GT13" s="45"/>
-      <c r="GU13" s="45"/>
-      <c r="GV13" s="45"/>
-      <c r="GW13" s="45"/>
-      <c r="GX13" s="45"/>
-      <c r="GY13" s="45"/>
-      <c r="GZ13" s="45"/>
-      <c r="HA13" s="45"/>
-      <c r="HB13" s="45"/>
-      <c r="HC13" s="45"/>
-      <c r="HD13" s="45"/>
-      <c r="HE13" s="45"/>
-      <c r="HF13" s="45"/>
-      <c r="HG13" s="45"/>
-      <c r="HH13" s="45"/>
-      <c r="HI13" s="45"/>
-      <c r="HJ13" s="45"/>
-      <c r="HK13" s="45"/>
-      <c r="HL13" s="45"/>
-      <c r="HM13" s="45"/>
-      <c r="HN13" s="45"/>
-      <c r="HO13" s="45"/>
-      <c r="HP13" s="45"/>
-      <c r="HQ13" s="45"/>
-      <c r="HR13" s="45"/>
-      <c r="HS13" s="45"/>
-      <c r="HT13" s="45"/>
-      <c r="HU13" s="45"/>
+      <c r="H13" s="30"/>
+      <c r="BQ13" s="31"/>
+      <c r="BS13" s="31"/>
+      <c r="BU13" s="31"/>
+      <c r="BW13" s="31"/>
+      <c r="BY13" s="31"/>
+      <c r="CA13" s="31"/>
+      <c r="CC13" s="31"/>
+      <c r="CE13" s="31"/>
+      <c r="CG13" s="31"/>
+      <c r="CI13" s="31"/>
+      <c r="CK13" s="31"/>
+      <c r="CL13" s="31"/>
+      <c r="CM13" s="31"/>
+      <c r="CN13" s="31"/>
+      <c r="CO13" s="31"/>
+      <c r="CP13" s="31"/>
+      <c r="CQ13" s="31"/>
+      <c r="CR13" s="31"/>
+      <c r="CS13" s="31"/>
+      <c r="CT13" s="31"/>
+      <c r="CU13" s="31"/>
+      <c r="CV13" s="31"/>
+      <c r="CW13" s="31"/>
+      <c r="CX13" s="31"/>
+      <c r="CY13" s="31"/>
+      <c r="CZ13" s="31"/>
+      <c r="DA13" s="31"/>
+      <c r="DB13" s="31"/>
+      <c r="DC13" s="31"/>
+      <c r="DD13" s="31"/>
+      <c r="DE13" s="31"/>
+      <c r="DF13" s="31"/>
+      <c r="DG13" s="31"/>
+      <c r="DH13" s="31"/>
+      <c r="DI13" s="31"/>
+      <c r="DJ13" s="31"/>
+      <c r="DK13" s="31"/>
+      <c r="DL13" s="31"/>
+      <c r="DM13" s="31"/>
+      <c r="DN13" s="31"/>
+      <c r="DO13" s="31"/>
+      <c r="DP13" s="31"/>
+      <c r="DQ13" s="31"/>
+      <c r="DR13" s="31"/>
+      <c r="DS13" s="31"/>
+      <c r="DT13" s="31"/>
+      <c r="DU13" s="31"/>
+      <c r="DV13" s="31"/>
+      <c r="DW13" s="31"/>
+      <c r="DX13" s="31"/>
+      <c r="DY13" s="31"/>
+      <c r="DZ13" s="31"/>
+      <c r="EA13" s="31"/>
+      <c r="EB13" s="31"/>
+      <c r="EC13" s="31"/>
+      <c r="ED13" s="31"/>
+      <c r="EE13" s="31"/>
+      <c r="EF13" s="31"/>
+      <c r="EG13" s="31"/>
+      <c r="EH13" s="31"/>
+      <c r="EI13" s="31"/>
+      <c r="EJ13" s="31"/>
+      <c r="EK13" s="31"/>
+      <c r="EL13" s="31"/>
+      <c r="EM13" s="31"/>
+      <c r="EN13" s="31"/>
+      <c r="EO13" s="31"/>
+      <c r="EP13" s="31"/>
+      <c r="EQ13" s="31"/>
+      <c r="ER13" s="31"/>
+      <c r="ES13" s="31"/>
+      <c r="ET13" s="31"/>
+      <c r="EU13" s="31"/>
+      <c r="EV13" s="31"/>
+      <c r="EW13" s="31"/>
+      <c r="EX13" s="31"/>
+      <c r="EY13" s="31"/>
+      <c r="EZ13" s="31"/>
+      <c r="FA13" s="31"/>
+      <c r="FB13" s="31"/>
+      <c r="FC13" s="31"/>
+      <c r="FD13" s="31"/>
+      <c r="FE13" s="31"/>
+      <c r="FF13" s="31"/>
+      <c r="FG13" s="31"/>
+      <c r="FH13" s="31"/>
+      <c r="FI13" s="31"/>
+      <c r="FJ13" s="31"/>
+      <c r="FK13" s="31"/>
+      <c r="FL13" s="31"/>
+      <c r="FM13" s="31"/>
+      <c r="FN13" s="31"/>
+      <c r="FO13" s="31"/>
+      <c r="FP13" s="31"/>
+      <c r="FQ13" s="31"/>
+      <c r="FR13" s="31"/>
+      <c r="FS13" s="31"/>
+      <c r="FT13" s="31"/>
+      <c r="FU13" s="31"/>
+      <c r="FV13" s="31"/>
+      <c r="FW13" s="31"/>
+      <c r="FX13" s="31"/>
+      <c r="FY13" s="31"/>
+      <c r="FZ13" s="31"/>
+      <c r="GA13" s="31"/>
+      <c r="GB13" s="31"/>
+      <c r="GC13" s="31"/>
+      <c r="GD13" s="31"/>
+      <c r="GE13" s="31"/>
+      <c r="GF13" s="31"/>
+      <c r="GG13" s="31"/>
+      <c r="GH13" s="31"/>
+      <c r="GI13" s="31"/>
+      <c r="GJ13" s="31"/>
+      <c r="GK13" s="31"/>
+      <c r="GL13" s="31"/>
+      <c r="GM13" s="31"/>
+      <c r="GN13" s="31"/>
+      <c r="GO13" s="31"/>
+      <c r="GP13" s="31"/>
+      <c r="GQ13" s="31"/>
+      <c r="GR13" s="31"/>
+      <c r="GS13" s="31"/>
+      <c r="GT13" s="31"/>
+      <c r="GU13" s="31"/>
+      <c r="GV13" s="31"/>
+      <c r="GW13" s="31"/>
+      <c r="GX13" s="31"/>
+      <c r="GY13" s="31"/>
+      <c r="GZ13" s="31"/>
+      <c r="HA13" s="31"/>
+      <c r="HB13" s="31"/>
+      <c r="HC13" s="31"/>
+      <c r="HD13" s="31"/>
+      <c r="HE13" s="31"/>
+      <c r="HF13" s="31"/>
+      <c r="HG13" s="31"/>
+      <c r="HH13" s="31"/>
+      <c r="HI13" s="31"/>
+      <c r="HJ13" s="31"/>
+      <c r="HK13" s="31"/>
+      <c r="HL13" s="31"/>
+      <c r="HM13" s="31"/>
+      <c r="HN13" s="31"/>
+      <c r="HO13" s="31"/>
+      <c r="HP13" s="31"/>
+      <c r="HQ13" s="31"/>
+      <c r="HR13" s="31"/>
+      <c r="HS13" s="31"/>
+      <c r="HT13" s="31"/>
+      <c r="HU13" s="31"/>
     </row>
     <row r="14" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>9</v>
+      <c r="B14" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -5532,162 +5393,162 @@
       <c r="G14" s="7">
         <v>0</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="BQ14" s="45"/>
-      <c r="BS14" s="45"/>
-      <c r="BU14" s="45"/>
-      <c r="BW14" s="45"/>
-      <c r="BY14" s="45"/>
-      <c r="CA14" s="45"/>
-      <c r="CC14" s="45"/>
-      <c r="CE14" s="45"/>
-      <c r="CG14" s="45"/>
-      <c r="CI14" s="45"/>
-      <c r="CK14" s="45"/>
-      <c r="CL14" s="45"/>
-      <c r="CM14" s="45"/>
-      <c r="CN14" s="45"/>
-      <c r="CO14" s="45"/>
-      <c r="CP14" s="45"/>
-      <c r="CQ14" s="45"/>
-      <c r="CR14" s="45"/>
-      <c r="CS14" s="45"/>
-      <c r="CT14" s="45"/>
-      <c r="CU14" s="45"/>
-      <c r="CV14" s="45"/>
-      <c r="CW14" s="45"/>
-      <c r="CX14" s="45"/>
-      <c r="CY14" s="45"/>
-      <c r="CZ14" s="45"/>
-      <c r="DA14" s="45"/>
-      <c r="DB14" s="45"/>
-      <c r="DC14" s="45"/>
-      <c r="DD14" s="45"/>
-      <c r="DE14" s="45"/>
-      <c r="DF14" s="45"/>
-      <c r="DG14" s="45"/>
-      <c r="DH14" s="45"/>
-      <c r="DI14" s="45"/>
-      <c r="DJ14" s="45"/>
-      <c r="DK14" s="45"/>
-      <c r="DL14" s="45"/>
-      <c r="DM14" s="45"/>
-      <c r="DN14" s="45"/>
-      <c r="DO14" s="45"/>
-      <c r="DP14" s="45"/>
-      <c r="DQ14" s="45"/>
-      <c r="DR14" s="45"/>
-      <c r="DS14" s="45"/>
-      <c r="DT14" s="45"/>
-      <c r="DU14" s="45"/>
-      <c r="DV14" s="45"/>
-      <c r="DW14" s="45"/>
-      <c r="DX14" s="45"/>
-      <c r="DY14" s="45"/>
-      <c r="DZ14" s="45"/>
-      <c r="EA14" s="45"/>
-      <c r="EB14" s="45"/>
-      <c r="EC14" s="45"/>
-      <c r="ED14" s="45"/>
-      <c r="EE14" s="45"/>
-      <c r="EF14" s="45"/>
-      <c r="EG14" s="45"/>
-      <c r="EH14" s="45"/>
-      <c r="EI14" s="45"/>
-      <c r="EJ14" s="45"/>
-      <c r="EK14" s="45"/>
-      <c r="EL14" s="45"/>
-      <c r="EM14" s="45"/>
-      <c r="EN14" s="45"/>
-      <c r="EO14" s="45"/>
-      <c r="EP14" s="45"/>
-      <c r="EQ14" s="45"/>
-      <c r="ER14" s="45"/>
-      <c r="ES14" s="45"/>
-      <c r="ET14" s="45"/>
-      <c r="EU14" s="45"/>
-      <c r="EV14" s="45"/>
-      <c r="EW14" s="45"/>
-      <c r="EX14" s="45"/>
-      <c r="EY14" s="45"/>
-      <c r="EZ14" s="45"/>
-      <c r="FA14" s="45"/>
-      <c r="FB14" s="45"/>
-      <c r="FC14" s="45"/>
-      <c r="FD14" s="45"/>
-      <c r="FE14" s="45"/>
-      <c r="FF14" s="45"/>
-      <c r="FG14" s="45"/>
-      <c r="FH14" s="45"/>
-      <c r="FI14" s="45"/>
-      <c r="FJ14" s="45"/>
-      <c r="FK14" s="45"/>
-      <c r="FL14" s="45"/>
-      <c r="FM14" s="45"/>
-      <c r="FN14" s="45"/>
-      <c r="FO14" s="45"/>
-      <c r="FP14" s="45"/>
-      <c r="FQ14" s="45"/>
-      <c r="FR14" s="45"/>
-      <c r="FS14" s="45"/>
-      <c r="FT14" s="45"/>
-      <c r="FU14" s="45"/>
-      <c r="FV14" s="45"/>
-      <c r="FW14" s="45"/>
-      <c r="FX14" s="45"/>
-      <c r="FY14" s="45"/>
-      <c r="FZ14" s="45"/>
-      <c r="GA14" s="45"/>
-      <c r="GB14" s="45"/>
-      <c r="GC14" s="45"/>
-      <c r="GD14" s="45"/>
-      <c r="GE14" s="45"/>
-      <c r="GF14" s="45"/>
-      <c r="GG14" s="45"/>
-      <c r="GH14" s="45"/>
-      <c r="GI14" s="45"/>
-      <c r="GJ14" s="45"/>
-      <c r="GK14" s="45"/>
-      <c r="GL14" s="45"/>
-      <c r="GM14" s="45"/>
-      <c r="GN14" s="45"/>
-      <c r="GO14" s="45"/>
-      <c r="GP14" s="45"/>
-      <c r="GQ14" s="45"/>
-      <c r="GR14" s="45"/>
-      <c r="GS14" s="45"/>
-      <c r="GT14" s="45"/>
-      <c r="GU14" s="45"/>
-      <c r="GV14" s="45"/>
-      <c r="GW14" s="45"/>
-      <c r="GX14" s="45"/>
-      <c r="GY14" s="45"/>
-      <c r="GZ14" s="45"/>
-      <c r="HA14" s="45"/>
-      <c r="HB14" s="45"/>
-      <c r="HC14" s="45"/>
-      <c r="HD14" s="45"/>
-      <c r="HE14" s="45"/>
-      <c r="HF14" s="45"/>
-      <c r="HG14" s="45"/>
-      <c r="HH14" s="45"/>
-      <c r="HI14" s="45"/>
-      <c r="HJ14" s="45"/>
-      <c r="HK14" s="45"/>
-      <c r="HL14" s="45"/>
-      <c r="HM14" s="45"/>
-      <c r="HN14" s="45"/>
-      <c r="HO14" s="45"/>
-      <c r="HP14" s="45"/>
-      <c r="HQ14" s="45"/>
-      <c r="HR14" s="45"/>
-      <c r="HS14" s="45"/>
-      <c r="HT14" s="45"/>
-      <c r="HU14" s="45"/>
+      <c r="H14" s="30"/>
+      <c r="BQ14" s="31"/>
+      <c r="BS14" s="31"/>
+      <c r="BU14" s="31"/>
+      <c r="BW14" s="31"/>
+      <c r="BY14" s="31"/>
+      <c r="CA14" s="31"/>
+      <c r="CC14" s="31"/>
+      <c r="CE14" s="31"/>
+      <c r="CG14" s="31"/>
+      <c r="CI14" s="31"/>
+      <c r="CK14" s="31"/>
+      <c r="CL14" s="31"/>
+      <c r="CM14" s="31"/>
+      <c r="CN14" s="31"/>
+      <c r="CO14" s="31"/>
+      <c r="CP14" s="31"/>
+      <c r="CQ14" s="31"/>
+      <c r="CR14" s="31"/>
+      <c r="CS14" s="31"/>
+      <c r="CT14" s="31"/>
+      <c r="CU14" s="31"/>
+      <c r="CV14" s="31"/>
+      <c r="CW14" s="31"/>
+      <c r="CX14" s="31"/>
+      <c r="CY14" s="31"/>
+      <c r="CZ14" s="31"/>
+      <c r="DA14" s="31"/>
+      <c r="DB14" s="31"/>
+      <c r="DC14" s="31"/>
+      <c r="DD14" s="31"/>
+      <c r="DE14" s="31"/>
+      <c r="DF14" s="31"/>
+      <c r="DG14" s="31"/>
+      <c r="DH14" s="31"/>
+      <c r="DI14" s="31"/>
+      <c r="DJ14" s="31"/>
+      <c r="DK14" s="31"/>
+      <c r="DL14" s="31"/>
+      <c r="DM14" s="31"/>
+      <c r="DN14" s="31"/>
+      <c r="DO14" s="31"/>
+      <c r="DP14" s="31"/>
+      <c r="DQ14" s="31"/>
+      <c r="DR14" s="31"/>
+      <c r="DS14" s="31"/>
+      <c r="DT14" s="31"/>
+      <c r="DU14" s="31"/>
+      <c r="DV14" s="31"/>
+      <c r="DW14" s="31"/>
+      <c r="DX14" s="31"/>
+      <c r="DY14" s="31"/>
+      <c r="DZ14" s="31"/>
+      <c r="EA14" s="31"/>
+      <c r="EB14" s="31"/>
+      <c r="EC14" s="31"/>
+      <c r="ED14" s="31"/>
+      <c r="EE14" s="31"/>
+      <c r="EF14" s="31"/>
+      <c r="EG14" s="31"/>
+      <c r="EH14" s="31"/>
+      <c r="EI14" s="31"/>
+      <c r="EJ14" s="31"/>
+      <c r="EK14" s="31"/>
+      <c r="EL14" s="31"/>
+      <c r="EM14" s="31"/>
+      <c r="EN14" s="31"/>
+      <c r="EO14" s="31"/>
+      <c r="EP14" s="31"/>
+      <c r="EQ14" s="31"/>
+      <c r="ER14" s="31"/>
+      <c r="ES14" s="31"/>
+      <c r="ET14" s="31"/>
+      <c r="EU14" s="31"/>
+      <c r="EV14" s="31"/>
+      <c r="EW14" s="31"/>
+      <c r="EX14" s="31"/>
+      <c r="EY14" s="31"/>
+      <c r="EZ14" s="31"/>
+      <c r="FA14" s="31"/>
+      <c r="FB14" s="31"/>
+      <c r="FC14" s="31"/>
+      <c r="FD14" s="31"/>
+      <c r="FE14" s="31"/>
+      <c r="FF14" s="31"/>
+      <c r="FG14" s="31"/>
+      <c r="FH14" s="31"/>
+      <c r="FI14" s="31"/>
+      <c r="FJ14" s="31"/>
+      <c r="FK14" s="31"/>
+      <c r="FL14" s="31"/>
+      <c r="FM14" s="31"/>
+      <c r="FN14" s="31"/>
+      <c r="FO14" s="31"/>
+      <c r="FP14" s="31"/>
+      <c r="FQ14" s="31"/>
+      <c r="FR14" s="31"/>
+      <c r="FS14" s="31"/>
+      <c r="FT14" s="31"/>
+      <c r="FU14" s="31"/>
+      <c r="FV14" s="31"/>
+      <c r="FW14" s="31"/>
+      <c r="FX14" s="31"/>
+      <c r="FY14" s="31"/>
+      <c r="FZ14" s="31"/>
+      <c r="GA14" s="31"/>
+      <c r="GB14" s="31"/>
+      <c r="GC14" s="31"/>
+      <c r="GD14" s="31"/>
+      <c r="GE14" s="31"/>
+      <c r="GF14" s="31"/>
+      <c r="GG14" s="31"/>
+      <c r="GH14" s="31"/>
+      <c r="GI14" s="31"/>
+      <c r="GJ14" s="31"/>
+      <c r="GK14" s="31"/>
+      <c r="GL14" s="31"/>
+      <c r="GM14" s="31"/>
+      <c r="GN14" s="31"/>
+      <c r="GO14" s="31"/>
+      <c r="GP14" s="31"/>
+      <c r="GQ14" s="31"/>
+      <c r="GR14" s="31"/>
+      <c r="GS14" s="31"/>
+      <c r="GT14" s="31"/>
+      <c r="GU14" s="31"/>
+      <c r="GV14" s="31"/>
+      <c r="GW14" s="31"/>
+      <c r="GX14" s="31"/>
+      <c r="GY14" s="31"/>
+      <c r="GZ14" s="31"/>
+      <c r="HA14" s="31"/>
+      <c r="HB14" s="31"/>
+      <c r="HC14" s="31"/>
+      <c r="HD14" s="31"/>
+      <c r="HE14" s="31"/>
+      <c r="HF14" s="31"/>
+      <c r="HG14" s="31"/>
+      <c r="HH14" s="31"/>
+      <c r="HI14" s="31"/>
+      <c r="HJ14" s="31"/>
+      <c r="HK14" s="31"/>
+      <c r="HL14" s="31"/>
+      <c r="HM14" s="31"/>
+      <c r="HN14" s="31"/>
+      <c r="HO14" s="31"/>
+      <c r="HP14" s="31"/>
+      <c r="HQ14" s="31"/>
+      <c r="HR14" s="31"/>
+      <c r="HS14" s="31"/>
+      <c r="HT14" s="31"/>
+      <c r="HU14" s="31"/>
     </row>
     <row r="15" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15" s="8">
         <v>0</v>
@@ -5704,162 +5565,162 @@
       <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="BQ15" s="45"/>
-      <c r="BS15" s="45"/>
-      <c r="BU15" s="45"/>
-      <c r="BW15" s="45"/>
-      <c r="BY15" s="45"/>
-      <c r="CA15" s="45"/>
-      <c r="CC15" s="45"/>
-      <c r="CE15" s="45"/>
-      <c r="CG15" s="45"/>
-      <c r="CI15" s="45"/>
-      <c r="CK15" s="45"/>
-      <c r="CL15" s="45"/>
-      <c r="CM15" s="45"/>
-      <c r="CN15" s="45"/>
-      <c r="CO15" s="45"/>
-      <c r="CP15" s="45"/>
-      <c r="CQ15" s="45"/>
-      <c r="CR15" s="45"/>
-      <c r="CS15" s="45"/>
-      <c r="CT15" s="45"/>
-      <c r="CU15" s="45"/>
-      <c r="CV15" s="45"/>
-      <c r="CW15" s="45"/>
-      <c r="CX15" s="45"/>
-      <c r="CY15" s="45"/>
-      <c r="CZ15" s="45"/>
-      <c r="DA15" s="45"/>
-      <c r="DB15" s="45"/>
-      <c r="DC15" s="45"/>
-      <c r="DD15" s="45"/>
-      <c r="DE15" s="45"/>
-      <c r="DF15" s="45"/>
-      <c r="DG15" s="45"/>
-      <c r="DH15" s="45"/>
-      <c r="DI15" s="45"/>
-      <c r="DJ15" s="45"/>
-      <c r="DK15" s="45"/>
-      <c r="DL15" s="45"/>
-      <c r="DM15" s="45"/>
-      <c r="DN15" s="45"/>
-      <c r="DO15" s="45"/>
-      <c r="DP15" s="45"/>
-      <c r="DQ15" s="45"/>
-      <c r="DR15" s="45"/>
-      <c r="DS15" s="45"/>
-      <c r="DT15" s="45"/>
-      <c r="DU15" s="45"/>
-      <c r="DV15" s="45"/>
-      <c r="DW15" s="45"/>
-      <c r="DX15" s="45"/>
-      <c r="DY15" s="45"/>
-      <c r="DZ15" s="45"/>
-      <c r="EA15" s="45"/>
-      <c r="EB15" s="45"/>
-      <c r="EC15" s="45"/>
-      <c r="ED15" s="45"/>
-      <c r="EE15" s="45"/>
-      <c r="EF15" s="45"/>
-      <c r="EG15" s="45"/>
-      <c r="EH15" s="45"/>
-      <c r="EI15" s="45"/>
-      <c r="EJ15" s="45"/>
-      <c r="EK15" s="45"/>
-      <c r="EL15" s="45"/>
-      <c r="EM15" s="45"/>
-      <c r="EN15" s="45"/>
-      <c r="EO15" s="45"/>
-      <c r="EP15" s="45"/>
-      <c r="EQ15" s="45"/>
-      <c r="ER15" s="45"/>
-      <c r="ES15" s="45"/>
-      <c r="ET15" s="45"/>
-      <c r="EU15" s="45"/>
-      <c r="EV15" s="45"/>
-      <c r="EW15" s="45"/>
-      <c r="EX15" s="45"/>
-      <c r="EY15" s="45"/>
-      <c r="EZ15" s="45"/>
-      <c r="FA15" s="45"/>
-      <c r="FB15" s="45"/>
-      <c r="FC15" s="45"/>
-      <c r="FD15" s="45"/>
-      <c r="FE15" s="45"/>
-      <c r="FF15" s="45"/>
-      <c r="FG15" s="45"/>
-      <c r="FH15" s="45"/>
-      <c r="FI15" s="45"/>
-      <c r="FJ15" s="45"/>
-      <c r="FK15" s="45"/>
-      <c r="FL15" s="45"/>
-      <c r="FM15" s="45"/>
-      <c r="FN15" s="45"/>
-      <c r="FO15" s="45"/>
-      <c r="FP15" s="45"/>
-      <c r="FQ15" s="45"/>
-      <c r="FR15" s="45"/>
-      <c r="FS15" s="45"/>
-      <c r="FT15" s="45"/>
-      <c r="FU15" s="45"/>
-      <c r="FV15" s="45"/>
-      <c r="FW15" s="45"/>
-      <c r="FX15" s="45"/>
-      <c r="FY15" s="45"/>
-      <c r="FZ15" s="45"/>
-      <c r="GA15" s="45"/>
-      <c r="GB15" s="45"/>
-      <c r="GC15" s="45"/>
-      <c r="GD15" s="45"/>
-      <c r="GE15" s="45"/>
-      <c r="GF15" s="45"/>
-      <c r="GG15" s="45"/>
-      <c r="GH15" s="45"/>
-      <c r="GI15" s="45"/>
-      <c r="GJ15" s="45"/>
-      <c r="GK15" s="45"/>
-      <c r="GL15" s="45"/>
-      <c r="GM15" s="45"/>
-      <c r="GN15" s="45"/>
-      <c r="GO15" s="45"/>
-      <c r="GP15" s="45"/>
-      <c r="GQ15" s="45"/>
-      <c r="GR15" s="45"/>
-      <c r="GS15" s="45"/>
-      <c r="GT15" s="45"/>
-      <c r="GU15" s="45"/>
-      <c r="GV15" s="45"/>
-      <c r="GW15" s="45"/>
-      <c r="GX15" s="45"/>
-      <c r="GY15" s="45"/>
-      <c r="GZ15" s="45"/>
-      <c r="HA15" s="45"/>
-      <c r="HB15" s="45"/>
-      <c r="HC15" s="45"/>
-      <c r="HD15" s="45"/>
-      <c r="HE15" s="45"/>
-      <c r="HF15" s="45"/>
-      <c r="HG15" s="45"/>
-      <c r="HH15" s="45"/>
-      <c r="HI15" s="45"/>
-      <c r="HJ15" s="45"/>
-      <c r="HK15" s="45"/>
-      <c r="HL15" s="45"/>
-      <c r="HM15" s="45"/>
-      <c r="HN15" s="45"/>
-      <c r="HO15" s="45"/>
-      <c r="HP15" s="45"/>
-      <c r="HQ15" s="45"/>
-      <c r="HR15" s="45"/>
-      <c r="HS15" s="45"/>
-      <c r="HT15" s="45"/>
-      <c r="HU15" s="45"/>
+      <c r="H15" s="30"/>
+      <c r="BQ15" s="31"/>
+      <c r="BS15" s="31"/>
+      <c r="BU15" s="31"/>
+      <c r="BW15" s="31"/>
+      <c r="BY15" s="31"/>
+      <c r="CA15" s="31"/>
+      <c r="CC15" s="31"/>
+      <c r="CE15" s="31"/>
+      <c r="CG15" s="31"/>
+      <c r="CI15" s="31"/>
+      <c r="CK15" s="31"/>
+      <c r="CL15" s="31"/>
+      <c r="CM15" s="31"/>
+      <c r="CN15" s="31"/>
+      <c r="CO15" s="31"/>
+      <c r="CP15" s="31"/>
+      <c r="CQ15" s="31"/>
+      <c r="CR15" s="31"/>
+      <c r="CS15" s="31"/>
+      <c r="CT15" s="31"/>
+      <c r="CU15" s="31"/>
+      <c r="CV15" s="31"/>
+      <c r="CW15" s="31"/>
+      <c r="CX15" s="31"/>
+      <c r="CY15" s="31"/>
+      <c r="CZ15" s="31"/>
+      <c r="DA15" s="31"/>
+      <c r="DB15" s="31"/>
+      <c r="DC15" s="31"/>
+      <c r="DD15" s="31"/>
+      <c r="DE15" s="31"/>
+      <c r="DF15" s="31"/>
+      <c r="DG15" s="31"/>
+      <c r="DH15" s="31"/>
+      <c r="DI15" s="31"/>
+      <c r="DJ15" s="31"/>
+      <c r="DK15" s="31"/>
+      <c r="DL15" s="31"/>
+      <c r="DM15" s="31"/>
+      <c r="DN15" s="31"/>
+      <c r="DO15" s="31"/>
+      <c r="DP15" s="31"/>
+      <c r="DQ15" s="31"/>
+      <c r="DR15" s="31"/>
+      <c r="DS15" s="31"/>
+      <c r="DT15" s="31"/>
+      <c r="DU15" s="31"/>
+      <c r="DV15" s="31"/>
+      <c r="DW15" s="31"/>
+      <c r="DX15" s="31"/>
+      <c r="DY15" s="31"/>
+      <c r="DZ15" s="31"/>
+      <c r="EA15" s="31"/>
+      <c r="EB15" s="31"/>
+      <c r="EC15" s="31"/>
+      <c r="ED15" s="31"/>
+      <c r="EE15" s="31"/>
+      <c r="EF15" s="31"/>
+      <c r="EG15" s="31"/>
+      <c r="EH15" s="31"/>
+      <c r="EI15" s="31"/>
+      <c r="EJ15" s="31"/>
+      <c r="EK15" s="31"/>
+      <c r="EL15" s="31"/>
+      <c r="EM15" s="31"/>
+      <c r="EN15" s="31"/>
+      <c r="EO15" s="31"/>
+      <c r="EP15" s="31"/>
+      <c r="EQ15" s="31"/>
+      <c r="ER15" s="31"/>
+      <c r="ES15" s="31"/>
+      <c r="ET15" s="31"/>
+      <c r="EU15" s="31"/>
+      <c r="EV15" s="31"/>
+      <c r="EW15" s="31"/>
+      <c r="EX15" s="31"/>
+      <c r="EY15" s="31"/>
+      <c r="EZ15" s="31"/>
+      <c r="FA15" s="31"/>
+      <c r="FB15" s="31"/>
+      <c r="FC15" s="31"/>
+      <c r="FD15" s="31"/>
+      <c r="FE15" s="31"/>
+      <c r="FF15" s="31"/>
+      <c r="FG15" s="31"/>
+      <c r="FH15" s="31"/>
+      <c r="FI15" s="31"/>
+      <c r="FJ15" s="31"/>
+      <c r="FK15" s="31"/>
+      <c r="FL15" s="31"/>
+      <c r="FM15" s="31"/>
+      <c r="FN15" s="31"/>
+      <c r="FO15" s="31"/>
+      <c r="FP15" s="31"/>
+      <c r="FQ15" s="31"/>
+      <c r="FR15" s="31"/>
+      <c r="FS15" s="31"/>
+      <c r="FT15" s="31"/>
+      <c r="FU15" s="31"/>
+      <c r="FV15" s="31"/>
+      <c r="FW15" s="31"/>
+      <c r="FX15" s="31"/>
+      <c r="FY15" s="31"/>
+      <c r="FZ15" s="31"/>
+      <c r="GA15" s="31"/>
+      <c r="GB15" s="31"/>
+      <c r="GC15" s="31"/>
+      <c r="GD15" s="31"/>
+      <c r="GE15" s="31"/>
+      <c r="GF15" s="31"/>
+      <c r="GG15" s="31"/>
+      <c r="GH15" s="31"/>
+      <c r="GI15" s="31"/>
+      <c r="GJ15" s="31"/>
+      <c r="GK15" s="31"/>
+      <c r="GL15" s="31"/>
+      <c r="GM15" s="31"/>
+      <c r="GN15" s="31"/>
+      <c r="GO15" s="31"/>
+      <c r="GP15" s="31"/>
+      <c r="GQ15" s="31"/>
+      <c r="GR15" s="31"/>
+      <c r="GS15" s="31"/>
+      <c r="GT15" s="31"/>
+      <c r="GU15" s="31"/>
+      <c r="GV15" s="31"/>
+      <c r="GW15" s="31"/>
+      <c r="GX15" s="31"/>
+      <c r="GY15" s="31"/>
+      <c r="GZ15" s="31"/>
+      <c r="HA15" s="31"/>
+      <c r="HB15" s="31"/>
+      <c r="HC15" s="31"/>
+      <c r="HD15" s="31"/>
+      <c r="HE15" s="31"/>
+      <c r="HF15" s="31"/>
+      <c r="HG15" s="31"/>
+      <c r="HH15" s="31"/>
+      <c r="HI15" s="31"/>
+      <c r="HJ15" s="31"/>
+      <c r="HK15" s="31"/>
+      <c r="HL15" s="31"/>
+      <c r="HM15" s="31"/>
+      <c r="HN15" s="31"/>
+      <c r="HO15" s="31"/>
+      <c r="HP15" s="31"/>
+      <c r="HQ15" s="31"/>
+      <c r="HR15" s="31"/>
+      <c r="HS15" s="31"/>
+      <c r="HT15" s="31"/>
+      <c r="HU15" s="31"/>
     </row>
     <row r="16" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -5876,162 +5737,162 @@
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="44"/>
-      <c r="BQ16" s="45"/>
-      <c r="BS16" s="45"/>
-      <c r="BU16" s="45"/>
-      <c r="BW16" s="45"/>
-      <c r="BY16" s="45"/>
-      <c r="CA16" s="45"/>
-      <c r="CC16" s="45"/>
-      <c r="CE16" s="45"/>
-      <c r="CG16" s="45"/>
-      <c r="CI16" s="45"/>
-      <c r="CK16" s="45"/>
-      <c r="CL16" s="45"/>
-      <c r="CM16" s="45"/>
-      <c r="CN16" s="45"/>
-      <c r="CO16" s="45"/>
-      <c r="CP16" s="45"/>
-      <c r="CQ16" s="45"/>
-      <c r="CR16" s="45"/>
-      <c r="CS16" s="45"/>
-      <c r="CT16" s="45"/>
-      <c r="CU16" s="45"/>
-      <c r="CV16" s="45"/>
-      <c r="CW16" s="45"/>
-      <c r="CX16" s="45"/>
-      <c r="CY16" s="45"/>
-      <c r="CZ16" s="45"/>
-      <c r="DA16" s="45"/>
-      <c r="DB16" s="45"/>
-      <c r="DC16" s="45"/>
-      <c r="DD16" s="45"/>
-      <c r="DE16" s="45"/>
-      <c r="DF16" s="45"/>
-      <c r="DG16" s="45"/>
-      <c r="DH16" s="45"/>
-      <c r="DI16" s="45"/>
-      <c r="DJ16" s="45"/>
-      <c r="DK16" s="45"/>
-      <c r="DL16" s="45"/>
-      <c r="DM16" s="45"/>
-      <c r="DN16" s="45"/>
-      <c r="DO16" s="45"/>
-      <c r="DP16" s="45"/>
-      <c r="DQ16" s="45"/>
-      <c r="DR16" s="45"/>
-      <c r="DS16" s="45"/>
-      <c r="DT16" s="45"/>
-      <c r="DU16" s="45"/>
-      <c r="DV16" s="45"/>
-      <c r="DW16" s="45"/>
-      <c r="DX16" s="45"/>
-      <c r="DY16" s="45"/>
-      <c r="DZ16" s="45"/>
-      <c r="EA16" s="45"/>
-      <c r="EB16" s="45"/>
-      <c r="EC16" s="45"/>
-      <c r="ED16" s="45"/>
-      <c r="EE16" s="45"/>
-      <c r="EF16" s="45"/>
-      <c r="EG16" s="45"/>
-      <c r="EH16" s="45"/>
-      <c r="EI16" s="45"/>
-      <c r="EJ16" s="45"/>
-      <c r="EK16" s="45"/>
-      <c r="EL16" s="45"/>
-      <c r="EM16" s="45"/>
-      <c r="EN16" s="45"/>
-      <c r="EO16" s="45"/>
-      <c r="EP16" s="45"/>
-      <c r="EQ16" s="45"/>
-      <c r="ER16" s="45"/>
-      <c r="ES16" s="45"/>
-      <c r="ET16" s="45"/>
-      <c r="EU16" s="45"/>
-      <c r="EV16" s="45"/>
-      <c r="EW16" s="45"/>
-      <c r="EX16" s="45"/>
-      <c r="EY16" s="45"/>
-      <c r="EZ16" s="45"/>
-      <c r="FA16" s="45"/>
-      <c r="FB16" s="45"/>
-      <c r="FC16" s="45"/>
-      <c r="FD16" s="45"/>
-      <c r="FE16" s="45"/>
-      <c r="FF16" s="45"/>
-      <c r="FG16" s="45"/>
-      <c r="FH16" s="45"/>
-      <c r="FI16" s="45"/>
-      <c r="FJ16" s="45"/>
-      <c r="FK16" s="45"/>
-      <c r="FL16" s="45"/>
-      <c r="FM16" s="45"/>
-      <c r="FN16" s="45"/>
-      <c r="FO16" s="45"/>
-      <c r="FP16" s="45"/>
-      <c r="FQ16" s="45"/>
-      <c r="FR16" s="45"/>
-      <c r="FS16" s="45"/>
-      <c r="FT16" s="45"/>
-      <c r="FU16" s="45"/>
-      <c r="FV16" s="45"/>
-      <c r="FW16" s="45"/>
-      <c r="FX16" s="45"/>
-      <c r="FY16" s="45"/>
-      <c r="FZ16" s="45"/>
-      <c r="GA16" s="45"/>
-      <c r="GB16" s="45"/>
-      <c r="GC16" s="45"/>
-      <c r="GD16" s="45"/>
-      <c r="GE16" s="45"/>
-      <c r="GF16" s="45"/>
-      <c r="GG16" s="45"/>
-      <c r="GH16" s="45"/>
-      <c r="GI16" s="45"/>
-      <c r="GJ16" s="45"/>
-      <c r="GK16" s="45"/>
-      <c r="GL16" s="45"/>
-      <c r="GM16" s="45"/>
-      <c r="GN16" s="45"/>
-      <c r="GO16" s="45"/>
-      <c r="GP16" s="45"/>
-      <c r="GQ16" s="45"/>
-      <c r="GR16" s="45"/>
-      <c r="GS16" s="45"/>
-      <c r="GT16" s="45"/>
-      <c r="GU16" s="45"/>
-      <c r="GV16" s="45"/>
-      <c r="GW16" s="45"/>
-      <c r="GX16" s="45"/>
-      <c r="GY16" s="45"/>
-      <c r="GZ16" s="45"/>
-      <c r="HA16" s="45"/>
-      <c r="HB16" s="45"/>
-      <c r="HC16" s="45"/>
-      <c r="HD16" s="45"/>
-      <c r="HE16" s="45"/>
-      <c r="HF16" s="45"/>
-      <c r="HG16" s="45"/>
-      <c r="HH16" s="45"/>
-      <c r="HI16" s="45"/>
-      <c r="HJ16" s="45"/>
-      <c r="HK16" s="45"/>
-      <c r="HL16" s="45"/>
-      <c r="HM16" s="45"/>
-      <c r="HN16" s="45"/>
-      <c r="HO16" s="45"/>
-      <c r="HP16" s="45"/>
-      <c r="HQ16" s="45"/>
-      <c r="HR16" s="45"/>
-      <c r="HS16" s="45"/>
-      <c r="HT16" s="45"/>
-      <c r="HU16" s="45"/>
+      <c r="H16" s="30"/>
+      <c r="BQ16" s="31"/>
+      <c r="BS16" s="31"/>
+      <c r="BU16" s="31"/>
+      <c r="BW16" s="31"/>
+      <c r="BY16" s="31"/>
+      <c r="CA16" s="31"/>
+      <c r="CC16" s="31"/>
+      <c r="CE16" s="31"/>
+      <c r="CG16" s="31"/>
+      <c r="CI16" s="31"/>
+      <c r="CK16" s="31"/>
+      <c r="CL16" s="31"/>
+      <c r="CM16" s="31"/>
+      <c r="CN16" s="31"/>
+      <c r="CO16" s="31"/>
+      <c r="CP16" s="31"/>
+      <c r="CQ16" s="31"/>
+      <c r="CR16" s="31"/>
+      <c r="CS16" s="31"/>
+      <c r="CT16" s="31"/>
+      <c r="CU16" s="31"/>
+      <c r="CV16" s="31"/>
+      <c r="CW16" s="31"/>
+      <c r="CX16" s="31"/>
+      <c r="CY16" s="31"/>
+      <c r="CZ16" s="31"/>
+      <c r="DA16" s="31"/>
+      <c r="DB16" s="31"/>
+      <c r="DC16" s="31"/>
+      <c r="DD16" s="31"/>
+      <c r="DE16" s="31"/>
+      <c r="DF16" s="31"/>
+      <c r="DG16" s="31"/>
+      <c r="DH16" s="31"/>
+      <c r="DI16" s="31"/>
+      <c r="DJ16" s="31"/>
+      <c r="DK16" s="31"/>
+      <c r="DL16" s="31"/>
+      <c r="DM16" s="31"/>
+      <c r="DN16" s="31"/>
+      <c r="DO16" s="31"/>
+      <c r="DP16" s="31"/>
+      <c r="DQ16" s="31"/>
+      <c r="DR16" s="31"/>
+      <c r="DS16" s="31"/>
+      <c r="DT16" s="31"/>
+      <c r="DU16" s="31"/>
+      <c r="DV16" s="31"/>
+      <c r="DW16" s="31"/>
+      <c r="DX16" s="31"/>
+      <c r="DY16" s="31"/>
+      <c r="DZ16" s="31"/>
+      <c r="EA16" s="31"/>
+      <c r="EB16" s="31"/>
+      <c r="EC16" s="31"/>
+      <c r="ED16" s="31"/>
+      <c r="EE16" s="31"/>
+      <c r="EF16" s="31"/>
+      <c r="EG16" s="31"/>
+      <c r="EH16" s="31"/>
+      <c r="EI16" s="31"/>
+      <c r="EJ16" s="31"/>
+      <c r="EK16" s="31"/>
+      <c r="EL16" s="31"/>
+      <c r="EM16" s="31"/>
+      <c r="EN16" s="31"/>
+      <c r="EO16" s="31"/>
+      <c r="EP16" s="31"/>
+      <c r="EQ16" s="31"/>
+      <c r="ER16" s="31"/>
+      <c r="ES16" s="31"/>
+      <c r="ET16" s="31"/>
+      <c r="EU16" s="31"/>
+      <c r="EV16" s="31"/>
+      <c r="EW16" s="31"/>
+      <c r="EX16" s="31"/>
+      <c r="EY16" s="31"/>
+      <c r="EZ16" s="31"/>
+      <c r="FA16" s="31"/>
+      <c r="FB16" s="31"/>
+      <c r="FC16" s="31"/>
+      <c r="FD16" s="31"/>
+      <c r="FE16" s="31"/>
+      <c r="FF16" s="31"/>
+      <c r="FG16" s="31"/>
+      <c r="FH16" s="31"/>
+      <c r="FI16" s="31"/>
+      <c r="FJ16" s="31"/>
+      <c r="FK16" s="31"/>
+      <c r="FL16" s="31"/>
+      <c r="FM16" s="31"/>
+      <c r="FN16" s="31"/>
+      <c r="FO16" s="31"/>
+      <c r="FP16" s="31"/>
+      <c r="FQ16" s="31"/>
+      <c r="FR16" s="31"/>
+      <c r="FS16" s="31"/>
+      <c r="FT16" s="31"/>
+      <c r="FU16" s="31"/>
+      <c r="FV16" s="31"/>
+      <c r="FW16" s="31"/>
+      <c r="FX16" s="31"/>
+      <c r="FY16" s="31"/>
+      <c r="FZ16" s="31"/>
+      <c r="GA16" s="31"/>
+      <c r="GB16" s="31"/>
+      <c r="GC16" s="31"/>
+      <c r="GD16" s="31"/>
+      <c r="GE16" s="31"/>
+      <c r="GF16" s="31"/>
+      <c r="GG16" s="31"/>
+      <c r="GH16" s="31"/>
+      <c r="GI16" s="31"/>
+      <c r="GJ16" s="31"/>
+      <c r="GK16" s="31"/>
+      <c r="GL16" s="31"/>
+      <c r="GM16" s="31"/>
+      <c r="GN16" s="31"/>
+      <c r="GO16" s="31"/>
+      <c r="GP16" s="31"/>
+      <c r="GQ16" s="31"/>
+      <c r="GR16" s="31"/>
+      <c r="GS16" s="31"/>
+      <c r="GT16" s="31"/>
+      <c r="GU16" s="31"/>
+      <c r="GV16" s="31"/>
+      <c r="GW16" s="31"/>
+      <c r="GX16" s="31"/>
+      <c r="GY16" s="31"/>
+      <c r="GZ16" s="31"/>
+      <c r="HA16" s="31"/>
+      <c r="HB16" s="31"/>
+      <c r="HC16" s="31"/>
+      <c r="HD16" s="31"/>
+      <c r="HE16" s="31"/>
+      <c r="HF16" s="31"/>
+      <c r="HG16" s="31"/>
+      <c r="HH16" s="31"/>
+      <c r="HI16" s="31"/>
+      <c r="HJ16" s="31"/>
+      <c r="HK16" s="31"/>
+      <c r="HL16" s="31"/>
+      <c r="HM16" s="31"/>
+      <c r="HN16" s="31"/>
+      <c r="HO16" s="31"/>
+      <c r="HP16" s="31"/>
+      <c r="HQ16" s="31"/>
+      <c r="HR16" s="31"/>
+      <c r="HS16" s="31"/>
+      <c r="HT16" s="31"/>
+      <c r="HU16" s="31"/>
     </row>
     <row r="17" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -6048,162 +5909,162 @@
       <c r="G17" s="7">
         <v>0</v>
       </c>
-      <c r="H17" s="44"/>
-      <c r="BQ17" s="45"/>
-      <c r="BS17" s="45"/>
-      <c r="BU17" s="45"/>
-      <c r="BW17" s="45"/>
-      <c r="BY17" s="45"/>
-      <c r="CA17" s="45"/>
-      <c r="CC17" s="45"/>
-      <c r="CE17" s="45"/>
-      <c r="CG17" s="45"/>
-      <c r="CI17" s="45"/>
-      <c r="CK17" s="45"/>
-      <c r="CL17" s="45"/>
-      <c r="CM17" s="45"/>
-      <c r="CN17" s="45"/>
-      <c r="CO17" s="45"/>
-      <c r="CP17" s="45"/>
-      <c r="CQ17" s="45"/>
-      <c r="CR17" s="45"/>
-      <c r="CS17" s="45"/>
-      <c r="CT17" s="45"/>
-      <c r="CU17" s="45"/>
-      <c r="CV17" s="45"/>
-      <c r="CW17" s="45"/>
-      <c r="CX17" s="45"/>
-      <c r="CY17" s="45"/>
-      <c r="CZ17" s="45"/>
-      <c r="DA17" s="45"/>
-      <c r="DB17" s="45"/>
-      <c r="DC17" s="45"/>
-      <c r="DD17" s="45"/>
-      <c r="DE17" s="45"/>
-      <c r="DF17" s="45"/>
-      <c r="DG17" s="45"/>
-      <c r="DH17" s="45"/>
-      <c r="DI17" s="45"/>
-      <c r="DJ17" s="45"/>
-      <c r="DK17" s="45"/>
-      <c r="DL17" s="45"/>
-      <c r="DM17" s="45"/>
-      <c r="DN17" s="45"/>
-      <c r="DO17" s="45"/>
-      <c r="DP17" s="45"/>
-      <c r="DQ17" s="45"/>
-      <c r="DR17" s="45"/>
-      <c r="DS17" s="45"/>
-      <c r="DT17" s="45"/>
-      <c r="DU17" s="45"/>
-      <c r="DV17" s="45"/>
-      <c r="DW17" s="45"/>
-      <c r="DX17" s="45"/>
-      <c r="DY17" s="45"/>
-      <c r="DZ17" s="45"/>
-      <c r="EA17" s="45"/>
-      <c r="EB17" s="45"/>
-      <c r="EC17" s="45"/>
-      <c r="ED17" s="45"/>
-      <c r="EE17" s="45"/>
-      <c r="EF17" s="45"/>
-      <c r="EG17" s="45"/>
-      <c r="EH17" s="45"/>
-      <c r="EI17" s="45"/>
-      <c r="EJ17" s="45"/>
-      <c r="EK17" s="45"/>
-      <c r="EL17" s="45"/>
-      <c r="EM17" s="45"/>
-      <c r="EN17" s="45"/>
-      <c r="EO17" s="45"/>
-      <c r="EP17" s="45"/>
-      <c r="EQ17" s="45"/>
-      <c r="ER17" s="45"/>
-      <c r="ES17" s="45"/>
-      <c r="ET17" s="45"/>
-      <c r="EU17" s="45"/>
-      <c r="EV17" s="45"/>
-      <c r="EW17" s="45"/>
-      <c r="EX17" s="45"/>
-      <c r="EY17" s="45"/>
-      <c r="EZ17" s="45"/>
-      <c r="FA17" s="45"/>
-      <c r="FB17" s="45"/>
-      <c r="FC17" s="45"/>
-      <c r="FD17" s="45"/>
-      <c r="FE17" s="45"/>
-      <c r="FF17" s="45"/>
-      <c r="FG17" s="45"/>
-      <c r="FH17" s="45"/>
-      <c r="FI17" s="45"/>
-      <c r="FJ17" s="45"/>
-      <c r="FK17" s="45"/>
-      <c r="FL17" s="45"/>
-      <c r="FM17" s="45"/>
-      <c r="FN17" s="45"/>
-      <c r="FO17" s="45"/>
-      <c r="FP17" s="45"/>
-      <c r="FQ17" s="45"/>
-      <c r="FR17" s="45"/>
-      <c r="FS17" s="45"/>
-      <c r="FT17" s="45"/>
-      <c r="FU17" s="45"/>
-      <c r="FV17" s="45"/>
-      <c r="FW17" s="45"/>
-      <c r="FX17" s="45"/>
-      <c r="FY17" s="45"/>
-      <c r="FZ17" s="45"/>
-      <c r="GA17" s="45"/>
-      <c r="GB17" s="45"/>
-      <c r="GC17" s="45"/>
-      <c r="GD17" s="45"/>
-      <c r="GE17" s="45"/>
-      <c r="GF17" s="45"/>
-      <c r="GG17" s="45"/>
-      <c r="GH17" s="45"/>
-      <c r="GI17" s="45"/>
-      <c r="GJ17" s="45"/>
-      <c r="GK17" s="45"/>
-      <c r="GL17" s="45"/>
-      <c r="GM17" s="45"/>
-      <c r="GN17" s="45"/>
-      <c r="GO17" s="45"/>
-      <c r="GP17" s="45"/>
-      <c r="GQ17" s="45"/>
-      <c r="GR17" s="45"/>
-      <c r="GS17" s="45"/>
-      <c r="GT17" s="45"/>
-      <c r="GU17" s="45"/>
-      <c r="GV17" s="45"/>
-      <c r="GW17" s="45"/>
-      <c r="GX17" s="45"/>
-      <c r="GY17" s="45"/>
-      <c r="GZ17" s="45"/>
-      <c r="HA17" s="45"/>
-      <c r="HB17" s="45"/>
-      <c r="HC17" s="45"/>
-      <c r="HD17" s="45"/>
-      <c r="HE17" s="45"/>
-      <c r="HF17" s="45"/>
-      <c r="HG17" s="45"/>
-      <c r="HH17" s="45"/>
-      <c r="HI17" s="45"/>
-      <c r="HJ17" s="45"/>
-      <c r="HK17" s="45"/>
-      <c r="HL17" s="45"/>
-      <c r="HM17" s="45"/>
-      <c r="HN17" s="45"/>
-      <c r="HO17" s="45"/>
-      <c r="HP17" s="45"/>
-      <c r="HQ17" s="45"/>
-      <c r="HR17" s="45"/>
-      <c r="HS17" s="45"/>
-      <c r="HT17" s="45"/>
-      <c r="HU17" s="45"/>
+      <c r="H17" s="30"/>
+      <c r="BQ17" s="31"/>
+      <c r="BS17" s="31"/>
+      <c r="BU17" s="31"/>
+      <c r="BW17" s="31"/>
+      <c r="BY17" s="31"/>
+      <c r="CA17" s="31"/>
+      <c r="CC17" s="31"/>
+      <c r="CE17" s="31"/>
+      <c r="CG17" s="31"/>
+      <c r="CI17" s="31"/>
+      <c r="CK17" s="31"/>
+      <c r="CL17" s="31"/>
+      <c r="CM17" s="31"/>
+      <c r="CN17" s="31"/>
+      <c r="CO17" s="31"/>
+      <c r="CP17" s="31"/>
+      <c r="CQ17" s="31"/>
+      <c r="CR17" s="31"/>
+      <c r="CS17" s="31"/>
+      <c r="CT17" s="31"/>
+      <c r="CU17" s="31"/>
+      <c r="CV17" s="31"/>
+      <c r="CW17" s="31"/>
+      <c r="CX17" s="31"/>
+      <c r="CY17" s="31"/>
+      <c r="CZ17" s="31"/>
+      <c r="DA17" s="31"/>
+      <c r="DB17" s="31"/>
+      <c r="DC17" s="31"/>
+      <c r="DD17" s="31"/>
+      <c r="DE17" s="31"/>
+      <c r="DF17" s="31"/>
+      <c r="DG17" s="31"/>
+      <c r="DH17" s="31"/>
+      <c r="DI17" s="31"/>
+      <c r="DJ17" s="31"/>
+      <c r="DK17" s="31"/>
+      <c r="DL17" s="31"/>
+      <c r="DM17" s="31"/>
+      <c r="DN17" s="31"/>
+      <c r="DO17" s="31"/>
+      <c r="DP17" s="31"/>
+      <c r="DQ17" s="31"/>
+      <c r="DR17" s="31"/>
+      <c r="DS17" s="31"/>
+      <c r="DT17" s="31"/>
+      <c r="DU17" s="31"/>
+      <c r="DV17" s="31"/>
+      <c r="DW17" s="31"/>
+      <c r="DX17" s="31"/>
+      <c r="DY17" s="31"/>
+      <c r="DZ17" s="31"/>
+      <c r="EA17" s="31"/>
+      <c r="EB17" s="31"/>
+      <c r="EC17" s="31"/>
+      <c r="ED17" s="31"/>
+      <c r="EE17" s="31"/>
+      <c r="EF17" s="31"/>
+      <c r="EG17" s="31"/>
+      <c r="EH17" s="31"/>
+      <c r="EI17" s="31"/>
+      <c r="EJ17" s="31"/>
+      <c r="EK17" s="31"/>
+      <c r="EL17" s="31"/>
+      <c r="EM17" s="31"/>
+      <c r="EN17" s="31"/>
+      <c r="EO17" s="31"/>
+      <c r="EP17" s="31"/>
+      <c r="EQ17" s="31"/>
+      <c r="ER17" s="31"/>
+      <c r="ES17" s="31"/>
+      <c r="ET17" s="31"/>
+      <c r="EU17" s="31"/>
+      <c r="EV17" s="31"/>
+      <c r="EW17" s="31"/>
+      <c r="EX17" s="31"/>
+      <c r="EY17" s="31"/>
+      <c r="EZ17" s="31"/>
+      <c r="FA17" s="31"/>
+      <c r="FB17" s="31"/>
+      <c r="FC17" s="31"/>
+      <c r="FD17" s="31"/>
+      <c r="FE17" s="31"/>
+      <c r="FF17" s="31"/>
+      <c r="FG17" s="31"/>
+      <c r="FH17" s="31"/>
+      <c r="FI17" s="31"/>
+      <c r="FJ17" s="31"/>
+      <c r="FK17" s="31"/>
+      <c r="FL17" s="31"/>
+      <c r="FM17" s="31"/>
+      <c r="FN17" s="31"/>
+      <c r="FO17" s="31"/>
+      <c r="FP17" s="31"/>
+      <c r="FQ17" s="31"/>
+      <c r="FR17" s="31"/>
+      <c r="FS17" s="31"/>
+      <c r="FT17" s="31"/>
+      <c r="FU17" s="31"/>
+      <c r="FV17" s="31"/>
+      <c r="FW17" s="31"/>
+      <c r="FX17" s="31"/>
+      <c r="FY17" s="31"/>
+      <c r="FZ17" s="31"/>
+      <c r="GA17" s="31"/>
+      <c r="GB17" s="31"/>
+      <c r="GC17" s="31"/>
+      <c r="GD17" s="31"/>
+      <c r="GE17" s="31"/>
+      <c r="GF17" s="31"/>
+      <c r="GG17" s="31"/>
+      <c r="GH17" s="31"/>
+      <c r="GI17" s="31"/>
+      <c r="GJ17" s="31"/>
+      <c r="GK17" s="31"/>
+      <c r="GL17" s="31"/>
+      <c r="GM17" s="31"/>
+      <c r="GN17" s="31"/>
+      <c r="GO17" s="31"/>
+      <c r="GP17" s="31"/>
+      <c r="GQ17" s="31"/>
+      <c r="GR17" s="31"/>
+      <c r="GS17" s="31"/>
+      <c r="GT17" s="31"/>
+      <c r="GU17" s="31"/>
+      <c r="GV17" s="31"/>
+      <c r="GW17" s="31"/>
+      <c r="GX17" s="31"/>
+      <c r="GY17" s="31"/>
+      <c r="GZ17" s="31"/>
+      <c r="HA17" s="31"/>
+      <c r="HB17" s="31"/>
+      <c r="HC17" s="31"/>
+      <c r="HD17" s="31"/>
+      <c r="HE17" s="31"/>
+      <c r="HF17" s="31"/>
+      <c r="HG17" s="31"/>
+      <c r="HH17" s="31"/>
+      <c r="HI17" s="31"/>
+      <c r="HJ17" s="31"/>
+      <c r="HK17" s="31"/>
+      <c r="HL17" s="31"/>
+      <c r="HM17" s="31"/>
+      <c r="HN17" s="31"/>
+      <c r="HO17" s="31"/>
+      <c r="HP17" s="31"/>
+      <c r="HQ17" s="31"/>
+      <c r="HR17" s="31"/>
+      <c r="HS17" s="31"/>
+      <c r="HT17" s="31"/>
+      <c r="HU17" s="31"/>
     </row>
     <row r="18" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -6220,162 +6081,162 @@
       <c r="G18" s="7">
         <v>0</v>
       </c>
-      <c r="H18" s="44"/>
-      <c r="BQ18" s="45"/>
-      <c r="BS18" s="45"/>
-      <c r="BU18" s="45"/>
-      <c r="BW18" s="45"/>
-      <c r="BY18" s="45"/>
-      <c r="CA18" s="45"/>
-      <c r="CC18" s="45"/>
-      <c r="CE18" s="45"/>
-      <c r="CG18" s="45"/>
-      <c r="CI18" s="45"/>
-      <c r="CK18" s="45"/>
-      <c r="CL18" s="45"/>
-      <c r="CM18" s="45"/>
-      <c r="CN18" s="45"/>
-      <c r="CO18" s="45"/>
-      <c r="CP18" s="45"/>
-      <c r="CQ18" s="45"/>
-      <c r="CR18" s="45"/>
-      <c r="CS18" s="45"/>
-      <c r="CT18" s="45"/>
-      <c r="CU18" s="45"/>
-      <c r="CV18" s="45"/>
-      <c r="CW18" s="45"/>
-      <c r="CX18" s="45"/>
-      <c r="CY18" s="45"/>
-      <c r="CZ18" s="45"/>
-      <c r="DA18" s="45"/>
-      <c r="DB18" s="45"/>
-      <c r="DC18" s="45"/>
-      <c r="DD18" s="45"/>
-      <c r="DE18" s="45"/>
-      <c r="DF18" s="45"/>
-      <c r="DG18" s="45"/>
-      <c r="DH18" s="45"/>
-      <c r="DI18" s="45"/>
-      <c r="DJ18" s="45"/>
-      <c r="DK18" s="45"/>
-      <c r="DL18" s="45"/>
-      <c r="DM18" s="45"/>
-      <c r="DN18" s="45"/>
-      <c r="DO18" s="45"/>
-      <c r="DP18" s="45"/>
-      <c r="DQ18" s="45"/>
-      <c r="DR18" s="45"/>
-      <c r="DS18" s="45"/>
-      <c r="DT18" s="45"/>
-      <c r="DU18" s="45"/>
-      <c r="DV18" s="45"/>
-      <c r="DW18" s="45"/>
-      <c r="DX18" s="45"/>
-      <c r="DY18" s="45"/>
-      <c r="DZ18" s="45"/>
-      <c r="EA18" s="45"/>
-      <c r="EB18" s="45"/>
-      <c r="EC18" s="45"/>
-      <c r="ED18" s="45"/>
-      <c r="EE18" s="45"/>
-      <c r="EF18" s="45"/>
-      <c r="EG18" s="45"/>
-      <c r="EH18" s="45"/>
-      <c r="EI18" s="45"/>
-      <c r="EJ18" s="45"/>
-      <c r="EK18" s="45"/>
-      <c r="EL18" s="45"/>
-      <c r="EM18" s="45"/>
-      <c r="EN18" s="45"/>
-      <c r="EO18" s="45"/>
-      <c r="EP18" s="45"/>
-      <c r="EQ18" s="45"/>
-      <c r="ER18" s="45"/>
-      <c r="ES18" s="45"/>
-      <c r="ET18" s="45"/>
-      <c r="EU18" s="45"/>
-      <c r="EV18" s="45"/>
-      <c r="EW18" s="45"/>
-      <c r="EX18" s="45"/>
-      <c r="EY18" s="45"/>
-      <c r="EZ18" s="45"/>
-      <c r="FA18" s="45"/>
-      <c r="FB18" s="45"/>
-      <c r="FC18" s="45"/>
-      <c r="FD18" s="45"/>
-      <c r="FE18" s="45"/>
-      <c r="FF18" s="45"/>
-      <c r="FG18" s="45"/>
-      <c r="FH18" s="45"/>
-      <c r="FI18" s="45"/>
-      <c r="FJ18" s="45"/>
-      <c r="FK18" s="45"/>
-      <c r="FL18" s="45"/>
-      <c r="FM18" s="45"/>
-      <c r="FN18" s="45"/>
-      <c r="FO18" s="45"/>
-      <c r="FP18" s="45"/>
-      <c r="FQ18" s="45"/>
-      <c r="FR18" s="45"/>
-      <c r="FS18" s="45"/>
-      <c r="FT18" s="45"/>
-      <c r="FU18" s="45"/>
-      <c r="FV18" s="45"/>
-      <c r="FW18" s="45"/>
-      <c r="FX18" s="45"/>
-      <c r="FY18" s="45"/>
-      <c r="FZ18" s="45"/>
-      <c r="GA18" s="45"/>
-      <c r="GB18" s="45"/>
-      <c r="GC18" s="45"/>
-      <c r="GD18" s="45"/>
-      <c r="GE18" s="45"/>
-      <c r="GF18" s="45"/>
-      <c r="GG18" s="45"/>
-      <c r="GH18" s="45"/>
-      <c r="GI18" s="45"/>
-      <c r="GJ18" s="45"/>
-      <c r="GK18" s="45"/>
-      <c r="GL18" s="45"/>
-      <c r="GM18" s="45"/>
-      <c r="GN18" s="45"/>
-      <c r="GO18" s="45"/>
-      <c r="GP18" s="45"/>
-      <c r="GQ18" s="45"/>
-      <c r="GR18" s="45"/>
-      <c r="GS18" s="45"/>
-      <c r="GT18" s="45"/>
-      <c r="GU18" s="45"/>
-      <c r="GV18" s="45"/>
-      <c r="GW18" s="45"/>
-      <c r="GX18" s="45"/>
-      <c r="GY18" s="45"/>
-      <c r="GZ18" s="45"/>
-      <c r="HA18" s="45"/>
-      <c r="HB18" s="45"/>
-      <c r="HC18" s="45"/>
-      <c r="HD18" s="45"/>
-      <c r="HE18" s="45"/>
-      <c r="HF18" s="45"/>
-      <c r="HG18" s="45"/>
-      <c r="HH18" s="45"/>
-      <c r="HI18" s="45"/>
-      <c r="HJ18" s="45"/>
-      <c r="HK18" s="45"/>
-      <c r="HL18" s="45"/>
-      <c r="HM18" s="45"/>
-      <c r="HN18" s="45"/>
-      <c r="HO18" s="45"/>
-      <c r="HP18" s="45"/>
-      <c r="HQ18" s="45"/>
-      <c r="HR18" s="45"/>
-      <c r="HS18" s="45"/>
-      <c r="HT18" s="45"/>
-      <c r="HU18" s="45"/>
+      <c r="H18" s="30"/>
+      <c r="BQ18" s="31"/>
+      <c r="BS18" s="31"/>
+      <c r="BU18" s="31"/>
+      <c r="BW18" s="31"/>
+      <c r="BY18" s="31"/>
+      <c r="CA18" s="31"/>
+      <c r="CC18" s="31"/>
+      <c r="CE18" s="31"/>
+      <c r="CG18" s="31"/>
+      <c r="CI18" s="31"/>
+      <c r="CK18" s="31"/>
+      <c r="CL18" s="31"/>
+      <c r="CM18" s="31"/>
+      <c r="CN18" s="31"/>
+      <c r="CO18" s="31"/>
+      <c r="CP18" s="31"/>
+      <c r="CQ18" s="31"/>
+      <c r="CR18" s="31"/>
+      <c r="CS18" s="31"/>
+      <c r="CT18" s="31"/>
+      <c r="CU18" s="31"/>
+      <c r="CV18" s="31"/>
+      <c r="CW18" s="31"/>
+      <c r="CX18" s="31"/>
+      <c r="CY18" s="31"/>
+      <c r="CZ18" s="31"/>
+      <c r="DA18" s="31"/>
+      <c r="DB18" s="31"/>
+      <c r="DC18" s="31"/>
+      <c r="DD18" s="31"/>
+      <c r="DE18" s="31"/>
+      <c r="DF18" s="31"/>
+      <c r="DG18" s="31"/>
+      <c r="DH18" s="31"/>
+      <c r="DI18" s="31"/>
+      <c r="DJ18" s="31"/>
+      <c r="DK18" s="31"/>
+      <c r="DL18" s="31"/>
+      <c r="DM18" s="31"/>
+      <c r="DN18" s="31"/>
+      <c r="DO18" s="31"/>
+      <c r="DP18" s="31"/>
+      <c r="DQ18" s="31"/>
+      <c r="DR18" s="31"/>
+      <c r="DS18" s="31"/>
+      <c r="DT18" s="31"/>
+      <c r="DU18" s="31"/>
+      <c r="DV18" s="31"/>
+      <c r="DW18" s="31"/>
+      <c r="DX18" s="31"/>
+      <c r="DY18" s="31"/>
+      <c r="DZ18" s="31"/>
+      <c r="EA18" s="31"/>
+      <c r="EB18" s="31"/>
+      <c r="EC18" s="31"/>
+      <c r="ED18" s="31"/>
+      <c r="EE18" s="31"/>
+      <c r="EF18" s="31"/>
+      <c r="EG18" s="31"/>
+      <c r="EH18" s="31"/>
+      <c r="EI18" s="31"/>
+      <c r="EJ18" s="31"/>
+      <c r="EK18" s="31"/>
+      <c r="EL18" s="31"/>
+      <c r="EM18" s="31"/>
+      <c r="EN18" s="31"/>
+      <c r="EO18" s="31"/>
+      <c r="EP18" s="31"/>
+      <c r="EQ18" s="31"/>
+      <c r="ER18" s="31"/>
+      <c r="ES18" s="31"/>
+      <c r="ET18" s="31"/>
+      <c r="EU18" s="31"/>
+      <c r="EV18" s="31"/>
+      <c r="EW18" s="31"/>
+      <c r="EX18" s="31"/>
+      <c r="EY18" s="31"/>
+      <c r="EZ18" s="31"/>
+      <c r="FA18" s="31"/>
+      <c r="FB18" s="31"/>
+      <c r="FC18" s="31"/>
+      <c r="FD18" s="31"/>
+      <c r="FE18" s="31"/>
+      <c r="FF18" s="31"/>
+      <c r="FG18" s="31"/>
+      <c r="FH18" s="31"/>
+      <c r="FI18" s="31"/>
+      <c r="FJ18" s="31"/>
+      <c r="FK18" s="31"/>
+      <c r="FL18" s="31"/>
+      <c r="FM18" s="31"/>
+      <c r="FN18" s="31"/>
+      <c r="FO18" s="31"/>
+      <c r="FP18" s="31"/>
+      <c r="FQ18" s="31"/>
+      <c r="FR18" s="31"/>
+      <c r="FS18" s="31"/>
+      <c r="FT18" s="31"/>
+      <c r="FU18" s="31"/>
+      <c r="FV18" s="31"/>
+      <c r="FW18" s="31"/>
+      <c r="FX18" s="31"/>
+      <c r="FY18" s="31"/>
+      <c r="FZ18" s="31"/>
+      <c r="GA18" s="31"/>
+      <c r="GB18" s="31"/>
+      <c r="GC18" s="31"/>
+      <c r="GD18" s="31"/>
+      <c r="GE18" s="31"/>
+      <c r="GF18" s="31"/>
+      <c r="GG18" s="31"/>
+      <c r="GH18" s="31"/>
+      <c r="GI18" s="31"/>
+      <c r="GJ18" s="31"/>
+      <c r="GK18" s="31"/>
+      <c r="GL18" s="31"/>
+      <c r="GM18" s="31"/>
+      <c r="GN18" s="31"/>
+      <c r="GO18" s="31"/>
+      <c r="GP18" s="31"/>
+      <c r="GQ18" s="31"/>
+      <c r="GR18" s="31"/>
+      <c r="GS18" s="31"/>
+      <c r="GT18" s="31"/>
+      <c r="GU18" s="31"/>
+      <c r="GV18" s="31"/>
+      <c r="GW18" s="31"/>
+      <c r="GX18" s="31"/>
+      <c r="GY18" s="31"/>
+      <c r="GZ18" s="31"/>
+      <c r="HA18" s="31"/>
+      <c r="HB18" s="31"/>
+      <c r="HC18" s="31"/>
+      <c r="HD18" s="31"/>
+      <c r="HE18" s="31"/>
+      <c r="HF18" s="31"/>
+      <c r="HG18" s="31"/>
+      <c r="HH18" s="31"/>
+      <c r="HI18" s="31"/>
+      <c r="HJ18" s="31"/>
+      <c r="HK18" s="31"/>
+      <c r="HL18" s="31"/>
+      <c r="HM18" s="31"/>
+      <c r="HN18" s="31"/>
+      <c r="HO18" s="31"/>
+      <c r="HP18" s="31"/>
+      <c r="HQ18" s="31"/>
+      <c r="HR18" s="31"/>
+      <c r="HS18" s="31"/>
+      <c r="HT18" s="31"/>
+      <c r="HU18" s="31"/>
     </row>
     <row r="19" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -6392,162 +6253,162 @@
       <c r="G19" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="44"/>
-      <c r="BQ19" s="45"/>
-      <c r="BS19" s="45"/>
-      <c r="BU19" s="45"/>
-      <c r="BW19" s="45"/>
-      <c r="BY19" s="45"/>
-      <c r="CA19" s="45"/>
-      <c r="CC19" s="45"/>
-      <c r="CE19" s="45"/>
-      <c r="CG19" s="45"/>
-      <c r="CI19" s="45"/>
-      <c r="CK19" s="45"/>
-      <c r="CL19" s="45"/>
-      <c r="CM19" s="45"/>
-      <c r="CN19" s="45"/>
-      <c r="CO19" s="45"/>
-      <c r="CP19" s="45"/>
-      <c r="CQ19" s="45"/>
-      <c r="CR19" s="45"/>
-      <c r="CS19" s="45"/>
-      <c r="CT19" s="45"/>
-      <c r="CU19" s="45"/>
-      <c r="CV19" s="45"/>
-      <c r="CW19" s="45"/>
-      <c r="CX19" s="45"/>
-      <c r="CY19" s="45"/>
-      <c r="CZ19" s="45"/>
-      <c r="DA19" s="45"/>
-      <c r="DB19" s="45"/>
-      <c r="DC19" s="45"/>
-      <c r="DD19" s="45"/>
-      <c r="DE19" s="45"/>
-      <c r="DF19" s="45"/>
-      <c r="DG19" s="45"/>
-      <c r="DH19" s="45"/>
-      <c r="DI19" s="45"/>
-      <c r="DJ19" s="45"/>
-      <c r="DK19" s="45"/>
-      <c r="DL19" s="45"/>
-      <c r="DM19" s="45"/>
-      <c r="DN19" s="45"/>
-      <c r="DO19" s="45"/>
-      <c r="DP19" s="45"/>
-      <c r="DQ19" s="45"/>
-      <c r="DR19" s="45"/>
-      <c r="DS19" s="45"/>
-      <c r="DT19" s="45"/>
-      <c r="DU19" s="45"/>
-      <c r="DV19" s="45"/>
-      <c r="DW19" s="45"/>
-      <c r="DX19" s="45"/>
-      <c r="DY19" s="45"/>
-      <c r="DZ19" s="45"/>
-      <c r="EA19" s="45"/>
-      <c r="EB19" s="45"/>
-      <c r="EC19" s="45"/>
-      <c r="ED19" s="45"/>
-      <c r="EE19" s="45"/>
-      <c r="EF19" s="45"/>
-      <c r="EG19" s="45"/>
-      <c r="EH19" s="45"/>
-      <c r="EI19" s="45"/>
-      <c r="EJ19" s="45"/>
-      <c r="EK19" s="45"/>
-      <c r="EL19" s="45"/>
-      <c r="EM19" s="45"/>
-      <c r="EN19" s="45"/>
-      <c r="EO19" s="45"/>
-      <c r="EP19" s="45"/>
-      <c r="EQ19" s="45"/>
-      <c r="ER19" s="45"/>
-      <c r="ES19" s="45"/>
-      <c r="ET19" s="45"/>
-      <c r="EU19" s="45"/>
-      <c r="EV19" s="45"/>
-      <c r="EW19" s="45"/>
-      <c r="EX19" s="45"/>
-      <c r="EY19" s="45"/>
-      <c r="EZ19" s="45"/>
-      <c r="FA19" s="45"/>
-      <c r="FB19" s="45"/>
-      <c r="FC19" s="45"/>
-      <c r="FD19" s="45"/>
-      <c r="FE19" s="45"/>
-      <c r="FF19" s="45"/>
-      <c r="FG19" s="45"/>
-      <c r="FH19" s="45"/>
-      <c r="FI19" s="45"/>
-      <c r="FJ19" s="45"/>
-      <c r="FK19" s="45"/>
-      <c r="FL19" s="45"/>
-      <c r="FM19" s="45"/>
-      <c r="FN19" s="45"/>
-      <c r="FO19" s="45"/>
-      <c r="FP19" s="45"/>
-      <c r="FQ19" s="45"/>
-      <c r="FR19" s="45"/>
-      <c r="FS19" s="45"/>
-      <c r="FT19" s="45"/>
-      <c r="FU19" s="45"/>
-      <c r="FV19" s="45"/>
-      <c r="FW19" s="45"/>
-      <c r="FX19" s="45"/>
-      <c r="FY19" s="45"/>
-      <c r="FZ19" s="45"/>
-      <c r="GA19" s="45"/>
-      <c r="GB19" s="45"/>
-      <c r="GC19" s="45"/>
-      <c r="GD19" s="45"/>
-      <c r="GE19" s="45"/>
-      <c r="GF19" s="45"/>
-      <c r="GG19" s="45"/>
-      <c r="GH19" s="45"/>
-      <c r="GI19" s="45"/>
-      <c r="GJ19" s="45"/>
-      <c r="GK19" s="45"/>
-      <c r="GL19" s="45"/>
-      <c r="GM19" s="45"/>
-      <c r="GN19" s="45"/>
-      <c r="GO19" s="45"/>
-      <c r="GP19" s="45"/>
-      <c r="GQ19" s="45"/>
-      <c r="GR19" s="45"/>
-      <c r="GS19" s="45"/>
-      <c r="GT19" s="45"/>
-      <c r="GU19" s="45"/>
-      <c r="GV19" s="45"/>
-      <c r="GW19" s="45"/>
-      <c r="GX19" s="45"/>
-      <c r="GY19" s="45"/>
-      <c r="GZ19" s="45"/>
-      <c r="HA19" s="45"/>
-      <c r="HB19" s="45"/>
-      <c r="HC19" s="45"/>
-      <c r="HD19" s="45"/>
-      <c r="HE19" s="45"/>
-      <c r="HF19" s="45"/>
-      <c r="HG19" s="45"/>
-      <c r="HH19" s="45"/>
-      <c r="HI19" s="45"/>
-      <c r="HJ19" s="45"/>
-      <c r="HK19" s="45"/>
-      <c r="HL19" s="45"/>
-      <c r="HM19" s="45"/>
-      <c r="HN19" s="45"/>
-      <c r="HO19" s="45"/>
-      <c r="HP19" s="45"/>
-      <c r="HQ19" s="45"/>
-      <c r="HR19" s="45"/>
-      <c r="HS19" s="45"/>
-      <c r="HT19" s="45"/>
-      <c r="HU19" s="45"/>
+      <c r="H19" s="30"/>
+      <c r="BQ19" s="31"/>
+      <c r="BS19" s="31"/>
+      <c r="BU19" s="31"/>
+      <c r="BW19" s="31"/>
+      <c r="BY19" s="31"/>
+      <c r="CA19" s="31"/>
+      <c r="CC19" s="31"/>
+      <c r="CE19" s="31"/>
+      <c r="CG19" s="31"/>
+      <c r="CI19" s="31"/>
+      <c r="CK19" s="31"/>
+      <c r="CL19" s="31"/>
+      <c r="CM19" s="31"/>
+      <c r="CN19" s="31"/>
+      <c r="CO19" s="31"/>
+      <c r="CP19" s="31"/>
+      <c r="CQ19" s="31"/>
+      <c r="CR19" s="31"/>
+      <c r="CS19" s="31"/>
+      <c r="CT19" s="31"/>
+      <c r="CU19" s="31"/>
+      <c r="CV19" s="31"/>
+      <c r="CW19" s="31"/>
+      <c r="CX19" s="31"/>
+      <c r="CY19" s="31"/>
+      <c r="CZ19" s="31"/>
+      <c r="DA19" s="31"/>
+      <c r="DB19" s="31"/>
+      <c r="DC19" s="31"/>
+      <c r="DD19" s="31"/>
+      <c r="DE19" s="31"/>
+      <c r="DF19" s="31"/>
+      <c r="DG19" s="31"/>
+      <c r="DH19" s="31"/>
+      <c r="DI19" s="31"/>
+      <c r="DJ19" s="31"/>
+      <c r="DK19" s="31"/>
+      <c r="DL19" s="31"/>
+      <c r="DM19" s="31"/>
+      <c r="DN19" s="31"/>
+      <c r="DO19" s="31"/>
+      <c r="DP19" s="31"/>
+      <c r="DQ19" s="31"/>
+      <c r="DR19" s="31"/>
+      <c r="DS19" s="31"/>
+      <c r="DT19" s="31"/>
+      <c r="DU19" s="31"/>
+      <c r="DV19" s="31"/>
+      <c r="DW19" s="31"/>
+      <c r="DX19" s="31"/>
+      <c r="DY19" s="31"/>
+      <c r="DZ19" s="31"/>
+      <c r="EA19" s="31"/>
+      <c r="EB19" s="31"/>
+      <c r="EC19" s="31"/>
+      <c r="ED19" s="31"/>
+      <c r="EE19" s="31"/>
+      <c r="EF19" s="31"/>
+      <c r="EG19" s="31"/>
+      <c r="EH19" s="31"/>
+      <c r="EI19" s="31"/>
+      <c r="EJ19" s="31"/>
+      <c r="EK19" s="31"/>
+      <c r="EL19" s="31"/>
+      <c r="EM19" s="31"/>
+      <c r="EN19" s="31"/>
+      <c r="EO19" s="31"/>
+      <c r="EP19" s="31"/>
+      <c r="EQ19" s="31"/>
+      <c r="ER19" s="31"/>
+      <c r="ES19" s="31"/>
+      <c r="ET19" s="31"/>
+      <c r="EU19" s="31"/>
+      <c r="EV19" s="31"/>
+      <c r="EW19" s="31"/>
+      <c r="EX19" s="31"/>
+      <c r="EY19" s="31"/>
+      <c r="EZ19" s="31"/>
+      <c r="FA19" s="31"/>
+      <c r="FB19" s="31"/>
+      <c r="FC19" s="31"/>
+      <c r="FD19" s="31"/>
+      <c r="FE19" s="31"/>
+      <c r="FF19" s="31"/>
+      <c r="FG19" s="31"/>
+      <c r="FH19" s="31"/>
+      <c r="FI19" s="31"/>
+      <c r="FJ19" s="31"/>
+      <c r="FK19" s="31"/>
+      <c r="FL19" s="31"/>
+      <c r="FM19" s="31"/>
+      <c r="FN19" s="31"/>
+      <c r="FO19" s="31"/>
+      <c r="FP19" s="31"/>
+      <c r="FQ19" s="31"/>
+      <c r="FR19" s="31"/>
+      <c r="FS19" s="31"/>
+      <c r="FT19" s="31"/>
+      <c r="FU19" s="31"/>
+      <c r="FV19" s="31"/>
+      <c r="FW19" s="31"/>
+      <c r="FX19" s="31"/>
+      <c r="FY19" s="31"/>
+      <c r="FZ19" s="31"/>
+      <c r="GA19" s="31"/>
+      <c r="GB19" s="31"/>
+      <c r="GC19" s="31"/>
+      <c r="GD19" s="31"/>
+      <c r="GE19" s="31"/>
+      <c r="GF19" s="31"/>
+      <c r="GG19" s="31"/>
+      <c r="GH19" s="31"/>
+      <c r="GI19" s="31"/>
+      <c r="GJ19" s="31"/>
+      <c r="GK19" s="31"/>
+      <c r="GL19" s="31"/>
+      <c r="GM19" s="31"/>
+      <c r="GN19" s="31"/>
+      <c r="GO19" s="31"/>
+      <c r="GP19" s="31"/>
+      <c r="GQ19" s="31"/>
+      <c r="GR19" s="31"/>
+      <c r="GS19" s="31"/>
+      <c r="GT19" s="31"/>
+      <c r="GU19" s="31"/>
+      <c r="GV19" s="31"/>
+      <c r="GW19" s="31"/>
+      <c r="GX19" s="31"/>
+      <c r="GY19" s="31"/>
+      <c r="GZ19" s="31"/>
+      <c r="HA19" s="31"/>
+      <c r="HB19" s="31"/>
+      <c r="HC19" s="31"/>
+      <c r="HD19" s="31"/>
+      <c r="HE19" s="31"/>
+      <c r="HF19" s="31"/>
+      <c r="HG19" s="31"/>
+      <c r="HH19" s="31"/>
+      <c r="HI19" s="31"/>
+      <c r="HJ19" s="31"/>
+      <c r="HK19" s="31"/>
+      <c r="HL19" s="31"/>
+      <c r="HM19" s="31"/>
+      <c r="HN19" s="31"/>
+      <c r="HO19" s="31"/>
+      <c r="HP19" s="31"/>
+      <c r="HQ19" s="31"/>
+      <c r="HR19" s="31"/>
+      <c r="HS19" s="31"/>
+      <c r="HT19" s="31"/>
+      <c r="HU19" s="31"/>
     </row>
     <row r="20" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -6564,162 +6425,162 @@
       <c r="G20" s="7">
         <v>0</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="BQ20" s="45"/>
-      <c r="BS20" s="45"/>
-      <c r="BU20" s="45"/>
-      <c r="BW20" s="45"/>
-      <c r="BY20" s="45"/>
-      <c r="CA20" s="45"/>
-      <c r="CC20" s="45"/>
-      <c r="CE20" s="45"/>
-      <c r="CG20" s="45"/>
-      <c r="CI20" s="45"/>
-      <c r="CK20" s="45"/>
-      <c r="CL20" s="45"/>
-      <c r="CM20" s="45"/>
-      <c r="CN20" s="45"/>
-      <c r="CO20" s="45"/>
-      <c r="CP20" s="45"/>
-      <c r="CQ20" s="45"/>
-      <c r="CR20" s="45"/>
-      <c r="CS20" s="45"/>
-      <c r="CT20" s="45"/>
-      <c r="CU20" s="45"/>
-      <c r="CV20" s="45"/>
-      <c r="CW20" s="45"/>
-      <c r="CX20" s="45"/>
-      <c r="CY20" s="45"/>
-      <c r="CZ20" s="45"/>
-      <c r="DA20" s="45"/>
-      <c r="DB20" s="45"/>
-      <c r="DC20" s="45"/>
-      <c r="DD20" s="45"/>
-      <c r="DE20" s="45"/>
-      <c r="DF20" s="45"/>
-      <c r="DG20" s="45"/>
-      <c r="DH20" s="45"/>
-      <c r="DI20" s="45"/>
-      <c r="DJ20" s="45"/>
-      <c r="DK20" s="45"/>
-      <c r="DL20" s="45"/>
-      <c r="DM20" s="45"/>
-      <c r="DN20" s="45"/>
-      <c r="DO20" s="45"/>
-      <c r="DP20" s="45"/>
-      <c r="DQ20" s="45"/>
-      <c r="DR20" s="45"/>
-      <c r="DS20" s="45"/>
-      <c r="DT20" s="45"/>
-      <c r="DU20" s="45"/>
-      <c r="DV20" s="45"/>
-      <c r="DW20" s="45"/>
-      <c r="DX20" s="45"/>
-      <c r="DY20" s="45"/>
-      <c r="DZ20" s="45"/>
-      <c r="EA20" s="45"/>
-      <c r="EB20" s="45"/>
-      <c r="EC20" s="45"/>
-      <c r="ED20" s="45"/>
-      <c r="EE20" s="45"/>
-      <c r="EF20" s="45"/>
-      <c r="EG20" s="45"/>
-      <c r="EH20" s="45"/>
-      <c r="EI20" s="45"/>
-      <c r="EJ20" s="45"/>
-      <c r="EK20" s="45"/>
-      <c r="EL20" s="45"/>
-      <c r="EM20" s="45"/>
-      <c r="EN20" s="45"/>
-      <c r="EO20" s="45"/>
-      <c r="EP20" s="45"/>
-      <c r="EQ20" s="45"/>
-      <c r="ER20" s="45"/>
-      <c r="ES20" s="45"/>
-      <c r="ET20" s="45"/>
-      <c r="EU20" s="45"/>
-      <c r="EV20" s="45"/>
-      <c r="EW20" s="45"/>
-      <c r="EX20" s="45"/>
-      <c r="EY20" s="45"/>
-      <c r="EZ20" s="45"/>
-      <c r="FA20" s="45"/>
-      <c r="FB20" s="45"/>
-      <c r="FC20" s="45"/>
-      <c r="FD20" s="45"/>
-      <c r="FE20" s="45"/>
-      <c r="FF20" s="45"/>
-      <c r="FG20" s="45"/>
-      <c r="FH20" s="45"/>
-      <c r="FI20" s="45"/>
-      <c r="FJ20" s="45"/>
-      <c r="FK20" s="45"/>
-      <c r="FL20" s="45"/>
-      <c r="FM20" s="45"/>
-      <c r="FN20" s="45"/>
-      <c r="FO20" s="45"/>
-      <c r="FP20" s="45"/>
-      <c r="FQ20" s="45"/>
-      <c r="FR20" s="45"/>
-      <c r="FS20" s="45"/>
-      <c r="FT20" s="45"/>
-      <c r="FU20" s="45"/>
-      <c r="FV20" s="45"/>
-      <c r="FW20" s="45"/>
-      <c r="FX20" s="45"/>
-      <c r="FY20" s="45"/>
-      <c r="FZ20" s="45"/>
-      <c r="GA20" s="45"/>
-      <c r="GB20" s="45"/>
-      <c r="GC20" s="45"/>
-      <c r="GD20" s="45"/>
-      <c r="GE20" s="45"/>
-      <c r="GF20" s="45"/>
-      <c r="GG20" s="45"/>
-      <c r="GH20" s="45"/>
-      <c r="GI20" s="45"/>
-      <c r="GJ20" s="45"/>
-      <c r="GK20" s="45"/>
-      <c r="GL20" s="45"/>
-      <c r="GM20" s="45"/>
-      <c r="GN20" s="45"/>
-      <c r="GO20" s="45"/>
-      <c r="GP20" s="45"/>
-      <c r="GQ20" s="45"/>
-      <c r="GR20" s="45"/>
-      <c r="GS20" s="45"/>
-      <c r="GT20" s="45"/>
-      <c r="GU20" s="45"/>
-      <c r="GV20" s="45"/>
-      <c r="GW20" s="45"/>
-      <c r="GX20" s="45"/>
-      <c r="GY20" s="45"/>
-      <c r="GZ20" s="45"/>
-      <c r="HA20" s="45"/>
-      <c r="HB20" s="45"/>
-      <c r="HC20" s="45"/>
-      <c r="HD20" s="45"/>
-      <c r="HE20" s="45"/>
-      <c r="HF20" s="45"/>
-      <c r="HG20" s="45"/>
-      <c r="HH20" s="45"/>
-      <c r="HI20" s="45"/>
-      <c r="HJ20" s="45"/>
-      <c r="HK20" s="45"/>
-      <c r="HL20" s="45"/>
-      <c r="HM20" s="45"/>
-      <c r="HN20" s="45"/>
-      <c r="HO20" s="45"/>
-      <c r="HP20" s="45"/>
-      <c r="HQ20" s="45"/>
-      <c r="HR20" s="45"/>
-      <c r="HS20" s="45"/>
-      <c r="HT20" s="45"/>
-      <c r="HU20" s="45"/>
+      <c r="H20" s="30"/>
+      <c r="BQ20" s="31"/>
+      <c r="BS20" s="31"/>
+      <c r="BU20" s="31"/>
+      <c r="BW20" s="31"/>
+      <c r="BY20" s="31"/>
+      <c r="CA20" s="31"/>
+      <c r="CC20" s="31"/>
+      <c r="CE20" s="31"/>
+      <c r="CG20" s="31"/>
+      <c r="CI20" s="31"/>
+      <c r="CK20" s="31"/>
+      <c r="CL20" s="31"/>
+      <c r="CM20" s="31"/>
+      <c r="CN20" s="31"/>
+      <c r="CO20" s="31"/>
+      <c r="CP20" s="31"/>
+      <c r="CQ20" s="31"/>
+      <c r="CR20" s="31"/>
+      <c r="CS20" s="31"/>
+      <c r="CT20" s="31"/>
+      <c r="CU20" s="31"/>
+      <c r="CV20" s="31"/>
+      <c r="CW20" s="31"/>
+      <c r="CX20" s="31"/>
+      <c r="CY20" s="31"/>
+      <c r="CZ20" s="31"/>
+      <c r="DA20" s="31"/>
+      <c r="DB20" s="31"/>
+      <c r="DC20" s="31"/>
+      <c r="DD20" s="31"/>
+      <c r="DE20" s="31"/>
+      <c r="DF20" s="31"/>
+      <c r="DG20" s="31"/>
+      <c r="DH20" s="31"/>
+      <c r="DI20" s="31"/>
+      <c r="DJ20" s="31"/>
+      <c r="DK20" s="31"/>
+      <c r="DL20" s="31"/>
+      <c r="DM20" s="31"/>
+      <c r="DN20" s="31"/>
+      <c r="DO20" s="31"/>
+      <c r="DP20" s="31"/>
+      <c r="DQ20" s="31"/>
+      <c r="DR20" s="31"/>
+      <c r="DS20" s="31"/>
+      <c r="DT20" s="31"/>
+      <c r="DU20" s="31"/>
+      <c r="DV20" s="31"/>
+      <c r="DW20" s="31"/>
+      <c r="DX20" s="31"/>
+      <c r="DY20" s="31"/>
+      <c r="DZ20" s="31"/>
+      <c r="EA20" s="31"/>
+      <c r="EB20" s="31"/>
+      <c r="EC20" s="31"/>
+      <c r="ED20" s="31"/>
+      <c r="EE20" s="31"/>
+      <c r="EF20" s="31"/>
+      <c r="EG20" s="31"/>
+      <c r="EH20" s="31"/>
+      <c r="EI20" s="31"/>
+      <c r="EJ20" s="31"/>
+      <c r="EK20" s="31"/>
+      <c r="EL20" s="31"/>
+      <c r="EM20" s="31"/>
+      <c r="EN20" s="31"/>
+      <c r="EO20" s="31"/>
+      <c r="EP20" s="31"/>
+      <c r="EQ20" s="31"/>
+      <c r="ER20" s="31"/>
+      <c r="ES20" s="31"/>
+      <c r="ET20" s="31"/>
+      <c r="EU20" s="31"/>
+      <c r="EV20" s="31"/>
+      <c r="EW20" s="31"/>
+      <c r="EX20" s="31"/>
+      <c r="EY20" s="31"/>
+      <c r="EZ20" s="31"/>
+      <c r="FA20" s="31"/>
+      <c r="FB20" s="31"/>
+      <c r="FC20" s="31"/>
+      <c r="FD20" s="31"/>
+      <c r="FE20" s="31"/>
+      <c r="FF20" s="31"/>
+      <c r="FG20" s="31"/>
+      <c r="FH20" s="31"/>
+      <c r="FI20" s="31"/>
+      <c r="FJ20" s="31"/>
+      <c r="FK20" s="31"/>
+      <c r="FL20" s="31"/>
+      <c r="FM20" s="31"/>
+      <c r="FN20" s="31"/>
+      <c r="FO20" s="31"/>
+      <c r="FP20" s="31"/>
+      <c r="FQ20" s="31"/>
+      <c r="FR20" s="31"/>
+      <c r="FS20" s="31"/>
+      <c r="FT20" s="31"/>
+      <c r="FU20" s="31"/>
+      <c r="FV20" s="31"/>
+      <c r="FW20" s="31"/>
+      <c r="FX20" s="31"/>
+      <c r="FY20" s="31"/>
+      <c r="FZ20" s="31"/>
+      <c r="GA20" s="31"/>
+      <c r="GB20" s="31"/>
+      <c r="GC20" s="31"/>
+      <c r="GD20" s="31"/>
+      <c r="GE20" s="31"/>
+      <c r="GF20" s="31"/>
+      <c r="GG20" s="31"/>
+      <c r="GH20" s="31"/>
+      <c r="GI20" s="31"/>
+      <c r="GJ20" s="31"/>
+      <c r="GK20" s="31"/>
+      <c r="GL20" s="31"/>
+      <c r="GM20" s="31"/>
+      <c r="GN20" s="31"/>
+      <c r="GO20" s="31"/>
+      <c r="GP20" s="31"/>
+      <c r="GQ20" s="31"/>
+      <c r="GR20" s="31"/>
+      <c r="GS20" s="31"/>
+      <c r="GT20" s="31"/>
+      <c r="GU20" s="31"/>
+      <c r="GV20" s="31"/>
+      <c r="GW20" s="31"/>
+      <c r="GX20" s="31"/>
+      <c r="GY20" s="31"/>
+      <c r="GZ20" s="31"/>
+      <c r="HA20" s="31"/>
+      <c r="HB20" s="31"/>
+      <c r="HC20" s="31"/>
+      <c r="HD20" s="31"/>
+      <c r="HE20" s="31"/>
+      <c r="HF20" s="31"/>
+      <c r="HG20" s="31"/>
+      <c r="HH20" s="31"/>
+      <c r="HI20" s="31"/>
+      <c r="HJ20" s="31"/>
+      <c r="HK20" s="31"/>
+      <c r="HL20" s="31"/>
+      <c r="HM20" s="31"/>
+      <c r="HN20" s="31"/>
+      <c r="HO20" s="31"/>
+      <c r="HP20" s="31"/>
+      <c r="HQ20" s="31"/>
+      <c r="HR20" s="31"/>
+      <c r="HS20" s="31"/>
+      <c r="HT20" s="31"/>
+      <c r="HU20" s="31"/>
     </row>
     <row r="21" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -6736,162 +6597,162 @@
       <c r="G21" s="7">
         <v>0</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="BQ21" s="45"/>
-      <c r="BS21" s="45"/>
-      <c r="BU21" s="45"/>
-      <c r="BW21" s="45"/>
-      <c r="BY21" s="45"/>
-      <c r="CA21" s="45"/>
-      <c r="CC21" s="45"/>
-      <c r="CE21" s="45"/>
-      <c r="CG21" s="45"/>
-      <c r="CI21" s="45"/>
-      <c r="CK21" s="45"/>
-      <c r="CL21" s="45"/>
-      <c r="CM21" s="45"/>
-      <c r="CN21" s="45"/>
-      <c r="CO21" s="45"/>
-      <c r="CP21" s="45"/>
-      <c r="CQ21" s="45"/>
-      <c r="CR21" s="45"/>
-      <c r="CS21" s="45"/>
-      <c r="CT21" s="45"/>
-      <c r="CU21" s="45"/>
-      <c r="CV21" s="45"/>
-      <c r="CW21" s="45"/>
-      <c r="CX21" s="45"/>
-      <c r="CY21" s="45"/>
-      <c r="CZ21" s="45"/>
-      <c r="DA21" s="45"/>
-      <c r="DB21" s="45"/>
-      <c r="DC21" s="45"/>
-      <c r="DD21" s="45"/>
-      <c r="DE21" s="45"/>
-      <c r="DF21" s="45"/>
-      <c r="DG21" s="45"/>
-      <c r="DH21" s="45"/>
-      <c r="DI21" s="45"/>
-      <c r="DJ21" s="45"/>
-      <c r="DK21" s="45"/>
-      <c r="DL21" s="45"/>
-      <c r="DM21" s="45"/>
-      <c r="DN21" s="45"/>
-      <c r="DO21" s="45"/>
-      <c r="DP21" s="45"/>
-      <c r="DQ21" s="45"/>
-      <c r="DR21" s="45"/>
-      <c r="DS21" s="45"/>
-      <c r="DT21" s="45"/>
-      <c r="DU21" s="45"/>
-      <c r="DV21" s="45"/>
-      <c r="DW21" s="45"/>
-      <c r="DX21" s="45"/>
-      <c r="DY21" s="45"/>
-      <c r="DZ21" s="45"/>
-      <c r="EA21" s="45"/>
-      <c r="EB21" s="45"/>
-      <c r="EC21" s="45"/>
-      <c r="ED21" s="45"/>
-      <c r="EE21" s="45"/>
-      <c r="EF21" s="45"/>
-      <c r="EG21" s="45"/>
-      <c r="EH21" s="45"/>
-      <c r="EI21" s="45"/>
-      <c r="EJ21" s="45"/>
-      <c r="EK21" s="45"/>
-      <c r="EL21" s="45"/>
-      <c r="EM21" s="45"/>
-      <c r="EN21" s="45"/>
-      <c r="EO21" s="45"/>
-      <c r="EP21" s="45"/>
-      <c r="EQ21" s="45"/>
-      <c r="ER21" s="45"/>
-      <c r="ES21" s="45"/>
-      <c r="ET21" s="45"/>
-      <c r="EU21" s="45"/>
-      <c r="EV21" s="45"/>
-      <c r="EW21" s="45"/>
-      <c r="EX21" s="45"/>
-      <c r="EY21" s="45"/>
-      <c r="EZ21" s="45"/>
-      <c r="FA21" s="45"/>
-      <c r="FB21" s="45"/>
-      <c r="FC21" s="45"/>
-      <c r="FD21" s="45"/>
-      <c r="FE21" s="45"/>
-      <c r="FF21" s="45"/>
-      <c r="FG21" s="45"/>
-      <c r="FH21" s="45"/>
-      <c r="FI21" s="45"/>
-      <c r="FJ21" s="45"/>
-      <c r="FK21" s="45"/>
-      <c r="FL21" s="45"/>
-      <c r="FM21" s="45"/>
-      <c r="FN21" s="45"/>
-      <c r="FO21" s="45"/>
-      <c r="FP21" s="45"/>
-      <c r="FQ21" s="45"/>
-      <c r="FR21" s="45"/>
-      <c r="FS21" s="45"/>
-      <c r="FT21" s="45"/>
-      <c r="FU21" s="45"/>
-      <c r="FV21" s="45"/>
-      <c r="FW21" s="45"/>
-      <c r="FX21" s="45"/>
-      <c r="FY21" s="45"/>
-      <c r="FZ21" s="45"/>
-      <c r="GA21" s="45"/>
-      <c r="GB21" s="45"/>
-      <c r="GC21" s="45"/>
-      <c r="GD21" s="45"/>
-      <c r="GE21" s="45"/>
-      <c r="GF21" s="45"/>
-      <c r="GG21" s="45"/>
-      <c r="GH21" s="45"/>
-      <c r="GI21" s="45"/>
-      <c r="GJ21" s="45"/>
-      <c r="GK21" s="45"/>
-      <c r="GL21" s="45"/>
-      <c r="GM21" s="45"/>
-      <c r="GN21" s="45"/>
-      <c r="GO21" s="45"/>
-      <c r="GP21" s="45"/>
-      <c r="GQ21" s="45"/>
-      <c r="GR21" s="45"/>
-      <c r="GS21" s="45"/>
-      <c r="GT21" s="45"/>
-      <c r="GU21" s="45"/>
-      <c r="GV21" s="45"/>
-      <c r="GW21" s="45"/>
-      <c r="GX21" s="45"/>
-      <c r="GY21" s="45"/>
-      <c r="GZ21" s="45"/>
-      <c r="HA21" s="45"/>
-      <c r="HB21" s="45"/>
-      <c r="HC21" s="45"/>
-      <c r="HD21" s="45"/>
-      <c r="HE21" s="45"/>
-      <c r="HF21" s="45"/>
-      <c r="HG21" s="45"/>
-      <c r="HH21" s="45"/>
-      <c r="HI21" s="45"/>
-      <c r="HJ21" s="45"/>
-      <c r="HK21" s="45"/>
-      <c r="HL21" s="45"/>
-      <c r="HM21" s="45"/>
-      <c r="HN21" s="45"/>
-      <c r="HO21" s="45"/>
-      <c r="HP21" s="45"/>
-      <c r="HQ21" s="45"/>
-      <c r="HR21" s="45"/>
-      <c r="HS21" s="45"/>
-      <c r="HT21" s="45"/>
-      <c r="HU21" s="45"/>
+      <c r="H21" s="30"/>
+      <c r="BQ21" s="31"/>
+      <c r="BS21" s="31"/>
+      <c r="BU21" s="31"/>
+      <c r="BW21" s="31"/>
+      <c r="BY21" s="31"/>
+      <c r="CA21" s="31"/>
+      <c r="CC21" s="31"/>
+      <c r="CE21" s="31"/>
+      <c r="CG21" s="31"/>
+      <c r="CI21" s="31"/>
+      <c r="CK21" s="31"/>
+      <c r="CL21" s="31"/>
+      <c r="CM21" s="31"/>
+      <c r="CN21" s="31"/>
+      <c r="CO21" s="31"/>
+      <c r="CP21" s="31"/>
+      <c r="CQ21" s="31"/>
+      <c r="CR21" s="31"/>
+      <c r="CS21" s="31"/>
+      <c r="CT21" s="31"/>
+      <c r="CU21" s="31"/>
+      <c r="CV21" s="31"/>
+      <c r="CW21" s="31"/>
+      <c r="CX21" s="31"/>
+      <c r="CY21" s="31"/>
+      <c r="CZ21" s="31"/>
+      <c r="DA21" s="31"/>
+      <c r="DB21" s="31"/>
+      <c r="DC21" s="31"/>
+      <c r="DD21" s="31"/>
+      <c r="DE21" s="31"/>
+      <c r="DF21" s="31"/>
+      <c r="DG21" s="31"/>
+      <c r="DH21" s="31"/>
+      <c r="DI21" s="31"/>
+      <c r="DJ21" s="31"/>
+      <c r="DK21" s="31"/>
+      <c r="DL21" s="31"/>
+      <c r="DM21" s="31"/>
+      <c r="DN21" s="31"/>
+      <c r="DO21" s="31"/>
+      <c r="DP21" s="31"/>
+      <c r="DQ21" s="31"/>
+      <c r="DR21" s="31"/>
+      <c r="DS21" s="31"/>
+      <c r="DT21" s="31"/>
+      <c r="DU21" s="31"/>
+      <c r="DV21" s="31"/>
+      <c r="DW21" s="31"/>
+      <c r="DX21" s="31"/>
+      <c r="DY21" s="31"/>
+      <c r="DZ21" s="31"/>
+      <c r="EA21" s="31"/>
+      <c r="EB21" s="31"/>
+      <c r="EC21" s="31"/>
+      <c r="ED21" s="31"/>
+      <c r="EE21" s="31"/>
+      <c r="EF21" s="31"/>
+      <c r="EG21" s="31"/>
+      <c r="EH21" s="31"/>
+      <c r="EI21" s="31"/>
+      <c r="EJ21" s="31"/>
+      <c r="EK21" s="31"/>
+      <c r="EL21" s="31"/>
+      <c r="EM21" s="31"/>
+      <c r="EN21" s="31"/>
+      <c r="EO21" s="31"/>
+      <c r="EP21" s="31"/>
+      <c r="EQ21" s="31"/>
+      <c r="ER21" s="31"/>
+      <c r="ES21" s="31"/>
+      <c r="ET21" s="31"/>
+      <c r="EU21" s="31"/>
+      <c r="EV21" s="31"/>
+      <c r="EW21" s="31"/>
+      <c r="EX21" s="31"/>
+      <c r="EY21" s="31"/>
+      <c r="EZ21" s="31"/>
+      <c r="FA21" s="31"/>
+      <c r="FB21" s="31"/>
+      <c r="FC21" s="31"/>
+      <c r="FD21" s="31"/>
+      <c r="FE21" s="31"/>
+      <c r="FF21" s="31"/>
+      <c r="FG21" s="31"/>
+      <c r="FH21" s="31"/>
+      <c r="FI21" s="31"/>
+      <c r="FJ21" s="31"/>
+      <c r="FK21" s="31"/>
+      <c r="FL21" s="31"/>
+      <c r="FM21" s="31"/>
+      <c r="FN21" s="31"/>
+      <c r="FO21" s="31"/>
+      <c r="FP21" s="31"/>
+      <c r="FQ21" s="31"/>
+      <c r="FR21" s="31"/>
+      <c r="FS21" s="31"/>
+      <c r="FT21" s="31"/>
+      <c r="FU21" s="31"/>
+      <c r="FV21" s="31"/>
+      <c r="FW21" s="31"/>
+      <c r="FX21" s="31"/>
+      <c r="FY21" s="31"/>
+      <c r="FZ21" s="31"/>
+      <c r="GA21" s="31"/>
+      <c r="GB21" s="31"/>
+      <c r="GC21" s="31"/>
+      <c r="GD21" s="31"/>
+      <c r="GE21" s="31"/>
+      <c r="GF21" s="31"/>
+      <c r="GG21" s="31"/>
+      <c r="GH21" s="31"/>
+      <c r="GI21" s="31"/>
+      <c r="GJ21" s="31"/>
+      <c r="GK21" s="31"/>
+      <c r="GL21" s="31"/>
+      <c r="GM21" s="31"/>
+      <c r="GN21" s="31"/>
+      <c r="GO21" s="31"/>
+      <c r="GP21" s="31"/>
+      <c r="GQ21" s="31"/>
+      <c r="GR21" s="31"/>
+      <c r="GS21" s="31"/>
+      <c r="GT21" s="31"/>
+      <c r="GU21" s="31"/>
+      <c r="GV21" s="31"/>
+      <c r="GW21" s="31"/>
+      <c r="GX21" s="31"/>
+      <c r="GY21" s="31"/>
+      <c r="GZ21" s="31"/>
+      <c r="HA21" s="31"/>
+      <c r="HB21" s="31"/>
+      <c r="HC21" s="31"/>
+      <c r="HD21" s="31"/>
+      <c r="HE21" s="31"/>
+      <c r="HF21" s="31"/>
+      <c r="HG21" s="31"/>
+      <c r="HH21" s="31"/>
+      <c r="HI21" s="31"/>
+      <c r="HJ21" s="31"/>
+      <c r="HK21" s="31"/>
+      <c r="HL21" s="31"/>
+      <c r="HM21" s="31"/>
+      <c r="HN21" s="31"/>
+      <c r="HO21" s="31"/>
+      <c r="HP21" s="31"/>
+      <c r="HQ21" s="31"/>
+      <c r="HR21" s="31"/>
+      <c r="HS21" s="31"/>
+      <c r="HT21" s="31"/>
+      <c r="HU21" s="31"/>
     </row>
     <row r="22" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -6908,162 +6769,162 @@
       <c r="G22" s="7">
         <v>0</v>
       </c>
-      <c r="H22" s="44"/>
-      <c r="BQ22" s="45"/>
-      <c r="BS22" s="45"/>
-      <c r="BU22" s="45"/>
-      <c r="BW22" s="45"/>
-      <c r="BY22" s="45"/>
-      <c r="CA22" s="45"/>
-      <c r="CC22" s="45"/>
-      <c r="CE22" s="45"/>
-      <c r="CG22" s="45"/>
-      <c r="CI22" s="45"/>
-      <c r="CK22" s="45"/>
-      <c r="CL22" s="45"/>
-      <c r="CM22" s="45"/>
-      <c r="CN22" s="45"/>
-      <c r="CO22" s="45"/>
-      <c r="CP22" s="45"/>
-      <c r="CQ22" s="45"/>
-      <c r="CR22" s="45"/>
-      <c r="CS22" s="45"/>
-      <c r="CT22" s="45"/>
-      <c r="CU22" s="45"/>
-      <c r="CV22" s="45"/>
-      <c r="CW22" s="45"/>
-      <c r="CX22" s="45"/>
-      <c r="CY22" s="45"/>
-      <c r="CZ22" s="45"/>
-      <c r="DA22" s="45"/>
-      <c r="DB22" s="45"/>
-      <c r="DC22" s="45"/>
-      <c r="DD22" s="45"/>
-      <c r="DE22" s="45"/>
-      <c r="DF22" s="45"/>
-      <c r="DG22" s="45"/>
-      <c r="DH22" s="45"/>
-      <c r="DI22" s="45"/>
-      <c r="DJ22" s="45"/>
-      <c r="DK22" s="45"/>
-      <c r="DL22" s="45"/>
-      <c r="DM22" s="45"/>
-      <c r="DN22" s="45"/>
-      <c r="DO22" s="45"/>
-      <c r="DP22" s="45"/>
-      <c r="DQ22" s="45"/>
-      <c r="DR22" s="45"/>
-      <c r="DS22" s="45"/>
-      <c r="DT22" s="45"/>
-      <c r="DU22" s="45"/>
-      <c r="DV22" s="45"/>
-      <c r="DW22" s="45"/>
-      <c r="DX22" s="45"/>
-      <c r="DY22" s="45"/>
-      <c r="DZ22" s="45"/>
-      <c r="EA22" s="45"/>
-      <c r="EB22" s="45"/>
-      <c r="EC22" s="45"/>
-      <c r="ED22" s="45"/>
-      <c r="EE22" s="45"/>
-      <c r="EF22" s="45"/>
-      <c r="EG22" s="45"/>
-      <c r="EH22" s="45"/>
-      <c r="EI22" s="45"/>
-      <c r="EJ22" s="45"/>
-      <c r="EK22" s="45"/>
-      <c r="EL22" s="45"/>
-      <c r="EM22" s="45"/>
-      <c r="EN22" s="45"/>
-      <c r="EO22" s="45"/>
-      <c r="EP22" s="45"/>
-      <c r="EQ22" s="45"/>
-      <c r="ER22" s="45"/>
-      <c r="ES22" s="45"/>
-      <c r="ET22" s="45"/>
-      <c r="EU22" s="45"/>
-      <c r="EV22" s="45"/>
-      <c r="EW22" s="45"/>
-      <c r="EX22" s="45"/>
-      <c r="EY22" s="45"/>
-      <c r="EZ22" s="45"/>
-      <c r="FA22" s="45"/>
-      <c r="FB22" s="45"/>
-      <c r="FC22" s="45"/>
-      <c r="FD22" s="45"/>
-      <c r="FE22" s="45"/>
-      <c r="FF22" s="45"/>
-      <c r="FG22" s="45"/>
-      <c r="FH22" s="45"/>
-      <c r="FI22" s="45"/>
-      <c r="FJ22" s="45"/>
-      <c r="FK22" s="45"/>
-      <c r="FL22" s="45"/>
-      <c r="FM22" s="45"/>
-      <c r="FN22" s="45"/>
-      <c r="FO22" s="45"/>
-      <c r="FP22" s="45"/>
-      <c r="FQ22" s="45"/>
-      <c r="FR22" s="45"/>
-      <c r="FS22" s="45"/>
-      <c r="FT22" s="45"/>
-      <c r="FU22" s="45"/>
-      <c r="FV22" s="45"/>
-      <c r="FW22" s="45"/>
-      <c r="FX22" s="45"/>
-      <c r="FY22" s="45"/>
-      <c r="FZ22" s="45"/>
-      <c r="GA22" s="45"/>
-      <c r="GB22" s="45"/>
-      <c r="GC22" s="45"/>
-      <c r="GD22" s="45"/>
-      <c r="GE22" s="45"/>
-      <c r="GF22" s="45"/>
-      <c r="GG22" s="45"/>
-      <c r="GH22" s="45"/>
-      <c r="GI22" s="45"/>
-      <c r="GJ22" s="45"/>
-      <c r="GK22" s="45"/>
-      <c r="GL22" s="45"/>
-      <c r="GM22" s="45"/>
-      <c r="GN22" s="45"/>
-      <c r="GO22" s="45"/>
-      <c r="GP22" s="45"/>
-      <c r="GQ22" s="45"/>
-      <c r="GR22" s="45"/>
-      <c r="GS22" s="45"/>
-      <c r="GT22" s="45"/>
-      <c r="GU22" s="45"/>
-      <c r="GV22" s="45"/>
-      <c r="GW22" s="45"/>
-      <c r="GX22" s="45"/>
-      <c r="GY22" s="45"/>
-      <c r="GZ22" s="45"/>
-      <c r="HA22" s="45"/>
-      <c r="HB22" s="45"/>
-      <c r="HC22" s="45"/>
-      <c r="HD22" s="45"/>
-      <c r="HE22" s="45"/>
-      <c r="HF22" s="45"/>
-      <c r="HG22" s="45"/>
-      <c r="HH22" s="45"/>
-      <c r="HI22" s="45"/>
-      <c r="HJ22" s="45"/>
-      <c r="HK22" s="45"/>
-      <c r="HL22" s="45"/>
-      <c r="HM22" s="45"/>
-      <c r="HN22" s="45"/>
-      <c r="HO22" s="45"/>
-      <c r="HP22" s="45"/>
-      <c r="HQ22" s="45"/>
-      <c r="HR22" s="45"/>
-      <c r="HS22" s="45"/>
-      <c r="HT22" s="45"/>
-      <c r="HU22" s="45"/>
+      <c r="H22" s="30"/>
+      <c r="BQ22" s="31"/>
+      <c r="BS22" s="31"/>
+      <c r="BU22" s="31"/>
+      <c r="BW22" s="31"/>
+      <c r="BY22" s="31"/>
+      <c r="CA22" s="31"/>
+      <c r="CC22" s="31"/>
+      <c r="CE22" s="31"/>
+      <c r="CG22" s="31"/>
+      <c r="CI22" s="31"/>
+      <c r="CK22" s="31"/>
+      <c r="CL22" s="31"/>
+      <c r="CM22" s="31"/>
+      <c r="CN22" s="31"/>
+      <c r="CO22" s="31"/>
+      <c r="CP22" s="31"/>
+      <c r="CQ22" s="31"/>
+      <c r="CR22" s="31"/>
+      <c r="CS22" s="31"/>
+      <c r="CT22" s="31"/>
+      <c r="CU22" s="31"/>
+      <c r="CV22" s="31"/>
+      <c r="CW22" s="31"/>
+      <c r="CX22" s="31"/>
+      <c r="CY22" s="31"/>
+      <c r="CZ22" s="31"/>
+      <c r="DA22" s="31"/>
+      <c r="DB22" s="31"/>
+      <c r="DC22" s="31"/>
+      <c r="DD22" s="31"/>
+      <c r="DE22" s="31"/>
+      <c r="DF22" s="31"/>
+      <c r="DG22" s="31"/>
+      <c r="DH22" s="31"/>
+      <c r="DI22" s="31"/>
+      <c r="DJ22" s="31"/>
+      <c r="DK22" s="31"/>
+      <c r="DL22" s="31"/>
+      <c r="DM22" s="31"/>
+      <c r="DN22" s="31"/>
+      <c r="DO22" s="31"/>
+      <c r="DP22" s="31"/>
+      <c r="DQ22" s="31"/>
+      <c r="DR22" s="31"/>
+      <c r="DS22" s="31"/>
+      <c r="DT22" s="31"/>
+      <c r="DU22" s="31"/>
+      <c r="DV22" s="31"/>
+      <c r="DW22" s="31"/>
+      <c r="DX22" s="31"/>
+      <c r="DY22" s="31"/>
+      <c r="DZ22" s="31"/>
+      <c r="EA22" s="31"/>
+      <c r="EB22" s="31"/>
+      <c r="EC22" s="31"/>
+      <c r="ED22" s="31"/>
+      <c r="EE22" s="31"/>
+      <c r="EF22" s="31"/>
+      <c r="EG22" s="31"/>
+      <c r="EH22" s="31"/>
+      <c r="EI22" s="31"/>
+      <c r="EJ22" s="31"/>
+      <c r="EK22" s="31"/>
+      <c r="EL22" s="31"/>
+      <c r="EM22" s="31"/>
+      <c r="EN22" s="31"/>
+      <c r="EO22" s="31"/>
+      <c r="EP22" s="31"/>
+      <c r="EQ22" s="31"/>
+      <c r="ER22" s="31"/>
+      <c r="ES22" s="31"/>
+      <c r="ET22" s="31"/>
+      <c r="EU22" s="31"/>
+      <c r="EV22" s="31"/>
+      <c r="EW22" s="31"/>
+      <c r="EX22" s="31"/>
+      <c r="EY22" s="31"/>
+      <c r="EZ22" s="31"/>
+      <c r="FA22" s="31"/>
+      <c r="FB22" s="31"/>
+      <c r="FC22" s="31"/>
+      <c r="FD22" s="31"/>
+      <c r="FE22" s="31"/>
+      <c r="FF22" s="31"/>
+      <c r="FG22" s="31"/>
+      <c r="FH22" s="31"/>
+      <c r="FI22" s="31"/>
+      <c r="FJ22" s="31"/>
+      <c r="FK22" s="31"/>
+      <c r="FL22" s="31"/>
+      <c r="FM22" s="31"/>
+      <c r="FN22" s="31"/>
+      <c r="FO22" s="31"/>
+      <c r="FP22" s="31"/>
+      <c r="FQ22" s="31"/>
+      <c r="FR22" s="31"/>
+      <c r="FS22" s="31"/>
+      <c r="FT22" s="31"/>
+      <c r="FU22" s="31"/>
+      <c r="FV22" s="31"/>
+      <c r="FW22" s="31"/>
+      <c r="FX22" s="31"/>
+      <c r="FY22" s="31"/>
+      <c r="FZ22" s="31"/>
+      <c r="GA22" s="31"/>
+      <c r="GB22" s="31"/>
+      <c r="GC22" s="31"/>
+      <c r="GD22" s="31"/>
+      <c r="GE22" s="31"/>
+      <c r="GF22" s="31"/>
+      <c r="GG22" s="31"/>
+      <c r="GH22" s="31"/>
+      <c r="GI22" s="31"/>
+      <c r="GJ22" s="31"/>
+      <c r="GK22" s="31"/>
+      <c r="GL22" s="31"/>
+      <c r="GM22" s="31"/>
+      <c r="GN22" s="31"/>
+      <c r="GO22" s="31"/>
+      <c r="GP22" s="31"/>
+      <c r="GQ22" s="31"/>
+      <c r="GR22" s="31"/>
+      <c r="GS22" s="31"/>
+      <c r="GT22" s="31"/>
+      <c r="GU22" s="31"/>
+      <c r="GV22" s="31"/>
+      <c r="GW22" s="31"/>
+      <c r="GX22" s="31"/>
+      <c r="GY22" s="31"/>
+      <c r="GZ22" s="31"/>
+      <c r="HA22" s="31"/>
+      <c r="HB22" s="31"/>
+      <c r="HC22" s="31"/>
+      <c r="HD22" s="31"/>
+      <c r="HE22" s="31"/>
+      <c r="HF22" s="31"/>
+      <c r="HG22" s="31"/>
+      <c r="HH22" s="31"/>
+      <c r="HI22" s="31"/>
+      <c r="HJ22" s="31"/>
+      <c r="HK22" s="31"/>
+      <c r="HL22" s="31"/>
+      <c r="HM22" s="31"/>
+      <c r="HN22" s="31"/>
+      <c r="HO22" s="31"/>
+      <c r="HP22" s="31"/>
+      <c r="HQ22" s="31"/>
+      <c r="HR22" s="31"/>
+      <c r="HS22" s="31"/>
+      <c r="HT22" s="31"/>
+      <c r="HU22" s="31"/>
     </row>
     <row r="23" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -7080,162 +6941,162 @@
       <c r="G23" s="7">
         <v>0</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="BQ23" s="45"/>
-      <c r="BS23" s="45"/>
-      <c r="BU23" s="45"/>
-      <c r="BW23" s="45"/>
-      <c r="BY23" s="45"/>
-      <c r="CA23" s="45"/>
-      <c r="CC23" s="45"/>
-      <c r="CE23" s="45"/>
-      <c r="CG23" s="45"/>
-      <c r="CI23" s="45"/>
-      <c r="CK23" s="45"/>
-      <c r="CL23" s="45"/>
-      <c r="CM23" s="45"/>
-      <c r="CN23" s="45"/>
-      <c r="CO23" s="45"/>
-      <c r="CP23" s="45"/>
-      <c r="CQ23" s="45"/>
-      <c r="CR23" s="45"/>
-      <c r="CS23" s="45"/>
-      <c r="CT23" s="45"/>
-      <c r="CU23" s="45"/>
-      <c r="CV23" s="45"/>
-      <c r="CW23" s="45"/>
-      <c r="CX23" s="45"/>
-      <c r="CY23" s="45"/>
-      <c r="CZ23" s="45"/>
-      <c r="DA23" s="45"/>
-      <c r="DB23" s="45"/>
-      <c r="DC23" s="45"/>
-      <c r="DD23" s="45"/>
-      <c r="DE23" s="45"/>
-      <c r="DF23" s="45"/>
-      <c r="DG23" s="45"/>
-      <c r="DH23" s="45"/>
-      <c r="DI23" s="45"/>
-      <c r="DJ23" s="45"/>
-      <c r="DK23" s="45"/>
-      <c r="DL23" s="45"/>
-      <c r="DM23" s="45"/>
-      <c r="DN23" s="45"/>
-      <c r="DO23" s="45"/>
-      <c r="DP23" s="45"/>
-      <c r="DQ23" s="45"/>
-      <c r="DR23" s="45"/>
-      <c r="DS23" s="45"/>
-      <c r="DT23" s="45"/>
-      <c r="DU23" s="45"/>
-      <c r="DV23" s="45"/>
-      <c r="DW23" s="45"/>
-      <c r="DX23" s="45"/>
-      <c r="DY23" s="45"/>
-      <c r="DZ23" s="45"/>
-      <c r="EA23" s="45"/>
-      <c r="EB23" s="45"/>
-      <c r="EC23" s="45"/>
-      <c r="ED23" s="45"/>
-      <c r="EE23" s="45"/>
-      <c r="EF23" s="45"/>
-      <c r="EG23" s="45"/>
-      <c r="EH23" s="45"/>
-      <c r="EI23" s="45"/>
-      <c r="EJ23" s="45"/>
-      <c r="EK23" s="45"/>
-      <c r="EL23" s="45"/>
-      <c r="EM23" s="45"/>
-      <c r="EN23" s="45"/>
-      <c r="EO23" s="45"/>
-      <c r="EP23" s="45"/>
-      <c r="EQ23" s="45"/>
-      <c r="ER23" s="45"/>
-      <c r="ES23" s="45"/>
-      <c r="ET23" s="45"/>
-      <c r="EU23" s="45"/>
-      <c r="EV23" s="45"/>
-      <c r="EW23" s="45"/>
-      <c r="EX23" s="45"/>
-      <c r="EY23" s="45"/>
-      <c r="EZ23" s="45"/>
-      <c r="FA23" s="45"/>
-      <c r="FB23" s="45"/>
-      <c r="FC23" s="45"/>
-      <c r="FD23" s="45"/>
-      <c r="FE23" s="45"/>
-      <c r="FF23" s="45"/>
-      <c r="FG23" s="45"/>
-      <c r="FH23" s="45"/>
-      <c r="FI23" s="45"/>
-      <c r="FJ23" s="45"/>
-      <c r="FK23" s="45"/>
-      <c r="FL23" s="45"/>
-      <c r="FM23" s="45"/>
-      <c r="FN23" s="45"/>
-      <c r="FO23" s="45"/>
-      <c r="FP23" s="45"/>
-      <c r="FQ23" s="45"/>
-      <c r="FR23" s="45"/>
-      <c r="FS23" s="45"/>
-      <c r="FT23" s="45"/>
-      <c r="FU23" s="45"/>
-      <c r="FV23" s="45"/>
-      <c r="FW23" s="45"/>
-      <c r="FX23" s="45"/>
-      <c r="FY23" s="45"/>
-      <c r="FZ23" s="45"/>
-      <c r="GA23" s="45"/>
-      <c r="GB23" s="45"/>
-      <c r="GC23" s="45"/>
-      <c r="GD23" s="45"/>
-      <c r="GE23" s="45"/>
-      <c r="GF23" s="45"/>
-      <c r="GG23" s="45"/>
-      <c r="GH23" s="45"/>
-      <c r="GI23" s="45"/>
-      <c r="GJ23" s="45"/>
-      <c r="GK23" s="45"/>
-      <c r="GL23" s="45"/>
-      <c r="GM23" s="45"/>
-      <c r="GN23" s="45"/>
-      <c r="GO23" s="45"/>
-      <c r="GP23" s="45"/>
-      <c r="GQ23" s="45"/>
-      <c r="GR23" s="45"/>
-      <c r="GS23" s="45"/>
-      <c r="GT23" s="45"/>
-      <c r="GU23" s="45"/>
-      <c r="GV23" s="45"/>
-      <c r="GW23" s="45"/>
-      <c r="GX23" s="45"/>
-      <c r="GY23" s="45"/>
-      <c r="GZ23" s="45"/>
-      <c r="HA23" s="45"/>
-      <c r="HB23" s="45"/>
-      <c r="HC23" s="45"/>
-      <c r="HD23" s="45"/>
-      <c r="HE23" s="45"/>
-      <c r="HF23" s="45"/>
-      <c r="HG23" s="45"/>
-      <c r="HH23" s="45"/>
-      <c r="HI23" s="45"/>
-      <c r="HJ23" s="45"/>
-      <c r="HK23" s="45"/>
-      <c r="HL23" s="45"/>
-      <c r="HM23" s="45"/>
-      <c r="HN23" s="45"/>
-      <c r="HO23" s="45"/>
-      <c r="HP23" s="45"/>
-      <c r="HQ23" s="45"/>
-      <c r="HR23" s="45"/>
-      <c r="HS23" s="45"/>
-      <c r="HT23" s="45"/>
-      <c r="HU23" s="45"/>
+      <c r="H23" s="30"/>
+      <c r="BQ23" s="31"/>
+      <c r="BS23" s="31"/>
+      <c r="BU23" s="31"/>
+      <c r="BW23" s="31"/>
+      <c r="BY23" s="31"/>
+      <c r="CA23" s="31"/>
+      <c r="CC23" s="31"/>
+      <c r="CE23" s="31"/>
+      <c r="CG23" s="31"/>
+      <c r="CI23" s="31"/>
+      <c r="CK23" s="31"/>
+      <c r="CL23" s="31"/>
+      <c r="CM23" s="31"/>
+      <c r="CN23" s="31"/>
+      <c r="CO23" s="31"/>
+      <c r="CP23" s="31"/>
+      <c r="CQ23" s="31"/>
+      <c r="CR23" s="31"/>
+      <c r="CS23" s="31"/>
+      <c r="CT23" s="31"/>
+      <c r="CU23" s="31"/>
+      <c r="CV23" s="31"/>
+      <c r="CW23" s="31"/>
+      <c r="CX23" s="31"/>
+      <c r="CY23" s="31"/>
+      <c r="CZ23" s="31"/>
+      <c r="DA23" s="31"/>
+      <c r="DB23" s="31"/>
+      <c r="DC23" s="31"/>
+      <c r="DD23" s="31"/>
+      <c r="DE23" s="31"/>
+      <c r="DF23" s="31"/>
+      <c r="DG23" s="31"/>
+      <c r="DH23" s="31"/>
+      <c r="DI23" s="31"/>
+      <c r="DJ23" s="31"/>
+      <c r="DK23" s="31"/>
+      <c r="DL23" s="31"/>
+      <c r="DM23" s="31"/>
+      <c r="DN23" s="31"/>
+      <c r="DO23" s="31"/>
+      <c r="DP23" s="31"/>
+      <c r="DQ23" s="31"/>
+      <c r="DR23" s="31"/>
+      <c r="DS23" s="31"/>
+      <c r="DT23" s="31"/>
+      <c r="DU23" s="31"/>
+      <c r="DV23" s="31"/>
+      <c r="DW23" s="31"/>
+      <c r="DX23" s="31"/>
+      <c r="DY23" s="31"/>
+      <c r="DZ23" s="31"/>
+      <c r="EA23" s="31"/>
+      <c r="EB23" s="31"/>
+      <c r="EC23" s="31"/>
+      <c r="ED23" s="31"/>
+      <c r="EE23" s="31"/>
+      <c r="EF23" s="31"/>
+      <c r="EG23" s="31"/>
+      <c r="EH23" s="31"/>
+      <c r="EI23" s="31"/>
+      <c r="EJ23" s="31"/>
+      <c r="EK23" s="31"/>
+      <c r="EL23" s="31"/>
+      <c r="EM23" s="31"/>
+      <c r="EN23" s="31"/>
+      <c r="EO23" s="31"/>
+      <c r="EP23" s="31"/>
+      <c r="EQ23" s="31"/>
+      <c r="ER23" s="31"/>
+      <c r="ES23" s="31"/>
+      <c r="ET23" s="31"/>
+      <c r="EU23" s="31"/>
+      <c r="EV23" s="31"/>
+      <c r="EW23" s="31"/>
+      <c r="EX23" s="31"/>
+      <c r="EY23" s="31"/>
+      <c r="EZ23" s="31"/>
+      <c r="FA23" s="31"/>
+      <c r="FB23" s="31"/>
+      <c r="FC23" s="31"/>
+      <c r="FD23" s="31"/>
+      <c r="FE23" s="31"/>
+      <c r="FF23" s="31"/>
+      <c r="FG23" s="31"/>
+      <c r="FH23" s="31"/>
+      <c r="FI23" s="31"/>
+      <c r="FJ23" s="31"/>
+      <c r="FK23" s="31"/>
+      <c r="FL23" s="31"/>
+      <c r="FM23" s="31"/>
+      <c r="FN23" s="31"/>
+      <c r="FO23" s="31"/>
+      <c r="FP23" s="31"/>
+      <c r="FQ23" s="31"/>
+      <c r="FR23" s="31"/>
+      <c r="FS23" s="31"/>
+      <c r="FT23" s="31"/>
+      <c r="FU23" s="31"/>
+      <c r="FV23" s="31"/>
+      <c r="FW23" s="31"/>
+      <c r="FX23" s="31"/>
+      <c r="FY23" s="31"/>
+      <c r="FZ23" s="31"/>
+      <c r="GA23" s="31"/>
+      <c r="GB23" s="31"/>
+      <c r="GC23" s="31"/>
+      <c r="GD23" s="31"/>
+      <c r="GE23" s="31"/>
+      <c r="GF23" s="31"/>
+      <c r="GG23" s="31"/>
+      <c r="GH23" s="31"/>
+      <c r="GI23" s="31"/>
+      <c r="GJ23" s="31"/>
+      <c r="GK23" s="31"/>
+      <c r="GL23" s="31"/>
+      <c r="GM23" s="31"/>
+      <c r="GN23" s="31"/>
+      <c r="GO23" s="31"/>
+      <c r="GP23" s="31"/>
+      <c r="GQ23" s="31"/>
+      <c r="GR23" s="31"/>
+      <c r="GS23" s="31"/>
+      <c r="GT23" s="31"/>
+      <c r="GU23" s="31"/>
+      <c r="GV23" s="31"/>
+      <c r="GW23" s="31"/>
+      <c r="GX23" s="31"/>
+      <c r="GY23" s="31"/>
+      <c r="GZ23" s="31"/>
+      <c r="HA23" s="31"/>
+      <c r="HB23" s="31"/>
+      <c r="HC23" s="31"/>
+      <c r="HD23" s="31"/>
+      <c r="HE23" s="31"/>
+      <c r="HF23" s="31"/>
+      <c r="HG23" s="31"/>
+      <c r="HH23" s="31"/>
+      <c r="HI23" s="31"/>
+      <c r="HJ23" s="31"/>
+      <c r="HK23" s="31"/>
+      <c r="HL23" s="31"/>
+      <c r="HM23" s="31"/>
+      <c r="HN23" s="31"/>
+      <c r="HO23" s="31"/>
+      <c r="HP23" s="31"/>
+      <c r="HQ23" s="31"/>
+      <c r="HR23" s="31"/>
+      <c r="HS23" s="31"/>
+      <c r="HT23" s="31"/>
+      <c r="HU23" s="31"/>
     </row>
     <row r="24" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -7252,162 +7113,162 @@
       <c r="G24" s="7">
         <v>0</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="BQ24" s="45"/>
-      <c r="BS24" s="45"/>
-      <c r="BU24" s="45"/>
-      <c r="BW24" s="45"/>
-      <c r="BY24" s="45"/>
-      <c r="CA24" s="45"/>
-      <c r="CC24" s="45"/>
-      <c r="CE24" s="45"/>
-      <c r="CG24" s="45"/>
-      <c r="CI24" s="45"/>
-      <c r="CK24" s="45"/>
-      <c r="CL24" s="45"/>
-      <c r="CM24" s="45"/>
-      <c r="CN24" s="45"/>
-      <c r="CO24" s="45"/>
-      <c r="CP24" s="45"/>
-      <c r="CQ24" s="45"/>
-      <c r="CR24" s="45"/>
-      <c r="CS24" s="45"/>
-      <c r="CT24" s="45"/>
-      <c r="CU24" s="45"/>
-      <c r="CV24" s="45"/>
-      <c r="CW24" s="45"/>
-      <c r="CX24" s="45"/>
-      <c r="CY24" s="45"/>
-      <c r="CZ24" s="45"/>
-      <c r="DA24" s="45"/>
-      <c r="DB24" s="45"/>
-      <c r="DC24" s="45"/>
-      <c r="DD24" s="45"/>
-      <c r="DE24" s="45"/>
-      <c r="DF24" s="45"/>
-      <c r="DG24" s="45"/>
-      <c r="DH24" s="45"/>
-      <c r="DI24" s="45"/>
-      <c r="DJ24" s="45"/>
-      <c r="DK24" s="45"/>
-      <c r="DL24" s="45"/>
-      <c r="DM24" s="45"/>
-      <c r="DN24" s="45"/>
-      <c r="DO24" s="45"/>
-      <c r="DP24" s="45"/>
-      <c r="DQ24" s="45"/>
-      <c r="DR24" s="45"/>
-      <c r="DS24" s="45"/>
-      <c r="DT24" s="45"/>
-      <c r="DU24" s="45"/>
-      <c r="DV24" s="45"/>
-      <c r="DW24" s="45"/>
-      <c r="DX24" s="45"/>
-      <c r="DY24" s="45"/>
-      <c r="DZ24" s="45"/>
-      <c r="EA24" s="45"/>
-      <c r="EB24" s="45"/>
-      <c r="EC24" s="45"/>
-      <c r="ED24" s="45"/>
-      <c r="EE24" s="45"/>
-      <c r="EF24" s="45"/>
-      <c r="EG24" s="45"/>
-      <c r="EH24" s="45"/>
-      <c r="EI24" s="45"/>
-      <c r="EJ24" s="45"/>
-      <c r="EK24" s="45"/>
-      <c r="EL24" s="45"/>
-      <c r="EM24" s="45"/>
-      <c r="EN24" s="45"/>
-      <c r="EO24" s="45"/>
-      <c r="EP24" s="45"/>
-      <c r="EQ24" s="45"/>
-      <c r="ER24" s="45"/>
-      <c r="ES24" s="45"/>
-      <c r="ET24" s="45"/>
-      <c r="EU24" s="45"/>
-      <c r="EV24" s="45"/>
-      <c r="EW24" s="45"/>
-      <c r="EX24" s="45"/>
-      <c r="EY24" s="45"/>
-      <c r="EZ24" s="45"/>
-      <c r="FA24" s="45"/>
-      <c r="FB24" s="45"/>
-      <c r="FC24" s="45"/>
-      <c r="FD24" s="45"/>
-      <c r="FE24" s="45"/>
-      <c r="FF24" s="45"/>
-      <c r="FG24" s="45"/>
-      <c r="FH24" s="45"/>
-      <c r="FI24" s="45"/>
-      <c r="FJ24" s="45"/>
-      <c r="FK24" s="45"/>
-      <c r="FL24" s="45"/>
-      <c r="FM24" s="45"/>
-      <c r="FN24" s="45"/>
-      <c r="FO24" s="45"/>
-      <c r="FP24" s="45"/>
-      <c r="FQ24" s="45"/>
-      <c r="FR24" s="45"/>
-      <c r="FS24" s="45"/>
-      <c r="FT24" s="45"/>
-      <c r="FU24" s="45"/>
-      <c r="FV24" s="45"/>
-      <c r="FW24" s="45"/>
-      <c r="FX24" s="45"/>
-      <c r="FY24" s="45"/>
-      <c r="FZ24" s="45"/>
-      <c r="GA24" s="45"/>
-      <c r="GB24" s="45"/>
-      <c r="GC24" s="45"/>
-      <c r="GD24" s="45"/>
-      <c r="GE24" s="45"/>
-      <c r="GF24" s="45"/>
-      <c r="GG24" s="45"/>
-      <c r="GH24" s="45"/>
-      <c r="GI24" s="45"/>
-      <c r="GJ24" s="45"/>
-      <c r="GK24" s="45"/>
-      <c r="GL24" s="45"/>
-      <c r="GM24" s="45"/>
-      <c r="GN24" s="45"/>
-      <c r="GO24" s="45"/>
-      <c r="GP24" s="45"/>
-      <c r="GQ24" s="45"/>
-      <c r="GR24" s="45"/>
-      <c r="GS24" s="45"/>
-      <c r="GT24" s="45"/>
-      <c r="GU24" s="45"/>
-      <c r="GV24" s="45"/>
-      <c r="GW24" s="45"/>
-      <c r="GX24" s="45"/>
-      <c r="GY24" s="45"/>
-      <c r="GZ24" s="45"/>
-      <c r="HA24" s="45"/>
-      <c r="HB24" s="45"/>
-      <c r="HC24" s="45"/>
-      <c r="HD24" s="45"/>
-      <c r="HE24" s="45"/>
-      <c r="HF24" s="45"/>
-      <c r="HG24" s="45"/>
-      <c r="HH24" s="45"/>
-      <c r="HI24" s="45"/>
-      <c r="HJ24" s="45"/>
-      <c r="HK24" s="45"/>
-      <c r="HL24" s="45"/>
-      <c r="HM24" s="45"/>
-      <c r="HN24" s="45"/>
-      <c r="HO24" s="45"/>
-      <c r="HP24" s="45"/>
-      <c r="HQ24" s="45"/>
-      <c r="HR24" s="45"/>
-      <c r="HS24" s="45"/>
-      <c r="HT24" s="45"/>
-      <c r="HU24" s="45"/>
+      <c r="H24" s="30"/>
+      <c r="BQ24" s="31"/>
+      <c r="BS24" s="31"/>
+      <c r="BU24" s="31"/>
+      <c r="BW24" s="31"/>
+      <c r="BY24" s="31"/>
+      <c r="CA24" s="31"/>
+      <c r="CC24" s="31"/>
+      <c r="CE24" s="31"/>
+      <c r="CG24" s="31"/>
+      <c r="CI24" s="31"/>
+      <c r="CK24" s="31"/>
+      <c r="CL24" s="31"/>
+      <c r="CM24" s="31"/>
+      <c r="CN24" s="31"/>
+      <c r="CO24" s="31"/>
+      <c r="CP24" s="31"/>
+      <c r="CQ24" s="31"/>
+      <c r="CR24" s="31"/>
+      <c r="CS24" s="31"/>
+      <c r="CT24" s="31"/>
+      <c r="CU24" s="31"/>
+      <c r="CV24" s="31"/>
+      <c r="CW24" s="31"/>
+      <c r="CX24" s="31"/>
+      <c r="CY24" s="31"/>
+      <c r="CZ24" s="31"/>
+      <c r="DA24" s="31"/>
+      <c r="DB24" s="31"/>
+      <c r="DC24" s="31"/>
+      <c r="DD24" s="31"/>
+      <c r="DE24" s="31"/>
+      <c r="DF24" s="31"/>
+      <c r="DG24" s="31"/>
+      <c r="DH24" s="31"/>
+      <c r="DI24" s="31"/>
+      <c r="DJ24" s="31"/>
+      <c r="DK24" s="31"/>
+      <c r="DL24" s="31"/>
+      <c r="DM24" s="31"/>
+      <c r="DN24" s="31"/>
+      <c r="DO24" s="31"/>
+      <c r="DP24" s="31"/>
+      <c r="DQ24" s="31"/>
+      <c r="DR24" s="31"/>
+      <c r="DS24" s="31"/>
+      <c r="DT24" s="31"/>
+      <c r="DU24" s="31"/>
+      <c r="DV24" s="31"/>
+      <c r="DW24" s="31"/>
+      <c r="DX24" s="31"/>
+      <c r="DY24" s="31"/>
+      <c r="DZ24" s="31"/>
+      <c r="EA24" s="31"/>
+      <c r="EB24" s="31"/>
+      <c r="EC24" s="31"/>
+      <c r="ED24" s="31"/>
+      <c r="EE24" s="31"/>
+      <c r="EF24" s="31"/>
+      <c r="EG24" s="31"/>
+      <c r="EH24" s="31"/>
+      <c r="EI24" s="31"/>
+      <c r="EJ24" s="31"/>
+      <c r="EK24" s="31"/>
+      <c r="EL24" s="31"/>
+      <c r="EM24" s="31"/>
+      <c r="EN24" s="31"/>
+      <c r="EO24" s="31"/>
+      <c r="EP24" s="31"/>
+      <c r="EQ24" s="31"/>
+      <c r="ER24" s="31"/>
+      <c r="ES24" s="31"/>
+      <c r="ET24" s="31"/>
+      <c r="EU24" s="31"/>
+      <c r="EV24" s="31"/>
+      <c r="EW24" s="31"/>
+      <c r="EX24" s="31"/>
+      <c r="EY24" s="31"/>
+      <c r="EZ24" s="31"/>
+      <c r="FA24" s="31"/>
+      <c r="FB24" s="31"/>
+      <c r="FC24" s="31"/>
+      <c r="FD24" s="31"/>
+      <c r="FE24" s="31"/>
+      <c r="FF24" s="31"/>
+      <c r="FG24" s="31"/>
+      <c r="FH24" s="31"/>
+      <c r="FI24" s="31"/>
+      <c r="FJ24" s="31"/>
+      <c r="FK24" s="31"/>
+      <c r="FL24" s="31"/>
+      <c r="FM24" s="31"/>
+      <c r="FN24" s="31"/>
+      <c r="FO24" s="31"/>
+      <c r="FP24" s="31"/>
+      <c r="FQ24" s="31"/>
+      <c r="FR24" s="31"/>
+      <c r="FS24" s="31"/>
+      <c r="FT24" s="31"/>
+      <c r="FU24" s="31"/>
+      <c r="FV24" s="31"/>
+      <c r="FW24" s="31"/>
+      <c r="FX24" s="31"/>
+      <c r="FY24" s="31"/>
+      <c r="FZ24" s="31"/>
+      <c r="GA24" s="31"/>
+      <c r="GB24" s="31"/>
+      <c r="GC24" s="31"/>
+      <c r="GD24" s="31"/>
+      <c r="GE24" s="31"/>
+      <c r="GF24" s="31"/>
+      <c r="GG24" s="31"/>
+      <c r="GH24" s="31"/>
+      <c r="GI24" s="31"/>
+      <c r="GJ24" s="31"/>
+      <c r="GK24" s="31"/>
+      <c r="GL24" s="31"/>
+      <c r="GM24" s="31"/>
+      <c r="GN24" s="31"/>
+      <c r="GO24" s="31"/>
+      <c r="GP24" s="31"/>
+      <c r="GQ24" s="31"/>
+      <c r="GR24" s="31"/>
+      <c r="GS24" s="31"/>
+      <c r="GT24" s="31"/>
+      <c r="GU24" s="31"/>
+      <c r="GV24" s="31"/>
+      <c r="GW24" s="31"/>
+      <c r="GX24" s="31"/>
+      <c r="GY24" s="31"/>
+      <c r="GZ24" s="31"/>
+      <c r="HA24" s="31"/>
+      <c r="HB24" s="31"/>
+      <c r="HC24" s="31"/>
+      <c r="HD24" s="31"/>
+      <c r="HE24" s="31"/>
+      <c r="HF24" s="31"/>
+      <c r="HG24" s="31"/>
+      <c r="HH24" s="31"/>
+      <c r="HI24" s="31"/>
+      <c r="HJ24" s="31"/>
+      <c r="HK24" s="31"/>
+      <c r="HL24" s="31"/>
+      <c r="HM24" s="31"/>
+      <c r="HN24" s="31"/>
+      <c r="HO24" s="31"/>
+      <c r="HP24" s="31"/>
+      <c r="HQ24" s="31"/>
+      <c r="HR24" s="31"/>
+      <c r="HS24" s="31"/>
+      <c r="HT24" s="31"/>
+      <c r="HU24" s="31"/>
     </row>
     <row r="25" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -7424,174 +7285,174 @@
       <c r="G25" s="7">
         <v>0</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="BO25" s="45"/>
-      <c r="BP25" s="45"/>
-      <c r="BQ25" s="45"/>
-      <c r="BR25" s="45"/>
-      <c r="BS25" s="45"/>
-      <c r="BT25" s="45"/>
-      <c r="BU25" s="45"/>
-      <c r="BV25" s="45"/>
-      <c r="BW25" s="45"/>
-      <c r="BX25" s="45"/>
-      <c r="BY25" s="45"/>
-      <c r="BZ25" s="45"/>
-      <c r="CA25" s="45"/>
-      <c r="CB25" s="45"/>
-      <c r="CC25" s="45"/>
-      <c r="CD25" s="45"/>
-      <c r="CE25" s="45"/>
-      <c r="CF25" s="45"/>
-      <c r="CG25" s="45"/>
-      <c r="CH25" s="45"/>
-      <c r="CI25" s="45"/>
-      <c r="CJ25" s="45"/>
-      <c r="CK25" s="45"/>
-      <c r="CL25" s="45"/>
-      <c r="CM25" s="45"/>
-      <c r="CN25" s="45"/>
-      <c r="CO25" s="45"/>
-      <c r="CP25" s="45"/>
-      <c r="CQ25" s="45"/>
-      <c r="CR25" s="45"/>
-      <c r="CS25" s="45"/>
-      <c r="CT25" s="45"/>
-      <c r="CU25" s="45"/>
-      <c r="CV25" s="45"/>
-      <c r="CW25" s="45"/>
-      <c r="CX25" s="45"/>
-      <c r="CY25" s="45"/>
-      <c r="CZ25" s="45"/>
-      <c r="DA25" s="45"/>
-      <c r="DB25" s="45"/>
-      <c r="DC25" s="45"/>
-      <c r="DD25" s="45"/>
-      <c r="DE25" s="45"/>
-      <c r="DF25" s="45"/>
-      <c r="DG25" s="45"/>
-      <c r="DH25" s="45"/>
-      <c r="DI25" s="45"/>
-      <c r="DJ25" s="45"/>
-      <c r="DK25" s="45"/>
-      <c r="DL25" s="45"/>
-      <c r="DM25" s="45"/>
-      <c r="DN25" s="45"/>
-      <c r="DO25" s="45"/>
-      <c r="DP25" s="45"/>
-      <c r="DQ25" s="45"/>
-      <c r="DR25" s="45"/>
-      <c r="DS25" s="45"/>
-      <c r="DT25" s="45"/>
-      <c r="DU25" s="45"/>
-      <c r="DV25" s="45"/>
-      <c r="DW25" s="45"/>
-      <c r="DX25" s="45"/>
-      <c r="DY25" s="45"/>
-      <c r="DZ25" s="45"/>
-      <c r="EA25" s="45"/>
-      <c r="EB25" s="45"/>
-      <c r="EC25" s="45"/>
-      <c r="ED25" s="45"/>
-      <c r="EE25" s="45"/>
-      <c r="EF25" s="45"/>
-      <c r="EG25" s="45"/>
-      <c r="EH25" s="45"/>
-      <c r="EI25" s="45"/>
-      <c r="EJ25" s="45"/>
-      <c r="EK25" s="45"/>
-      <c r="EL25" s="45"/>
-      <c r="EM25" s="45"/>
-      <c r="EN25" s="45"/>
-      <c r="EO25" s="45"/>
-      <c r="EP25" s="45"/>
-      <c r="EQ25" s="45"/>
-      <c r="ER25" s="45"/>
-      <c r="ES25" s="45"/>
-      <c r="ET25" s="45"/>
-      <c r="EU25" s="45"/>
-      <c r="EV25" s="45"/>
-      <c r="EW25" s="45"/>
-      <c r="EX25" s="45"/>
-      <c r="EY25" s="45"/>
-      <c r="EZ25" s="45"/>
-      <c r="FA25" s="45"/>
-      <c r="FB25" s="45"/>
-      <c r="FC25" s="45"/>
-      <c r="FD25" s="45"/>
-      <c r="FE25" s="45"/>
-      <c r="FF25" s="45"/>
-      <c r="FG25" s="45"/>
-      <c r="FH25" s="45"/>
-      <c r="FI25" s="45"/>
-      <c r="FJ25" s="45"/>
-      <c r="FK25" s="45"/>
-      <c r="FL25" s="45"/>
-      <c r="FM25" s="45"/>
-      <c r="FN25" s="45"/>
-      <c r="FO25" s="45"/>
-      <c r="FP25" s="45"/>
-      <c r="FQ25" s="45"/>
-      <c r="FR25" s="45"/>
-      <c r="FS25" s="45"/>
-      <c r="FT25" s="45"/>
-      <c r="FU25" s="45"/>
-      <c r="FV25" s="45"/>
-      <c r="FW25" s="45"/>
-      <c r="FX25" s="45"/>
-      <c r="FY25" s="45"/>
-      <c r="FZ25" s="45"/>
-      <c r="GA25" s="45"/>
-      <c r="GB25" s="45"/>
-      <c r="GC25" s="45"/>
-      <c r="GD25" s="45"/>
-      <c r="GE25" s="45"/>
-      <c r="GF25" s="45"/>
-      <c r="GG25" s="45"/>
-      <c r="GH25" s="45"/>
-      <c r="GI25" s="45"/>
-      <c r="GJ25" s="45"/>
-      <c r="GK25" s="45"/>
-      <c r="GL25" s="45"/>
-      <c r="GM25" s="45"/>
-      <c r="GN25" s="45"/>
-      <c r="GO25" s="45"/>
-      <c r="GP25" s="45"/>
-      <c r="GQ25" s="45"/>
-      <c r="GR25" s="45"/>
-      <c r="GS25" s="45"/>
-      <c r="GT25" s="45"/>
-      <c r="GU25" s="45"/>
-      <c r="GV25" s="45"/>
-      <c r="GW25" s="45"/>
-      <c r="GX25" s="45"/>
-      <c r="GY25" s="45"/>
-      <c r="GZ25" s="45"/>
-      <c r="HA25" s="45"/>
-      <c r="HB25" s="45"/>
-      <c r="HC25" s="45"/>
-      <c r="HD25" s="45"/>
-      <c r="HE25" s="45"/>
-      <c r="HF25" s="45"/>
-      <c r="HG25" s="45"/>
-      <c r="HH25" s="45"/>
-      <c r="HI25" s="45"/>
-      <c r="HJ25" s="45"/>
-      <c r="HK25" s="45"/>
-      <c r="HL25" s="45"/>
-      <c r="HM25" s="45"/>
-      <c r="HN25" s="45"/>
-      <c r="HO25" s="45"/>
-      <c r="HP25" s="45"/>
-      <c r="HQ25" s="45"/>
-      <c r="HR25" s="45"/>
-      <c r="HS25" s="45"/>
-      <c r="HT25" s="45"/>
-      <c r="HU25" s="45"/>
+      <c r="H25" s="30"/>
+      <c r="BO25" s="31"/>
+      <c r="BP25" s="31"/>
+      <c r="BQ25" s="31"/>
+      <c r="BR25" s="31"/>
+      <c r="BS25" s="31"/>
+      <c r="BT25" s="31"/>
+      <c r="BU25" s="31"/>
+      <c r="BV25" s="31"/>
+      <c r="BW25" s="31"/>
+      <c r="BX25" s="31"/>
+      <c r="BY25" s="31"/>
+      <c r="BZ25" s="31"/>
+      <c r="CA25" s="31"/>
+      <c r="CB25" s="31"/>
+      <c r="CC25" s="31"/>
+      <c r="CD25" s="31"/>
+      <c r="CE25" s="31"/>
+      <c r="CF25" s="31"/>
+      <c r="CG25" s="31"/>
+      <c r="CH25" s="31"/>
+      <c r="CI25" s="31"/>
+      <c r="CJ25" s="31"/>
+      <c r="CK25" s="31"/>
+      <c r="CL25" s="31"/>
+      <c r="CM25" s="31"/>
+      <c r="CN25" s="31"/>
+      <c r="CO25" s="31"/>
+      <c r="CP25" s="31"/>
+      <c r="CQ25" s="31"/>
+      <c r="CR25" s="31"/>
+      <c r="CS25" s="31"/>
+      <c r="CT25" s="31"/>
+      <c r="CU25" s="31"/>
+      <c r="CV25" s="31"/>
+      <c r="CW25" s="31"/>
+      <c r="CX25" s="31"/>
+      <c r="CY25" s="31"/>
+      <c r="CZ25" s="31"/>
+      <c r="DA25" s="31"/>
+      <c r="DB25" s="31"/>
+      <c r="DC25" s="31"/>
+      <c r="DD25" s="31"/>
+      <c r="DE25" s="31"/>
+      <c r="DF25" s="31"/>
+      <c r="DG25" s="31"/>
+      <c r="DH25" s="31"/>
+      <c r="DI25" s="31"/>
+      <c r="DJ25" s="31"/>
+      <c r="DK25" s="31"/>
+      <c r="DL25" s="31"/>
+      <c r="DM25" s="31"/>
+      <c r="DN25" s="31"/>
+      <c r="DO25" s="31"/>
+      <c r="DP25" s="31"/>
+      <c r="DQ25" s="31"/>
+      <c r="DR25" s="31"/>
+      <c r="DS25" s="31"/>
+      <c r="DT25" s="31"/>
+      <c r="DU25" s="31"/>
+      <c r="DV25" s="31"/>
+      <c r="DW25" s="31"/>
+      <c r="DX25" s="31"/>
+      <c r="DY25" s="31"/>
+      <c r="DZ25" s="31"/>
+      <c r="EA25" s="31"/>
+      <c r="EB25" s="31"/>
+      <c r="EC25" s="31"/>
+      <c r="ED25" s="31"/>
+      <c r="EE25" s="31"/>
+      <c r="EF25" s="31"/>
+      <c r="EG25" s="31"/>
+      <c r="EH25" s="31"/>
+      <c r="EI25" s="31"/>
+      <c r="EJ25" s="31"/>
+      <c r="EK25" s="31"/>
+      <c r="EL25" s="31"/>
+      <c r="EM25" s="31"/>
+      <c r="EN25" s="31"/>
+      <c r="EO25" s="31"/>
+      <c r="EP25" s="31"/>
+      <c r="EQ25" s="31"/>
+      <c r="ER25" s="31"/>
+      <c r="ES25" s="31"/>
+      <c r="ET25" s="31"/>
+      <c r="EU25" s="31"/>
+      <c r="EV25" s="31"/>
+      <c r="EW25" s="31"/>
+      <c r="EX25" s="31"/>
+      <c r="EY25" s="31"/>
+      <c r="EZ25" s="31"/>
+      <c r="FA25" s="31"/>
+      <c r="FB25" s="31"/>
+      <c r="FC25" s="31"/>
+      <c r="FD25" s="31"/>
+      <c r="FE25" s="31"/>
+      <c r="FF25" s="31"/>
+      <c r="FG25" s="31"/>
+      <c r="FH25" s="31"/>
+      <c r="FI25" s="31"/>
+      <c r="FJ25" s="31"/>
+      <c r="FK25" s="31"/>
+      <c r="FL25" s="31"/>
+      <c r="FM25" s="31"/>
+      <c r="FN25" s="31"/>
+      <c r="FO25" s="31"/>
+      <c r="FP25" s="31"/>
+      <c r="FQ25" s="31"/>
+      <c r="FR25" s="31"/>
+      <c r="FS25" s="31"/>
+      <c r="FT25" s="31"/>
+      <c r="FU25" s="31"/>
+      <c r="FV25" s="31"/>
+      <c r="FW25" s="31"/>
+      <c r="FX25" s="31"/>
+      <c r="FY25" s="31"/>
+      <c r="FZ25" s="31"/>
+      <c r="GA25" s="31"/>
+      <c r="GB25" s="31"/>
+      <c r="GC25" s="31"/>
+      <c r="GD25" s="31"/>
+      <c r="GE25" s="31"/>
+      <c r="GF25" s="31"/>
+      <c r="GG25" s="31"/>
+      <c r="GH25" s="31"/>
+      <c r="GI25" s="31"/>
+      <c r="GJ25" s="31"/>
+      <c r="GK25" s="31"/>
+      <c r="GL25" s="31"/>
+      <c r="GM25" s="31"/>
+      <c r="GN25" s="31"/>
+      <c r="GO25" s="31"/>
+      <c r="GP25" s="31"/>
+      <c r="GQ25" s="31"/>
+      <c r="GR25" s="31"/>
+      <c r="GS25" s="31"/>
+      <c r="GT25" s="31"/>
+      <c r="GU25" s="31"/>
+      <c r="GV25" s="31"/>
+      <c r="GW25" s="31"/>
+      <c r="GX25" s="31"/>
+      <c r="GY25" s="31"/>
+      <c r="GZ25" s="31"/>
+      <c r="HA25" s="31"/>
+      <c r="HB25" s="31"/>
+      <c r="HC25" s="31"/>
+      <c r="HD25" s="31"/>
+      <c r="HE25" s="31"/>
+      <c r="HF25" s="31"/>
+      <c r="HG25" s="31"/>
+      <c r="HH25" s="31"/>
+      <c r="HI25" s="31"/>
+      <c r="HJ25" s="31"/>
+      <c r="HK25" s="31"/>
+      <c r="HL25" s="31"/>
+      <c r="HM25" s="31"/>
+      <c r="HN25" s="31"/>
+      <c r="HO25" s="31"/>
+      <c r="HP25" s="31"/>
+      <c r="HQ25" s="31"/>
+      <c r="HR25" s="31"/>
+      <c r="HS25" s="31"/>
+      <c r="HT25" s="31"/>
+      <c r="HU25" s="31"/>
     </row>
     <row r="26" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
@@ -7608,11 +7469,11 @@
       <c r="G26" s="7">
         <v>0</v>
       </c>
-      <c r="H26" s="44"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -7629,173 +7490,173 @@
       <c r="G27" s="7">
         <v>0</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="BP27" s="45"/>
-      <c r="BQ27" s="45"/>
-      <c r="BR27" s="45"/>
-      <c r="BS27" s="45"/>
-      <c r="BT27" s="45"/>
-      <c r="BU27" s="45"/>
-      <c r="BV27" s="45"/>
-      <c r="BW27" s="45"/>
-      <c r="BX27" s="45"/>
-      <c r="BY27" s="45"/>
-      <c r="BZ27" s="45"/>
-      <c r="CA27" s="45"/>
-      <c r="CB27" s="45"/>
-      <c r="CC27" s="45"/>
-      <c r="CD27" s="45"/>
-      <c r="CE27" s="45"/>
-      <c r="CF27" s="45"/>
-      <c r="CG27" s="45"/>
-      <c r="CH27" s="45"/>
-      <c r="CI27" s="45"/>
-      <c r="CJ27" s="45"/>
-      <c r="CK27" s="45"/>
-      <c r="CL27" s="45"/>
-      <c r="CM27" s="45"/>
-      <c r="CN27" s="45"/>
-      <c r="CO27" s="45"/>
-      <c r="CP27" s="45"/>
-      <c r="CQ27" s="45"/>
-      <c r="CR27" s="45"/>
-      <c r="CS27" s="45"/>
-      <c r="CT27" s="45"/>
-      <c r="CU27" s="45"/>
-      <c r="CV27" s="45"/>
-      <c r="CW27" s="45"/>
-      <c r="CX27" s="45"/>
-      <c r="CY27" s="45"/>
-      <c r="CZ27" s="45"/>
-      <c r="DA27" s="45"/>
-      <c r="DB27" s="45"/>
-      <c r="DC27" s="45"/>
-      <c r="DD27" s="45"/>
-      <c r="DE27" s="45"/>
-      <c r="DF27" s="45"/>
-      <c r="DG27" s="45"/>
-      <c r="DH27" s="45"/>
-      <c r="DI27" s="45"/>
-      <c r="DJ27" s="45"/>
-      <c r="DK27" s="45"/>
-      <c r="DL27" s="45"/>
-      <c r="DM27" s="45"/>
-      <c r="DN27" s="45"/>
-      <c r="DO27" s="45"/>
-      <c r="DP27" s="45"/>
-      <c r="DQ27" s="45"/>
-      <c r="DR27" s="45"/>
-      <c r="DS27" s="45"/>
-      <c r="DT27" s="45"/>
-      <c r="DU27" s="45"/>
-      <c r="DV27" s="45"/>
-      <c r="DW27" s="45"/>
-      <c r="DX27" s="45"/>
-      <c r="DY27" s="45"/>
-      <c r="DZ27" s="45"/>
-      <c r="EA27" s="45"/>
-      <c r="EB27" s="45"/>
-      <c r="EC27" s="45"/>
-      <c r="ED27" s="45"/>
-      <c r="EE27" s="45"/>
-      <c r="EF27" s="45"/>
-      <c r="EG27" s="45"/>
-      <c r="EH27" s="45"/>
-      <c r="EI27" s="45"/>
-      <c r="EJ27" s="45"/>
-      <c r="EK27" s="45"/>
-      <c r="EL27" s="45"/>
-      <c r="EM27" s="45"/>
-      <c r="EN27" s="45"/>
-      <c r="EO27" s="45"/>
-      <c r="EP27" s="45"/>
-      <c r="EQ27" s="45"/>
-      <c r="ER27" s="45"/>
-      <c r="ES27" s="45"/>
-      <c r="ET27" s="45"/>
-      <c r="EU27" s="45"/>
-      <c r="EV27" s="45"/>
-      <c r="EW27" s="45"/>
-      <c r="EX27" s="45"/>
-      <c r="EY27" s="45"/>
-      <c r="EZ27" s="45"/>
-      <c r="FA27" s="45"/>
-      <c r="FB27" s="45"/>
-      <c r="FC27" s="45"/>
-      <c r="FD27" s="45"/>
-      <c r="FE27" s="45"/>
-      <c r="FF27" s="45"/>
-      <c r="FG27" s="45"/>
-      <c r="FH27" s="45"/>
-      <c r="FI27" s="45"/>
-      <c r="FJ27" s="45"/>
-      <c r="FK27" s="45"/>
-      <c r="FL27" s="45"/>
-      <c r="FM27" s="45"/>
-      <c r="FN27" s="45"/>
-      <c r="FO27" s="45"/>
-      <c r="FP27" s="45"/>
-      <c r="FQ27" s="45"/>
-      <c r="FR27" s="45"/>
-      <c r="FS27" s="45"/>
-      <c r="FT27" s="45"/>
-      <c r="FU27" s="45"/>
-      <c r="FV27" s="45"/>
-      <c r="FW27" s="45"/>
-      <c r="FX27" s="45"/>
-      <c r="FY27" s="45"/>
-      <c r="FZ27" s="45"/>
-      <c r="GA27" s="45"/>
-      <c r="GB27" s="45"/>
-      <c r="GC27" s="45"/>
-      <c r="GD27" s="45"/>
-      <c r="GE27" s="45"/>
-      <c r="GF27" s="45"/>
-      <c r="GG27" s="45"/>
-      <c r="GH27" s="45"/>
-      <c r="GI27" s="45"/>
-      <c r="GJ27" s="45"/>
-      <c r="GK27" s="45"/>
-      <c r="GL27" s="45"/>
-      <c r="GM27" s="45"/>
-      <c r="GN27" s="45"/>
-      <c r="GO27" s="45"/>
-      <c r="GP27" s="45"/>
-      <c r="GQ27" s="45"/>
-      <c r="GR27" s="45"/>
-      <c r="GS27" s="45"/>
-      <c r="GT27" s="45"/>
-      <c r="GU27" s="45"/>
-      <c r="GV27" s="45"/>
-      <c r="GW27" s="45"/>
-      <c r="GX27" s="45"/>
-      <c r="GY27" s="45"/>
-      <c r="GZ27" s="45"/>
-      <c r="HA27" s="45"/>
-      <c r="HB27" s="45"/>
-      <c r="HC27" s="45"/>
-      <c r="HD27" s="45"/>
-      <c r="HE27" s="45"/>
-      <c r="HF27" s="45"/>
-      <c r="HG27" s="45"/>
-      <c r="HH27" s="45"/>
-      <c r="HI27" s="45"/>
-      <c r="HJ27" s="45"/>
-      <c r="HK27" s="45"/>
-      <c r="HL27" s="45"/>
-      <c r="HM27" s="45"/>
-      <c r="HN27" s="45"/>
-      <c r="HO27" s="45"/>
-      <c r="HP27" s="45"/>
-      <c r="HQ27" s="45"/>
-      <c r="HR27" s="45"/>
-      <c r="HS27" s="45"/>
-      <c r="HT27" s="45"/>
-      <c r="HU27" s="45"/>
+      <c r="H27" s="30"/>
+      <c r="BP27" s="31"/>
+      <c r="BQ27" s="31"/>
+      <c r="BR27" s="31"/>
+      <c r="BS27" s="31"/>
+      <c r="BT27" s="31"/>
+      <c r="BU27" s="31"/>
+      <c r="BV27" s="31"/>
+      <c r="BW27" s="31"/>
+      <c r="BX27" s="31"/>
+      <c r="BY27" s="31"/>
+      <c r="BZ27" s="31"/>
+      <c r="CA27" s="31"/>
+      <c r="CB27" s="31"/>
+      <c r="CC27" s="31"/>
+      <c r="CD27" s="31"/>
+      <c r="CE27" s="31"/>
+      <c r="CF27" s="31"/>
+      <c r="CG27" s="31"/>
+      <c r="CH27" s="31"/>
+      <c r="CI27" s="31"/>
+      <c r="CJ27" s="31"/>
+      <c r="CK27" s="31"/>
+      <c r="CL27" s="31"/>
+      <c r="CM27" s="31"/>
+      <c r="CN27" s="31"/>
+      <c r="CO27" s="31"/>
+      <c r="CP27" s="31"/>
+      <c r="CQ27" s="31"/>
+      <c r="CR27" s="31"/>
+      <c r="CS27" s="31"/>
+      <c r="CT27" s="31"/>
+      <c r="CU27" s="31"/>
+      <c r="CV27" s="31"/>
+      <c r="CW27" s="31"/>
+      <c r="CX27" s="31"/>
+      <c r="CY27" s="31"/>
+      <c r="CZ27" s="31"/>
+      <c r="DA27" s="31"/>
+      <c r="DB27" s="31"/>
+      <c r="DC27" s="31"/>
+      <c r="DD27" s="31"/>
+      <c r="DE27" s="31"/>
+      <c r="DF27" s="31"/>
+      <c r="DG27" s="31"/>
+      <c r="DH27" s="31"/>
+      <c r="DI27" s="31"/>
+      <c r="DJ27" s="31"/>
+      <c r="DK27" s="31"/>
+      <c r="DL27" s="31"/>
+      <c r="DM27" s="31"/>
+      <c r="DN27" s="31"/>
+      <c r="DO27" s="31"/>
+      <c r="DP27" s="31"/>
+      <c r="DQ27" s="31"/>
+      <c r="DR27" s="31"/>
+      <c r="DS27" s="31"/>
+      <c r="DT27" s="31"/>
+      <c r="DU27" s="31"/>
+      <c r="DV27" s="31"/>
+      <c r="DW27" s="31"/>
+      <c r="DX27" s="31"/>
+      <c r="DY27" s="31"/>
+      <c r="DZ27" s="31"/>
+      <c r="EA27" s="31"/>
+      <c r="EB27" s="31"/>
+      <c r="EC27" s="31"/>
+      <c r="ED27" s="31"/>
+      <c r="EE27" s="31"/>
+      <c r="EF27" s="31"/>
+      <c r="EG27" s="31"/>
+      <c r="EH27" s="31"/>
+      <c r="EI27" s="31"/>
+      <c r="EJ27" s="31"/>
+      <c r="EK27" s="31"/>
+      <c r="EL27" s="31"/>
+      <c r="EM27" s="31"/>
+      <c r="EN27" s="31"/>
+      <c r="EO27" s="31"/>
+      <c r="EP27" s="31"/>
+      <c r="EQ27" s="31"/>
+      <c r="ER27" s="31"/>
+      <c r="ES27" s="31"/>
+      <c r="ET27" s="31"/>
+      <c r="EU27" s="31"/>
+      <c r="EV27" s="31"/>
+      <c r="EW27" s="31"/>
+      <c r="EX27" s="31"/>
+      <c r="EY27" s="31"/>
+      <c r="EZ27" s="31"/>
+      <c r="FA27" s="31"/>
+      <c r="FB27" s="31"/>
+      <c r="FC27" s="31"/>
+      <c r="FD27" s="31"/>
+      <c r="FE27" s="31"/>
+      <c r="FF27" s="31"/>
+      <c r="FG27" s="31"/>
+      <c r="FH27" s="31"/>
+      <c r="FI27" s="31"/>
+      <c r="FJ27" s="31"/>
+      <c r="FK27" s="31"/>
+      <c r="FL27" s="31"/>
+      <c r="FM27" s="31"/>
+      <c r="FN27" s="31"/>
+      <c r="FO27" s="31"/>
+      <c r="FP27" s="31"/>
+      <c r="FQ27" s="31"/>
+      <c r="FR27" s="31"/>
+      <c r="FS27" s="31"/>
+      <c r="FT27" s="31"/>
+      <c r="FU27" s="31"/>
+      <c r="FV27" s="31"/>
+      <c r="FW27" s="31"/>
+      <c r="FX27" s="31"/>
+      <c r="FY27" s="31"/>
+      <c r="FZ27" s="31"/>
+      <c r="GA27" s="31"/>
+      <c r="GB27" s="31"/>
+      <c r="GC27" s="31"/>
+      <c r="GD27" s="31"/>
+      <c r="GE27" s="31"/>
+      <c r="GF27" s="31"/>
+      <c r="GG27" s="31"/>
+      <c r="GH27" s="31"/>
+      <c r="GI27" s="31"/>
+      <c r="GJ27" s="31"/>
+      <c r="GK27" s="31"/>
+      <c r="GL27" s="31"/>
+      <c r="GM27" s="31"/>
+      <c r="GN27" s="31"/>
+      <c r="GO27" s="31"/>
+      <c r="GP27" s="31"/>
+      <c r="GQ27" s="31"/>
+      <c r="GR27" s="31"/>
+      <c r="GS27" s="31"/>
+      <c r="GT27" s="31"/>
+      <c r="GU27" s="31"/>
+      <c r="GV27" s="31"/>
+      <c r="GW27" s="31"/>
+      <c r="GX27" s="31"/>
+      <c r="GY27" s="31"/>
+      <c r="GZ27" s="31"/>
+      <c r="HA27" s="31"/>
+      <c r="HB27" s="31"/>
+      <c r="HC27" s="31"/>
+      <c r="HD27" s="31"/>
+      <c r="HE27" s="31"/>
+      <c r="HF27" s="31"/>
+      <c r="HG27" s="31"/>
+      <c r="HH27" s="31"/>
+      <c r="HI27" s="31"/>
+      <c r="HJ27" s="31"/>
+      <c r="HK27" s="31"/>
+      <c r="HL27" s="31"/>
+      <c r="HM27" s="31"/>
+      <c r="HN27" s="31"/>
+      <c r="HO27" s="31"/>
+      <c r="HP27" s="31"/>
+      <c r="HQ27" s="31"/>
+      <c r="HR27" s="31"/>
+      <c r="HS27" s="31"/>
+      <c r="HT27" s="31"/>
+      <c r="HU27" s="31"/>
     </row>
     <row r="28" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -7812,11 +7673,11 @@
       <c r="G28" s="7">
         <v>0</v>
       </c>
-      <c r="H28" s="44"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -7833,11 +7694,11 @@
       <c r="G29" s="7">
         <v>0</v>
       </c>
-      <c r="H29" s="44"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -7854,7 +7715,7 @@
       <c r="G30" s="7">
         <v>0</v>
       </c>
-      <c r="H30" s="44"/>
+      <c r="H30" s="30"/>
       <c r="J30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
@@ -7915,153 +7776,378 @@
       <c r="CF30" s="1"/>
       <c r="CG30" s="1"/>
       <c r="CH30" s="1"/>
-      <c r="CI30" s="45"/>
-      <c r="CJ30" s="45"/>
-      <c r="CK30" s="45"/>
-      <c r="CL30" s="45"/>
-      <c r="CM30" s="45"/>
-      <c r="CN30" s="45"/>
-      <c r="CO30" s="45"/>
-      <c r="CP30" s="45"/>
-      <c r="CQ30" s="45"/>
-      <c r="CR30" s="45"/>
-      <c r="CS30" s="45"/>
-      <c r="CT30" s="45"/>
-      <c r="CU30" s="45"/>
-      <c r="CV30" s="45"/>
-      <c r="CW30" s="45"/>
-      <c r="CX30" s="45"/>
-      <c r="CY30" s="45"/>
-      <c r="CZ30" s="45"/>
-      <c r="DA30" s="45"/>
-      <c r="DB30" s="45"/>
-      <c r="DC30" s="45"/>
-      <c r="DD30" s="45"/>
-      <c r="DE30" s="45"/>
-      <c r="DF30" s="45"/>
-      <c r="DG30" s="45"/>
-      <c r="DH30" s="45"/>
-      <c r="DI30" s="45"/>
-      <c r="DJ30" s="45"/>
-      <c r="DK30" s="45"/>
-      <c r="DL30" s="45"/>
-      <c r="DM30" s="45"/>
-      <c r="DN30" s="45"/>
-      <c r="DO30" s="45"/>
-      <c r="DP30" s="45"/>
-      <c r="DQ30" s="45"/>
-      <c r="DR30" s="45"/>
-      <c r="DS30" s="45"/>
-      <c r="DT30" s="45"/>
-      <c r="DU30" s="45"/>
-      <c r="DV30" s="45"/>
-      <c r="DW30" s="45"/>
-      <c r="DX30" s="45"/>
-      <c r="DY30" s="45"/>
-      <c r="DZ30" s="45"/>
-      <c r="EA30" s="45"/>
-      <c r="EB30" s="45"/>
-      <c r="EC30" s="45"/>
-      <c r="ED30" s="45"/>
-      <c r="EE30" s="45"/>
-      <c r="EF30" s="45"/>
-      <c r="EG30" s="45"/>
-      <c r="EH30" s="45"/>
-      <c r="EI30" s="45"/>
-      <c r="EJ30" s="45"/>
-      <c r="EK30" s="45"/>
-      <c r="EL30" s="45"/>
-      <c r="EM30" s="45"/>
-      <c r="EN30" s="45"/>
-      <c r="EO30" s="45"/>
-      <c r="EP30" s="45"/>
-      <c r="EQ30" s="45"/>
-      <c r="ER30" s="45"/>
-      <c r="ES30" s="45"/>
-      <c r="ET30" s="45"/>
-      <c r="EU30" s="45"/>
-      <c r="EV30" s="45"/>
-      <c r="EW30" s="45"/>
-      <c r="EX30" s="45"/>
-      <c r="EY30" s="45"/>
-      <c r="EZ30" s="45"/>
-      <c r="FA30" s="45"/>
-      <c r="FB30" s="45"/>
-      <c r="FC30" s="45"/>
-      <c r="FD30" s="45"/>
-      <c r="FE30" s="45"/>
-      <c r="FF30" s="45"/>
-      <c r="FG30" s="45"/>
-      <c r="FH30" s="45"/>
-      <c r="FI30" s="45"/>
-      <c r="FJ30" s="45"/>
-      <c r="FK30" s="45"/>
-      <c r="FL30" s="45"/>
-      <c r="FM30" s="45"/>
-      <c r="FN30" s="45"/>
-      <c r="FO30" s="45"/>
-      <c r="FP30" s="45"/>
-      <c r="FQ30" s="45"/>
-      <c r="FR30" s="45"/>
-      <c r="FS30" s="45"/>
-      <c r="FT30" s="45"/>
-      <c r="FU30" s="45"/>
-      <c r="FV30" s="45"/>
-      <c r="FW30" s="45"/>
-      <c r="FX30" s="45"/>
-      <c r="FY30" s="45"/>
-      <c r="FZ30" s="45"/>
-      <c r="GA30" s="45"/>
-      <c r="GB30" s="45"/>
-      <c r="GC30" s="45"/>
-      <c r="GD30" s="45"/>
-      <c r="GE30" s="45"/>
-      <c r="GF30" s="45"/>
-      <c r="GG30" s="45"/>
-      <c r="GH30" s="45"/>
-      <c r="GI30" s="45"/>
-      <c r="GJ30" s="45"/>
-      <c r="GK30" s="45"/>
-      <c r="GL30" s="45"/>
-      <c r="GM30" s="45"/>
-      <c r="GN30" s="45"/>
-      <c r="GO30" s="45"/>
-      <c r="GP30" s="45"/>
-      <c r="GQ30" s="45"/>
-      <c r="GR30" s="45"/>
-      <c r="GS30" s="45"/>
-      <c r="GT30" s="45"/>
-      <c r="GU30" s="45"/>
-      <c r="GV30" s="45"/>
-      <c r="GW30" s="45"/>
-      <c r="GX30" s="45"/>
-      <c r="GY30" s="45"/>
-      <c r="GZ30" s="45"/>
-      <c r="HA30" s="45"/>
-      <c r="HB30" s="45"/>
-      <c r="HC30" s="45"/>
-      <c r="HD30" s="45"/>
-      <c r="HE30" s="45"/>
-      <c r="HF30" s="45"/>
-      <c r="HG30" s="45"/>
-      <c r="HH30" s="45"/>
-      <c r="HI30" s="45"/>
-      <c r="HJ30" s="45"/>
-      <c r="HK30" s="45"/>
-      <c r="HL30" s="45"/>
-      <c r="HM30" s="45"/>
-      <c r="HN30" s="45"/>
-      <c r="HO30" s="45"/>
-      <c r="HP30" s="45"/>
-      <c r="HQ30" s="45"/>
-      <c r="HR30" s="45"/>
-      <c r="HS30" s="45"/>
-      <c r="HT30" s="45"/>
-      <c r="HU30" s="45"/>
+      <c r="CI30" s="1"/>
+      <c r="CJ30" s="1"/>
+      <c r="CK30" s="1"/>
+      <c r="CL30" s="1"/>
+      <c r="CM30" s="1"/>
+      <c r="CN30" s="1"/>
+      <c r="CO30" s="1"/>
+      <c r="CP30" s="1"/>
+      <c r="CQ30" s="1"/>
+      <c r="CR30" s="1"/>
+      <c r="CS30" s="1"/>
+      <c r="CT30" s="1"/>
+      <c r="CU30" s="1"/>
+      <c r="CV30" s="1"/>
+      <c r="CW30" s="1"/>
+      <c r="CX30" s="1"/>
+      <c r="CY30" s="1"/>
+      <c r="CZ30" s="1"/>
+      <c r="DA30" s="1"/>
+      <c r="DB30" s="1"/>
+      <c r="DC30" s="1"/>
+      <c r="DD30" s="1"/>
+      <c r="DE30" s="1"/>
+      <c r="DF30" s="1"/>
+      <c r="DG30" s="1"/>
+      <c r="DH30" s="1"/>
+      <c r="DI30" s="1"/>
+      <c r="DJ30" s="1"/>
+      <c r="DK30" s="1"/>
+      <c r="DL30" s="1"/>
+      <c r="DM30" s="1"/>
+      <c r="DN30" s="1"/>
+      <c r="DO30" s="1"/>
+      <c r="DP30" s="1"/>
+      <c r="DQ30" s="1"/>
+      <c r="DR30" s="1"/>
+      <c r="DS30" s="1"/>
+      <c r="DT30" s="1"/>
+      <c r="DU30" s="1"/>
+      <c r="DV30" s="1"/>
+      <c r="DW30" s="1"/>
+      <c r="DX30" s="1"/>
+      <c r="DY30" s="1"/>
+      <c r="DZ30" s="1"/>
+      <c r="EA30" s="1"/>
+      <c r="EB30" s="1"/>
+      <c r="EC30" s="1"/>
+      <c r="ED30" s="1"/>
+      <c r="EE30" s="1"/>
+      <c r="EF30" s="1"/>
+      <c r="EG30" s="1"/>
+      <c r="EH30" s="1"/>
+      <c r="EI30" s="1"/>
+      <c r="EJ30" s="1"/>
+      <c r="EK30" s="1"/>
+      <c r="EL30" s="1"/>
+      <c r="EM30" s="1"/>
+      <c r="EN30" s="1"/>
+      <c r="EO30" s="1"/>
+      <c r="EP30" s="1"/>
+      <c r="EQ30" s="1"/>
+      <c r="ER30" s="1"/>
+      <c r="ES30" s="1"/>
+      <c r="ET30" s="1"/>
+      <c r="EU30" s="1"/>
+      <c r="EV30" s="1"/>
+      <c r="EW30" s="1"/>
+      <c r="EX30" s="1"/>
+      <c r="EY30" s="1"/>
+      <c r="EZ30" s="1"/>
+      <c r="FA30" s="1"/>
+      <c r="FB30" s="1"/>
+      <c r="FC30" s="1"/>
+      <c r="FD30" s="1"/>
+      <c r="FE30" s="1"/>
+      <c r="FF30" s="1"/>
+      <c r="FG30" s="1"/>
+      <c r="FH30" s="1"/>
+      <c r="FI30" s="1"/>
+      <c r="FJ30" s="1"/>
+      <c r="FK30" s="1"/>
+      <c r="FL30" s="1"/>
+      <c r="FM30" s="1"/>
+      <c r="FN30" s="1"/>
+      <c r="FO30" s="1"/>
+      <c r="FP30" s="1"/>
+      <c r="FQ30" s="1"/>
+      <c r="FR30" s="1"/>
+      <c r="FS30" s="1"/>
+      <c r="FT30" s="1"/>
+      <c r="FU30" s="1"/>
+      <c r="FV30" s="1"/>
+      <c r="FW30" s="1"/>
+      <c r="FX30" s="1"/>
+      <c r="FY30" s="1"/>
+      <c r="FZ30" s="1"/>
+      <c r="GA30" s="1"/>
+      <c r="GB30" s="1"/>
+      <c r="GC30" s="1"/>
+      <c r="GD30" s="1"/>
+      <c r="GE30" s="1"/>
+      <c r="GF30" s="1"/>
+      <c r="GG30" s="1"/>
+      <c r="GH30" s="1"/>
+      <c r="GI30" s="1"/>
+      <c r="GJ30" s="1"/>
+      <c r="GK30" s="1"/>
+      <c r="GL30" s="1"/>
+      <c r="GM30" s="1"/>
+      <c r="GN30" s="1"/>
+      <c r="GO30" s="1"/>
+      <c r="GP30" s="1"/>
+      <c r="GQ30" s="1"/>
+      <c r="GR30" s="1"/>
+      <c r="GS30" s="1"/>
+      <c r="GT30" s="1"/>
+      <c r="GU30" s="1"/>
+      <c r="GV30" s="1"/>
+      <c r="GW30" s="1"/>
+      <c r="GX30" s="1"/>
+      <c r="GY30" s="1"/>
+      <c r="GZ30" s="1"/>
+      <c r="HA30" s="1"/>
+      <c r="HB30" s="1"/>
+      <c r="HC30" s="1"/>
+      <c r="HD30" s="1"/>
+      <c r="HE30" s="1"/>
+      <c r="HF30" s="1"/>
+      <c r="HG30" s="1"/>
+      <c r="HH30" s="1"/>
+      <c r="HI30" s="1"/>
+      <c r="HJ30" s="1"/>
+      <c r="HK30" s="1"/>
+      <c r="HL30" s="1"/>
+      <c r="HM30" s="1"/>
+      <c r="HN30" s="1"/>
+      <c r="HO30" s="1"/>
+      <c r="HP30" s="1"/>
+      <c r="HQ30" s="1"/>
+      <c r="HR30" s="1"/>
+      <c r="HS30" s="1"/>
+      <c r="HT30" s="1"/>
+      <c r="HU30" s="1"/>
     </row>
     <row r="31" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="BP31" s="46"/>
-      <c r="BQ31" s="46"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="2"/>
+      <c r="BG31" s="2"/>
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
+      <c r="BJ31" s="2"/>
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="2"/>
+      <c r="BM31" s="2"/>
+      <c r="BN31" s="2"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="2"/>
+      <c r="BQ31" s="2"/>
+      <c r="BR31" s="2"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="2"/>
+      <c r="BU31" s="2"/>
+      <c r="BV31" s="2"/>
+      <c r="BW31" s="2"/>
+      <c r="BX31" s="2"/>
+      <c r="BY31" s="2"/>
+      <c r="BZ31" s="2"/>
+      <c r="CA31" s="2"/>
+      <c r="CB31" s="2"/>
+      <c r="CC31" s="2"/>
+      <c r="CD31" s="2"/>
+      <c r="CE31" s="2"/>
+      <c r="CF31" s="2"/>
+      <c r="CG31" s="2"/>
+      <c r="CH31" s="2"/>
+      <c r="CI31" s="2"/>
+      <c r="CJ31" s="2"/>
+      <c r="CK31" s="2"/>
+      <c r="CL31" s="2"/>
+      <c r="CM31" s="2"/>
+      <c r="CN31" s="2"/>
+      <c r="CO31" s="2"/>
+      <c r="CP31" s="2"/>
+      <c r="CQ31" s="2"/>
+      <c r="CR31" s="2"/>
+      <c r="CS31" s="2"/>
+      <c r="CT31" s="2"/>
+      <c r="CU31" s="2"/>
+      <c r="CV31" s="2"/>
+      <c r="CW31" s="2"/>
+      <c r="CX31" s="2"/>
+      <c r="CY31" s="2"/>
+      <c r="CZ31" s="2"/>
+      <c r="DA31" s="2"/>
+      <c r="DB31" s="2"/>
+      <c r="DC31" s="2"/>
+      <c r="DD31" s="2"/>
+      <c r="DE31" s="2"/>
+      <c r="DF31" s="2"/>
+      <c r="DG31" s="2"/>
+      <c r="DH31" s="2"/>
+      <c r="DI31" s="2"/>
+      <c r="DJ31" s="2"/>
+      <c r="DK31" s="2"/>
+      <c r="DL31" s="2"/>
+      <c r="DM31" s="2"/>
+      <c r="DN31" s="2"/>
+      <c r="DO31" s="2"/>
+      <c r="DP31" s="2"/>
+      <c r="DQ31" s="2"/>
+      <c r="DR31" s="2"/>
+      <c r="DS31" s="2"/>
+      <c r="DT31" s="2"/>
+      <c r="DU31" s="2"/>
+      <c r="DV31" s="2"/>
+      <c r="DW31" s="2"/>
+      <c r="DX31" s="2"/>
+      <c r="DY31" s="2"/>
+      <c r="DZ31" s="2"/>
+      <c r="EA31" s="2"/>
+      <c r="EB31" s="2"/>
+      <c r="EC31" s="2"/>
+      <c r="ED31" s="2"/>
+      <c r="EE31" s="2"/>
+      <c r="EF31" s="2"/>
+      <c r="EG31" s="2"/>
+      <c r="EH31" s="2"/>
+      <c r="EI31" s="2"/>
+      <c r="EJ31" s="2"/>
+      <c r="EK31" s="2"/>
+      <c r="EL31" s="2"/>
+      <c r="EM31" s="2"/>
+      <c r="EN31" s="2"/>
+      <c r="EO31" s="2"/>
+      <c r="EP31" s="2"/>
+      <c r="EQ31" s="2"/>
+      <c r="ER31" s="2"/>
+      <c r="ES31" s="2"/>
+      <c r="ET31" s="2"/>
+      <c r="EU31" s="2"/>
+      <c r="EV31" s="2"/>
+      <c r="EW31" s="2"/>
+      <c r="EX31" s="2"/>
+      <c r="EY31" s="2"/>
+      <c r="EZ31" s="2"/>
+      <c r="FA31" s="2"/>
+      <c r="FB31" s="2"/>
+      <c r="FC31" s="2"/>
+      <c r="FD31" s="2"/>
+      <c r="FE31" s="2"/>
+      <c r="FF31" s="2"/>
+      <c r="FG31" s="2"/>
+      <c r="FH31" s="2"/>
+      <c r="FI31" s="2"/>
+      <c r="FJ31" s="2"/>
+      <c r="FK31" s="2"/>
+      <c r="FL31" s="2"/>
+      <c r="FM31" s="2"/>
+      <c r="FN31" s="2"/>
+      <c r="FO31" s="2"/>
+      <c r="FP31" s="2"/>
+      <c r="FQ31" s="2"/>
+      <c r="FR31" s="2"/>
+      <c r="FS31" s="2"/>
+      <c r="FT31" s="2"/>
+      <c r="FU31" s="2"/>
+      <c r="FV31" s="2"/>
+      <c r="FW31" s="2"/>
+      <c r="FX31" s="2"/>
+      <c r="FY31" s="2"/>
+      <c r="FZ31" s="2"/>
+      <c r="GA31" s="2"/>
+      <c r="GB31" s="2"/>
+      <c r="GC31" s="2"/>
+      <c r="GD31" s="2"/>
+      <c r="GE31" s="2"/>
+      <c r="GF31" s="2"/>
+      <c r="GG31" s="2"/>
+      <c r="GH31" s="2"/>
+      <c r="GI31" s="2"/>
+      <c r="GJ31" s="2"/>
+      <c r="GK31" s="2"/>
+      <c r="GL31" s="2"/>
+      <c r="GM31" s="2"/>
+      <c r="GN31" s="2"/>
+      <c r="GO31" s="2"/>
+      <c r="GP31" s="2"/>
+      <c r="GQ31" s="2"/>
+      <c r="GR31" s="2"/>
+      <c r="GS31" s="2"/>
+      <c r="GT31" s="2"/>
+      <c r="GU31" s="2"/>
+      <c r="GV31" s="2"/>
+      <c r="GW31" s="2"/>
+      <c r="GX31" s="2"/>
+      <c r="GY31" s="2"/>
+      <c r="GZ31" s="2"/>
+      <c r="HA31" s="2"/>
+      <c r="HB31" s="2"/>
+      <c r="HC31" s="2"/>
+      <c r="HD31" s="2"/>
+      <c r="HE31" s="2"/>
+      <c r="HF31" s="2"/>
+      <c r="HG31" s="2"/>
+      <c r="HH31" s="2"/>
+      <c r="HI31" s="2"/>
+      <c r="HJ31" s="2"/>
+      <c r="HK31" s="2"/>
+      <c r="HL31" s="2"/>
+      <c r="HM31" s="2"/>
+      <c r="HN31" s="2"/>
+      <c r="HO31" s="2"/>
+      <c r="HP31" s="2"/>
+      <c r="HQ31" s="2"/>
+      <c r="HR31" s="2"/>
+      <c r="HS31" s="2"/>
+      <c r="HT31" s="2"/>
+      <c r="HU31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8077,351 +8163,351 @@
     <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="W2:X2"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:BO24 I30:HU30 BP28:HU29 BP26:HU26 I26:BO29 I25:BN25">
-    <cfRule type="expression" dxfId="151" priority="121">
+  <conditionalFormatting sqref="I5:BO24 BP28:HU29 BP26:HU26 I26:BO29 I25:BN25 I30:HU30">
+    <cfRule type="expression" dxfId="47" priority="121">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="123">
+    <cfRule type="expression" dxfId="46" priority="123">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="124">
+    <cfRule type="expression" dxfId="45" priority="124">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="125">
+    <cfRule type="expression" dxfId="44" priority="125">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="126">
+    <cfRule type="expression" dxfId="43" priority="126">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="127">
+    <cfRule type="expression" dxfId="42" priority="127">
       <formula>I$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="131">
+    <cfRule type="expression" dxfId="41" priority="131">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="132">
+    <cfRule type="expression" dxfId="40" priority="132">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="154" priority="122">
+  <conditionalFormatting sqref="B31:HU31">
+    <cfRule type="expression" dxfId="145" priority="122">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:HU4 H5:H30">
-    <cfRule type="expression" dxfId="152" priority="128">
+    <cfRule type="expression" dxfId="144" priority="128">
       <formula>H$4=időszak_kiválasztva</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP27:HU27 BO25:HU25 CK23:HU23 CK21:HU21 CK19:HU19 CK17:HU17 CK15:HU15 CK13:HU13 CK11:HU11 CK9:HU9 CK7:HU7 CK5:HU5">
-    <cfRule type="expression" dxfId="7" priority="113">
+    <cfRule type="expression" dxfId="143" priority="113">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="114">
+    <cfRule type="expression" dxfId="142" priority="114">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="115">
+    <cfRule type="expression" dxfId="141" priority="115">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="116">
+    <cfRule type="expression" dxfId="140" priority="116">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="117">
+    <cfRule type="expression" dxfId="139" priority="117">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="118">
+    <cfRule type="expression" dxfId="138" priority="118">
       <formula>BO$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="119">
+    <cfRule type="expression" dxfId="137" priority="119">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="120">
+    <cfRule type="expression" dxfId="136" priority="120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ5:BQ24">
-    <cfRule type="expression" dxfId="119" priority="81">
+    <cfRule type="expression" dxfId="135" priority="81">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="82">
+    <cfRule type="expression" dxfId="134" priority="82">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="83">
+    <cfRule type="expression" dxfId="133" priority="83">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="84">
+    <cfRule type="expression" dxfId="132" priority="84">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="85">
+    <cfRule type="expression" dxfId="131" priority="85">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="86">
+    <cfRule type="expression" dxfId="130" priority="86">
       <formula>BQ$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="87">
+    <cfRule type="expression" dxfId="129" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="88">
+    <cfRule type="expression" dxfId="128" priority="88">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS5:BS24">
-    <cfRule type="expression" dxfId="111" priority="73">
+    <cfRule type="expression" dxfId="127" priority="73">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="74">
+    <cfRule type="expression" dxfId="126" priority="74">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="75">
+    <cfRule type="expression" dxfId="125" priority="75">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="76">
+    <cfRule type="expression" dxfId="124" priority="76">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="77">
+    <cfRule type="expression" dxfId="123" priority="77">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="78">
+    <cfRule type="expression" dxfId="122" priority="78">
       <formula>BS$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="79">
+    <cfRule type="expression" dxfId="121" priority="79">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="80">
+    <cfRule type="expression" dxfId="120" priority="80">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU5:BU24">
-    <cfRule type="expression" dxfId="103" priority="65">
+    <cfRule type="expression" dxfId="119" priority="65">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="66">
+    <cfRule type="expression" dxfId="118" priority="66">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="67">
+    <cfRule type="expression" dxfId="117" priority="67">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="68">
+    <cfRule type="expression" dxfId="116" priority="68">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="69">
+    <cfRule type="expression" dxfId="115" priority="69">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="70">
+    <cfRule type="expression" dxfId="114" priority="70">
       <formula>BU$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="71">
+    <cfRule type="expression" dxfId="113" priority="71">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="72">
+    <cfRule type="expression" dxfId="112" priority="72">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW5:BW24">
-    <cfRule type="expression" dxfId="95" priority="57">
+    <cfRule type="expression" dxfId="111" priority="57">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="58">
+    <cfRule type="expression" dxfId="110" priority="58">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="59">
+    <cfRule type="expression" dxfId="109" priority="59">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="60">
+    <cfRule type="expression" dxfId="108" priority="60">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="61">
+    <cfRule type="expression" dxfId="107" priority="61">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="62">
+    <cfRule type="expression" dxfId="106" priority="62">
       <formula>BW$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="63">
+    <cfRule type="expression" dxfId="105" priority="63">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="64">
+    <cfRule type="expression" dxfId="104" priority="64">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:BY24">
-    <cfRule type="expression" dxfId="87" priority="49">
+    <cfRule type="expression" dxfId="103" priority="49">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="50">
+    <cfRule type="expression" dxfId="102" priority="50">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="51">
+    <cfRule type="expression" dxfId="101" priority="51">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="52">
+    <cfRule type="expression" dxfId="100" priority="52">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="53">
+    <cfRule type="expression" dxfId="99" priority="53">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="54">
+    <cfRule type="expression" dxfId="98" priority="54">
       <formula>BY$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="55">
+    <cfRule type="expression" dxfId="97" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="56">
+    <cfRule type="expression" dxfId="96" priority="56">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA5:CA24">
-    <cfRule type="expression" dxfId="79" priority="41">
+    <cfRule type="expression" dxfId="95" priority="41">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="42">
+    <cfRule type="expression" dxfId="94" priority="42">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="43">
+    <cfRule type="expression" dxfId="93" priority="43">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="44">
+    <cfRule type="expression" dxfId="92" priority="44">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="45">
+    <cfRule type="expression" dxfId="91" priority="45">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="46">
+    <cfRule type="expression" dxfId="90" priority="46">
       <formula>CA$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="47">
+    <cfRule type="expression" dxfId="89" priority="47">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="48">
+    <cfRule type="expression" dxfId="88" priority="48">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC5:CC24">
-    <cfRule type="expression" dxfId="71" priority="33">
+    <cfRule type="expression" dxfId="87" priority="33">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="34">
+    <cfRule type="expression" dxfId="86" priority="34">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="35">
+    <cfRule type="expression" dxfId="85" priority="35">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="36">
+    <cfRule type="expression" dxfId="84" priority="36">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="37">
+    <cfRule type="expression" dxfId="83" priority="37">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="38">
+    <cfRule type="expression" dxfId="82" priority="38">
       <formula>CC$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="39">
+    <cfRule type="expression" dxfId="81" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="40">
+    <cfRule type="expression" dxfId="80" priority="40">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE5:CE24">
-    <cfRule type="expression" dxfId="63" priority="25">
+    <cfRule type="expression" dxfId="79" priority="25">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="26">
+    <cfRule type="expression" dxfId="78" priority="26">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="27">
+    <cfRule type="expression" dxfId="77" priority="27">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="28">
+    <cfRule type="expression" dxfId="76" priority="28">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="29">
+    <cfRule type="expression" dxfId="75" priority="29">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="30">
+    <cfRule type="expression" dxfId="74" priority="30">
       <formula>CE$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="31">
+    <cfRule type="expression" dxfId="73" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="32">
+    <cfRule type="expression" dxfId="72" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG5:CG24">
-    <cfRule type="expression" dxfId="55" priority="17">
+    <cfRule type="expression" dxfId="71" priority="17">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="18">
+    <cfRule type="expression" dxfId="70" priority="18">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="19">
+    <cfRule type="expression" dxfId="69" priority="19">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="20">
+    <cfRule type="expression" dxfId="68" priority="20">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="21">
+    <cfRule type="expression" dxfId="67" priority="21">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="22">
+    <cfRule type="expression" dxfId="66" priority="22">
       <formula>CG$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="23">
+    <cfRule type="expression" dxfId="65" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="24">
+    <cfRule type="expression" dxfId="64" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI5:CI24">
-    <cfRule type="expression" dxfId="47" priority="9">
+    <cfRule type="expression" dxfId="63" priority="9">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="10">
+    <cfRule type="expression" dxfId="62" priority="10">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="11">
+    <cfRule type="expression" dxfId="61" priority="11">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="12">
+    <cfRule type="expression" dxfId="60" priority="12">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="13">
+    <cfRule type="expression" dxfId="59" priority="13">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="14">
+    <cfRule type="expression" dxfId="58" priority="14">
       <formula>CI$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="15">
+    <cfRule type="expression" dxfId="57" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="16">
+    <cfRule type="expression" dxfId="56" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK24:HU24 CK22:HU22 CK20:HU20 CK18:HU18 CK16:HU16 CK14:HU14 CK12:HU12 CK10:HU10 CK8:HU8 CK6:HU6">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="55" priority="1">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="53" priority="3">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="52" priority="4">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="51" priority="5">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="50" priority="6">
       <formula>CK$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="49" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="48" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dokumentumok/Ütemterv.xlsx
+++ b/dokumentumok/Ütemterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F471E5C-2A9B-4868-9F5F-63A93538272C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A66065-158C-4BD3-9563-E82283125DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,572 +710,7 @@
     <cellStyle name="Terv jelmagyarázata" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Tevékenység" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="146">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="106">
     <dxf>
       <fill>
         <patternFill>
@@ -3020,8 +2455,8 @@
   </sheetPr>
   <dimension ref="B1:HU31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4346,55 +3781,107 @@
       <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
+      <c r="C8" s="22">
+        <v>45939</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="22">
+        <v>45940</v>
       </c>
       <c r="F8" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
       </c>
       <c r="H8" s="30"/>
-      <c r="BQ8" s="31"/>
-      <c r="BS8" s="31"/>
-      <c r="BU8" s="31"/>
-      <c r="BW8" s="31"/>
-      <c r="BY8" s="31"/>
-      <c r="CA8" s="31"/>
-      <c r="CC8" s="31"/>
-      <c r="CE8" s="31"/>
-      <c r="CG8" s="31"/>
-      <c r="CI8" s="31"/>
-      <c r="CK8" s="31"/>
-      <c r="CL8" s="31"/>
-      <c r="CM8" s="31"/>
-      <c r="CN8" s="31"/>
-      <c r="CO8" s="31"/>
-      <c r="CP8" s="31"/>
-      <c r="CQ8" s="31"/>
-      <c r="CR8" s="31"/>
-      <c r="CS8" s="31"/>
-      <c r="CT8" s="31"/>
-      <c r="CU8" s="31"/>
-      <c r="CV8" s="31"/>
-      <c r="CW8" s="31"/>
-      <c r="CX8" s="31"/>
-      <c r="CY8" s="31"/>
-      <c r="CZ8" s="31"/>
-      <c r="DA8" s="31"/>
-      <c r="DB8" s="31"/>
-      <c r="DC8" s="31"/>
-      <c r="DD8" s="31"/>
-      <c r="DE8" s="31"/>
-      <c r="DF8" s="31"/>
-      <c r="DG8" s="31"/>
+      <c r="J8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
+      <c r="BS8" s="1"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="1"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="1"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
+      <c r="CO8" s="1"/>
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="1"/>
+      <c r="CU8" s="1"/>
+      <c r="CV8" s="1"/>
+      <c r="CW8" s="1"/>
+      <c r="CX8" s="1"/>
+      <c r="CY8" s="1"/>
+      <c r="CZ8" s="1"/>
+      <c r="DA8" s="1"/>
+      <c r="DB8" s="1"/>
+      <c r="DC8" s="1"/>
+      <c r="DD8" s="1"/>
+      <c r="DE8" s="1"/>
+      <c r="DF8" s="1"/>
+      <c r="DG8" s="1"/>
       <c r="DH8" s="31"/>
       <c r="DI8" s="31"/>
       <c r="DJ8" s="31"/>
@@ -4518,46 +4005,97 @@
       <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
+      <c r="C9" s="22">
+        <v>45958</v>
       </c>
       <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="E9" s="22">
+        <v>45959</v>
       </c>
       <c r="F9" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
       </c>
       <c r="H9" s="30"/>
-      <c r="BQ9" s="31"/>
-      <c r="BS9" s="31"/>
-      <c r="BU9" s="31"/>
-      <c r="BW9" s="31"/>
-      <c r="BY9" s="31"/>
-      <c r="CA9" s="31"/>
-      <c r="CC9" s="31"/>
-      <c r="CE9" s="31"/>
-      <c r="CG9" s="31"/>
-      <c r="CI9" s="31"/>
-      <c r="CK9" s="31"/>
-      <c r="CL9" s="31"/>
-      <c r="CM9" s="31"/>
-      <c r="CN9" s="31"/>
-      <c r="CO9" s="31"/>
-      <c r="CP9" s="31"/>
-      <c r="CQ9" s="31"/>
-      <c r="CR9" s="31"/>
-      <c r="CS9" s="31"/>
-      <c r="CT9" s="31"/>
-      <c r="CU9" s="31"/>
-      <c r="CV9" s="31"/>
-      <c r="CW9" s="31"/>
-      <c r="CX9" s="31"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="1"/>
+      <c r="CL9" s="1"/>
+      <c r="CM9" s="1"/>
+      <c r="CN9" s="1"/>
+      <c r="CO9" s="1"/>
+      <c r="CP9" s="1"/>
+      <c r="CQ9" s="1"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="1"/>
+      <c r="CV9" s="1"/>
+      <c r="CW9" s="1"/>
+      <c r="CX9" s="1"/>
       <c r="CY9" s="31"/>
       <c r="CZ9" s="31"/>
       <c r="DA9" s="31"/>
@@ -4706,37 +4244,89 @@
         <v>0</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="BQ10" s="31"/>
-      <c r="BS10" s="31"/>
-      <c r="BU10" s="31"/>
-      <c r="BW10" s="31"/>
-      <c r="BY10" s="31"/>
-      <c r="CA10" s="31"/>
-      <c r="CC10" s="31"/>
-      <c r="CE10" s="31"/>
-      <c r="CG10" s="31"/>
-      <c r="CI10" s="31"/>
-      <c r="CK10" s="31"/>
-      <c r="CL10" s="31"/>
-      <c r="CM10" s="31"/>
-      <c r="CN10" s="31"/>
-      <c r="CO10" s="31"/>
-      <c r="CP10" s="31"/>
-      <c r="CQ10" s="31"/>
-      <c r="CR10" s="31"/>
-      <c r="CS10" s="31"/>
-      <c r="CT10" s="31"/>
-      <c r="CU10" s="31"/>
-      <c r="CV10" s="31"/>
-      <c r="CW10" s="31"/>
-      <c r="CX10" s="31"/>
-      <c r="CY10" s="31"/>
-      <c r="CZ10" s="31"/>
-      <c r="DA10" s="31"/>
-      <c r="DB10" s="31"/>
-      <c r="DC10" s="31"/>
-      <c r="DD10" s="31"/>
-      <c r="DE10" s="31"/>
+      <c r="J10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+      <c r="BI10" s="1"/>
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="1"/>
+      <c r="BL10" s="1"/>
+      <c r="BM10" s="1"/>
+      <c r="BN10" s="1"/>
+      <c r="BO10" s="1"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="1"/>
+      <c r="BR10" s="1"/>
+      <c r="BS10" s="1"/>
+      <c r="BT10" s="1"/>
+      <c r="BU10" s="1"/>
+      <c r="BV10" s="1"/>
+      <c r="BW10" s="1"/>
+      <c r="BX10" s="1"/>
+      <c r="BY10" s="1"/>
+      <c r="BZ10" s="1"/>
+      <c r="CA10" s="1"/>
+      <c r="CB10" s="1"/>
+      <c r="CC10" s="1"/>
+      <c r="CD10" s="1"/>
+      <c r="CE10" s="1"/>
+      <c r="CF10" s="1"/>
+      <c r="CG10" s="1"/>
+      <c r="CH10" s="1"/>
+      <c r="CI10" s="1"/>
+      <c r="CJ10" s="1"/>
+      <c r="CK10" s="1"/>
+      <c r="CL10" s="1"/>
+      <c r="CM10" s="1"/>
+      <c r="CN10" s="1"/>
+      <c r="CO10" s="1"/>
+      <c r="CP10" s="1"/>
+      <c r="CQ10" s="1"/>
+      <c r="CR10" s="1"/>
+      <c r="CS10" s="1"/>
+      <c r="CT10" s="1"/>
+      <c r="CU10" s="1"/>
+      <c r="CV10" s="1"/>
+      <c r="CW10" s="1"/>
+      <c r="CX10" s="1"/>
+      <c r="CY10" s="1"/>
+      <c r="CZ10" s="1"/>
+      <c r="DA10" s="1"/>
+      <c r="DB10" s="1"/>
+      <c r="DC10" s="1"/>
+      <c r="DD10" s="1"/>
+      <c r="DE10" s="1"/>
       <c r="DF10" s="31"/>
       <c r="DG10" s="31"/>
       <c r="DH10" s="31"/>
@@ -8163,351 +7753,351 @@
     <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="W2:X2"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:BO24 BP28:HU29 BP26:HU26 I26:BO29 I25:BN25 I30:HU30">
-    <cfRule type="expression" dxfId="47" priority="121">
+  <conditionalFormatting sqref="I5:BO7 BP28:HU29 BP26:HU26 I26:BO29 I25:BN25 I30:HU30 I11:BO24 I9:CX9 I8:DG8 I10:DE10">
+    <cfRule type="expression" dxfId="7" priority="121">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="123">
+    <cfRule type="expression" dxfId="6" priority="123">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="124">
+    <cfRule type="expression" dxfId="5" priority="124">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="125">
+    <cfRule type="expression" dxfId="4" priority="125">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="126">
+    <cfRule type="expression" dxfId="3" priority="126">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="127">
+    <cfRule type="expression" dxfId="2" priority="127">
       <formula>I$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="131">
+    <cfRule type="expression" dxfId="1" priority="131">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="132">
+    <cfRule type="expression" dxfId="0" priority="132">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:HU31">
-    <cfRule type="expression" dxfId="145" priority="122">
+    <cfRule type="expression" dxfId="105" priority="122">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:HU4 H5:H30">
-    <cfRule type="expression" dxfId="144" priority="128">
+    <cfRule type="expression" dxfId="104" priority="128">
       <formula>H$4=időszak_kiválasztva</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP27:HU27 BO25:HU25 CK23:HU23 CK21:HU21 CK19:HU19 CK17:HU17 CK15:HU15 CK13:HU13 CK11:HU11 CK9:HU9 CK7:HU7 CK5:HU5">
-    <cfRule type="expression" dxfId="143" priority="113">
+  <conditionalFormatting sqref="BP27:HU27 BO25:HU25 CK23:HU23 CK21:HU21 CK19:HU19 CK17:HU17 CK15:HU15 CK13:HU13 CK11:HU11 CY9:HU9 CK7:HU7 CK5:HU5">
+    <cfRule type="expression" dxfId="103" priority="113">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="114">
+    <cfRule type="expression" dxfId="102" priority="114">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="115">
+    <cfRule type="expression" dxfId="101" priority="115">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="116">
+    <cfRule type="expression" dxfId="100" priority="116">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="117">
+    <cfRule type="expression" dxfId="99" priority="117">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="118">
+    <cfRule type="expression" dxfId="98" priority="118">
       <formula>BO$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="119">
+    <cfRule type="expression" dxfId="97" priority="119">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="120">
+    <cfRule type="expression" dxfId="96" priority="120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ5:BQ24">
-    <cfRule type="expression" dxfId="135" priority="81">
+  <conditionalFormatting sqref="BQ5:BQ7 BQ11:BQ24">
+    <cfRule type="expression" dxfId="95" priority="81">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="82">
+    <cfRule type="expression" dxfId="94" priority="82">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="83">
+    <cfRule type="expression" dxfId="93" priority="83">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="84">
+    <cfRule type="expression" dxfId="92" priority="84">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="85">
+    <cfRule type="expression" dxfId="91" priority="85">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="86">
+    <cfRule type="expression" dxfId="90" priority="86">
       <formula>BQ$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="87">
+    <cfRule type="expression" dxfId="89" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="88">
+    <cfRule type="expression" dxfId="88" priority="88">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS5:BS24">
-    <cfRule type="expression" dxfId="127" priority="73">
+  <conditionalFormatting sqref="BS5:BS7 BS11:BS24">
+    <cfRule type="expression" dxfId="87" priority="73">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="74">
+    <cfRule type="expression" dxfId="86" priority="74">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="75">
+    <cfRule type="expression" dxfId="85" priority="75">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="76">
+    <cfRule type="expression" dxfId="84" priority="76">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="77">
+    <cfRule type="expression" dxfId="83" priority="77">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="78">
+    <cfRule type="expression" dxfId="82" priority="78">
       <formula>BS$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="79">
+    <cfRule type="expression" dxfId="81" priority="79">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="80">
+    <cfRule type="expression" dxfId="80" priority="80">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU5:BU24">
-    <cfRule type="expression" dxfId="119" priority="65">
+  <conditionalFormatting sqref="BU5:BU7 BU11:BU24">
+    <cfRule type="expression" dxfId="79" priority="65">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="66">
+    <cfRule type="expression" dxfId="78" priority="66">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="67">
+    <cfRule type="expression" dxfId="77" priority="67">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="68">
+    <cfRule type="expression" dxfId="76" priority="68">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="69">
+    <cfRule type="expression" dxfId="75" priority="69">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="70">
+    <cfRule type="expression" dxfId="74" priority="70">
       <formula>BU$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="71">
+    <cfRule type="expression" dxfId="73" priority="71">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="72">
+    <cfRule type="expression" dxfId="72" priority="72">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW5:BW24">
-    <cfRule type="expression" dxfId="111" priority="57">
+  <conditionalFormatting sqref="BW5:BW7 BW11:BW24">
+    <cfRule type="expression" dxfId="71" priority="57">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="58">
+    <cfRule type="expression" dxfId="70" priority="58">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="59">
+    <cfRule type="expression" dxfId="69" priority="59">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="60">
+    <cfRule type="expression" dxfId="68" priority="60">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="61">
+    <cfRule type="expression" dxfId="67" priority="61">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="62">
+    <cfRule type="expression" dxfId="66" priority="62">
       <formula>BW$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="63">
+    <cfRule type="expression" dxfId="65" priority="63">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="64">
+    <cfRule type="expression" dxfId="64" priority="64">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY5:BY24">
-    <cfRule type="expression" dxfId="103" priority="49">
+  <conditionalFormatting sqref="BY5:BY7 BY11:BY24">
+    <cfRule type="expression" dxfId="63" priority="49">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="50">
+    <cfRule type="expression" dxfId="62" priority="50">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="51">
+    <cfRule type="expression" dxfId="61" priority="51">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="52">
+    <cfRule type="expression" dxfId="60" priority="52">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="53">
+    <cfRule type="expression" dxfId="59" priority="53">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="54">
+    <cfRule type="expression" dxfId="58" priority="54">
       <formula>BY$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="55">
+    <cfRule type="expression" dxfId="57" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="56">
+    <cfRule type="expression" dxfId="56" priority="56">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA5:CA24">
-    <cfRule type="expression" dxfId="95" priority="41">
+  <conditionalFormatting sqref="CA5:CA7 CA11:CA24">
+    <cfRule type="expression" dxfId="55" priority="41">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="42">
+    <cfRule type="expression" dxfId="54" priority="42">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="43">
+    <cfRule type="expression" dxfId="53" priority="43">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="44">
+    <cfRule type="expression" dxfId="52" priority="44">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="45">
+    <cfRule type="expression" dxfId="51" priority="45">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="46">
+    <cfRule type="expression" dxfId="50" priority="46">
       <formula>CA$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="47">
+    <cfRule type="expression" dxfId="49" priority="47">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="48">
+    <cfRule type="expression" dxfId="48" priority="48">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC5:CC24">
-    <cfRule type="expression" dxfId="87" priority="33">
+  <conditionalFormatting sqref="CC5:CC7 CC11:CC24">
+    <cfRule type="expression" dxfId="47" priority="33">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="34">
+    <cfRule type="expression" dxfId="46" priority="34">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="35">
+    <cfRule type="expression" dxfId="45" priority="35">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="36">
+    <cfRule type="expression" dxfId="44" priority="36">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="37">
+    <cfRule type="expression" dxfId="43" priority="37">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="38">
+    <cfRule type="expression" dxfId="42" priority="38">
       <formula>CC$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="39">
+    <cfRule type="expression" dxfId="41" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="40">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE5:CE24">
-    <cfRule type="expression" dxfId="79" priority="25">
+  <conditionalFormatting sqref="CE5:CE7 CE11:CE24">
+    <cfRule type="expression" dxfId="39" priority="25">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="26">
+    <cfRule type="expression" dxfId="38" priority="26">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="27">
+    <cfRule type="expression" dxfId="37" priority="27">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="28">
+    <cfRule type="expression" dxfId="36" priority="28">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="29">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="30">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>CE$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="31">
+    <cfRule type="expression" dxfId="33" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="32">
+    <cfRule type="expression" dxfId="32" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG5:CG24">
-    <cfRule type="expression" dxfId="71" priority="17">
+  <conditionalFormatting sqref="CG5:CG7 CG11:CG24">
+    <cfRule type="expression" dxfId="31" priority="17">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="18">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="19">
+    <cfRule type="expression" dxfId="29" priority="19">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="20">
+    <cfRule type="expression" dxfId="28" priority="20">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="21">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="22">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>CG$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="23">
+    <cfRule type="expression" dxfId="25" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="24">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI5:CI24">
-    <cfRule type="expression" dxfId="63" priority="9">
+  <conditionalFormatting sqref="CI5:CI7 CI11:CI24">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="12">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="13">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>CI$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK24:HU24 CK22:HU22 CK20:HU20 CK18:HU18 CK16:HU16 CK14:HU14 CK12:HU12 CK10:HU10 CK8:HU8 CK6:HU6">
-    <cfRule type="expression" dxfId="55" priority="1">
+  <conditionalFormatting sqref="CK24:HU24 CK22:HU22 CK20:HU20 CK18:HU18 CK16:HU16 CK14:HU14 CK12:HU12 DF10:HU10 DH8:HU8 CK6:HU6">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>CK$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dokumentumok/Ütemterv.xlsx
+++ b/dokumentumok/Ütemterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A66065-158C-4BD3-9563-E82283125DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF0F047-FB5B-4638-B69E-5B5BD9B50E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Válassza ki a kiemelendő időszakot a jobb oldalon.  A diagram jelmagyarázata következik.</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Dokumentáció véglegesítése</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2070,34 +2073,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -2109,75 +2084,47 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
+          <color theme="7"/>
         </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2194,19 +2141,75 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="9" tint="0.59996337778862885"/>
         </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -2456,7 +2459,7 @@
   <dimension ref="B1:HU31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3269,7 +3272,7 @@
         <v>45902</v>
       </c>
       <c r="D5" s="6">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" s="22">
         <v>45903</v>
@@ -3278,7 +3281,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="7">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="H5" s="29"/>
       <c r="BQ5" s="31"/>
@@ -3450,7 +3453,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="30"/>
       <c r="BQ6" s="31"/>
@@ -4021,6 +4024,9 @@
         <v>0</v>
       </c>
       <c r="H9" s="30"/>
+      <c r="O9" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -7754,350 +7760,350 @@
     <mergeCell ref="W2:X2"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:BO7 BP28:HU29 BP26:HU26 I26:BO29 I25:BN25 I30:HU30 I11:BO24 I9:CX9 I8:DG8 I10:DE10">
-    <cfRule type="expression" dxfId="7" priority="121">
+    <cfRule type="expression" dxfId="105" priority="121">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="123">
+    <cfRule type="expression" dxfId="104" priority="123">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="124">
+    <cfRule type="expression" dxfId="103" priority="124">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="125">
+    <cfRule type="expression" dxfId="102" priority="125">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="126">
+    <cfRule type="expression" dxfId="101" priority="126">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="127">
+    <cfRule type="expression" dxfId="100" priority="127">
       <formula>I$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="131">
+    <cfRule type="expression" dxfId="99" priority="131">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="132">
+    <cfRule type="expression" dxfId="98" priority="132">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:HU31">
-    <cfRule type="expression" dxfId="105" priority="122">
+    <cfRule type="expression" dxfId="97" priority="122">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:HU4 H5:H30">
-    <cfRule type="expression" dxfId="104" priority="128">
+    <cfRule type="expression" dxfId="96" priority="128">
       <formula>H$4=időszak_kiválasztva</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP27:HU27 BO25:HU25 CK23:HU23 CK21:HU21 CK19:HU19 CK17:HU17 CK15:HU15 CK13:HU13 CK11:HU11 CY9:HU9 CK7:HU7 CK5:HU5">
-    <cfRule type="expression" dxfId="103" priority="113">
+    <cfRule type="expression" dxfId="95" priority="113">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="114">
+    <cfRule type="expression" dxfId="94" priority="114">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="115">
+    <cfRule type="expression" dxfId="93" priority="115">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="116">
+    <cfRule type="expression" dxfId="92" priority="116">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="117">
+    <cfRule type="expression" dxfId="91" priority="117">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="118">
+    <cfRule type="expression" dxfId="90" priority="118">
       <formula>BO$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="119">
+    <cfRule type="expression" dxfId="89" priority="119">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="120">
+    <cfRule type="expression" dxfId="88" priority="120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ5:BQ7 BQ11:BQ24">
-    <cfRule type="expression" dxfId="95" priority="81">
+    <cfRule type="expression" dxfId="87" priority="81">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="82">
+    <cfRule type="expression" dxfId="86" priority="82">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="83">
+    <cfRule type="expression" dxfId="85" priority="83">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="84">
+    <cfRule type="expression" dxfId="84" priority="84">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="85">
+    <cfRule type="expression" dxfId="83" priority="85">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="86">
+    <cfRule type="expression" dxfId="82" priority="86">
       <formula>BQ$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="87">
+    <cfRule type="expression" dxfId="81" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="88">
+    <cfRule type="expression" dxfId="80" priority="88">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS5:BS7 BS11:BS24">
-    <cfRule type="expression" dxfId="87" priority="73">
+    <cfRule type="expression" dxfId="79" priority="73">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="74">
+    <cfRule type="expression" dxfId="78" priority="74">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="75">
+    <cfRule type="expression" dxfId="77" priority="75">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="76">
+    <cfRule type="expression" dxfId="76" priority="76">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="77">
+    <cfRule type="expression" dxfId="75" priority="77">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="78">
+    <cfRule type="expression" dxfId="74" priority="78">
       <formula>BS$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="79">
+    <cfRule type="expression" dxfId="73" priority="79">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="80">
+    <cfRule type="expression" dxfId="72" priority="80">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU5:BU7 BU11:BU24">
-    <cfRule type="expression" dxfId="79" priority="65">
+    <cfRule type="expression" dxfId="71" priority="65">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="66">
+    <cfRule type="expression" dxfId="70" priority="66">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="67">
+    <cfRule type="expression" dxfId="69" priority="67">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="68">
+    <cfRule type="expression" dxfId="68" priority="68">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="69">
+    <cfRule type="expression" dxfId="67" priority="69">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="70">
+    <cfRule type="expression" dxfId="66" priority="70">
       <formula>BU$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="71">
+    <cfRule type="expression" dxfId="65" priority="71">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="72">
+    <cfRule type="expression" dxfId="64" priority="72">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW5:BW7 BW11:BW24">
-    <cfRule type="expression" dxfId="71" priority="57">
+    <cfRule type="expression" dxfId="63" priority="57">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="58">
+    <cfRule type="expression" dxfId="62" priority="58">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="59">
+    <cfRule type="expression" dxfId="61" priority="59">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="60">
+    <cfRule type="expression" dxfId="60" priority="60">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="61">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="62">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>BW$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="63">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="64">
+    <cfRule type="expression" dxfId="56" priority="64">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY5:BY7 BY11:BY24">
-    <cfRule type="expression" dxfId="63" priority="49">
+    <cfRule type="expression" dxfId="55" priority="49">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="50">
+    <cfRule type="expression" dxfId="54" priority="50">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="51">
+    <cfRule type="expression" dxfId="53" priority="51">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="52">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="53">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>BY$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="55">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="56">
+    <cfRule type="expression" dxfId="48" priority="56">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA5:CA7 CA11:CA24">
-    <cfRule type="expression" dxfId="55" priority="41">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="42">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="43">
+    <cfRule type="expression" dxfId="45" priority="43">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="44">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="45">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="46">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>CA$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="47">
+    <cfRule type="expression" dxfId="41" priority="47">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="40" priority="48">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC5:CC7 CC11:CC24">
-    <cfRule type="expression" dxfId="47" priority="33">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="34">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="35">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="36">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>CC$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="39">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE5:CE7 CE11:CE24">
-    <cfRule type="expression" dxfId="39" priority="25">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="26">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="27">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="28">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>CE$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="31">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG5:CG7 CG11:CG24">
-    <cfRule type="expression" dxfId="31" priority="17">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="18">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>CG$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI5:CI7 CI11:CI24">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>CI$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK24:HU24 CK22:HU22 CK20:HU20 CK18:HU18 CK16:HU16 CK14:HU14 CK12:HU12 DF10:HU10 DH8:HU8 CK6:HU6">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>KészültségiSzint</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>KészültségiSzintTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>Tényleges</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>TénylegTervenFelül</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>Terv</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>CK$4=időszak_kiválasztva</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dokumentumok/Ütemterv.xlsx
+++ b/dokumentumok/Ütemterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF0F047-FB5B-4638-B69E-5B5BD9B50E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F0839D-5A20-4CB2-B0CD-FEE82523A0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Válassza ki a kiemelendő időszakot a jobb oldalon.  A diagram jelmagyarázata következik.</t>
   </si>
@@ -214,31 +214,7 @@
     <t>Ütemterv</t>
   </si>
   <si>
-    <t>Adatbázis megtervezése</t>
-  </si>
-  <si>
-    <t>Weboldal alapjainak kialakítása</t>
-  </si>
-  <si>
-    <t>Eseménykezelés modul</t>
-  </si>
-  <si>
-    <t>Diák funkciók</t>
-  </si>
-  <si>
-    <t>Adminisztrátor modul</t>
-  </si>
-  <si>
-    <t>Értesítési rendszer</t>
-  </si>
-  <si>
-    <t>Tesztelés, hibajavítás</t>
-  </si>
-  <si>
-    <t>Dokumentáció véglegesítése</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>Adatbázis, flowchart</t>
   </si>
 </sst>
 </file>
@@ -552,7 +528,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,6 +666,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2459,7 +2438,7 @@
   <dimension ref="B1:HU31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3278,524 +3257,658 @@
         <v>45903</v>
       </c>
       <c r="F5" s="6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="BQ5" s="31"/>
-      <c r="BS5" s="31"/>
-      <c r="BU5" s="31"/>
-      <c r="BW5" s="31"/>
-      <c r="BY5" s="31"/>
-      <c r="CA5" s="31"/>
-      <c r="CC5" s="31"/>
-      <c r="CE5" s="31"/>
-      <c r="CG5" s="31"/>
-      <c r="CI5" s="31"/>
-      <c r="CK5" s="31"/>
-      <c r="CL5" s="31"/>
-      <c r="CM5" s="31"/>
-      <c r="CN5" s="31"/>
-      <c r="CO5" s="31"/>
-      <c r="CP5" s="31"/>
-      <c r="CQ5" s="31"/>
-      <c r="CR5" s="31"/>
-      <c r="CS5" s="31"/>
-      <c r="CT5" s="31"/>
-      <c r="CU5" s="31"/>
-      <c r="CV5" s="31"/>
-      <c r="CW5" s="31"/>
-      <c r="CX5" s="31"/>
-      <c r="CY5" s="31"/>
-      <c r="CZ5" s="31"/>
-      <c r="DA5" s="31"/>
-      <c r="DB5" s="31"/>
-      <c r="DC5" s="31"/>
-      <c r="DD5" s="31"/>
-      <c r="DE5" s="31"/>
-      <c r="DF5" s="31"/>
-      <c r="DG5" s="31"/>
-      <c r="DH5" s="31"/>
-      <c r="DI5" s="31"/>
-      <c r="DJ5" s="31"/>
-      <c r="DK5" s="31"/>
-      <c r="DL5" s="31"/>
-      <c r="DM5" s="31"/>
-      <c r="DN5" s="31"/>
-      <c r="DO5" s="31"/>
-      <c r="DP5" s="31"/>
-      <c r="DQ5" s="31"/>
-      <c r="DR5" s="31"/>
-      <c r="DS5" s="31"/>
-      <c r="DT5" s="31"/>
-      <c r="DU5" s="31"/>
-      <c r="DV5" s="31"/>
-      <c r="DW5" s="31"/>
-      <c r="DX5" s="31"/>
-      <c r="DY5" s="31"/>
-      <c r="DZ5" s="31"/>
-      <c r="EA5" s="31"/>
-      <c r="EB5" s="31"/>
-      <c r="EC5" s="31"/>
-      <c r="ED5" s="31"/>
-      <c r="EE5" s="31"/>
-      <c r="EF5" s="31"/>
-      <c r="EG5" s="31"/>
-      <c r="EH5" s="31"/>
-      <c r="EI5" s="31"/>
-      <c r="EJ5" s="31"/>
-      <c r="EK5" s="31"/>
-      <c r="EL5" s="31"/>
-      <c r="EM5" s="31"/>
-      <c r="EN5" s="31"/>
-      <c r="EO5" s="31"/>
-      <c r="EP5" s="31"/>
-      <c r="EQ5" s="31"/>
-      <c r="ER5" s="31"/>
-      <c r="ES5" s="31"/>
-      <c r="ET5" s="31"/>
-      <c r="EU5" s="31"/>
-      <c r="EV5" s="31"/>
-      <c r="EW5" s="31"/>
-      <c r="EX5" s="31"/>
-      <c r="EY5" s="31"/>
-      <c r="EZ5" s="31"/>
-      <c r="FA5" s="31"/>
-      <c r="FB5" s="31"/>
-      <c r="FC5" s="31"/>
-      <c r="FD5" s="31"/>
-      <c r="FE5" s="31"/>
-      <c r="FF5" s="31"/>
-      <c r="FG5" s="31"/>
-      <c r="FH5" s="31"/>
-      <c r="FI5" s="31"/>
-      <c r="FJ5" s="31"/>
-      <c r="FK5" s="31"/>
-      <c r="FL5" s="31"/>
-      <c r="FM5" s="31"/>
-      <c r="FN5" s="31"/>
-      <c r="FO5" s="31"/>
-      <c r="FP5" s="31"/>
-      <c r="FQ5" s="31"/>
-      <c r="FR5" s="31"/>
-      <c r="FS5" s="31"/>
-      <c r="FT5" s="31"/>
-      <c r="FU5" s="31"/>
-      <c r="FV5" s="31"/>
-      <c r="FW5" s="31"/>
-      <c r="FX5" s="31"/>
-      <c r="FY5" s="31"/>
-      <c r="FZ5" s="31"/>
-      <c r="GA5" s="31"/>
-      <c r="GB5" s="31"/>
-      <c r="GC5" s="31"/>
-      <c r="GD5" s="31"/>
-      <c r="GE5" s="31"/>
-      <c r="GF5" s="31"/>
-      <c r="GG5" s="31"/>
-      <c r="GH5" s="31"/>
-      <c r="GI5" s="31"/>
-      <c r="GJ5" s="31"/>
-      <c r="GK5" s="31"/>
-      <c r="GL5" s="31"/>
-      <c r="GM5" s="31"/>
-      <c r="GN5" s="31"/>
-      <c r="GO5" s="31"/>
-      <c r="GP5" s="31"/>
-      <c r="GQ5" s="31"/>
-      <c r="GR5" s="31"/>
-      <c r="GS5" s="31"/>
-      <c r="GT5" s="31"/>
-      <c r="GU5" s="31"/>
-      <c r="GV5" s="31"/>
-      <c r="GW5" s="31"/>
-      <c r="GX5" s="31"/>
-      <c r="GY5" s="31"/>
-      <c r="GZ5" s="31"/>
-      <c r="HA5" s="31"/>
-      <c r="HB5" s="31"/>
-      <c r="HC5" s="31"/>
-      <c r="HD5" s="31"/>
-      <c r="HE5" s="31"/>
-      <c r="HF5" s="31"/>
-      <c r="HG5" s="31"/>
-      <c r="HH5" s="31"/>
-      <c r="HI5" s="31"/>
-      <c r="HJ5" s="31"/>
-      <c r="HK5" s="31"/>
-      <c r="HL5" s="31"/>
-      <c r="HM5" s="31"/>
-      <c r="HN5" s="31"/>
-      <c r="HO5" s="31"/>
-      <c r="HP5" s="31"/>
-      <c r="HQ5" s="31"/>
-      <c r="HR5" s="31"/>
-      <c r="HS5" s="31"/>
-      <c r="HT5" s="31"/>
-      <c r="HU5" s="31"/>
+      <c r="J5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1"/>
+      <c r="DF5" s="1"/>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1"/>
+      <c r="DI5" s="1"/>
+      <c r="DJ5" s="1"/>
+      <c r="DK5" s="1"/>
+      <c r="DL5" s="1"/>
+      <c r="DM5" s="1"/>
+      <c r="DN5" s="1"/>
+      <c r="DO5" s="1"/>
+      <c r="DP5" s="1"/>
+      <c r="DQ5" s="1"/>
+      <c r="DR5" s="1"/>
+      <c r="DS5" s="1"/>
+      <c r="DT5" s="1"/>
+      <c r="DU5" s="1"/>
+      <c r="DV5" s="1"/>
+      <c r="DW5" s="1"/>
+      <c r="DX5" s="1"/>
+      <c r="DY5" s="1"/>
+      <c r="DZ5" s="1"/>
+      <c r="EA5" s="1"/>
+      <c r="EB5" s="1"/>
+      <c r="EC5" s="1"/>
+      <c r="ED5" s="1"/>
+      <c r="EE5" s="1"/>
+      <c r="EF5" s="1"/>
+      <c r="EG5" s="1"/>
+      <c r="EH5" s="1"/>
+      <c r="EI5" s="1"/>
+      <c r="EJ5" s="1"/>
+      <c r="EK5" s="1"/>
+      <c r="EL5" s="1"/>
+      <c r="EM5" s="1"/>
+      <c r="EN5" s="1"/>
+      <c r="EO5" s="1"/>
+      <c r="EP5" s="1"/>
+      <c r="EQ5" s="1"/>
+      <c r="ER5" s="1"/>
+      <c r="ES5" s="1"/>
+      <c r="ET5" s="1"/>
+      <c r="EU5" s="1"/>
+      <c r="EV5" s="1"/>
+      <c r="EW5" s="1"/>
+      <c r="EX5" s="1"/>
+      <c r="EY5" s="1"/>
+      <c r="EZ5" s="1"/>
+      <c r="FA5" s="1"/>
+      <c r="FB5" s="1"/>
+      <c r="FC5" s="1"/>
+      <c r="FD5" s="1"/>
+      <c r="FE5" s="1"/>
+      <c r="FF5" s="1"/>
+      <c r="FG5" s="1"/>
+      <c r="FH5" s="1"/>
+      <c r="FI5" s="1"/>
+      <c r="FJ5" s="1"/>
+      <c r="FK5" s="1"/>
+      <c r="FL5" s="1"/>
+      <c r="FM5" s="1"/>
+      <c r="FN5" s="1"/>
+      <c r="FO5" s="1"/>
+      <c r="FP5" s="1"/>
+      <c r="FQ5" s="1"/>
+      <c r="FR5" s="1"/>
+      <c r="FS5" s="1"/>
+      <c r="FT5" s="1"/>
+      <c r="FU5" s="1"/>
+      <c r="FV5" s="1"/>
+      <c r="FW5" s="1"/>
+      <c r="FX5" s="1"/>
+      <c r="FY5" s="1"/>
+      <c r="FZ5" s="1"/>
+      <c r="GA5" s="1"/>
+      <c r="GB5" s="1"/>
+      <c r="GC5" s="1"/>
+      <c r="GD5" s="1"/>
+      <c r="GE5" s="1"/>
+      <c r="GF5" s="1"/>
+      <c r="GG5" s="1"/>
+      <c r="GH5" s="1"/>
+      <c r="GI5" s="1"/>
+      <c r="GJ5" s="1"/>
+      <c r="GK5" s="1"/>
+      <c r="GL5" s="1"/>
+      <c r="GM5" s="1"/>
+      <c r="GN5" s="1"/>
+      <c r="GO5" s="1"/>
+      <c r="GP5" s="1"/>
+      <c r="GQ5" s="1"/>
+      <c r="GR5" s="1"/>
+      <c r="GS5" s="1"/>
+      <c r="GT5" s="1"/>
+      <c r="GU5" s="1"/>
+      <c r="GV5" s="1"/>
+      <c r="GW5" s="1"/>
+      <c r="GX5" s="1"/>
+      <c r="GY5" s="1"/>
+      <c r="GZ5" s="1"/>
+      <c r="HA5" s="1"/>
+      <c r="HB5" s="1"/>
+      <c r="HC5" s="1"/>
+      <c r="HD5" s="1"/>
+      <c r="HE5" s="1"/>
+      <c r="HF5" s="1"/>
+      <c r="HG5" s="1"/>
+      <c r="HH5" s="1"/>
+      <c r="HI5" s="1"/>
+      <c r="HJ5" s="1"/>
+      <c r="HK5" s="1"/>
+      <c r="HL5" s="1"/>
+      <c r="HM5" s="1"/>
+      <c r="HN5" s="1"/>
+      <c r="HO5" s="1"/>
+      <c r="HP5" s="1"/>
+      <c r="HQ5" s="1"/>
+      <c r="HR5" s="1"/>
+      <c r="HS5" s="1"/>
+      <c r="HT5" s="1"/>
+      <c r="HU5" s="1"/>
     </row>
     <row r="6" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="22">
-        <v>45902</v>
+        <v>45937</v>
       </c>
       <c r="D6" s="6">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E6" s="22">
-        <v>45903</v>
-      </c>
-      <c r="F6" s="6">
-        <v>26</v>
-      </c>
+        <v>45938</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="30"/>
-      <c r="BQ6" s="31"/>
-      <c r="BS6" s="31"/>
-      <c r="BU6" s="31"/>
-      <c r="BW6" s="31"/>
-      <c r="BY6" s="31"/>
-      <c r="CA6" s="31"/>
-      <c r="CC6" s="31"/>
-      <c r="CE6" s="31"/>
-      <c r="CG6" s="31"/>
-      <c r="CI6" s="31"/>
-      <c r="CK6" s="31"/>
-      <c r="CL6" s="31"/>
-      <c r="CM6" s="31"/>
-      <c r="CN6" s="31"/>
-      <c r="CO6" s="31"/>
-      <c r="CP6" s="31"/>
-      <c r="CQ6" s="31"/>
-      <c r="CR6" s="31"/>
-      <c r="CS6" s="31"/>
-      <c r="CT6" s="31"/>
-      <c r="CU6" s="31"/>
-      <c r="CV6" s="31"/>
-      <c r="CW6" s="31"/>
-      <c r="CX6" s="31"/>
-      <c r="CY6" s="31"/>
-      <c r="CZ6" s="31"/>
-      <c r="DA6" s="31"/>
-      <c r="DB6" s="31"/>
-      <c r="DC6" s="31"/>
-      <c r="DD6" s="31"/>
-      <c r="DE6" s="31"/>
-      <c r="DF6" s="31"/>
-      <c r="DG6" s="31"/>
-      <c r="DH6" s="31"/>
-      <c r="DI6" s="31"/>
-      <c r="DJ6" s="31"/>
-      <c r="DK6" s="31"/>
-      <c r="DL6" s="31"/>
-      <c r="DM6" s="31"/>
-      <c r="DN6" s="31"/>
-      <c r="DO6" s="31"/>
-      <c r="DP6" s="31"/>
-      <c r="DQ6" s="31"/>
-      <c r="DR6" s="31"/>
-      <c r="DS6" s="31"/>
-      <c r="DT6" s="31"/>
-      <c r="DU6" s="31"/>
-      <c r="DV6" s="31"/>
-      <c r="DW6" s="31"/>
-      <c r="DX6" s="31"/>
-      <c r="DY6" s="31"/>
-      <c r="DZ6" s="31"/>
-      <c r="EA6" s="31"/>
-      <c r="EB6" s="31"/>
-      <c r="EC6" s="31"/>
-      <c r="ED6" s="31"/>
-      <c r="EE6" s="31"/>
-      <c r="EF6" s="31"/>
-      <c r="EG6" s="31"/>
-      <c r="EH6" s="31"/>
-      <c r="EI6" s="31"/>
-      <c r="EJ6" s="31"/>
-      <c r="EK6" s="31"/>
-      <c r="EL6" s="31"/>
-      <c r="EM6" s="31"/>
-      <c r="EN6" s="31"/>
-      <c r="EO6" s="31"/>
-      <c r="EP6" s="31"/>
-      <c r="EQ6" s="31"/>
-      <c r="ER6" s="31"/>
-      <c r="ES6" s="31"/>
-      <c r="ET6" s="31"/>
-      <c r="EU6" s="31"/>
-      <c r="EV6" s="31"/>
-      <c r="EW6" s="31"/>
-      <c r="EX6" s="31"/>
-      <c r="EY6" s="31"/>
-      <c r="EZ6" s="31"/>
-      <c r="FA6" s="31"/>
-      <c r="FB6" s="31"/>
-      <c r="FC6" s="31"/>
-      <c r="FD6" s="31"/>
-      <c r="FE6" s="31"/>
-      <c r="FF6" s="31"/>
-      <c r="FG6" s="31"/>
-      <c r="FH6" s="31"/>
-      <c r="FI6" s="31"/>
-      <c r="FJ6" s="31"/>
-      <c r="FK6" s="31"/>
-      <c r="FL6" s="31"/>
-      <c r="FM6" s="31"/>
-      <c r="FN6" s="31"/>
-      <c r="FO6" s="31"/>
-      <c r="FP6" s="31"/>
-      <c r="FQ6" s="31"/>
-      <c r="FR6" s="31"/>
-      <c r="FS6" s="31"/>
-      <c r="FT6" s="31"/>
-      <c r="FU6" s="31"/>
-      <c r="FV6" s="31"/>
-      <c r="FW6" s="31"/>
-      <c r="FX6" s="31"/>
-      <c r="FY6" s="31"/>
-      <c r="FZ6" s="31"/>
-      <c r="GA6" s="31"/>
-      <c r="GB6" s="31"/>
-      <c r="GC6" s="31"/>
-      <c r="GD6" s="31"/>
-      <c r="GE6" s="31"/>
-      <c r="GF6" s="31"/>
-      <c r="GG6" s="31"/>
-      <c r="GH6" s="31"/>
-      <c r="GI6" s="31"/>
-      <c r="GJ6" s="31"/>
-      <c r="GK6" s="31"/>
-      <c r="GL6" s="31"/>
-      <c r="GM6" s="31"/>
-      <c r="GN6" s="31"/>
-      <c r="GO6" s="31"/>
-      <c r="GP6" s="31"/>
-      <c r="GQ6" s="31"/>
-      <c r="GR6" s="31"/>
-      <c r="GS6" s="31"/>
-      <c r="GT6" s="31"/>
-      <c r="GU6" s="31"/>
-      <c r="GV6" s="31"/>
-      <c r="GW6" s="31"/>
-      <c r="GX6" s="31"/>
-      <c r="GY6" s="31"/>
-      <c r="GZ6" s="31"/>
-      <c r="HA6" s="31"/>
-      <c r="HB6" s="31"/>
-      <c r="HC6" s="31"/>
-      <c r="HD6" s="31"/>
-      <c r="HE6" s="31"/>
-      <c r="HF6" s="31"/>
-      <c r="HG6" s="31"/>
-      <c r="HH6" s="31"/>
-      <c r="HI6" s="31"/>
-      <c r="HJ6" s="31"/>
-      <c r="HK6" s="31"/>
-      <c r="HL6" s="31"/>
-      <c r="HM6" s="31"/>
-      <c r="HN6" s="31"/>
-      <c r="HO6" s="31"/>
-      <c r="HP6" s="31"/>
-      <c r="HQ6" s="31"/>
-      <c r="HR6" s="31"/>
-      <c r="HS6" s="31"/>
-      <c r="HT6" s="31"/>
-      <c r="HU6" s="31"/>
+      <c r="J6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="1"/>
+      <c r="BU6" s="1"/>
+      <c r="BV6" s="1"/>
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="1"/>
+      <c r="BY6" s="1"/>
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="1"/>
+      <c r="CB6" s="1"/>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="1"/>
+      <c r="CE6" s="1"/>
+      <c r="CF6" s="1"/>
+      <c r="CG6" s="1"/>
+      <c r="CH6" s="1"/>
+      <c r="CI6" s="1"/>
+      <c r="CJ6" s="1"/>
+      <c r="CK6" s="1"/>
+      <c r="CL6" s="1"/>
+      <c r="CM6" s="1"/>
+      <c r="CN6" s="1"/>
+      <c r="CO6" s="1"/>
+      <c r="CP6" s="1"/>
+      <c r="CQ6" s="1"/>
+      <c r="CR6" s="1"/>
+      <c r="CS6" s="1"/>
+      <c r="CT6" s="1"/>
+      <c r="CU6" s="1"/>
+      <c r="CV6" s="1"/>
+      <c r="CW6" s="1"/>
+      <c r="CX6" s="1"/>
+      <c r="CY6" s="1"/>
+      <c r="CZ6" s="1"/>
+      <c r="DA6" s="1"/>
+      <c r="DB6" s="1"/>
+      <c r="DC6" s="1"/>
+      <c r="DD6" s="1"/>
+      <c r="DE6" s="1"/>
+      <c r="DF6" s="1"/>
+      <c r="DG6" s="1"/>
+      <c r="DH6" s="1"/>
+      <c r="DI6" s="1"/>
+      <c r="DJ6" s="1"/>
+      <c r="DK6" s="1"/>
+      <c r="DL6" s="1"/>
+      <c r="DM6" s="1"/>
+      <c r="DN6" s="1"/>
+      <c r="DO6" s="1"/>
+      <c r="DP6" s="1"/>
+      <c r="DQ6" s="1"/>
+      <c r="DR6" s="1"/>
+      <c r="DS6" s="1"/>
+      <c r="DT6" s="1"/>
+      <c r="DU6" s="1"/>
+      <c r="DV6" s="1"/>
+      <c r="DW6" s="1"/>
+      <c r="DX6" s="1"/>
+      <c r="DY6" s="1"/>
+      <c r="DZ6" s="1"/>
+      <c r="EA6" s="1"/>
+      <c r="EB6" s="1"/>
+      <c r="EC6" s="1"/>
+      <c r="ED6" s="1"/>
+      <c r="EE6" s="1"/>
+      <c r="EF6" s="1"/>
+      <c r="EG6" s="1"/>
+      <c r="EH6" s="1"/>
+      <c r="EI6" s="1"/>
+      <c r="EJ6" s="1"/>
+      <c r="EK6" s="1"/>
+      <c r="EL6" s="1"/>
+      <c r="EM6" s="1"/>
+      <c r="EN6" s="1"/>
+      <c r="EO6" s="1"/>
+      <c r="EP6" s="1"/>
+      <c r="EQ6" s="1"/>
+      <c r="ER6" s="1"/>
+      <c r="ES6" s="1"/>
+      <c r="ET6" s="1"/>
+      <c r="EU6" s="1"/>
+      <c r="EV6" s="1"/>
+      <c r="EW6" s="1"/>
+      <c r="EX6" s="1"/>
+      <c r="EY6" s="1"/>
+      <c r="EZ6" s="1"/>
+      <c r="FA6" s="1"/>
+      <c r="FB6" s="1"/>
+      <c r="FC6" s="1"/>
+      <c r="FD6" s="1"/>
+      <c r="FE6" s="1"/>
+      <c r="FF6" s="1"/>
+      <c r="FG6" s="1"/>
+      <c r="FH6" s="1"/>
+      <c r="FI6" s="1"/>
+      <c r="FJ6" s="1"/>
+      <c r="FK6" s="1"/>
+      <c r="FL6" s="1"/>
+      <c r="FM6" s="1"/>
+      <c r="FN6" s="1"/>
+      <c r="FO6" s="1"/>
+      <c r="FP6" s="1"/>
+      <c r="FQ6" s="1"/>
+      <c r="FR6" s="1"/>
+      <c r="FS6" s="1"/>
+      <c r="FT6" s="1"/>
+      <c r="FU6" s="1"/>
+      <c r="FV6" s="1"/>
+      <c r="FW6" s="1"/>
+      <c r="FX6" s="1"/>
+      <c r="FY6" s="1"/>
+      <c r="FZ6" s="1"/>
+      <c r="GA6" s="1"/>
+      <c r="GB6" s="1"/>
+      <c r="GC6" s="1"/>
+      <c r="GD6" s="1"/>
+      <c r="GE6" s="1"/>
+      <c r="GF6" s="1"/>
+      <c r="GG6" s="1"/>
+      <c r="GH6" s="1"/>
+      <c r="GI6" s="1"/>
+      <c r="GJ6" s="1"/>
+      <c r="GK6" s="1"/>
+      <c r="GL6" s="1"/>
+      <c r="GM6" s="1"/>
+      <c r="GN6" s="1"/>
+      <c r="GO6" s="1"/>
+      <c r="GP6" s="1"/>
+      <c r="GQ6" s="1"/>
+      <c r="GR6" s="1"/>
+      <c r="GS6" s="1"/>
+      <c r="GT6" s="1"/>
+      <c r="GU6" s="1"/>
+      <c r="GV6" s="1"/>
+      <c r="GW6" s="1"/>
+      <c r="GX6" s="1"/>
+      <c r="GY6" s="1"/>
+      <c r="GZ6" s="1"/>
+      <c r="HA6" s="1"/>
+      <c r="HB6" s="1"/>
+      <c r="HC6" s="1"/>
+      <c r="HD6" s="1"/>
+      <c r="HE6" s="1"/>
+      <c r="HF6" s="1"/>
+      <c r="HG6" s="1"/>
+      <c r="HH6" s="1"/>
+      <c r="HI6" s="1"/>
+      <c r="HJ6" s="1"/>
+      <c r="HK6" s="1"/>
+      <c r="HL6" s="1"/>
+      <c r="HM6" s="1"/>
+      <c r="HN6" s="1"/>
+      <c r="HO6" s="1"/>
+      <c r="HP6" s="1"/>
+      <c r="HQ6" s="1"/>
+      <c r="HR6" s="1"/>
+      <c r="HS6" s="1"/>
+      <c r="HT6" s="1"/>
+      <c r="HU6" s="1"/>
     </row>
     <row r="7" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="22">
-        <v>45931</v>
-      </c>
-      <c r="D7" s="6">
-        <v>10</v>
-      </c>
-      <c r="E7" s="22">
-        <v>45933</v>
-      </c>
-      <c r="F7" s="6">
-        <v>13</v>
-      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="30"/>
-      <c r="BQ7" s="31"/>
-      <c r="BS7" s="31"/>
-      <c r="BU7" s="31"/>
-      <c r="BW7" s="31"/>
-      <c r="BY7" s="31"/>
-      <c r="CA7" s="31"/>
-      <c r="CC7" s="31"/>
-      <c r="CE7" s="31"/>
-      <c r="CG7" s="31"/>
-      <c r="CI7" s="31"/>
-      <c r="CK7" s="31"/>
-      <c r="CL7" s="31"/>
-      <c r="CM7" s="31"/>
-      <c r="CN7" s="31"/>
-      <c r="CO7" s="31"/>
-      <c r="CP7" s="31"/>
-      <c r="CQ7" s="31"/>
-      <c r="CR7" s="31"/>
-      <c r="CS7" s="31"/>
-      <c r="CT7" s="31"/>
-      <c r="CU7" s="31"/>
-      <c r="CV7" s="31"/>
-      <c r="CW7" s="31"/>
-      <c r="CX7" s="31"/>
-      <c r="CY7" s="31"/>
-      <c r="CZ7" s="31"/>
-      <c r="DA7" s="31"/>
-      <c r="DB7" s="31"/>
-      <c r="DC7" s="31"/>
-      <c r="DD7" s="31"/>
-      <c r="DE7" s="31"/>
-      <c r="DF7" s="31"/>
-      <c r="DG7" s="31"/>
-      <c r="DH7" s="31"/>
-      <c r="DI7" s="31"/>
-      <c r="DJ7" s="31"/>
-      <c r="DK7" s="31"/>
-      <c r="DL7" s="31"/>
-      <c r="DM7" s="31"/>
-      <c r="DN7" s="31"/>
-      <c r="DO7" s="31"/>
-      <c r="DP7" s="31"/>
-      <c r="DQ7" s="31"/>
-      <c r="DR7" s="31"/>
-      <c r="DS7" s="31"/>
-      <c r="DT7" s="31"/>
-      <c r="DU7" s="31"/>
-      <c r="DV7" s="31"/>
-      <c r="DW7" s="31"/>
-      <c r="DX7" s="31"/>
-      <c r="DY7" s="31"/>
-      <c r="DZ7" s="31"/>
-      <c r="EA7" s="31"/>
-      <c r="EB7" s="31"/>
-      <c r="EC7" s="31"/>
-      <c r="ED7" s="31"/>
-      <c r="EE7" s="31"/>
-      <c r="EF7" s="31"/>
-      <c r="EG7" s="31"/>
-      <c r="EH7" s="31"/>
-      <c r="EI7" s="31"/>
-      <c r="EJ7" s="31"/>
-      <c r="EK7" s="31"/>
-      <c r="EL7" s="31"/>
-      <c r="EM7" s="31"/>
-      <c r="EN7" s="31"/>
-      <c r="EO7" s="31"/>
-      <c r="EP7" s="31"/>
-      <c r="EQ7" s="31"/>
-      <c r="ER7" s="31"/>
-      <c r="ES7" s="31"/>
-      <c r="ET7" s="31"/>
-      <c r="EU7" s="31"/>
-      <c r="EV7" s="31"/>
-      <c r="EW7" s="31"/>
-      <c r="EX7" s="31"/>
-      <c r="EY7" s="31"/>
-      <c r="EZ7" s="31"/>
-      <c r="FA7" s="31"/>
-      <c r="FB7" s="31"/>
-      <c r="FC7" s="31"/>
-      <c r="FD7" s="31"/>
-      <c r="FE7" s="31"/>
-      <c r="FF7" s="31"/>
-      <c r="FG7" s="31"/>
-      <c r="FH7" s="31"/>
-      <c r="FI7" s="31"/>
-      <c r="FJ7" s="31"/>
-      <c r="FK7" s="31"/>
-      <c r="FL7" s="31"/>
-      <c r="FM7" s="31"/>
-      <c r="FN7" s="31"/>
-      <c r="FO7" s="31"/>
-      <c r="FP7" s="31"/>
-      <c r="FQ7" s="31"/>
-      <c r="FR7" s="31"/>
-      <c r="FS7" s="31"/>
-      <c r="FT7" s="31"/>
-      <c r="FU7" s="31"/>
-      <c r="FV7" s="31"/>
-      <c r="FW7" s="31"/>
-      <c r="FX7" s="31"/>
-      <c r="FY7" s="31"/>
-      <c r="FZ7" s="31"/>
-      <c r="GA7" s="31"/>
-      <c r="GB7" s="31"/>
-      <c r="GC7" s="31"/>
-      <c r="GD7" s="31"/>
-      <c r="GE7" s="31"/>
-      <c r="GF7" s="31"/>
-      <c r="GG7" s="31"/>
-      <c r="GH7" s="31"/>
-      <c r="GI7" s="31"/>
-      <c r="GJ7" s="31"/>
-      <c r="GK7" s="31"/>
-      <c r="GL7" s="31"/>
-      <c r="GM7" s="31"/>
-      <c r="GN7" s="31"/>
-      <c r="GO7" s="31"/>
-      <c r="GP7" s="31"/>
-      <c r="GQ7" s="31"/>
-      <c r="GR7" s="31"/>
-      <c r="GS7" s="31"/>
-      <c r="GT7" s="31"/>
-      <c r="GU7" s="31"/>
-      <c r="GV7" s="31"/>
-      <c r="GW7" s="31"/>
-      <c r="GX7" s="31"/>
-      <c r="GY7" s="31"/>
-      <c r="GZ7" s="31"/>
-      <c r="HA7" s="31"/>
-      <c r="HB7" s="31"/>
-      <c r="HC7" s="31"/>
-      <c r="HD7" s="31"/>
-      <c r="HE7" s="31"/>
-      <c r="HF7" s="31"/>
-      <c r="HG7" s="31"/>
-      <c r="HH7" s="31"/>
-      <c r="HI7" s="31"/>
-      <c r="HJ7" s="31"/>
-      <c r="HK7" s="31"/>
-      <c r="HL7" s="31"/>
-      <c r="HM7" s="31"/>
-      <c r="HN7" s="31"/>
-      <c r="HO7" s="31"/>
-      <c r="HP7" s="31"/>
-      <c r="HQ7" s="31"/>
-      <c r="HR7" s="31"/>
-      <c r="HS7" s="31"/>
-      <c r="HT7" s="31"/>
-      <c r="HU7" s="31"/>
+      <c r="J7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="1"/>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1"/>
+      <c r="CK7" s="1"/>
+      <c r="CL7" s="1"/>
+      <c r="CM7" s="1"/>
+      <c r="CN7" s="1"/>
+      <c r="CO7" s="1"/>
+      <c r="CP7" s="1"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="1"/>
+      <c r="CS7" s="1"/>
+      <c r="CT7" s="1"/>
+      <c r="CU7" s="1"/>
+      <c r="CV7" s="1"/>
+      <c r="CW7" s="1"/>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="1"/>
+      <c r="CZ7" s="1"/>
+      <c r="DA7" s="1"/>
+      <c r="DB7" s="1"/>
+      <c r="DC7" s="1"/>
+      <c r="DD7" s="1"/>
+      <c r="DE7" s="1"/>
+      <c r="DF7" s="1"/>
+      <c r="DG7" s="1"/>
+      <c r="DH7" s="1"/>
+      <c r="DI7" s="1"/>
+      <c r="DJ7" s="1"/>
+      <c r="DK7" s="1"/>
+      <c r="DL7" s="1"/>
+      <c r="DM7" s="1"/>
+      <c r="DN7" s="1"/>
+      <c r="DO7" s="1"/>
+      <c r="DP7" s="1"/>
+      <c r="DQ7" s="1"/>
+      <c r="DR7" s="1"/>
+      <c r="DS7" s="1"/>
+      <c r="DT7" s="1"/>
+      <c r="DU7" s="1"/>
+      <c r="DV7" s="1"/>
+      <c r="DW7" s="1"/>
+      <c r="DX7" s="1"/>
+      <c r="DY7" s="1"/>
+      <c r="DZ7" s="1"/>
+      <c r="EA7" s="1"/>
+      <c r="EB7" s="1"/>
+      <c r="EC7" s="1"/>
+      <c r="ED7" s="1"/>
+      <c r="EE7" s="1"/>
+      <c r="EF7" s="1"/>
+      <c r="EG7" s="1"/>
+      <c r="EH7" s="1"/>
+      <c r="EI7" s="1"/>
+      <c r="EJ7" s="1"/>
+      <c r="EK7" s="1"/>
+      <c r="EL7" s="1"/>
+      <c r="EM7" s="1"/>
+      <c r="EN7" s="1"/>
+      <c r="EO7" s="1"/>
+      <c r="EP7" s="1"/>
+      <c r="EQ7" s="1"/>
+      <c r="ER7" s="1"/>
+      <c r="ES7" s="1"/>
+      <c r="ET7" s="1"/>
+      <c r="EU7" s="1"/>
+      <c r="EV7" s="1"/>
+      <c r="EW7" s="1"/>
+      <c r="EX7" s="1"/>
+      <c r="EY7" s="1"/>
+      <c r="EZ7" s="1"/>
+      <c r="FA7" s="1"/>
+      <c r="FB7" s="1"/>
+      <c r="FC7" s="1"/>
+      <c r="FD7" s="1"/>
+      <c r="FE7" s="1"/>
+      <c r="FF7" s="1"/>
+      <c r="FG7" s="1"/>
+      <c r="FH7" s="1"/>
+      <c r="FI7" s="1"/>
+      <c r="FJ7" s="1"/>
+      <c r="FK7" s="1"/>
+      <c r="FL7" s="1"/>
+      <c r="FM7" s="1"/>
+      <c r="FN7" s="1"/>
+      <c r="FO7" s="1"/>
+      <c r="FP7" s="1"/>
+      <c r="FQ7" s="1"/>
+      <c r="FR7" s="1"/>
+      <c r="FS7" s="1"/>
+      <c r="FT7" s="1"/>
+      <c r="FU7" s="1"/>
+      <c r="FV7" s="1"/>
+      <c r="FW7" s="1"/>
+      <c r="FX7" s="1"/>
+      <c r="FY7" s="1"/>
+      <c r="FZ7" s="1"/>
+      <c r="GA7" s="1"/>
+      <c r="GB7" s="1"/>
+      <c r="GC7" s="1"/>
+      <c r="GD7" s="1"/>
+      <c r="GE7" s="1"/>
+      <c r="GF7" s="1"/>
+      <c r="GG7" s="1"/>
+      <c r="GH7" s="1"/>
+      <c r="GI7" s="1"/>
+      <c r="GJ7" s="1"/>
+      <c r="GK7" s="1"/>
+      <c r="GL7" s="1"/>
+      <c r="GM7" s="1"/>
+      <c r="GN7" s="1"/>
+      <c r="GO7" s="1"/>
+      <c r="GP7" s="1"/>
+      <c r="GQ7" s="1"/>
+      <c r="GR7" s="1"/>
+      <c r="GS7" s="1"/>
+      <c r="GT7" s="1"/>
+      <c r="GU7" s="1"/>
+      <c r="GV7" s="1"/>
+      <c r="GW7" s="1"/>
+      <c r="GX7" s="1"/>
+      <c r="GY7" s="1"/>
+      <c r="GZ7" s="1"/>
+      <c r="HA7" s="1"/>
+      <c r="HB7" s="1"/>
+      <c r="HC7" s="1"/>
+      <c r="HD7" s="1"/>
+      <c r="HE7" s="1"/>
+      <c r="HF7" s="1"/>
+      <c r="HG7" s="1"/>
+      <c r="HH7" s="1"/>
+      <c r="HI7" s="1"/>
+      <c r="HJ7" s="1"/>
+      <c r="HK7" s="1"/>
+      <c r="HL7" s="1"/>
+      <c r="HM7" s="1"/>
+      <c r="HN7" s="1"/>
+      <c r="HO7" s="1"/>
+      <c r="HP7" s="1"/>
+      <c r="HQ7" s="1"/>
+      <c r="HR7" s="1"/>
+      <c r="HS7" s="1"/>
+      <c r="HT7" s="1"/>
+      <c r="HU7" s="1"/>
     </row>
     <row r="8" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="22">
-        <v>45939</v>
-      </c>
-      <c r="D8" s="6">
-        <v>10</v>
-      </c>
-      <c r="E8" s="22">
-        <v>45940</v>
-      </c>
-      <c r="F8" s="6">
-        <v>15</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="7">
         <v>0</v>
       </c>
@@ -3885,148 +3998,136 @@
       <c r="DE8" s="1"/>
       <c r="DF8" s="1"/>
       <c r="DG8" s="1"/>
-      <c r="DH8" s="31"/>
-      <c r="DI8" s="31"/>
-      <c r="DJ8" s="31"/>
-      <c r="DK8" s="31"/>
-      <c r="DL8" s="31"/>
-      <c r="DM8" s="31"/>
-      <c r="DN8" s="31"/>
-      <c r="DO8" s="31"/>
-      <c r="DP8" s="31"/>
-      <c r="DQ8" s="31"/>
-      <c r="DR8" s="31"/>
-      <c r="DS8" s="31"/>
-      <c r="DT8" s="31"/>
-      <c r="DU8" s="31"/>
-      <c r="DV8" s="31"/>
-      <c r="DW8" s="31"/>
-      <c r="DX8" s="31"/>
-      <c r="DY8" s="31"/>
-      <c r="DZ8" s="31"/>
-      <c r="EA8" s="31"/>
-      <c r="EB8" s="31"/>
-      <c r="EC8" s="31"/>
-      <c r="ED8" s="31"/>
-      <c r="EE8" s="31"/>
-      <c r="EF8" s="31"/>
-      <c r="EG8" s="31"/>
-      <c r="EH8" s="31"/>
-      <c r="EI8" s="31"/>
-      <c r="EJ8" s="31"/>
-      <c r="EK8" s="31"/>
-      <c r="EL8" s="31"/>
-      <c r="EM8" s="31"/>
-      <c r="EN8" s="31"/>
-      <c r="EO8" s="31"/>
-      <c r="EP8" s="31"/>
-      <c r="EQ8" s="31"/>
-      <c r="ER8" s="31"/>
-      <c r="ES8" s="31"/>
-      <c r="ET8" s="31"/>
-      <c r="EU8" s="31"/>
-      <c r="EV8" s="31"/>
-      <c r="EW8" s="31"/>
-      <c r="EX8" s="31"/>
-      <c r="EY8" s="31"/>
-      <c r="EZ8" s="31"/>
-      <c r="FA8" s="31"/>
-      <c r="FB8" s="31"/>
-      <c r="FC8" s="31"/>
-      <c r="FD8" s="31"/>
-      <c r="FE8" s="31"/>
-      <c r="FF8" s="31"/>
-      <c r="FG8" s="31"/>
-      <c r="FH8" s="31"/>
-      <c r="FI8" s="31"/>
-      <c r="FJ8" s="31"/>
-      <c r="FK8" s="31"/>
-      <c r="FL8" s="31"/>
-      <c r="FM8" s="31"/>
-      <c r="FN8" s="31"/>
-      <c r="FO8" s="31"/>
-      <c r="FP8" s="31"/>
-      <c r="FQ8" s="31"/>
-      <c r="FR8" s="31"/>
-      <c r="FS8" s="31"/>
-      <c r="FT8" s="31"/>
-      <c r="FU8" s="31"/>
-      <c r="FV8" s="31"/>
-      <c r="FW8" s="31"/>
-      <c r="FX8" s="31"/>
-      <c r="FY8" s="31"/>
-      <c r="FZ8" s="31"/>
-      <c r="GA8" s="31"/>
-      <c r="GB8" s="31"/>
-      <c r="GC8" s="31"/>
-      <c r="GD8" s="31"/>
-      <c r="GE8" s="31"/>
-      <c r="GF8" s="31"/>
-      <c r="GG8" s="31"/>
-      <c r="GH8" s="31"/>
-      <c r="GI8" s="31"/>
-      <c r="GJ8" s="31"/>
-      <c r="GK8" s="31"/>
-      <c r="GL8" s="31"/>
-      <c r="GM8" s="31"/>
-      <c r="GN8" s="31"/>
-      <c r="GO8" s="31"/>
-      <c r="GP8" s="31"/>
-      <c r="GQ8" s="31"/>
-      <c r="GR8" s="31"/>
-      <c r="GS8" s="31"/>
-      <c r="GT8" s="31"/>
-      <c r="GU8" s="31"/>
-      <c r="GV8" s="31"/>
-      <c r="GW8" s="31"/>
-      <c r="GX8" s="31"/>
-      <c r="GY8" s="31"/>
-      <c r="GZ8" s="31"/>
-      <c r="HA8" s="31"/>
-      <c r="HB8" s="31"/>
-      <c r="HC8" s="31"/>
-      <c r="HD8" s="31"/>
-      <c r="HE8" s="31"/>
-      <c r="HF8" s="31"/>
-      <c r="HG8" s="31"/>
-      <c r="HH8" s="31"/>
-      <c r="HI8" s="31"/>
-      <c r="HJ8" s="31"/>
-      <c r="HK8" s="31"/>
-      <c r="HL8" s="31"/>
-      <c r="HM8" s="31"/>
-      <c r="HN8" s="31"/>
-      <c r="HO8" s="31"/>
-      <c r="HP8" s="31"/>
-      <c r="HQ8" s="31"/>
-      <c r="HR8" s="31"/>
-      <c r="HS8" s="31"/>
-      <c r="HT8" s="31"/>
-      <c r="HU8" s="31"/>
+      <c r="DH8" s="1"/>
+      <c r="DI8" s="1"/>
+      <c r="DJ8" s="1"/>
+      <c r="DK8" s="1"/>
+      <c r="DL8" s="1"/>
+      <c r="DM8" s="1"/>
+      <c r="DN8" s="1"/>
+      <c r="DO8" s="1"/>
+      <c r="DP8" s="1"/>
+      <c r="DQ8" s="1"/>
+      <c r="DR8" s="1"/>
+      <c r="DS8" s="1"/>
+      <c r="DT8" s="1"/>
+      <c r="DU8" s="1"/>
+      <c r="DV8" s="1"/>
+      <c r="DW8" s="1"/>
+      <c r="DX8" s="1"/>
+      <c r="DY8" s="1"/>
+      <c r="DZ8" s="1"/>
+      <c r="EA8" s="1"/>
+      <c r="EB8" s="1"/>
+      <c r="EC8" s="1"/>
+      <c r="ED8" s="1"/>
+      <c r="EE8" s="1"/>
+      <c r="EF8" s="1"/>
+      <c r="EG8" s="1"/>
+      <c r="EH8" s="1"/>
+      <c r="EI8" s="1"/>
+      <c r="EJ8" s="1"/>
+      <c r="EK8" s="1"/>
+      <c r="EL8" s="1"/>
+      <c r="EM8" s="1"/>
+      <c r="EN8" s="1"/>
+      <c r="EO8" s="1"/>
+      <c r="EP8" s="1"/>
+      <c r="EQ8" s="1"/>
+      <c r="ER8" s="1"/>
+      <c r="ES8" s="1"/>
+      <c r="ET8" s="1"/>
+      <c r="EU8" s="1"/>
+      <c r="EV8" s="1"/>
+      <c r="EW8" s="1"/>
+      <c r="EX8" s="1"/>
+      <c r="EY8" s="1"/>
+      <c r="EZ8" s="1"/>
+      <c r="FA8" s="1"/>
+      <c r="FB8" s="1"/>
+      <c r="FC8" s="1"/>
+      <c r="FD8" s="1"/>
+      <c r="FE8" s="1"/>
+      <c r="FF8" s="1"/>
+      <c r="FG8" s="1"/>
+      <c r="FH8" s="1"/>
+      <c r="FI8" s="1"/>
+      <c r="FJ8" s="1"/>
+      <c r="FK8" s="1"/>
+      <c r="FL8" s="1"/>
+      <c r="FM8" s="1"/>
+      <c r="FN8" s="1"/>
+      <c r="FO8" s="1"/>
+      <c r="FP8" s="1"/>
+      <c r="FQ8" s="1"/>
+      <c r="FR8" s="1"/>
+      <c r="FS8" s="1"/>
+      <c r="FT8" s="1"/>
+      <c r="FU8" s="1"/>
+      <c r="FV8" s="1"/>
+      <c r="FW8" s="1"/>
+      <c r="FX8" s="1"/>
+      <c r="FY8" s="1"/>
+      <c r="FZ8" s="1"/>
+      <c r="GA8" s="1"/>
+      <c r="GB8" s="1"/>
+      <c r="GC8" s="1"/>
+      <c r="GD8" s="1"/>
+      <c r="GE8" s="1"/>
+      <c r="GF8" s="1"/>
+      <c r="GG8" s="1"/>
+      <c r="GH8" s="1"/>
+      <c r="GI8" s="1"/>
+      <c r="GJ8" s="1"/>
+      <c r="GK8" s="1"/>
+      <c r="GL8" s="1"/>
+      <c r="GM8" s="1"/>
+      <c r="GN8" s="1"/>
+      <c r="GO8" s="1"/>
+      <c r="GP8" s="1"/>
+      <c r="GQ8" s="1"/>
+      <c r="GR8" s="1"/>
+      <c r="GS8" s="1"/>
+      <c r="GT8" s="1"/>
+      <c r="GU8" s="1"/>
+      <c r="GV8" s="1"/>
+      <c r="GW8" s="1"/>
+      <c r="GX8" s="1"/>
+      <c r="GY8" s="1"/>
+      <c r="GZ8" s="1"/>
+      <c r="HA8" s="1"/>
+      <c r="HB8" s="1"/>
+      <c r="HC8" s="1"/>
+      <c r="HD8" s="1"/>
+      <c r="HE8" s="1"/>
+      <c r="HF8" s="1"/>
+      <c r="HG8" s="1"/>
+      <c r="HH8" s="1"/>
+      <c r="HI8" s="1"/>
+      <c r="HJ8" s="1"/>
+      <c r="HK8" s="1"/>
+      <c r="HL8" s="1"/>
+      <c r="HM8" s="1"/>
+      <c r="HN8" s="1"/>
+      <c r="HO8" s="1"/>
+      <c r="HP8" s="1"/>
+      <c r="HQ8" s="1"/>
+      <c r="HR8" s="1"/>
+      <c r="HS8" s="1"/>
+      <c r="HT8" s="1"/>
+      <c r="HU8" s="1"/>
     </row>
     <row r="9" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="22">
-        <v>45958</v>
-      </c>
-      <c r="D9" s="6">
-        <v>17</v>
-      </c>
-      <c r="E9" s="22">
-        <v>45959</v>
-      </c>
-      <c r="F9" s="6">
-        <v>20</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="7">
         <v>0</v>
       </c>
       <c r="H9" s="30"/>
-      <c r="O9" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="J9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -4102,150 +4203,140 @@
       <c r="CV9" s="1"/>
       <c r="CW9" s="1"/>
       <c r="CX9" s="1"/>
-      <c r="CY9" s="31"/>
-      <c r="CZ9" s="31"/>
-      <c r="DA9" s="31"/>
-      <c r="DB9" s="31"/>
-      <c r="DC9" s="31"/>
-      <c r="DD9" s="31"/>
-      <c r="DE9" s="31"/>
-      <c r="DF9" s="31"/>
-      <c r="DG9" s="31"/>
-      <c r="DH9" s="31"/>
-      <c r="DI9" s="31"/>
-      <c r="DJ9" s="31"/>
-      <c r="DK9" s="31"/>
-      <c r="DL9" s="31"/>
-      <c r="DM9" s="31"/>
-      <c r="DN9" s="31"/>
-      <c r="DO9" s="31"/>
-      <c r="DP9" s="31"/>
-      <c r="DQ9" s="31"/>
-      <c r="DR9" s="31"/>
-      <c r="DS9" s="31"/>
-      <c r="DT9" s="31"/>
-      <c r="DU9" s="31"/>
-      <c r="DV9" s="31"/>
-      <c r="DW9" s="31"/>
-      <c r="DX9" s="31"/>
-      <c r="DY9" s="31"/>
-      <c r="DZ9" s="31"/>
-      <c r="EA9" s="31"/>
-      <c r="EB9" s="31"/>
-      <c r="EC9" s="31"/>
-      <c r="ED9" s="31"/>
-      <c r="EE9" s="31"/>
-      <c r="EF9" s="31"/>
-      <c r="EG9" s="31"/>
-      <c r="EH9" s="31"/>
-      <c r="EI9" s="31"/>
-      <c r="EJ9" s="31"/>
-      <c r="EK9" s="31"/>
-      <c r="EL9" s="31"/>
-      <c r="EM9" s="31"/>
-      <c r="EN9" s="31"/>
-      <c r="EO9" s="31"/>
-      <c r="EP9" s="31"/>
-      <c r="EQ9" s="31"/>
-      <c r="ER9" s="31"/>
-      <c r="ES9" s="31"/>
-      <c r="ET9" s="31"/>
-      <c r="EU9" s="31"/>
-      <c r="EV9" s="31"/>
-      <c r="EW9" s="31"/>
-      <c r="EX9" s="31"/>
-      <c r="EY9" s="31"/>
-      <c r="EZ9" s="31"/>
-      <c r="FA9" s="31"/>
-      <c r="FB9" s="31"/>
-      <c r="FC9" s="31"/>
-      <c r="FD9" s="31"/>
-      <c r="FE9" s="31"/>
-      <c r="FF9" s="31"/>
-      <c r="FG9" s="31"/>
-      <c r="FH9" s="31"/>
-      <c r="FI9" s="31"/>
-      <c r="FJ9" s="31"/>
-      <c r="FK9" s="31"/>
-      <c r="FL9" s="31"/>
-      <c r="FM9" s="31"/>
-      <c r="FN9" s="31"/>
-      <c r="FO9" s="31"/>
-      <c r="FP9" s="31"/>
-      <c r="FQ9" s="31"/>
-      <c r="FR9" s="31"/>
-      <c r="FS9" s="31"/>
-      <c r="FT9" s="31"/>
-      <c r="FU9" s="31"/>
-      <c r="FV9" s="31"/>
-      <c r="FW9" s="31"/>
-      <c r="FX9" s="31"/>
-      <c r="FY9" s="31"/>
-      <c r="FZ9" s="31"/>
-      <c r="GA9" s="31"/>
-      <c r="GB9" s="31"/>
-      <c r="GC9" s="31"/>
-      <c r="GD9" s="31"/>
-      <c r="GE9" s="31"/>
-      <c r="GF9" s="31"/>
-      <c r="GG9" s="31"/>
-      <c r="GH9" s="31"/>
-      <c r="GI9" s="31"/>
-      <c r="GJ9" s="31"/>
-      <c r="GK9" s="31"/>
-      <c r="GL9" s="31"/>
-      <c r="GM9" s="31"/>
-      <c r="GN9" s="31"/>
-      <c r="GO9" s="31"/>
-      <c r="GP9" s="31"/>
-      <c r="GQ9" s="31"/>
-      <c r="GR9" s="31"/>
-      <c r="GS9" s="31"/>
-      <c r="GT9" s="31"/>
-      <c r="GU9" s="31"/>
-      <c r="GV9" s="31"/>
-      <c r="GW9" s="31"/>
-      <c r="GX9" s="31"/>
-      <c r="GY9" s="31"/>
-      <c r="GZ9" s="31"/>
-      <c r="HA9" s="31"/>
-      <c r="HB9" s="31"/>
-      <c r="HC9" s="31"/>
-      <c r="HD9" s="31"/>
-      <c r="HE9" s="31"/>
-      <c r="HF9" s="31"/>
-      <c r="HG9" s="31"/>
-      <c r="HH9" s="31"/>
-      <c r="HI9" s="31"/>
-      <c r="HJ9" s="31"/>
-      <c r="HK9" s="31"/>
-      <c r="HL9" s="31"/>
-      <c r="HM9" s="31"/>
-      <c r="HN9" s="31"/>
-      <c r="HO9" s="31"/>
-      <c r="HP9" s="31"/>
-      <c r="HQ9" s="31"/>
-      <c r="HR9" s="31"/>
-      <c r="HS9" s="31"/>
-      <c r="HT9" s="31"/>
-      <c r="HU9" s="31"/>
+      <c r="CY9" s="1"/>
+      <c r="CZ9" s="1"/>
+      <c r="DA9" s="1"/>
+      <c r="DB9" s="1"/>
+      <c r="DC9" s="1"/>
+      <c r="DD9" s="1"/>
+      <c r="DE9" s="1"/>
+      <c r="DF9" s="1"/>
+      <c r="DG9" s="1"/>
+      <c r="DH9" s="1"/>
+      <c r="DI9" s="1"/>
+      <c r="DJ9" s="1"/>
+      <c r="DK9" s="1"/>
+      <c r="DL9" s="1"/>
+      <c r="DM9" s="1"/>
+      <c r="DN9" s="1"/>
+      <c r="DO9" s="1"/>
+      <c r="DP9" s="1"/>
+      <c r="DQ9" s="1"/>
+      <c r="DR9" s="1"/>
+      <c r="DS9" s="1"/>
+      <c r="DT9" s="1"/>
+      <c r="DU9" s="1"/>
+      <c r="DV9" s="1"/>
+      <c r="DW9" s="1"/>
+      <c r="DX9" s="1"/>
+      <c r="DY9" s="1"/>
+      <c r="DZ9" s="1"/>
+      <c r="EA9" s="1"/>
+      <c r="EB9" s="1"/>
+      <c r="EC9" s="1"/>
+      <c r="ED9" s="1"/>
+      <c r="EE9" s="1"/>
+      <c r="EF9" s="1"/>
+      <c r="EG9" s="1"/>
+      <c r="EH9" s="1"/>
+      <c r="EI9" s="1"/>
+      <c r="EJ9" s="1"/>
+      <c r="EK9" s="1"/>
+      <c r="EL9" s="1"/>
+      <c r="EM9" s="1"/>
+      <c r="EN9" s="1"/>
+      <c r="EO9" s="1"/>
+      <c r="EP9" s="1"/>
+      <c r="EQ9" s="1"/>
+      <c r="ER9" s="1"/>
+      <c r="ES9" s="1"/>
+      <c r="ET9" s="1"/>
+      <c r="EU9" s="1"/>
+      <c r="EV9" s="1"/>
+      <c r="EW9" s="1"/>
+      <c r="EX9" s="1"/>
+      <c r="EY9" s="1"/>
+      <c r="EZ9" s="1"/>
+      <c r="FA9" s="1"/>
+      <c r="FB9" s="1"/>
+      <c r="FC9" s="1"/>
+      <c r="FD9" s="1"/>
+      <c r="FE9" s="1"/>
+      <c r="FF9" s="1"/>
+      <c r="FG9" s="1"/>
+      <c r="FH9" s="1"/>
+      <c r="FI9" s="1"/>
+      <c r="FJ9" s="1"/>
+      <c r="FK9" s="1"/>
+      <c r="FL9" s="1"/>
+      <c r="FM9" s="1"/>
+      <c r="FN9" s="1"/>
+      <c r="FO9" s="1"/>
+      <c r="FP9" s="1"/>
+      <c r="FQ9" s="1"/>
+      <c r="FR9" s="1"/>
+      <c r="FS9" s="1"/>
+      <c r="FT9" s="1"/>
+      <c r="FU9" s="1"/>
+      <c r="FV9" s="1"/>
+      <c r="FW9" s="1"/>
+      <c r="FX9" s="1"/>
+      <c r="FY9" s="1"/>
+      <c r="FZ9" s="1"/>
+      <c r="GA9" s="1"/>
+      <c r="GB9" s="1"/>
+      <c r="GC9" s="1"/>
+      <c r="GD9" s="1"/>
+      <c r="GE9" s="1"/>
+      <c r="GF9" s="1"/>
+      <c r="GG9" s="1"/>
+      <c r="GH9" s="1"/>
+      <c r="GI9" s="1"/>
+      <c r="GJ9" s="1"/>
+      <c r="GK9" s="1"/>
+      <c r="GL9" s="1"/>
+      <c r="GM9" s="1"/>
+      <c r="GN9" s="1"/>
+      <c r="GO9" s="1"/>
+      <c r="GP9" s="1"/>
+      <c r="GQ9" s="1"/>
+      <c r="GR9" s="1"/>
+      <c r="GS9" s="1"/>
+      <c r="GT9" s="1"/>
+      <c r="GU9" s="1"/>
+      <c r="GV9" s="1"/>
+      <c r="GW9" s="1"/>
+      <c r="GX9" s="1"/>
+      <c r="GY9" s="1"/>
+      <c r="GZ9" s="1"/>
+      <c r="HA9" s="1"/>
+      <c r="HB9" s="1"/>
+      <c r="HC9" s="1"/>
+      <c r="HD9" s="1"/>
+      <c r="HE9" s="1"/>
+      <c r="HF9" s="1"/>
+      <c r="HG9" s="1"/>
+      <c r="HH9" s="1"/>
+      <c r="HI9" s="1"/>
+      <c r="HJ9" s="1"/>
+      <c r="HK9" s="1"/>
+      <c r="HL9" s="1"/>
+      <c r="HM9" s="1"/>
+      <c r="HN9" s="1"/>
+      <c r="HO9" s="1"/>
+      <c r="HP9" s="1"/>
+      <c r="HQ9" s="1"/>
+      <c r="HR9" s="1"/>
+      <c r="HS9" s="1"/>
+      <c r="HT9" s="1"/>
+      <c r="HU9" s="1"/>
     </row>
     <row r="10" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="7">
         <v>0</v>
       </c>
@@ -4333,814 +4424,982 @@
       <c r="DC10" s="1"/>
       <c r="DD10" s="1"/>
       <c r="DE10" s="1"/>
-      <c r="DF10" s="31"/>
-      <c r="DG10" s="31"/>
-      <c r="DH10" s="31"/>
-      <c r="DI10" s="31"/>
-      <c r="DJ10" s="31"/>
-      <c r="DK10" s="31"/>
-      <c r="DL10" s="31"/>
-      <c r="DM10" s="31"/>
-      <c r="DN10" s="31"/>
-      <c r="DO10" s="31"/>
-      <c r="DP10" s="31"/>
-      <c r="DQ10" s="31"/>
-      <c r="DR10" s="31"/>
-      <c r="DS10" s="31"/>
-      <c r="DT10" s="31"/>
-      <c r="DU10" s="31"/>
-      <c r="DV10" s="31"/>
-      <c r="DW10" s="31"/>
-      <c r="DX10" s="31"/>
-      <c r="DY10" s="31"/>
-      <c r="DZ10" s="31"/>
-      <c r="EA10" s="31"/>
-      <c r="EB10" s="31"/>
-      <c r="EC10" s="31"/>
-      <c r="ED10" s="31"/>
-      <c r="EE10" s="31"/>
-      <c r="EF10" s="31"/>
-      <c r="EG10" s="31"/>
-      <c r="EH10" s="31"/>
-      <c r="EI10" s="31"/>
-      <c r="EJ10" s="31"/>
-      <c r="EK10" s="31"/>
-      <c r="EL10" s="31"/>
-      <c r="EM10" s="31"/>
-      <c r="EN10" s="31"/>
-      <c r="EO10" s="31"/>
-      <c r="EP10" s="31"/>
-      <c r="EQ10" s="31"/>
-      <c r="ER10" s="31"/>
-      <c r="ES10" s="31"/>
-      <c r="ET10" s="31"/>
-      <c r="EU10" s="31"/>
-      <c r="EV10" s="31"/>
-      <c r="EW10" s="31"/>
-      <c r="EX10" s="31"/>
-      <c r="EY10" s="31"/>
-      <c r="EZ10" s="31"/>
-      <c r="FA10" s="31"/>
-      <c r="FB10" s="31"/>
-      <c r="FC10" s="31"/>
-      <c r="FD10" s="31"/>
-      <c r="FE10" s="31"/>
-      <c r="FF10" s="31"/>
-      <c r="FG10" s="31"/>
-      <c r="FH10" s="31"/>
-      <c r="FI10" s="31"/>
-      <c r="FJ10" s="31"/>
-      <c r="FK10" s="31"/>
-      <c r="FL10" s="31"/>
-      <c r="FM10" s="31"/>
-      <c r="FN10" s="31"/>
-      <c r="FO10" s="31"/>
-      <c r="FP10" s="31"/>
-      <c r="FQ10" s="31"/>
-      <c r="FR10" s="31"/>
-      <c r="FS10" s="31"/>
-      <c r="FT10" s="31"/>
-      <c r="FU10" s="31"/>
-      <c r="FV10" s="31"/>
-      <c r="FW10" s="31"/>
-      <c r="FX10" s="31"/>
-      <c r="FY10" s="31"/>
-      <c r="FZ10" s="31"/>
-      <c r="GA10" s="31"/>
-      <c r="GB10" s="31"/>
-      <c r="GC10" s="31"/>
-      <c r="GD10" s="31"/>
-      <c r="GE10" s="31"/>
-      <c r="GF10" s="31"/>
-      <c r="GG10" s="31"/>
-      <c r="GH10" s="31"/>
-      <c r="GI10" s="31"/>
-      <c r="GJ10" s="31"/>
-      <c r="GK10" s="31"/>
-      <c r="GL10" s="31"/>
-      <c r="GM10" s="31"/>
-      <c r="GN10" s="31"/>
-      <c r="GO10" s="31"/>
-      <c r="GP10" s="31"/>
-      <c r="GQ10" s="31"/>
-      <c r="GR10" s="31"/>
-      <c r="GS10" s="31"/>
-      <c r="GT10" s="31"/>
-      <c r="GU10" s="31"/>
-      <c r="GV10" s="31"/>
-      <c r="GW10" s="31"/>
-      <c r="GX10" s="31"/>
-      <c r="GY10" s="31"/>
-      <c r="GZ10" s="31"/>
-      <c r="HA10" s="31"/>
-      <c r="HB10" s="31"/>
-      <c r="HC10" s="31"/>
-      <c r="HD10" s="31"/>
-      <c r="HE10" s="31"/>
-      <c r="HF10" s="31"/>
-      <c r="HG10" s="31"/>
-      <c r="HH10" s="31"/>
-      <c r="HI10" s="31"/>
-      <c r="HJ10" s="31"/>
-      <c r="HK10" s="31"/>
-      <c r="HL10" s="31"/>
-      <c r="HM10" s="31"/>
-      <c r="HN10" s="31"/>
-      <c r="HO10" s="31"/>
-      <c r="HP10" s="31"/>
-      <c r="HQ10" s="31"/>
-      <c r="HR10" s="31"/>
-      <c r="HS10" s="31"/>
-      <c r="HT10" s="31"/>
-      <c r="HU10" s="31"/>
+      <c r="DF10" s="1"/>
+      <c r="DG10" s="1"/>
+      <c r="DH10" s="1"/>
+      <c r="DI10" s="1"/>
+      <c r="DJ10" s="1"/>
+      <c r="DK10" s="1"/>
+      <c r="DL10" s="1"/>
+      <c r="DM10" s="1"/>
+      <c r="DN10" s="1"/>
+      <c r="DO10" s="1"/>
+      <c r="DP10" s="1"/>
+      <c r="DQ10" s="1"/>
+      <c r="DR10" s="1"/>
+      <c r="DS10" s="1"/>
+      <c r="DT10" s="1"/>
+      <c r="DU10" s="1"/>
+      <c r="DV10" s="1"/>
+      <c r="DW10" s="1"/>
+      <c r="DX10" s="1"/>
+      <c r="DY10" s="1"/>
+      <c r="DZ10" s="1"/>
+      <c r="EA10" s="1"/>
+      <c r="EB10" s="1"/>
+      <c r="EC10" s="1"/>
+      <c r="ED10" s="1"/>
+      <c r="EE10" s="1"/>
+      <c r="EF10" s="1"/>
+      <c r="EG10" s="1"/>
+      <c r="EH10" s="1"/>
+      <c r="EI10" s="1"/>
+      <c r="EJ10" s="1"/>
+      <c r="EK10" s="1"/>
+      <c r="EL10" s="1"/>
+      <c r="EM10" s="1"/>
+      <c r="EN10" s="1"/>
+      <c r="EO10" s="1"/>
+      <c r="EP10" s="1"/>
+      <c r="EQ10" s="1"/>
+      <c r="ER10" s="1"/>
+      <c r="ES10" s="1"/>
+      <c r="ET10" s="1"/>
+      <c r="EU10" s="1"/>
+      <c r="EV10" s="1"/>
+      <c r="EW10" s="1"/>
+      <c r="EX10" s="1"/>
+      <c r="EY10" s="1"/>
+      <c r="EZ10" s="1"/>
+      <c r="FA10" s="1"/>
+      <c r="FB10" s="1"/>
+      <c r="FC10" s="1"/>
+      <c r="FD10" s="1"/>
+      <c r="FE10" s="1"/>
+      <c r="FF10" s="1"/>
+      <c r="FG10" s="1"/>
+      <c r="FH10" s="1"/>
+      <c r="FI10" s="1"/>
+      <c r="FJ10" s="1"/>
+      <c r="FK10" s="1"/>
+      <c r="FL10" s="1"/>
+      <c r="FM10" s="1"/>
+      <c r="FN10" s="1"/>
+      <c r="FO10" s="1"/>
+      <c r="FP10" s="1"/>
+      <c r="FQ10" s="1"/>
+      <c r="FR10" s="1"/>
+      <c r="FS10" s="1"/>
+      <c r="FT10" s="1"/>
+      <c r="FU10" s="1"/>
+      <c r="FV10" s="1"/>
+      <c r="FW10" s="1"/>
+      <c r="FX10" s="1"/>
+      <c r="FY10" s="1"/>
+      <c r="FZ10" s="1"/>
+      <c r="GA10" s="1"/>
+      <c r="GB10" s="1"/>
+      <c r="GC10" s="1"/>
+      <c r="GD10" s="1"/>
+      <c r="GE10" s="1"/>
+      <c r="GF10" s="1"/>
+      <c r="GG10" s="1"/>
+      <c r="GH10" s="1"/>
+      <c r="GI10" s="1"/>
+      <c r="GJ10" s="1"/>
+      <c r="GK10" s="1"/>
+      <c r="GL10" s="1"/>
+      <c r="GM10" s="1"/>
+      <c r="GN10" s="1"/>
+      <c r="GO10" s="1"/>
+      <c r="GP10" s="1"/>
+      <c r="GQ10" s="1"/>
+      <c r="GR10" s="1"/>
+      <c r="GS10" s="1"/>
+      <c r="GT10" s="1"/>
+      <c r="GU10" s="1"/>
+      <c r="GV10" s="1"/>
+      <c r="GW10" s="1"/>
+      <c r="GX10" s="1"/>
+      <c r="GY10" s="1"/>
+      <c r="GZ10" s="1"/>
+      <c r="HA10" s="1"/>
+      <c r="HB10" s="1"/>
+      <c r="HC10" s="1"/>
+      <c r="HD10" s="1"/>
+      <c r="HE10" s="1"/>
+      <c r="HF10" s="1"/>
+      <c r="HG10" s="1"/>
+      <c r="HH10" s="1"/>
+      <c r="HI10" s="1"/>
+      <c r="HJ10" s="1"/>
+      <c r="HK10" s="1"/>
+      <c r="HL10" s="1"/>
+      <c r="HM10" s="1"/>
+      <c r="HN10" s="1"/>
+      <c r="HO10" s="1"/>
+      <c r="HP10" s="1"/>
+      <c r="HQ10" s="1"/>
+      <c r="HR10" s="1"/>
+      <c r="HS10" s="1"/>
+      <c r="HT10" s="1"/>
+      <c r="HU10" s="1"/>
     </row>
     <row r="11" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="7">
         <v>0</v>
       </c>
       <c r="H11" s="30"/>
-      <c r="BQ11" s="31"/>
-      <c r="BS11" s="31"/>
-      <c r="BU11" s="31"/>
-      <c r="BW11" s="31"/>
-      <c r="BY11" s="31"/>
-      <c r="CA11" s="31"/>
-      <c r="CC11" s="31"/>
-      <c r="CE11" s="31"/>
-      <c r="CG11" s="31"/>
-      <c r="CI11" s="31"/>
-      <c r="CK11" s="31"/>
-      <c r="CL11" s="31"/>
-      <c r="CM11" s="31"/>
-      <c r="CN11" s="31"/>
-      <c r="CO11" s="31"/>
-      <c r="CP11" s="31"/>
-      <c r="CQ11" s="31"/>
-      <c r="CR11" s="31"/>
-      <c r="CS11" s="31"/>
-      <c r="CT11" s="31"/>
-      <c r="CU11" s="31"/>
-      <c r="CV11" s="31"/>
-      <c r="CW11" s="31"/>
-      <c r="CX11" s="31"/>
-      <c r="CY11" s="31"/>
-      <c r="CZ11" s="31"/>
-      <c r="DA11" s="31"/>
-      <c r="DB11" s="31"/>
-      <c r="DC11" s="31"/>
-      <c r="DD11" s="31"/>
-      <c r="DE11" s="31"/>
-      <c r="DF11" s="31"/>
-      <c r="DG11" s="31"/>
-      <c r="DH11" s="31"/>
-      <c r="DI11" s="31"/>
-      <c r="DJ11" s="31"/>
-      <c r="DK11" s="31"/>
-      <c r="DL11" s="31"/>
-      <c r="DM11" s="31"/>
-      <c r="DN11" s="31"/>
-      <c r="DO11" s="31"/>
-      <c r="DP11" s="31"/>
-      <c r="DQ11" s="31"/>
-      <c r="DR11" s="31"/>
-      <c r="DS11" s="31"/>
-      <c r="DT11" s="31"/>
-      <c r="DU11" s="31"/>
-      <c r="DV11" s="31"/>
-      <c r="DW11" s="31"/>
-      <c r="DX11" s="31"/>
-      <c r="DY11" s="31"/>
-      <c r="DZ11" s="31"/>
-      <c r="EA11" s="31"/>
-      <c r="EB11" s="31"/>
-      <c r="EC11" s="31"/>
-      <c r="ED11" s="31"/>
-      <c r="EE11" s="31"/>
-      <c r="EF11" s="31"/>
-      <c r="EG11" s="31"/>
-      <c r="EH11" s="31"/>
-      <c r="EI11" s="31"/>
-      <c r="EJ11" s="31"/>
-      <c r="EK11" s="31"/>
-      <c r="EL11" s="31"/>
-      <c r="EM11" s="31"/>
-      <c r="EN11" s="31"/>
-      <c r="EO11" s="31"/>
-      <c r="EP11" s="31"/>
-      <c r="EQ11" s="31"/>
-      <c r="ER11" s="31"/>
-      <c r="ES11" s="31"/>
-      <c r="ET11" s="31"/>
-      <c r="EU11" s="31"/>
-      <c r="EV11" s="31"/>
-      <c r="EW11" s="31"/>
-      <c r="EX11" s="31"/>
-      <c r="EY11" s="31"/>
-      <c r="EZ11" s="31"/>
-      <c r="FA11" s="31"/>
-      <c r="FB11" s="31"/>
-      <c r="FC11" s="31"/>
-      <c r="FD11" s="31"/>
-      <c r="FE11" s="31"/>
-      <c r="FF11" s="31"/>
-      <c r="FG11" s="31"/>
-      <c r="FH11" s="31"/>
-      <c r="FI11" s="31"/>
-      <c r="FJ11" s="31"/>
-      <c r="FK11" s="31"/>
-      <c r="FL11" s="31"/>
-      <c r="FM11" s="31"/>
-      <c r="FN11" s="31"/>
-      <c r="FO11" s="31"/>
-      <c r="FP11" s="31"/>
-      <c r="FQ11" s="31"/>
-      <c r="FR11" s="31"/>
-      <c r="FS11" s="31"/>
-      <c r="FT11" s="31"/>
-      <c r="FU11" s="31"/>
-      <c r="FV11" s="31"/>
-      <c r="FW11" s="31"/>
-      <c r="FX11" s="31"/>
-      <c r="FY11" s="31"/>
-      <c r="FZ11" s="31"/>
-      <c r="GA11" s="31"/>
-      <c r="GB11" s="31"/>
-      <c r="GC11" s="31"/>
-      <c r="GD11" s="31"/>
-      <c r="GE11" s="31"/>
-      <c r="GF11" s="31"/>
-      <c r="GG11" s="31"/>
-      <c r="GH11" s="31"/>
-      <c r="GI11" s="31"/>
-      <c r="GJ11" s="31"/>
-      <c r="GK11" s="31"/>
-      <c r="GL11" s="31"/>
-      <c r="GM11" s="31"/>
-      <c r="GN11" s="31"/>
-      <c r="GO11" s="31"/>
-      <c r="GP11" s="31"/>
-      <c r="GQ11" s="31"/>
-      <c r="GR11" s="31"/>
-      <c r="GS11" s="31"/>
-      <c r="GT11" s="31"/>
-      <c r="GU11" s="31"/>
-      <c r="GV11" s="31"/>
-      <c r="GW11" s="31"/>
-      <c r="GX11" s="31"/>
-      <c r="GY11" s="31"/>
-      <c r="GZ11" s="31"/>
-      <c r="HA11" s="31"/>
-      <c r="HB11" s="31"/>
-      <c r="HC11" s="31"/>
-      <c r="HD11" s="31"/>
-      <c r="HE11" s="31"/>
-      <c r="HF11" s="31"/>
-      <c r="HG11" s="31"/>
-      <c r="HH11" s="31"/>
-      <c r="HI11" s="31"/>
-      <c r="HJ11" s="31"/>
-      <c r="HK11" s="31"/>
-      <c r="HL11" s="31"/>
-      <c r="HM11" s="31"/>
-      <c r="HN11" s="31"/>
-      <c r="HO11" s="31"/>
-      <c r="HP11" s="31"/>
-      <c r="HQ11" s="31"/>
-      <c r="HR11" s="31"/>
-      <c r="HS11" s="31"/>
-      <c r="HT11" s="31"/>
-      <c r="HU11" s="31"/>
+      <c r="J11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+      <c r="BI11" s="1"/>
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="1"/>
+      <c r="BL11" s="1"/>
+      <c r="BM11" s="1"/>
+      <c r="BN11" s="1"/>
+      <c r="BO11" s="1"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="1"/>
+      <c r="BR11" s="1"/>
+      <c r="BS11" s="1"/>
+      <c r="BT11" s="1"/>
+      <c r="BU11" s="1"/>
+      <c r="BV11" s="1"/>
+      <c r="BW11" s="1"/>
+      <c r="BX11" s="1"/>
+      <c r="BY11" s="1"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="CJ11" s="1"/>
+      <c r="CK11" s="1"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="1"/>
+      <c r="CN11" s="1"/>
+      <c r="CO11" s="1"/>
+      <c r="CP11" s="1"/>
+      <c r="CQ11" s="1"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="1"/>
+      <c r="CU11" s="1"/>
+      <c r="CV11" s="1"/>
+      <c r="CW11" s="1"/>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="1"/>
+      <c r="CZ11" s="1"/>
+      <c r="DA11" s="1"/>
+      <c r="DB11" s="1"/>
+      <c r="DC11" s="1"/>
+      <c r="DD11" s="1"/>
+      <c r="DE11" s="1"/>
+      <c r="DF11" s="1"/>
+      <c r="DG11" s="1"/>
+      <c r="DH11" s="1"/>
+      <c r="DI11" s="1"/>
+      <c r="DJ11" s="1"/>
+      <c r="DK11" s="1"/>
+      <c r="DL11" s="1"/>
+      <c r="DM11" s="1"/>
+      <c r="DN11" s="1"/>
+      <c r="DO11" s="1"/>
+      <c r="DP11" s="1"/>
+      <c r="DQ11" s="1"/>
+      <c r="DR11" s="1"/>
+      <c r="DS11" s="1"/>
+      <c r="DT11" s="1"/>
+      <c r="DU11" s="1"/>
+      <c r="DV11" s="1"/>
+      <c r="DW11" s="1"/>
+      <c r="DX11" s="1"/>
+      <c r="DY11" s="1"/>
+      <c r="DZ11" s="1"/>
+      <c r="EA11" s="1"/>
+      <c r="EB11" s="1"/>
+      <c r="EC11" s="1"/>
+      <c r="ED11" s="1"/>
+      <c r="EE11" s="1"/>
+      <c r="EF11" s="1"/>
+      <c r="EG11" s="1"/>
+      <c r="EH11" s="1"/>
+      <c r="EI11" s="1"/>
+      <c r="EJ11" s="1"/>
+      <c r="EK11" s="1"/>
+      <c r="EL11" s="1"/>
+      <c r="EM11" s="1"/>
+      <c r="EN11" s="1"/>
+      <c r="EO11" s="1"/>
+      <c r="EP11" s="1"/>
+      <c r="EQ11" s="1"/>
+      <c r="ER11" s="1"/>
+      <c r="ES11" s="1"/>
+      <c r="ET11" s="1"/>
+      <c r="EU11" s="1"/>
+      <c r="EV11" s="1"/>
+      <c r="EW11" s="1"/>
+      <c r="EX11" s="1"/>
+      <c r="EY11" s="1"/>
+      <c r="EZ11" s="1"/>
+      <c r="FA11" s="1"/>
+      <c r="FB11" s="1"/>
+      <c r="FC11" s="1"/>
+      <c r="FD11" s="1"/>
+      <c r="FE11" s="1"/>
+      <c r="FF11" s="1"/>
+      <c r="FG11" s="1"/>
+      <c r="FH11" s="1"/>
+      <c r="FI11" s="1"/>
+      <c r="FJ11" s="1"/>
+      <c r="FK11" s="1"/>
+      <c r="FL11" s="1"/>
+      <c r="FM11" s="1"/>
+      <c r="FN11" s="1"/>
+      <c r="FO11" s="1"/>
+      <c r="FP11" s="1"/>
+      <c r="FQ11" s="1"/>
+      <c r="FR11" s="1"/>
+      <c r="FS11" s="1"/>
+      <c r="FT11" s="1"/>
+      <c r="FU11" s="1"/>
+      <c r="FV11" s="1"/>
+      <c r="FW11" s="1"/>
+      <c r="FX11" s="1"/>
+      <c r="FY11" s="1"/>
+      <c r="FZ11" s="1"/>
+      <c r="GA11" s="1"/>
+      <c r="GB11" s="1"/>
+      <c r="GC11" s="1"/>
+      <c r="GD11" s="1"/>
+      <c r="GE11" s="1"/>
+      <c r="GF11" s="1"/>
+      <c r="GG11" s="1"/>
+      <c r="GH11" s="1"/>
+      <c r="GI11" s="1"/>
+      <c r="GJ11" s="1"/>
+      <c r="GK11" s="1"/>
+      <c r="GL11" s="1"/>
+      <c r="GM11" s="1"/>
+      <c r="GN11" s="1"/>
+      <c r="GO11" s="1"/>
+      <c r="GP11" s="1"/>
+      <c r="GQ11" s="1"/>
+      <c r="GR11" s="1"/>
+      <c r="GS11" s="1"/>
+      <c r="GT11" s="1"/>
+      <c r="GU11" s="1"/>
+      <c r="GV11" s="1"/>
+      <c r="GW11" s="1"/>
+      <c r="GX11" s="1"/>
+      <c r="GY11" s="1"/>
+      <c r="GZ11" s="1"/>
+      <c r="HA11" s="1"/>
+      <c r="HB11" s="1"/>
+      <c r="HC11" s="1"/>
+      <c r="HD11" s="1"/>
+      <c r="HE11" s="1"/>
+      <c r="HF11" s="1"/>
+      <c r="HG11" s="1"/>
+      <c r="HH11" s="1"/>
+      <c r="HI11" s="1"/>
+      <c r="HJ11" s="1"/>
+      <c r="HK11" s="1"/>
+      <c r="HL11" s="1"/>
+      <c r="HM11" s="1"/>
+      <c r="HN11" s="1"/>
+      <c r="HO11" s="1"/>
+      <c r="HP11" s="1"/>
+      <c r="HQ11" s="1"/>
+      <c r="HR11" s="1"/>
+      <c r="HS11" s="1"/>
+      <c r="HT11" s="1"/>
+      <c r="HU11" s="1"/>
     </row>
     <row r="12" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="7">
         <v>0</v>
       </c>
       <c r="H12" s="30"/>
-      <c r="BQ12" s="31"/>
-      <c r="BS12" s="31"/>
-      <c r="BU12" s="31"/>
-      <c r="BW12" s="31"/>
-      <c r="BY12" s="31"/>
-      <c r="CA12" s="31"/>
-      <c r="CC12" s="31"/>
-      <c r="CE12" s="31"/>
-      <c r="CG12" s="31"/>
-      <c r="CI12" s="31"/>
-      <c r="CK12" s="31"/>
-      <c r="CL12" s="31"/>
-      <c r="CM12" s="31"/>
-      <c r="CN12" s="31"/>
-      <c r="CO12" s="31"/>
-      <c r="CP12" s="31"/>
-      <c r="CQ12" s="31"/>
-      <c r="CR12" s="31"/>
-      <c r="CS12" s="31"/>
-      <c r="CT12" s="31"/>
-      <c r="CU12" s="31"/>
-      <c r="CV12" s="31"/>
-      <c r="CW12" s="31"/>
-      <c r="CX12" s="31"/>
-      <c r="CY12" s="31"/>
-      <c r="CZ12" s="31"/>
-      <c r="DA12" s="31"/>
-      <c r="DB12" s="31"/>
-      <c r="DC12" s="31"/>
-      <c r="DD12" s="31"/>
-      <c r="DE12" s="31"/>
-      <c r="DF12" s="31"/>
-      <c r="DG12" s="31"/>
-      <c r="DH12" s="31"/>
-      <c r="DI12" s="31"/>
-      <c r="DJ12" s="31"/>
-      <c r="DK12" s="31"/>
-      <c r="DL12" s="31"/>
-      <c r="DM12" s="31"/>
-      <c r="DN12" s="31"/>
-      <c r="DO12" s="31"/>
-      <c r="DP12" s="31"/>
-      <c r="DQ12" s="31"/>
-      <c r="DR12" s="31"/>
-      <c r="DS12" s="31"/>
-      <c r="DT12" s="31"/>
-      <c r="DU12" s="31"/>
-      <c r="DV12" s="31"/>
-      <c r="DW12" s="31"/>
-      <c r="DX12" s="31"/>
-      <c r="DY12" s="31"/>
-      <c r="DZ12" s="31"/>
-      <c r="EA12" s="31"/>
-      <c r="EB12" s="31"/>
-      <c r="EC12" s="31"/>
-      <c r="ED12" s="31"/>
-      <c r="EE12" s="31"/>
-      <c r="EF12" s="31"/>
-      <c r="EG12" s="31"/>
-      <c r="EH12" s="31"/>
-      <c r="EI12" s="31"/>
-      <c r="EJ12" s="31"/>
-      <c r="EK12" s="31"/>
-      <c r="EL12" s="31"/>
-      <c r="EM12" s="31"/>
-      <c r="EN12" s="31"/>
-      <c r="EO12" s="31"/>
-      <c r="EP12" s="31"/>
-      <c r="EQ12" s="31"/>
-      <c r="ER12" s="31"/>
-      <c r="ES12" s="31"/>
-      <c r="ET12" s="31"/>
-      <c r="EU12" s="31"/>
-      <c r="EV12" s="31"/>
-      <c r="EW12" s="31"/>
-      <c r="EX12" s="31"/>
-      <c r="EY12" s="31"/>
-      <c r="EZ12" s="31"/>
-      <c r="FA12" s="31"/>
-      <c r="FB12" s="31"/>
-      <c r="FC12" s="31"/>
-      <c r="FD12" s="31"/>
-      <c r="FE12" s="31"/>
-      <c r="FF12" s="31"/>
-      <c r="FG12" s="31"/>
-      <c r="FH12" s="31"/>
-      <c r="FI12" s="31"/>
-      <c r="FJ12" s="31"/>
-      <c r="FK12" s="31"/>
-      <c r="FL12" s="31"/>
-      <c r="FM12" s="31"/>
-      <c r="FN12" s="31"/>
-      <c r="FO12" s="31"/>
-      <c r="FP12" s="31"/>
-      <c r="FQ12" s="31"/>
-      <c r="FR12" s="31"/>
-      <c r="FS12" s="31"/>
-      <c r="FT12" s="31"/>
-      <c r="FU12" s="31"/>
-      <c r="FV12" s="31"/>
-      <c r="FW12" s="31"/>
-      <c r="FX12" s="31"/>
-      <c r="FY12" s="31"/>
-      <c r="FZ12" s="31"/>
-      <c r="GA12" s="31"/>
-      <c r="GB12" s="31"/>
-      <c r="GC12" s="31"/>
-      <c r="GD12" s="31"/>
-      <c r="GE12" s="31"/>
-      <c r="GF12" s="31"/>
-      <c r="GG12" s="31"/>
-      <c r="GH12" s="31"/>
-      <c r="GI12" s="31"/>
-      <c r="GJ12" s="31"/>
-      <c r="GK12" s="31"/>
-      <c r="GL12" s="31"/>
-      <c r="GM12" s="31"/>
-      <c r="GN12" s="31"/>
-      <c r="GO12" s="31"/>
-      <c r="GP12" s="31"/>
-      <c r="GQ12" s="31"/>
-      <c r="GR12" s="31"/>
-      <c r="GS12" s="31"/>
-      <c r="GT12" s="31"/>
-      <c r="GU12" s="31"/>
-      <c r="GV12" s="31"/>
-      <c r="GW12" s="31"/>
-      <c r="GX12" s="31"/>
-      <c r="GY12" s="31"/>
-      <c r="GZ12" s="31"/>
-      <c r="HA12" s="31"/>
-      <c r="HB12" s="31"/>
-      <c r="HC12" s="31"/>
-      <c r="HD12" s="31"/>
-      <c r="HE12" s="31"/>
-      <c r="HF12" s="31"/>
-      <c r="HG12" s="31"/>
-      <c r="HH12" s="31"/>
-      <c r="HI12" s="31"/>
-      <c r="HJ12" s="31"/>
-      <c r="HK12" s="31"/>
-      <c r="HL12" s="31"/>
-      <c r="HM12" s="31"/>
-      <c r="HN12" s="31"/>
-      <c r="HO12" s="31"/>
-      <c r="HP12" s="31"/>
-      <c r="HQ12" s="31"/>
-      <c r="HR12" s="31"/>
-      <c r="HS12" s="31"/>
-      <c r="HT12" s="31"/>
-      <c r="HU12" s="31"/>
+      <c r="J12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+      <c r="BH12" s="1"/>
+      <c r="BI12" s="1"/>
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="1"/>
+      <c r="BL12" s="1"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="1"/>
+      <c r="BS12" s="1"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="1"/>
+      <c r="CD12" s="1"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="CJ12" s="1"/>
+      <c r="CK12" s="1"/>
+      <c r="CL12" s="1"/>
+      <c r="CM12" s="1"/>
+      <c r="CN12" s="1"/>
+      <c r="CO12" s="1"/>
+      <c r="CP12" s="1"/>
+      <c r="CQ12" s="1"/>
+      <c r="CR12" s="1"/>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="1"/>
+      <c r="CU12" s="1"/>
+      <c r="CV12" s="1"/>
+      <c r="CW12" s="1"/>
+      <c r="CX12" s="1"/>
+      <c r="CY12" s="1"/>
+      <c r="CZ12" s="1"/>
+      <c r="DA12" s="1"/>
+      <c r="DB12" s="1"/>
+      <c r="DC12" s="1"/>
+      <c r="DD12" s="1"/>
+      <c r="DE12" s="1"/>
+      <c r="DF12" s="1"/>
+      <c r="DG12" s="1"/>
+      <c r="DH12" s="1"/>
+      <c r="DI12" s="1"/>
+      <c r="DJ12" s="1"/>
+      <c r="DK12" s="1"/>
+      <c r="DL12" s="1"/>
+      <c r="DM12" s="1"/>
+      <c r="DN12" s="1"/>
+      <c r="DO12" s="1"/>
+      <c r="DP12" s="1"/>
+      <c r="DQ12" s="1"/>
+      <c r="DR12" s="1"/>
+      <c r="DS12" s="1"/>
+      <c r="DT12" s="1"/>
+      <c r="DU12" s="1"/>
+      <c r="DV12" s="1"/>
+      <c r="DW12" s="1"/>
+      <c r="DX12" s="1"/>
+      <c r="DY12" s="1"/>
+      <c r="DZ12" s="1"/>
+      <c r="EA12" s="1"/>
+      <c r="EB12" s="1"/>
+      <c r="EC12" s="1"/>
+      <c r="ED12" s="1"/>
+      <c r="EE12" s="1"/>
+      <c r="EF12" s="1"/>
+      <c r="EG12" s="1"/>
+      <c r="EH12" s="1"/>
+      <c r="EI12" s="1"/>
+      <c r="EJ12" s="1"/>
+      <c r="EK12" s="1"/>
+      <c r="EL12" s="1"/>
+      <c r="EM12" s="1"/>
+      <c r="EN12" s="1"/>
+      <c r="EO12" s="1"/>
+      <c r="EP12" s="1"/>
+      <c r="EQ12" s="1"/>
+      <c r="ER12" s="1"/>
+      <c r="ES12" s="1"/>
+      <c r="ET12" s="1"/>
+      <c r="EU12" s="1"/>
+      <c r="EV12" s="1"/>
+      <c r="EW12" s="1"/>
+      <c r="EX12" s="1"/>
+      <c r="EY12" s="1"/>
+      <c r="EZ12" s="1"/>
+      <c r="FA12" s="1"/>
+      <c r="FB12" s="1"/>
+      <c r="FC12" s="1"/>
+      <c r="FD12" s="1"/>
+      <c r="FE12" s="1"/>
+      <c r="FF12" s="1"/>
+      <c r="FG12" s="1"/>
+      <c r="FH12" s="1"/>
+      <c r="FI12" s="1"/>
+      <c r="FJ12" s="1"/>
+      <c r="FK12" s="1"/>
+      <c r="FL12" s="1"/>
+      <c r="FM12" s="1"/>
+      <c r="FN12" s="1"/>
+      <c r="FO12" s="1"/>
+      <c r="FP12" s="1"/>
+      <c r="FQ12" s="1"/>
+      <c r="FR12" s="1"/>
+      <c r="FS12" s="1"/>
+      <c r="FT12" s="1"/>
+      <c r="FU12" s="1"/>
+      <c r="FV12" s="1"/>
+      <c r="FW12" s="1"/>
+      <c r="FX12" s="1"/>
+      <c r="FY12" s="1"/>
+      <c r="FZ12" s="1"/>
+      <c r="GA12" s="1"/>
+      <c r="GB12" s="1"/>
+      <c r="GC12" s="1"/>
+      <c r="GD12" s="1"/>
+      <c r="GE12" s="1"/>
+      <c r="GF12" s="1"/>
+      <c r="GG12" s="1"/>
+      <c r="GH12" s="1"/>
+      <c r="GI12" s="1"/>
+      <c r="GJ12" s="1"/>
+      <c r="GK12" s="1"/>
+      <c r="GL12" s="1"/>
+      <c r="GM12" s="1"/>
+      <c r="GN12" s="1"/>
+      <c r="GO12" s="1"/>
+      <c r="GP12" s="1"/>
+      <c r="GQ12" s="1"/>
+      <c r="GR12" s="1"/>
+      <c r="GS12" s="1"/>
+      <c r="GT12" s="1"/>
+      <c r="GU12" s="1"/>
+      <c r="GV12" s="1"/>
+      <c r="GW12" s="1"/>
+      <c r="GX12" s="1"/>
+      <c r="GY12" s="1"/>
+      <c r="GZ12" s="1"/>
+      <c r="HA12" s="1"/>
+      <c r="HB12" s="1"/>
+      <c r="HC12" s="1"/>
+      <c r="HD12" s="1"/>
+      <c r="HE12" s="1"/>
+      <c r="HF12" s="1"/>
+      <c r="HG12" s="1"/>
+      <c r="HH12" s="1"/>
+      <c r="HI12" s="1"/>
+      <c r="HJ12" s="1"/>
+      <c r="HK12" s="1"/>
+      <c r="HL12" s="1"/>
+      <c r="HM12" s="1"/>
+      <c r="HN12" s="1"/>
+      <c r="HO12" s="1"/>
+      <c r="HP12" s="1"/>
+      <c r="HQ12" s="1"/>
+      <c r="HR12" s="1"/>
+      <c r="HS12" s="1"/>
+      <c r="HT12" s="1"/>
+      <c r="HU12" s="1"/>
     </row>
     <row r="13" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="7">
         <v>0</v>
       </c>
       <c r="H13" s="30"/>
-      <c r="BQ13" s="31"/>
-      <c r="BS13" s="31"/>
-      <c r="BU13" s="31"/>
-      <c r="BW13" s="31"/>
-      <c r="BY13" s="31"/>
-      <c r="CA13" s="31"/>
-      <c r="CC13" s="31"/>
-      <c r="CE13" s="31"/>
-      <c r="CG13" s="31"/>
-      <c r="CI13" s="31"/>
-      <c r="CK13" s="31"/>
-      <c r="CL13" s="31"/>
-      <c r="CM13" s="31"/>
-      <c r="CN13" s="31"/>
-      <c r="CO13" s="31"/>
-      <c r="CP13" s="31"/>
-      <c r="CQ13" s="31"/>
-      <c r="CR13" s="31"/>
-      <c r="CS13" s="31"/>
-      <c r="CT13" s="31"/>
-      <c r="CU13" s="31"/>
-      <c r="CV13" s="31"/>
-      <c r="CW13" s="31"/>
-      <c r="CX13" s="31"/>
-      <c r="CY13" s="31"/>
-      <c r="CZ13" s="31"/>
-      <c r="DA13" s="31"/>
-      <c r="DB13" s="31"/>
-      <c r="DC13" s="31"/>
-      <c r="DD13" s="31"/>
-      <c r="DE13" s="31"/>
-      <c r="DF13" s="31"/>
-      <c r="DG13" s="31"/>
-      <c r="DH13" s="31"/>
-      <c r="DI13" s="31"/>
-      <c r="DJ13" s="31"/>
-      <c r="DK13" s="31"/>
-      <c r="DL13" s="31"/>
-      <c r="DM13" s="31"/>
-      <c r="DN13" s="31"/>
-      <c r="DO13" s="31"/>
-      <c r="DP13" s="31"/>
-      <c r="DQ13" s="31"/>
-      <c r="DR13" s="31"/>
-      <c r="DS13" s="31"/>
-      <c r="DT13" s="31"/>
-      <c r="DU13" s="31"/>
-      <c r="DV13" s="31"/>
-      <c r="DW13" s="31"/>
-      <c r="DX13" s="31"/>
-      <c r="DY13" s="31"/>
-      <c r="DZ13" s="31"/>
-      <c r="EA13" s="31"/>
-      <c r="EB13" s="31"/>
-      <c r="EC13" s="31"/>
-      <c r="ED13" s="31"/>
-      <c r="EE13" s="31"/>
-      <c r="EF13" s="31"/>
-      <c r="EG13" s="31"/>
-      <c r="EH13" s="31"/>
-      <c r="EI13" s="31"/>
-      <c r="EJ13" s="31"/>
-      <c r="EK13" s="31"/>
-      <c r="EL13" s="31"/>
-      <c r="EM13" s="31"/>
-      <c r="EN13" s="31"/>
-      <c r="EO13" s="31"/>
-      <c r="EP13" s="31"/>
-      <c r="EQ13" s="31"/>
-      <c r="ER13" s="31"/>
-      <c r="ES13" s="31"/>
-      <c r="ET13" s="31"/>
-      <c r="EU13" s="31"/>
-      <c r="EV13" s="31"/>
-      <c r="EW13" s="31"/>
-      <c r="EX13" s="31"/>
-      <c r="EY13" s="31"/>
-      <c r="EZ13" s="31"/>
-      <c r="FA13" s="31"/>
-      <c r="FB13" s="31"/>
-      <c r="FC13" s="31"/>
-      <c r="FD13" s="31"/>
-      <c r="FE13" s="31"/>
-      <c r="FF13" s="31"/>
-      <c r="FG13" s="31"/>
-      <c r="FH13" s="31"/>
-      <c r="FI13" s="31"/>
-      <c r="FJ13" s="31"/>
-      <c r="FK13" s="31"/>
-      <c r="FL13" s="31"/>
-      <c r="FM13" s="31"/>
-      <c r="FN13" s="31"/>
-      <c r="FO13" s="31"/>
-      <c r="FP13" s="31"/>
-      <c r="FQ13" s="31"/>
-      <c r="FR13" s="31"/>
-      <c r="FS13" s="31"/>
-      <c r="FT13" s="31"/>
-      <c r="FU13" s="31"/>
-      <c r="FV13" s="31"/>
-      <c r="FW13" s="31"/>
-      <c r="FX13" s="31"/>
-      <c r="FY13" s="31"/>
-      <c r="FZ13" s="31"/>
-      <c r="GA13" s="31"/>
-      <c r="GB13" s="31"/>
-      <c r="GC13" s="31"/>
-      <c r="GD13" s="31"/>
-      <c r="GE13" s="31"/>
-      <c r="GF13" s="31"/>
-      <c r="GG13" s="31"/>
-      <c r="GH13" s="31"/>
-      <c r="GI13" s="31"/>
-      <c r="GJ13" s="31"/>
-      <c r="GK13" s="31"/>
-      <c r="GL13" s="31"/>
-      <c r="GM13" s="31"/>
-      <c r="GN13" s="31"/>
-      <c r="GO13" s="31"/>
-      <c r="GP13" s="31"/>
-      <c r="GQ13" s="31"/>
-      <c r="GR13" s="31"/>
-      <c r="GS13" s="31"/>
-      <c r="GT13" s="31"/>
-      <c r="GU13" s="31"/>
-      <c r="GV13" s="31"/>
-      <c r="GW13" s="31"/>
-      <c r="GX13" s="31"/>
-      <c r="GY13" s="31"/>
-      <c r="GZ13" s="31"/>
-      <c r="HA13" s="31"/>
-      <c r="HB13" s="31"/>
-      <c r="HC13" s="31"/>
-      <c r="HD13" s="31"/>
-      <c r="HE13" s="31"/>
-      <c r="HF13" s="31"/>
-      <c r="HG13" s="31"/>
-      <c r="HH13" s="31"/>
-      <c r="HI13" s="31"/>
-      <c r="HJ13" s="31"/>
-      <c r="HK13" s="31"/>
-      <c r="HL13" s="31"/>
-      <c r="HM13" s="31"/>
-      <c r="HN13" s="31"/>
-      <c r="HO13" s="31"/>
-      <c r="HP13" s="31"/>
-      <c r="HQ13" s="31"/>
-      <c r="HR13" s="31"/>
-      <c r="HS13" s="31"/>
-      <c r="HT13" s="31"/>
-      <c r="HU13" s="31"/>
+      <c r="J13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+      <c r="BH13" s="1"/>
+      <c r="BI13" s="1"/>
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="1"/>
+      <c r="BL13" s="1"/>
+      <c r="BM13" s="1"/>
+      <c r="BN13" s="1"/>
+      <c r="BO13" s="1"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="1"/>
+      <c r="BR13" s="1"/>
+      <c r="BS13" s="1"/>
+      <c r="BT13" s="1"/>
+      <c r="BU13" s="1"/>
+      <c r="BV13" s="1"/>
+      <c r="BW13" s="1"/>
+      <c r="BX13" s="1"/>
+      <c r="BY13" s="1"/>
+      <c r="BZ13" s="1"/>
+      <c r="CA13" s="1"/>
+      <c r="CB13" s="1"/>
+      <c r="CC13" s="1"/>
+      <c r="CD13" s="1"/>
+      <c r="CE13" s="1"/>
+      <c r="CF13" s="1"/>
+      <c r="CG13" s="1"/>
+      <c r="CH13" s="1"/>
+      <c r="CI13" s="1"/>
+      <c r="CJ13" s="1"/>
+      <c r="CK13" s="1"/>
+      <c r="CL13" s="1"/>
+      <c r="CM13" s="1"/>
+      <c r="CN13" s="1"/>
+      <c r="CO13" s="1"/>
+      <c r="CP13" s="1"/>
+      <c r="CQ13" s="1"/>
+      <c r="CR13" s="1"/>
+      <c r="CS13" s="1"/>
+      <c r="CT13" s="1"/>
+      <c r="CU13" s="1"/>
+      <c r="CV13" s="1"/>
+      <c r="CW13" s="1"/>
+      <c r="CX13" s="1"/>
+      <c r="CY13" s="1"/>
+      <c r="CZ13" s="1"/>
+      <c r="DA13" s="1"/>
+      <c r="DB13" s="1"/>
+      <c r="DC13" s="1"/>
+      <c r="DD13" s="1"/>
+      <c r="DE13" s="1"/>
+      <c r="DF13" s="1"/>
+      <c r="DG13" s="1"/>
+      <c r="DH13" s="1"/>
+      <c r="DI13" s="1"/>
+      <c r="DJ13" s="1"/>
+      <c r="DK13" s="1"/>
+      <c r="DL13" s="1"/>
+      <c r="DM13" s="1"/>
+      <c r="DN13" s="1"/>
+      <c r="DO13" s="1"/>
+      <c r="DP13" s="1"/>
+      <c r="DQ13" s="1"/>
+      <c r="DR13" s="1"/>
+      <c r="DS13" s="1"/>
+      <c r="DT13" s="1"/>
+      <c r="DU13" s="1"/>
+      <c r="DV13" s="1"/>
+      <c r="DW13" s="1"/>
+      <c r="DX13" s="1"/>
+      <c r="DY13" s="1"/>
+      <c r="DZ13" s="1"/>
+      <c r="EA13" s="1"/>
+      <c r="EB13" s="1"/>
+      <c r="EC13" s="1"/>
+      <c r="ED13" s="1"/>
+      <c r="EE13" s="1"/>
+      <c r="EF13" s="1"/>
+      <c r="EG13" s="1"/>
+      <c r="EH13" s="1"/>
+      <c r="EI13" s="1"/>
+      <c r="EJ13" s="1"/>
+      <c r="EK13" s="1"/>
+      <c r="EL13" s="1"/>
+      <c r="EM13" s="1"/>
+      <c r="EN13" s="1"/>
+      <c r="EO13" s="1"/>
+      <c r="EP13" s="1"/>
+      <c r="EQ13" s="1"/>
+      <c r="ER13" s="1"/>
+      <c r="ES13" s="1"/>
+      <c r="ET13" s="1"/>
+      <c r="EU13" s="1"/>
+      <c r="EV13" s="1"/>
+      <c r="EW13" s="1"/>
+      <c r="EX13" s="1"/>
+      <c r="EY13" s="1"/>
+      <c r="EZ13" s="1"/>
+      <c r="FA13" s="1"/>
+      <c r="FB13" s="1"/>
+      <c r="FC13" s="1"/>
+      <c r="FD13" s="1"/>
+      <c r="FE13" s="1"/>
+      <c r="FF13" s="1"/>
+      <c r="FG13" s="1"/>
+      <c r="FH13" s="1"/>
+      <c r="FI13" s="1"/>
+      <c r="FJ13" s="1"/>
+      <c r="FK13" s="1"/>
+      <c r="FL13" s="1"/>
+      <c r="FM13" s="1"/>
+      <c r="FN13" s="1"/>
+      <c r="FO13" s="1"/>
+      <c r="FP13" s="1"/>
+      <c r="FQ13" s="1"/>
+      <c r="FR13" s="1"/>
+      <c r="FS13" s="1"/>
+      <c r="FT13" s="1"/>
+      <c r="FU13" s="1"/>
+      <c r="FV13" s="1"/>
+      <c r="FW13" s="1"/>
+      <c r="FX13" s="1"/>
+      <c r="FY13" s="1"/>
+      <c r="FZ13" s="1"/>
+      <c r="GA13" s="1"/>
+      <c r="GB13" s="1"/>
+      <c r="GC13" s="1"/>
+      <c r="GD13" s="1"/>
+      <c r="GE13" s="1"/>
+      <c r="GF13" s="1"/>
+      <c r="GG13" s="1"/>
+      <c r="GH13" s="1"/>
+      <c r="GI13" s="1"/>
+      <c r="GJ13" s="1"/>
+      <c r="GK13" s="1"/>
+      <c r="GL13" s="1"/>
+      <c r="GM13" s="1"/>
+      <c r="GN13" s="1"/>
+      <c r="GO13" s="1"/>
+      <c r="GP13" s="1"/>
+      <c r="GQ13" s="1"/>
+      <c r="GR13" s="1"/>
+      <c r="GS13" s="1"/>
+      <c r="GT13" s="1"/>
+      <c r="GU13" s="1"/>
+      <c r="GV13" s="1"/>
+      <c r="GW13" s="1"/>
+      <c r="GX13" s="1"/>
+      <c r="GY13" s="1"/>
+      <c r="GZ13" s="1"/>
+      <c r="HA13" s="1"/>
+      <c r="HB13" s="1"/>
+      <c r="HC13" s="1"/>
+      <c r="HD13" s="1"/>
+      <c r="HE13" s="1"/>
+      <c r="HF13" s="1"/>
+      <c r="HG13" s="1"/>
+      <c r="HH13" s="1"/>
+      <c r="HI13" s="1"/>
+      <c r="HJ13" s="1"/>
+      <c r="HK13" s="1"/>
+      <c r="HL13" s="1"/>
+      <c r="HM13" s="1"/>
+      <c r="HN13" s="1"/>
+      <c r="HO13" s="1"/>
+      <c r="HP13" s="1"/>
+      <c r="HQ13" s="1"/>
+      <c r="HR13" s="1"/>
+      <c r="HS13" s="1"/>
+      <c r="HT13" s="1"/>
+      <c r="HU13" s="1"/>
     </row>
     <row r="14" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="30"/>
-      <c r="BQ14" s="31"/>
-      <c r="BS14" s="31"/>
-      <c r="BU14" s="31"/>
-      <c r="BW14" s="31"/>
-      <c r="BY14" s="31"/>
-      <c r="CA14" s="31"/>
-      <c r="CC14" s="31"/>
-      <c r="CE14" s="31"/>
-      <c r="CG14" s="31"/>
-      <c r="CI14" s="31"/>
-      <c r="CK14" s="31"/>
-      <c r="CL14" s="31"/>
-      <c r="CM14" s="31"/>
-      <c r="CN14" s="31"/>
-      <c r="CO14" s="31"/>
-      <c r="CP14" s="31"/>
-      <c r="CQ14" s="31"/>
-      <c r="CR14" s="31"/>
-      <c r="CS14" s="31"/>
-      <c r="CT14" s="31"/>
-      <c r="CU14" s="31"/>
-      <c r="CV14" s="31"/>
-      <c r="CW14" s="31"/>
-      <c r="CX14" s="31"/>
-      <c r="CY14" s="31"/>
-      <c r="CZ14" s="31"/>
-      <c r="DA14" s="31"/>
-      <c r="DB14" s="31"/>
-      <c r="DC14" s="31"/>
-      <c r="DD14" s="31"/>
-      <c r="DE14" s="31"/>
-      <c r="DF14" s="31"/>
-      <c r="DG14" s="31"/>
-      <c r="DH14" s="31"/>
-      <c r="DI14" s="31"/>
-      <c r="DJ14" s="31"/>
-      <c r="DK14" s="31"/>
-      <c r="DL14" s="31"/>
-      <c r="DM14" s="31"/>
-      <c r="DN14" s="31"/>
-      <c r="DO14" s="31"/>
-      <c r="DP14" s="31"/>
-      <c r="DQ14" s="31"/>
-      <c r="DR14" s="31"/>
-      <c r="DS14" s="31"/>
-      <c r="DT14" s="31"/>
-      <c r="DU14" s="31"/>
-      <c r="DV14" s="31"/>
-      <c r="DW14" s="31"/>
-      <c r="DX14" s="31"/>
-      <c r="DY14" s="31"/>
-      <c r="DZ14" s="31"/>
-      <c r="EA14" s="31"/>
-      <c r="EB14" s="31"/>
-      <c r="EC14" s="31"/>
-      <c r="ED14" s="31"/>
-      <c r="EE14" s="31"/>
-      <c r="EF14" s="31"/>
-      <c r="EG14" s="31"/>
-      <c r="EH14" s="31"/>
-      <c r="EI14" s="31"/>
-      <c r="EJ14" s="31"/>
-      <c r="EK14" s="31"/>
-      <c r="EL14" s="31"/>
-      <c r="EM14" s="31"/>
-      <c r="EN14" s="31"/>
-      <c r="EO14" s="31"/>
-      <c r="EP14" s="31"/>
-      <c r="EQ14" s="31"/>
-      <c r="ER14" s="31"/>
-      <c r="ES14" s="31"/>
-      <c r="ET14" s="31"/>
-      <c r="EU14" s="31"/>
-      <c r="EV14" s="31"/>
-      <c r="EW14" s="31"/>
-      <c r="EX14" s="31"/>
-      <c r="EY14" s="31"/>
-      <c r="EZ14" s="31"/>
-      <c r="FA14" s="31"/>
-      <c r="FB14" s="31"/>
-      <c r="FC14" s="31"/>
-      <c r="FD14" s="31"/>
-      <c r="FE14" s="31"/>
-      <c r="FF14" s="31"/>
-      <c r="FG14" s="31"/>
-      <c r="FH14" s="31"/>
-      <c r="FI14" s="31"/>
-      <c r="FJ14" s="31"/>
-      <c r="FK14" s="31"/>
-      <c r="FL14" s="31"/>
-      <c r="FM14" s="31"/>
-      <c r="FN14" s="31"/>
-      <c r="FO14" s="31"/>
-      <c r="FP14" s="31"/>
-      <c r="FQ14" s="31"/>
-      <c r="FR14" s="31"/>
-      <c r="FS14" s="31"/>
-      <c r="FT14" s="31"/>
-      <c r="FU14" s="31"/>
-      <c r="FV14" s="31"/>
-      <c r="FW14" s="31"/>
-      <c r="FX14" s="31"/>
-      <c r="FY14" s="31"/>
-      <c r="FZ14" s="31"/>
-      <c r="GA14" s="31"/>
-      <c r="GB14" s="31"/>
-      <c r="GC14" s="31"/>
-      <c r="GD14" s="31"/>
-      <c r="GE14" s="31"/>
-      <c r="GF14" s="31"/>
-      <c r="GG14" s="31"/>
-      <c r="GH14" s="31"/>
-      <c r="GI14" s="31"/>
-      <c r="GJ14" s="31"/>
-      <c r="GK14" s="31"/>
-      <c r="GL14" s="31"/>
-      <c r="GM14" s="31"/>
-      <c r="GN14" s="31"/>
-      <c r="GO14" s="31"/>
-      <c r="GP14" s="31"/>
-      <c r="GQ14" s="31"/>
-      <c r="GR14" s="31"/>
-      <c r="GS14" s="31"/>
-      <c r="GT14" s="31"/>
-      <c r="GU14" s="31"/>
-      <c r="GV14" s="31"/>
-      <c r="GW14" s="31"/>
-      <c r="GX14" s="31"/>
-      <c r="GY14" s="31"/>
-      <c r="GZ14" s="31"/>
-      <c r="HA14" s="31"/>
-      <c r="HB14" s="31"/>
-      <c r="HC14" s="31"/>
-      <c r="HD14" s="31"/>
-      <c r="HE14" s="31"/>
-      <c r="HF14" s="31"/>
-      <c r="HG14" s="31"/>
-      <c r="HH14" s="31"/>
-      <c r="HI14" s="31"/>
-      <c r="HJ14" s="31"/>
-      <c r="HK14" s="31"/>
-      <c r="HL14" s="31"/>
-      <c r="HM14" s="31"/>
-      <c r="HN14" s="31"/>
-      <c r="HO14" s="31"/>
-      <c r="HP14" s="31"/>
-      <c r="HQ14" s="31"/>
-      <c r="HR14" s="31"/>
-      <c r="HS14" s="31"/>
-      <c r="HT14" s="31"/>
-      <c r="HU14" s="31"/>
+      <c r="J14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+      <c r="BH14" s="1"/>
+      <c r="BI14" s="1"/>
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="1"/>
+      <c r="BL14" s="1"/>
+      <c r="BM14" s="1"/>
+      <c r="BN14" s="1"/>
+      <c r="BO14" s="1"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="1"/>
+      <c r="BR14" s="1"/>
+      <c r="BS14" s="1"/>
+      <c r="BT14" s="1"/>
+      <c r="BU14" s="1"/>
+      <c r="BV14" s="1"/>
+      <c r="BW14" s="1"/>
+      <c r="BX14" s="1"/>
+      <c r="BY14" s="1"/>
+      <c r="BZ14" s="1"/>
+      <c r="CA14" s="1"/>
+      <c r="CB14" s="1"/>
+      <c r="CC14" s="1"/>
+      <c r="CD14" s="1"/>
+      <c r="CE14" s="1"/>
+      <c r="CF14" s="1"/>
+      <c r="CG14" s="1"/>
+      <c r="CH14" s="1"/>
+      <c r="CI14" s="1"/>
+      <c r="CJ14" s="1"/>
+      <c r="CK14" s="1"/>
+      <c r="CL14" s="1"/>
+      <c r="CM14" s="1"/>
+      <c r="CN14" s="1"/>
+      <c r="CO14" s="1"/>
+      <c r="CP14" s="1"/>
+      <c r="CQ14" s="1"/>
+      <c r="CR14" s="1"/>
+      <c r="CS14" s="1"/>
+      <c r="CT14" s="1"/>
+      <c r="CU14" s="1"/>
+      <c r="CV14" s="1"/>
+      <c r="CW14" s="1"/>
+      <c r="CX14" s="1"/>
+      <c r="CY14" s="1"/>
+      <c r="CZ14" s="1"/>
+      <c r="DA14" s="1"/>
+      <c r="DB14" s="1"/>
+      <c r="DC14" s="1"/>
+      <c r="DD14" s="1"/>
+      <c r="DE14" s="1"/>
+      <c r="DF14" s="1"/>
+      <c r="DG14" s="1"/>
+      <c r="DH14" s="1"/>
+      <c r="DI14" s="1"/>
+      <c r="DJ14" s="1"/>
+      <c r="DK14" s="1"/>
+      <c r="DL14" s="1"/>
+      <c r="DM14" s="1"/>
+      <c r="DN14" s="1"/>
+      <c r="DO14" s="1"/>
+      <c r="DP14" s="1"/>
+      <c r="DQ14" s="1"/>
+      <c r="DR14" s="1"/>
+      <c r="DS14" s="1"/>
+      <c r="DT14" s="1"/>
+      <c r="DU14" s="1"/>
+      <c r="DV14" s="1"/>
+      <c r="DW14" s="1"/>
+      <c r="DX14" s="1"/>
+      <c r="DY14" s="1"/>
+      <c r="DZ14" s="1"/>
+      <c r="EA14" s="1"/>
+      <c r="EB14" s="1"/>
+      <c r="EC14" s="1"/>
+      <c r="ED14" s="1"/>
+      <c r="EE14" s="1"/>
+      <c r="EF14" s="1"/>
+      <c r="EG14" s="1"/>
+      <c r="EH14" s="1"/>
+      <c r="EI14" s="1"/>
+      <c r="EJ14" s="1"/>
+      <c r="EK14" s="1"/>
+      <c r="EL14" s="1"/>
+      <c r="EM14" s="1"/>
+      <c r="EN14" s="1"/>
+      <c r="EO14" s="1"/>
+      <c r="EP14" s="1"/>
+      <c r="EQ14" s="1"/>
+      <c r="ER14" s="1"/>
+      <c r="ES14" s="1"/>
+      <c r="ET14" s="1"/>
+      <c r="EU14" s="1"/>
+      <c r="EV14" s="1"/>
+      <c r="EW14" s="1"/>
+      <c r="EX14" s="1"/>
+      <c r="EY14" s="1"/>
+      <c r="EZ14" s="1"/>
+      <c r="FA14" s="1"/>
+      <c r="FB14" s="1"/>
+      <c r="FC14" s="1"/>
+      <c r="FD14" s="1"/>
+      <c r="FE14" s="1"/>
+      <c r="FF14" s="1"/>
+      <c r="FG14" s="1"/>
+      <c r="FH14" s="1"/>
+      <c r="FI14" s="1"/>
+      <c r="FJ14" s="1"/>
+      <c r="FK14" s="1"/>
+      <c r="FL14" s="1"/>
+      <c r="FM14" s="1"/>
+      <c r="FN14" s="1"/>
+      <c r="FO14" s="1"/>
+      <c r="FP14" s="1"/>
+      <c r="FQ14" s="1"/>
+      <c r="FR14" s="1"/>
+      <c r="FS14" s="1"/>
+      <c r="FT14" s="1"/>
+      <c r="FU14" s="1"/>
+      <c r="FV14" s="1"/>
+      <c r="FW14" s="1"/>
+      <c r="FX14" s="1"/>
+      <c r="FY14" s="1"/>
+      <c r="FZ14" s="1"/>
+      <c r="GA14" s="1"/>
+      <c r="GB14" s="1"/>
+      <c r="GC14" s="1"/>
+      <c r="GD14" s="1"/>
+      <c r="GE14" s="1"/>
+      <c r="GF14" s="1"/>
+      <c r="GG14" s="1"/>
+      <c r="GH14" s="1"/>
+      <c r="GI14" s="1"/>
+      <c r="GJ14" s="1"/>
+      <c r="GK14" s="1"/>
+      <c r="GL14" s="1"/>
+      <c r="GM14" s="1"/>
+      <c r="GN14" s="1"/>
+      <c r="GO14" s="1"/>
+      <c r="GP14" s="1"/>
+      <c r="GQ14" s="1"/>
+      <c r="GR14" s="1"/>
+      <c r="GS14" s="1"/>
+      <c r="GT14" s="1"/>
+      <c r="GU14" s="1"/>
+      <c r="GV14" s="1"/>
+      <c r="GW14" s="1"/>
+      <c r="GX14" s="1"/>
+      <c r="GY14" s="1"/>
+      <c r="GZ14" s="1"/>
+      <c r="HA14" s="1"/>
+      <c r="HB14" s="1"/>
+      <c r="HC14" s="1"/>
+      <c r="HD14" s="1"/>
+      <c r="HE14" s="1"/>
+      <c r="HF14" s="1"/>
+      <c r="HG14" s="1"/>
+      <c r="HH14" s="1"/>
+      <c r="HI14" s="1"/>
+      <c r="HJ14" s="1"/>
+      <c r="HK14" s="1"/>
+      <c r="HL14" s="1"/>
+      <c r="HM14" s="1"/>
+      <c r="HN14" s="1"/>
+      <c r="HO14" s="1"/>
+      <c r="HP14" s="1"/>
+      <c r="HQ14" s="1"/>
+      <c r="HR14" s="1"/>
+      <c r="HS14" s="1"/>
+      <c r="HT14" s="1"/>
+      <c r="HU14" s="1"/>
     </row>
     <row r="15" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
@@ -7759,7 +8018,7 @@
     <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="W2:X2"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:BO7 BP28:HU29 BP26:HU26 I26:BO29 I25:BN25 I30:HU30 I11:BO24 I9:CX9 I8:DG8 I10:DE10">
+  <conditionalFormatting sqref="BP28:HU29 BP26:HU26 I26:BO29 I25:BN25 I30:HU30 I15:BO24 I5:HU14">
     <cfRule type="expression" dxfId="105" priority="121">
       <formula>KészültségiSzint</formula>
     </cfRule>
@@ -7795,7 +8054,7 @@
       <formula>H$4=időszak_kiválasztva</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP27:HU27 BO25:HU25 CK23:HU23 CK21:HU21 CK19:HU19 CK17:HU17 CK15:HU15 CK13:HU13 CK11:HU11 CY9:HU9 CK7:HU7 CK5:HU5">
+  <conditionalFormatting sqref="BP27:HU27 BO25:HU25 CK23:HU23 CK21:HU21 CK19:HU19 CK17:HU17 CK15:HU15">
     <cfRule type="expression" dxfId="95" priority="113">
       <formula>KészültségiSzint</formula>
     </cfRule>
@@ -7821,7 +8080,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ5:BQ7 BQ11:BQ24">
+  <conditionalFormatting sqref="BQ15:BQ24">
     <cfRule type="expression" dxfId="87" priority="81">
       <formula>KészültségiSzint</formula>
     </cfRule>
@@ -7847,7 +8106,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS5:BS7 BS11:BS24">
+  <conditionalFormatting sqref="BS15:BS24">
     <cfRule type="expression" dxfId="79" priority="73">
       <formula>KészültségiSzint</formula>
     </cfRule>
@@ -7873,7 +8132,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU5:BU7 BU11:BU24">
+  <conditionalFormatting sqref="BU15:BU24">
     <cfRule type="expression" dxfId="71" priority="65">
       <formula>KészültségiSzint</formula>
     </cfRule>
@@ -7899,7 +8158,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW5:BW7 BW11:BW24">
+  <conditionalFormatting sqref="BW15:BW24">
     <cfRule type="expression" dxfId="63" priority="57">
       <formula>KészültségiSzint</formula>
     </cfRule>
@@ -7925,7 +8184,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY5:BY7 BY11:BY24">
+  <conditionalFormatting sqref="BY15:BY24">
     <cfRule type="expression" dxfId="55" priority="49">
       <formula>KészültségiSzint</formula>
     </cfRule>
@@ -7951,7 +8210,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA5:CA7 CA11:CA24">
+  <conditionalFormatting sqref="CA15:CA24">
     <cfRule type="expression" dxfId="47" priority="41">
       <formula>KészültségiSzint</formula>
     </cfRule>
@@ -7977,7 +8236,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC5:CC7 CC11:CC24">
+  <conditionalFormatting sqref="CC15:CC24">
     <cfRule type="expression" dxfId="39" priority="33">
       <formula>KészültségiSzint</formula>
     </cfRule>
@@ -8003,7 +8262,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CE5:CE7 CE11:CE24">
+  <conditionalFormatting sqref="CE15:CE24">
     <cfRule type="expression" dxfId="31" priority="25">
       <formula>KészültségiSzint</formula>
     </cfRule>
@@ -8029,7 +8288,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CG5:CG7 CG11:CG24">
+  <conditionalFormatting sqref="CG15:CG24">
     <cfRule type="expression" dxfId="23" priority="17">
       <formula>KészültségiSzint</formula>
     </cfRule>
@@ -8055,7 +8314,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI5:CI7 CI11:CI24">
+  <conditionalFormatting sqref="CI15:CI24">
     <cfRule type="expression" dxfId="15" priority="9">
       <formula>KészültségiSzint</formula>
     </cfRule>
@@ -8081,7 +8340,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK24:HU24 CK22:HU22 CK20:HU20 CK18:HU18 CK16:HU16 CK14:HU14 CK12:HU12 DF10:HU10 DH8:HU8 CK6:HU6">
+  <conditionalFormatting sqref="CK24:HU24 CK22:HU22 CK20:HU20 CK18:HU18 CK16:HU16">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>KészültségiSzint</formula>
     </cfRule>

--- a/dokumentumok/Ütemterv.xlsx
+++ b/dokumentumok/Ütemterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F0839D-5A20-4CB2-B0CD-FEE82523A0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C13BBE-65A1-4CFC-9F22-B12AD23DEFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Válassza ki a kiemelendő időszakot a jobb oldalon.  A diagram jelmagyarázata következik.</t>
   </si>
@@ -103,9 +103,6 @@
     <t>TERV KEZDETE</t>
   </si>
   <si>
-    <t>TERV IDŐTARTAMA</t>
-  </si>
-  <si>
     <t>TÉNYLEGES KEZDÉS</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
   </si>
   <si>
     <t>IDŐSZAKOK</t>
-  </si>
-  <si>
-    <t>Terv időtartama</t>
   </si>
   <si>
     <t>Tényleges kezdés</t>
@@ -214,7 +208,16 @@
     <t>Ütemterv</t>
   </si>
   <si>
-    <t>Adatbázis, flowchart</t>
+    <t>MUNKA IDŐTARTAMA</t>
+  </si>
+  <si>
+    <t>Adatbázis, adatszerkezet</t>
+  </si>
+  <si>
+    <t>Munka időtartama</t>
+  </si>
+  <si>
+    <t>Algoritmus terv</t>
   </si>
 </sst>
 </file>
@@ -625,6 +628,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -666,9 +672,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2438,7 +2441,7 @@
   <dimension ref="B1:HU31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2462,7 +2465,7 @@
   <sheetData>
     <row r="1" spans="2:229" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2479,75 +2482,75 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="14">
         <v>1</v>
       </c>
       <c r="J2" s="24"/>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="42"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="41"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="45"/>
+      <c r="X2" s="46"/>
       <c r="Y2" s="21"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="43"/>
+      <c r="AA2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="44"/>
       <c r="AH2" s="18"/>
-      <c r="AI2" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
+      <c r="AI2" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
     </row>
     <row r="3" spans="2:229" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="F3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="25"/>
@@ -2570,12 +2573,12 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="28">
         <v>45901</v>
       </c>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="5" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="22">
         <v>45902</v>
@@ -3469,7 +3472,7 @@
     </row>
     <row r="6" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="22">
         <v>45937</v>
@@ -3480,9 +3483,11 @@
       <c r="E6" s="22">
         <v>45938</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6">
+        <v>32</v>
+      </c>
       <c r="G6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="30"/>
       <c r="J6" s="1"/>
@@ -3690,10 +3695,18 @@
       <c r="HU6" s="1"/>
     </row>
     <row r="7" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="22">
+        <v>45973</v>
+      </c>
+      <c r="D7" s="6">
+        <v>15</v>
+      </c>
+      <c r="E7" s="22">
+        <v>45975</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7">
         <v>0</v>
@@ -4333,7 +4346,7 @@
     </row>
     <row r="10" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
-      <c r="C10" s="46"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>

--- a/dokumentumok/Ütemterv.xlsx
+++ b/dokumentumok/Ütemterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C13BBE-65A1-4CFC-9F22-B12AD23DEFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EA15D4-A9CE-436B-B881-A86352666341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Válassza ki a kiemelendő időszakot a jobb oldalon.  A diagram jelmagyarázata következik.</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Algoritmus terv</t>
+  </si>
+  <si>
+    <t>Regisztráció, bejelentkezés fül</t>
   </si>
 </sst>
 </file>
@@ -2441,7 +2444,7 @@
   <dimension ref="B1:HU31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3702,7 +3705,7 @@
         <v>45973</v>
       </c>
       <c r="D7" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="22">
         <v>45975</v>
@@ -3917,10 +3920,18 @@
       <c r="HU7" s="1"/>
     </row>
     <row r="8" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="22">
+        <v>45968</v>
+      </c>
+      <c r="D8" s="6">
+        <v>36</v>
+      </c>
+      <c r="E8" s="22">
+        <v>45969</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="7">
         <v>0</v>

--- a/dokumentumok/Ütemterv.xlsx
+++ b/dokumentumok/Ütemterv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EA15D4-A9CE-436B-B881-A86352666341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BFD0DE-118A-4D7B-9298-CBF13025BD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Válassza ki a kiemelendő időszakot a jobb oldalon.  A diagram jelmagyarázata következik.</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Regisztráció, bejelentkezés fül</t>
+  </si>
+  <si>
+    <t>Funkciók teljes működése</t>
   </si>
 </sst>
 </file>
@@ -2444,7 +2447,7 @@
   <dimension ref="B1:HU31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3710,9 +3713,11 @@
       <c r="E7" s="22">
         <v>45975</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>13</v>
+      </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="30"/>
       <c r="J7" s="1"/>
@@ -3932,9 +3937,11 @@
       <c r="E8" s="22">
         <v>45969</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6">
+        <v>33</v>
+      </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="30"/>
       <c r="J8" s="1"/>
@@ -4142,10 +4149,18 @@
       <c r="HU8" s="1"/>
     </row>
     <row r="9" spans="2:229" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="22">
+        <v>46007</v>
+      </c>
+      <c r="D9" s="6">
+        <v>47</v>
+      </c>
+      <c r="E9" s="22">
+        <v>46007</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7">
         <v>0</v>
